--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Task/Function</t>
   </si>
@@ -51,49 +51,70 @@
     <t>CuongNH</t>
   </si>
   <si>
-    <t>Viết tài liệu hướng dẫn sử dụng (Tất cả)</t>
-  </si>
-  <si>
-    <t>Viết tài liệu hướng dẫn sử dụng cho phần Website - Quản trị nội dung</t>
-  </si>
-  <si>
-    <t>Test Website - Quản trị nội dung, mục Cài đặt</t>
-  </si>
-  <si>
-    <t>Test Website - Quản trị nội dung, mục Nội dung, chức năng Thêm</t>
-  </si>
-  <si>
-    <t>Test Website - Quản trị nội dung, mục Nội dung, chức năng Sửa</t>
-  </si>
-  <si>
-    <t>Test Website - Quản trị nội dung, mục Nội dung, chức năng Xóa</t>
-  </si>
-  <si>
-    <t>Test Website - Quản trị nội dung, mục Nội dung, chức năng Gỡ và Phục hồi bài viết (Đang phát triển)</t>
-  </si>
-  <si>
-    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung, chức năng Sửa</t>
-  </si>
-  <si>
-    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung, chức năng Thêm</t>
-  </si>
-  <si>
-    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung, chức năng Gỡ và Phục hồi bài viết (Đang phát triển)</t>
-  </si>
-  <si>
-    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung, chức năng Xóa</t>
-  </si>
-  <si>
-    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Cài đặt</t>
-  </si>
-  <si>
     <t>** 1 lỗi - Đã Fix</t>
   </si>
   <si>
-    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung</t>
-  </si>
-  <si>
     <t>** Chỉnh sửa và làm lại mục này</t>
+  </si>
+  <si>
+    <t>Test lại phần Website - Quản lý trang Web, mục Xóa: Phát hiện lỗi khi xóa trang đã tạo ở bên Website, thì bên KooBoo không tự động xóa, vẫn còn Site này tồn tại.</t>
+  </si>
+  <si>
+    <t>Sửa lỗi  Website - Quản lý trang Web, mục Xóa: Khi xóa trang đã tạo ở bên Website, thì bên KooBoo không tự động xóa, vẫn còn Site này tồn tại.</t>
+  </si>
+  <si>
+    <t>Test lại phầnWebsite - chức năng Quản trị nội dung, mục Cài đặt, Trường tùy chọn: Phát hiện lỗi khi xóa một mục trong Trường tùy chọn, tải lại trang Web thì bị lỗi (Project KooBoo).</t>
+  </si>
+  <si>
+    <t>Sửa lỗi phần Website - chức năng Quản trị nội dung, mục Cài đặt, Trường tùy chọn: Khi xóa một mục trong Trường tùy chọn, tải lại trang Web thì bị lỗi (Project KooBoo).</t>
+  </si>
+  <si>
+    <t>Test lại phần Website - chức năng Quản trị nội dung, mục Cài đặt: Phát hiện lỗi sau khi đã sửa một số trường xong và lưu lại thành công, thì không tự động chuyển về “Website - Danh sách Trang Web”.</t>
+  </si>
+  <si>
+    <t>Sửa lỗi phần Website - chức năng Quản trị nội dung, mục Cài đặt: Sau khi đã sửa một số trường xong và lưu lại thành công, thì không tự động chuyển về “Website - Danh sách Trang Web”.</t>
+  </si>
+  <si>
+    <t>Viết tài liệu chi tiết về các lỗi đã test ở trên vào file Word.</t>
+  </si>
+  <si>
+    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung, chức năng Xóa.</t>
+  </si>
+  <si>
+    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung, chức năng Sửa.</t>
+  </si>
+  <si>
+    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung, chức năng Gỡ và Phục hồi bài viết (Đang phát triển).</t>
+  </si>
+  <si>
+    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung, chức năng Thêm.</t>
+  </si>
+  <si>
+    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Nội dung.</t>
+  </si>
+  <si>
+    <t>Viết tài liệu phần Website - Quản trị nội dung, mục Cài đặt.</t>
+  </si>
+  <si>
+    <t>Test Website - Quản trị nội dung, mục Nội dung, chức năng Xóa.</t>
+  </si>
+  <si>
+    <t>Test Website - Quản trị nội dung, mục Nội dung, chức năng Sửa.</t>
+  </si>
+  <si>
+    <t>Test Website - Quản trị nội dung, mục Nội dung, chức năng Gỡ và Phục hồi bài viết (Đang phát triển).</t>
+  </si>
+  <si>
+    <t>Test Website - Quản trị nội dung, mục Nội dung, chức năng Thêm.</t>
+  </si>
+  <si>
+    <t>Test Website - Quản trị nội dung, mục Cài đặt.</t>
+  </si>
+  <si>
+    <t>Viết tài liệu hướng dẫn sử dụng (Tất cả).</t>
+  </si>
+  <si>
+    <t>Viết tài liệu hướng dẫn sử dụng cho phần Website - Quản trị nội dung.</t>
   </si>
 </sst>
 </file>
@@ -202,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -374,7 +395,35 @@
       <left style="medium">
         <color theme="8"/>
       </left>
-      <right style="dashDot">
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
         <color theme="8"/>
       </right>
       <top style="medium">
@@ -389,7 +438,7 @@
       <left style="medium">
         <color theme="8"/>
       </left>
-      <right style="dashDot">
+      <right style="thin">
         <color theme="8"/>
       </right>
       <top style="thin">
@@ -404,7 +453,7 @@
       <left style="medium">
         <color theme="8"/>
       </left>
-      <right style="dashDot">
+      <right style="thin">
         <color theme="8"/>
       </right>
       <top style="thin">
@@ -419,7 +468,44 @@
       <left style="medium">
         <color theme="8"/>
       </left>
-      <right style="dashDot">
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color theme="8"/>
       </right>
       <top/>
@@ -436,7 +522,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,9 +572,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,17 +620,53 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -980,31 +1099,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="8.88671875" style="17"/>
     <col min="3" max="3" width="60.5546875" style="15" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="19" customWidth="1"/>
     <col min="9" max="9" width="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1024,10 +1143,10 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="34">
+      <c r="B3" s="35">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="16">
@@ -1042,14 +1161,14 @@
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="35">
+      <c r="B4" s="36">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>11</v>
+      <c r="C4" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="6">
         <v>43417</v>
@@ -1063,34 +1182,34 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36">
+      <c r="B5" s="37">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="30">
+      <c r="C5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="29">
         <v>43417</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="32">
+      <c r="E5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="31">
         <v>0.7</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="33"/>
+      <c r="G5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6">
@@ -1105,16 +1224,16 @@
       <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>22</v>
+      <c r="H6" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="37">
+      <c r="B7" s="38">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>11</v>
+      <c r="C7" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="7">
         <v>43418</v>
@@ -1128,35 +1247,35 @@
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36">
+      <c r="B8" s="37">
         <v>6</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="C8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="29">
         <v>43418</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="32">
+      <c r="E8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="31">
         <v>0.75</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="33"/>
+      <c r="G8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="34">
+      <c r="B9" s="35">
         <v>7</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>12</v>
+      <c r="C9" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="16">
         <v>43419</v>
@@ -1170,14 +1289,14 @@
       <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="37">
-        <v>8</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>13</v>
+      <c r="B10" s="38">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="16">
         <v>43419</v>
@@ -1191,14 +1310,14 @@
       <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="37">
-        <v>9</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>16</v>
+      <c r="B11" s="38">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="16">
         <v>43419</v>
@@ -1212,14 +1331,14 @@
       <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="38">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>14</v>
+      <c r="C12" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="16">
         <v>43419</v>
@@ -1233,14 +1352,14 @@
       <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="37">
+      <c r="B13" s="38">
         <v>11</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>15</v>
+      <c r="C13" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="16">
         <v>43419</v>
@@ -1254,14 +1373,14 @@
       <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="37">
+      <c r="B14" s="38">
         <v>12</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>21</v>
+      <c r="C14" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="16">
         <v>43419</v>
@@ -1275,13 +1394,13 @@
       <c r="G14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="37">
-        <v>12</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="38">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="16">
@@ -1296,16 +1415,16 @@
       <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>24</v>
+      <c r="H15" s="22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="37">
-        <v>13</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>18</v>
+      <c r="B16" s="38">
+        <v>14</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="16">
         <v>43419</v>
@@ -1319,14 +1438,14 @@
       <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="37">
-        <v>14</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>19</v>
+      <c r="B17" s="38">
+        <v>15</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D17" s="16">
         <v>43419</v>
@@ -1340,14 +1459,14 @@
       <c r="G17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
-        <v>15</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>17</v>
+      <c r="B18" s="38">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="16">
         <v>43419</v>
@@ -1361,31 +1480,395 @@
       <c r="G18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="36">
+      <c r="B19" s="37">
+        <v>17</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="29">
+        <v>43419</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="39">
+        <v>18</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="46">
+        <v>43420</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="38">
+        <v>19</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="43">
+        <v>43420</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="41">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="38">
+        <v>20</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="43">
+        <v>43420</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="41">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="38">
+        <v>21</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="43">
+        <v>43420</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="41">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="38">
+        <v>22</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="30">
-        <v>43419</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
+      <c r="D24" s="7">
+        <v>43420</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="41">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="38">
+        <v>23</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="16">
+        <v>43420</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="37">
+        <v>24</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="29">
+        <v>43420</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="38">
+        <v>30</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="38">
+        <v>31</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="38">
+        <v>32</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="38">
+        <v>33</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="38">
+        <v>34</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="38">
+        <v>35</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="38">
+        <v>36</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="38">
+        <v>37</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="38">
+        <v>38</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="37">
+        <v>39</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="39">
+        <v>40</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="38">
+        <v>41</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="38">
+        <v>42</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="38">
+        <v>43</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="38">
+        <v>44</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="38">
+        <v>45</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="38">
+        <v>46</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="38">
+        <v>47</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="38">
+        <v>48</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="37">
+        <v>49</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
   <si>
     <t>Task/Function</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Viết tài liệu hướng dẫn sử dụng cho phần Website - Quản trị nội dung.</t>
+  </si>
+  <si>
+    <t>**Không phải lỗi</t>
+  </si>
+  <si>
+    <t>**Queue</t>
+  </si>
+  <si>
+    <t>**Doing</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +200,24 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +247,17 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -515,14 +551,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,42 +676,125 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="8" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
     <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1101,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,43 +1395,43 @@
       <c r="B9" s="35">
         <v>7</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="54">
         <v>43419</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="45">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="20"/>
+      <c r="G9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="38">
         <v>8</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="54">
         <v>43419</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="G10" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="38">
@@ -1337,85 +1458,85 @@
       <c r="B12" s="38">
         <v>10</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="54">
         <v>43419</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="45">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="G12" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="38">
         <v>11</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="54">
         <v>43419</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="45">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="23"/>
+      <c r="G13" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="38">
         <v>12</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="54">
         <v>43419</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="45">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="23"/>
+      <c r="G14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="38">
         <v>13</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="54">
         <v>43419</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="45">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1504,40 +1625,40 @@
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="39">
+      <c r="B20" s="42">
         <v>18</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="43">
         <v>43420</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="45">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="20"/>
+      <c r="G20" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="38">
         <v>19</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="40">
         <v>43420</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="39">
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1549,37 +1670,37 @@
       <c r="B22" s="38">
         <v>20</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="47">
         <v>43420</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="41">
+      <c r="E22" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="49">
         <v>1</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="23"/>
+      <c r="G22" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="38">
         <v>21</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="40">
         <v>43420</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="39">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -1591,22 +1712,22 @@
       <c r="B24" s="38">
         <v>22</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="51">
         <v>43420</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="41">
+      <c r="E24" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="49">
         <v>1</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="42"/>
+      <c r="G24" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="38">
@@ -1633,136 +1754,244 @@
       <c r="B26" s="37">
         <v>24</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="57">
         <v>43420</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="31">
+      <c r="E26" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="59">
+        <v>1</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="42">
+        <v>25</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="43">
+        <v>43421</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="45">
+        <v>1</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="42">
+        <v>26</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="66">
+        <v>43421</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="39">
         <v>0</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="38">
+      <c r="G28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="42">
+        <v>27</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="43">
+        <v>43421</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="49">
+        <v>1</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="42">
+        <v>28</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="66">
+        <v>43421</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="42">
+        <v>29</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="67">
+        <v>43421</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="62">
+        <v>1</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="42">
         <v>30</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="38">
+      <c r="C32" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="67">
+        <v>43421</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="65">
+        <v>0</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="42">
         <v>31</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="38">
+      <c r="C33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="16">
+        <v>43421</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="42">
         <v>32</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="38">
+      <c r="C34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="16">
+        <v>43421</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="42">
         <v>33</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="38">
+      <c r="C35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="16">
+        <v>43421</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="68">
         <v>34</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="38">
+      <c r="C36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="29">
+        <v>43421</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="42">
         <v>35</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="38">
-        <v>36</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="38">
-        <v>37</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="38">
-        <v>38</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
-        <v>39</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="39">
-        <v>40</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="16"/>
@@ -1772,8 +2001,8 @@
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="38">
-        <v>41</v>
+      <c r="B38" s="42">
+        <v>36</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="16"/>
@@ -1783,8 +2012,8 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="38">
-        <v>42</v>
+      <c r="B39" s="42">
+        <v>37</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="16"/>
@@ -1794,8 +2023,8 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="38">
-        <v>43</v>
+      <c r="B40" s="42">
+        <v>38</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="16"/>
@@ -1805,8 +2034,8 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="38">
-        <v>44</v>
+      <c r="B41" s="42">
+        <v>39</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="16"/>
@@ -1816,8 +2045,8 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="38">
-        <v>45</v>
+      <c r="B42" s="42">
+        <v>40</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="16"/>
@@ -1827,8 +2056,8 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="38">
-        <v>46</v>
+      <c r="B43" s="42">
+        <v>41</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="16"/>
@@ -1838,8 +2067,8 @@
       <c r="H43" s="22"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="38">
-        <v>47</v>
+      <c r="B44" s="42">
+        <v>42</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="16"/>
@@ -1849,8 +2078,8 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="38">
-        <v>48</v>
+      <c r="B45" s="42">
+        <v>43</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="16"/>
@@ -1860,8 +2089,8 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="37">
-        <v>49</v>
+      <c r="B46" s="68">
+        <v>44</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
   <si>
     <t>Task/Function</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>**Doing</t>
+  </si>
+  <si>
+    <t>Hoàn thiện phần test quản lý nội dung.</t>
+  </si>
+  <si>
+    <t>Hoàn thiện tài liệu phần quản lý nội dung.</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu đã viết (Phần phân quyền người dùng fanpage Dương mới làm).</t>
   </si>
 </sst>
 </file>
@@ -259,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -546,6 +555,56 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color theme="8"/>
       </bottom>
       <diagonal/>
@@ -560,7 +619,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -763,9 +822,6 @@
     <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -785,6 +841,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1487,7 @@
       <c r="B9" s="35">
         <v>7</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="54">
@@ -1416,7 +1508,7 @@
       <c r="B10" s="38">
         <v>8</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="54">
@@ -1458,7 +1550,7 @@
       <c r="B12" s="38">
         <v>10</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="73" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="54">
@@ -1479,7 +1571,7 @@
       <c r="B13" s="38">
         <v>11</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="73" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="54">
@@ -1628,7 +1720,7 @@
       <c r="B20" s="42">
         <v>18</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="43">
@@ -1670,7 +1762,7 @@
       <c r="B22" s="38">
         <v>20</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="69" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="47">
@@ -1712,7 +1804,7 @@
       <c r="B24" s="38">
         <v>22</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="70" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="51">
@@ -1775,7 +1867,7 @@
       <c r="B27" s="42">
         <v>25</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="43">
@@ -1793,7 +1885,7 @@
       <c r="H27" s="46"/>
     </row>
     <row r="28" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="42">
+      <c r="B28" s="75">
         <v>26</v>
       </c>
       <c r="C28" s="41" t="s">
@@ -1816,10 +1908,10 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="42">
+      <c r="B29" s="75">
         <v>27</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="43">
@@ -1837,7 +1929,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="42">
+      <c r="B30" s="75">
         <v>28</v>
       </c>
       <c r="C30" s="41" t="s">
@@ -1860,10 +1952,10 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="42">
+      <c r="B31" s="75">
         <v>29</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="71" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="67">
@@ -1883,10 +1975,10 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="42">
+      <c r="B32" s="75">
         <v>30</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="72" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="67">
@@ -1906,7 +1998,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="42">
+      <c r="B33" s="75">
         <v>31</v>
       </c>
       <c r="C33" s="18" t="s">
@@ -1927,7 +2019,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="42">
+      <c r="B34" s="75">
         <v>32</v>
       </c>
       <c r="C34" s="18" t="s">
@@ -1948,7 +2040,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="42">
+      <c r="B35" s="75">
         <v>33</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -1969,7 +2061,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="68">
+      <c r="B36" s="76">
         <v>34</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -1989,115 +2081,209 @@
       </c>
       <c r="H36" s="32"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="42">
         <v>35</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="42">
+      <c r="C37" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="16">
+        <v>43425</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="75">
         <v>36</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
+      <c r="C38" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="16">
+        <v>43425</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="42">
+    <row r="39" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="75">
         <v>37</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
+      <c r="C39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="16">
+        <v>43425</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="42">
+    <row r="40" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="77">
         <v>38</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
+      <c r="C40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="39">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="42">
+      <c r="B41" s="75">
         <v>39</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="23"/>
+      <c r="C41" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="42">
+      <c r="B42" s="75">
         <v>40</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
+      <c r="C42" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H42" s="23"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="42">
+    <row r="43" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="77">
         <v>41</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
+      <c r="C43" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="39">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="42">
+    <row r="44" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="75">
         <v>42</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="42">
+      <c r="C44" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="76">
         <v>43</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="23"/>
+      <c r="C45" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="68">
+      <c r="B46" s="80">
         <v>44</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="32"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="49">
   <si>
     <t>Task/Function</t>
   </si>
@@ -117,19 +117,61 @@
     <t>Viết tài liệu hướng dẫn sử dụng cho phần Website - Quản trị nội dung.</t>
   </si>
   <si>
-    <t>**Không phải lỗi</t>
-  </si>
-  <si>
     <t>**Queue</t>
   </si>
   <si>
     <t>**Doing</t>
+  </si>
+  <si>
+    <t>Hoàn thiện phần test quản lý nội dung.</t>
+  </si>
+  <si>
+    <t>Hoàn thiện tài liệu phần quản lý nội dung.</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu đã viết (Phần phân quyền người dùng fanpage Dương mới làm).</t>
+  </si>
+  <si>
+    <t>**Không phải lỗi - Chức năng đang phát triển</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Tạo Action Configuration trong FanpageController</t>
+  </si>
+  <si>
+    <t>Tạo View Configuration trong Views/Fanpage</t>
+  </si>
+  <si>
+    <t>Tạo Class FacebookSettings trong DomainObject gồm các thông tin:</t>
+  </si>
+  <si>
+    <t>Xử lý nghiệp vụ và lưu thông tin cài đặt vào database</t>
+  </si>
+  <si>
+    <t>** Hai mục "Nhãn", "Html tĩnh" - chức năng đang phát triển</t>
+  </si>
+  <si>
+    <t>Xử lý lại Input và Button trong view</t>
+  </si>
+  <si>
+    <t>Đang làm</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Hàng đợi</t>
+  </si>
+  <si>
+    <t>Hủy task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -140,6 +182,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,27 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -208,16 +240,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +299,44 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -428,87 +505,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color theme="8"/>
       </right>
       <top style="medium">
         <color theme="8"/>
       </top>
       <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="8"/>
-      </right>
-      <top style="medium">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8"/>
-      </left>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top style="medium">
-        <color theme="8"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8"/>
-      </left>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8"/>
-      </left>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8"/>
-      </left>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color theme="8"/>
       </bottom>
       <diagonal/>
@@ -541,10 +545,116 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color theme="8"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
       <bottom style="thin">
         <color theme="8"/>
       </bottom>
@@ -553,14 +663,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,203 +699,354 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="8" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="8" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="12" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -820,17 +1081,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>268920</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>345120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>192120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,8 +1099,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9288780" y="129540"/>
-          <a:ext cx="2692080" cy="2036160"/>
+          <a:off x="9949815" y="123825"/>
+          <a:ext cx="2692080" cy="2506695"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1212,7 +1473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1220,31 +1481,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H46"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="17"/>
-    <col min="3" max="3" width="60.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="117"/>
+    <col min="3" max="3" width="60.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="27" style="17" customWidth="1"/>
     <col min="9" max="9" width="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="1:11" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1263,11 +1526,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="35">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="B3" s="121">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="16">
@@ -1282,13 +1546,14 @@
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="36">
+      <c r="H3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="118">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="60" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="6">
@@ -1303,34 +1568,36 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37">
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="119">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="23">
         <v>43417</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="E5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25">
         <v>0.7</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="G5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="65"/>
+      <c r="B6" s="121">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="59" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6">
@@ -1345,15 +1612,16 @@
       <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="38">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="120">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="60" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="7">
@@ -1368,76 +1636,80 @@
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="37">
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="119">
         <v>6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="23">
         <v>43418</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="31">
+      <c r="E8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25">
         <v>0.75</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
+      <c r="G8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="121">
         <v>7</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="32">
         <v>43419</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="45">
+      <c r="E9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="34">
         <v>1</v>
       </c>
-      <c r="G9" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="38">
-        <v>8</v>
-      </c>
-      <c r="C10" s="74" t="s">
+      <c r="G9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="120">
+        <v>8</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="32">
         <v>43419</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="45">
+      <c r="E10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="34">
         <v>1</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="38">
-        <v>9</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="G10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="120">
+        <v>9</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="16">
@@ -1452,99 +1724,120 @@
       <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="38">
+      <c r="H11" s="21"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="120">
         <v>10</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="32">
         <v>43419</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="45">
+      <c r="E12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="34">
         <v>1</v>
       </c>
-      <c r="G12" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="38">
+      <c r="G12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="120">
         <v>11</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="32">
         <v>43419</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="45">
+      <c r="E13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="34">
         <v>1</v>
       </c>
-      <c r="G13" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="38">
+      <c r="G13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="115" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="120">
         <v>12</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="32">
         <v>43419</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="45">
+      <c r="E14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="34">
         <v>1</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="38">
+      <c r="G14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="116" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="120">
         <v>13</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="32">
         <v>43419</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="45">
+      <c r="E15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="34">
         <v>1</v>
       </c>
-      <c r="G15" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="50" t="s">
+      <c r="G15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="38">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="B16" s="120">
         <v>14</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="60" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="16">
@@ -1559,34 +1852,36 @@
       <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="38">
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="120">
         <v>15</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="41">
         <v>43419</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="43">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="38">
+      <c r="G17" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="120">
         <v>16</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="60" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="16">
@@ -1601,139 +1896,146 @@
       <c r="G18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="37">
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="119">
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="23">
         <v>43419</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="31">
+      <c r="E19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="25">
         <v>0.1</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="42">
+      <c r="G19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="122">
         <v>18</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="45">
         <v>43420</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="45">
+      <c r="E20" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="34">
         <v>1</v>
       </c>
-      <c r="G20" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="38">
+      <c r="G20" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="120">
         <v>19</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="29">
         <v>43420</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="28">
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="38">
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="120">
         <v>20</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="47">
         <v>43420</v>
       </c>
-      <c r="E22" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="49">
+      <c r="E22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="48">
         <v>1</v>
       </c>
-      <c r="G22" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="38">
+      <c r="G22" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="120">
         <v>21</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="29">
         <v>43420</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="28">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="38">
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="120">
         <v>22</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="50">
         <v>43420</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="49">
+      <c r="E24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="48">
         <v>1</v>
       </c>
-      <c r="G24" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="38">
+      <c r="G24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="120">
         <v>23</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="62" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="16">
@@ -1748,168 +2050,179 @@
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="37">
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="119">
         <v>24</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="52">
         <v>43420</v>
       </c>
-      <c r="E26" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="59">
+      <c r="E26" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="54">
         <v>1</v>
       </c>
-      <c r="G26" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="60"/>
-    </row>
-    <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="42">
+      <c r="G26" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="55"/>
+    </row>
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="122">
         <v>25</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="45">
         <v>43421</v>
       </c>
-      <c r="E27" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="45">
+      <c r="E27" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="34">
         <v>1</v>
       </c>
-      <c r="G27" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="46"/>
-    </row>
-    <row r="28" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="42">
+      <c r="G27" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
+      <c r="B28" s="120">
         <v>26</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="30">
         <v>43421</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="28">
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="120">
+        <v>27</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="45">
+        <v>43421</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="48">
+        <v>1</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="120">
+        <v>28</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="30">
+        <v>43421</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="42">
-        <v>27</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="43">
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="120">
+        <v>29</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="66">
         <v>43421</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="49">
+      <c r="E31" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="68">
         <v>1</v>
       </c>
-      <c r="G29" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="42">
-        <v>28</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="66">
+      <c r="G31" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="B32" s="120">
+        <v>30</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="66">
         <v>43421</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="39">
-        <v>0.2</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="42">
-        <v>29</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="67">
-        <v>43421</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="62">
-        <v>1</v>
-      </c>
-      <c r="G31" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="42">
-        <v>30</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="67">
-        <v>43421</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="65">
+      <c r="E32" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="72">
         <v>0</v>
       </c>
-      <c r="G32" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="42">
+      <c r="G32" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="120">
         <v>31</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="60" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="16">
@@ -1924,13 +2237,14 @@
       <c r="G33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="42">
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="120">
         <v>32</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="16">
@@ -1945,13 +2259,14 @@
       <c r="G34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="42">
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="120">
         <v>33</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="60" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="16">
@@ -1966,138 +2281,1109 @@
       <c r="G35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="68">
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="65"/>
+      <c r="B36" s="119">
         <v>34</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="23">
         <v>43421</v>
       </c>
-      <c r="E36" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="31">
+      <c r="E36" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="25">
         <v>0.1</v>
       </c>
-      <c r="G36" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="42">
+      <c r="G36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="122">
         <v>35</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="42">
+      <c r="C37" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="41">
+        <v>43425</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="43">
+        <v>1</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="44"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+      <c r="B38" s="120">
         <v>36</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="42">
+      <c r="C38" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="41">
+        <v>43425</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="43">
+        <v>1</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="44"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="120">
         <v>37</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="42">
+      <c r="C39" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="41">
+        <v>43425</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="43">
+        <v>1</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+      <c r="B40" s="118">
         <v>38</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="42">
+      <c r="C40" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="56">
+        <v>43425</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="57">
+        <v>1</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="44"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="120">
         <v>39</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="42">
+      <c r="C41" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="65"/>
+      <c r="B42" s="120">
         <v>40</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="42">
+      <c r="C42" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="65"/>
+      <c r="B43" s="118">
         <v>41</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="42">
+      <c r="C43" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="7">
+        <v>43425</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="65"/>
+      <c r="B44" s="120">
         <v>42</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="42">
+      <c r="C44" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="73">
+        <v>43425</v>
+      </c>
+      <c r="E44" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="75">
+        <v>0</v>
+      </c>
+      <c r="G44" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="76"/>
+    </row>
+    <row r="45" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
+      <c r="B45" s="119">
         <v>43</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="68">
+      <c r="C45" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="77">
+        <v>43425</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="G45" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="121">
         <v>44</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="32"/>
+      <c r="C46" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="89">
+        <v>43428</v>
+      </c>
+      <c r="E46" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="91">
+        <v>1</v>
+      </c>
+      <c r="G46" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="92"/>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="65"/>
+      <c r="B47" s="123">
+        <v>45</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="85">
+        <v>43428</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="65"/>
+      <c r="B48" s="123">
+        <v>46</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="86">
+        <v>43428</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="82">
+        <v>0</v>
+      </c>
+      <c r="G48" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="76"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="123">
+        <v>47</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="83">
+        <v>43428</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="57">
+        <v>1</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="44"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="65"/>
+      <c r="B50" s="123">
+        <v>48</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="83">
+        <v>43428</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="57">
+        <v>1</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="44"/>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="65"/>
+      <c r="B51" s="123">
+        <v>49</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="83">
+        <v>43428</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="57">
+        <v>1</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="44"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="65"/>
+      <c r="B52" s="123">
+        <v>50</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="85">
+        <v>43428</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="87"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="65"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="103">
+        <v>43428</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="98"/>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="65"/>
+      <c r="B54" s="121">
+        <v>51</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="94">
+        <v>43430</v>
+      </c>
+      <c r="E54" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="96">
+        <v>0.9</v>
+      </c>
+      <c r="G54" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="65"/>
+      <c r="B55" s="125">
+        <v>53</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="83">
+        <v>43430</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="57">
+        <v>1</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="104"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="65"/>
+      <c r="B56" s="126">
+        <v>54</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="106">
+        <v>43430</v>
+      </c>
+      <c r="E56" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="108">
+        <v>1</v>
+      </c>
+      <c r="G56" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="109"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="B57" s="125">
+        <v>55</v>
+      </c>
+      <c r="C57" s="100"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="65"/>
+      <c r="B58" s="123">
+        <v>56</v>
+      </c>
+      <c r="C58" s="60"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="65"/>
+      <c r="B59" s="123">
+        <v>57</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="65"/>
+      <c r="B60" s="123">
+        <v>58</v>
+      </c>
+      <c r="C60" s="60"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="65"/>
+      <c r="B61" s="123">
+        <v>59</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="65"/>
+      <c r="B62" s="123">
+        <v>60</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="65"/>
+      <c r="B63" s="123">
+        <v>61</v>
+      </c>
+      <c r="C63" s="60"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="65"/>
+      <c r="B64" s="123">
+        <v>62</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="65"/>
+      <c r="B65" s="123">
+        <v>63</v>
+      </c>
+      <c r="C65" s="60"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="65"/>
+      <c r="B66" s="123">
+        <v>64</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="65"/>
+      <c r="B67" s="123">
+        <v>65</v>
+      </c>
+      <c r="C67" s="60"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="21"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="65"/>
+      <c r="B68" s="123">
+        <v>66</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="65"/>
+      <c r="B69" s="123">
+        <v>67</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="65"/>
+      <c r="B70" s="123">
+        <v>68</v>
+      </c>
+      <c r="C70" s="60"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="65"/>
+      <c r="B71" s="123">
+        <v>69</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="65"/>
+      <c r="B72" s="123">
+        <v>70</v>
+      </c>
+      <c r="C72" s="60"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="65"/>
+      <c r="B73" s="123">
+        <v>71</v>
+      </c>
+      <c r="C73" s="60"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="65"/>
+      <c r="B74" s="123">
+        <v>72</v>
+      </c>
+      <c r="C74" s="60"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="65"/>
+      <c r="B75" s="123">
+        <v>73</v>
+      </c>
+      <c r="C75" s="60"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="65"/>
+      <c r="B76" s="123">
+        <v>74</v>
+      </c>
+      <c r="C76" s="60"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="65"/>
+      <c r="B77" s="123">
+        <v>75</v>
+      </c>
+      <c r="C77" s="60"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="65"/>
+      <c r="B78" s="123">
+        <v>76</v>
+      </c>
+      <c r="C78" s="60"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="65"/>
+      <c r="B79" s="123">
+        <v>77</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="65"/>
+      <c r="B80" s="123">
+        <v>78</v>
+      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="65"/>
+      <c r="B81" s="123">
+        <v>79</v>
+      </c>
+      <c r="C81" s="60"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="65"/>
+      <c r="B82" s="123">
+        <v>80</v>
+      </c>
+      <c r="C82" s="60"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="65"/>
+      <c r="B83" s="123">
+        <v>81</v>
+      </c>
+      <c r="C83" s="60"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="65"/>
+      <c r="B84" s="123">
+        <v>82</v>
+      </c>
+      <c r="C84" s="60"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="65"/>
+      <c r="B85" s="123">
+        <v>83</v>
+      </c>
+      <c r="C85" s="60"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="65"/>
+      <c r="B86" s="123">
+        <v>84</v>
+      </c>
+      <c r="C86" s="60"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="65"/>
+      <c r="B87" s="123">
+        <v>85</v>
+      </c>
+      <c r="C87" s="60"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="65"/>
+      <c r="B88" s="123">
+        <v>86</v>
+      </c>
+      <c r="C88" s="60"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="21"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="65"/>
+      <c r="B89" s="123">
+        <v>87</v>
+      </c>
+      <c r="C89" s="60"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="21"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="65"/>
+      <c r="B90" s="123">
+        <v>88</v>
+      </c>
+      <c r="C90" s="60"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="21"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="65"/>
+      <c r="B91" s="123">
+        <v>89</v>
+      </c>
+      <c r="C91" s="60"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="21"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="65"/>
+      <c r="B92" s="123">
+        <v>90</v>
+      </c>
+      <c r="C92" s="60"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="21"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="65"/>
+      <c r="B93" s="123">
+        <v>91</v>
+      </c>
+      <c r="C93" s="60"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="21"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="65"/>
+      <c r="B94" s="123">
+        <v>92</v>
+      </c>
+      <c r="C94" s="60"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="21"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="65"/>
+      <c r="B95" s="123">
+        <v>93</v>
+      </c>
+      <c r="C95" s="60"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="21"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="65"/>
+      <c r="B96" s="123">
+        <v>94</v>
+      </c>
+      <c r="C96" s="60"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="21"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="65"/>
+      <c r="B97" s="123">
+        <v>95</v>
+      </c>
+      <c r="C97" s="60"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="65"/>
+      <c r="B98" s="123">
+        <v>96</v>
+      </c>
+      <c r="C98" s="60"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="65"/>
+      <c r="B99" s="123">
+        <v>97</v>
+      </c>
+      <c r="C99" s="60"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="21"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="65"/>
+      <c r="B100" s="123">
+        <v>98</v>
+      </c>
+      <c r="C100" s="60"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="21"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="65"/>
+      <c r="B101" s="123">
+        <v>99</v>
+      </c>
+      <c r="C101" s="60"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="21"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="65"/>
+      <c r="B102" s="123">
+        <v>100</v>
+      </c>
+      <c r="C102" s="60"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="21"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="65"/>
+      <c r="B103" s="123">
+        <v>101</v>
+      </c>
+      <c r="C103" s="60"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="21"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="65"/>
+      <c r="B104" s="123">
+        <v>102</v>
+      </c>
+      <c r="C104" s="60"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="21"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="65"/>
+      <c r="B105" s="123">
+        <v>103</v>
+      </c>
+      <c r="C105" s="60"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="21"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="65"/>
+      <c r="B106" s="123">
+        <v>104</v>
+      </c>
+      <c r="C106" s="60"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="21"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="65"/>
+      <c r="B107" s="123">
+        <v>105</v>
+      </c>
+      <c r="C107" s="60"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="21"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="65"/>
+      <c r="B108" s="123">
+        <v>106</v>
+      </c>
+      <c r="C108" s="60"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="21"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="65"/>
+      <c r="B109" s="123">
+        <v>107</v>
+      </c>
+      <c r="C109" s="61"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -661,7 +661,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,13 +1021,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,33 +2674,35 @@
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="65"/>
-      <c r="B54" s="123"/>
-      <c r="C54" s="124" t="s">
+      <c r="B54" s="114">
+        <v>51</v>
+      </c>
+      <c r="C54" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="125">
+      <c r="D54" s="123">
         <v>43430</v>
       </c>
-      <c r="E54" s="126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="127">
+      <c r="E54" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="125">
         <v>0</v>
       </c>
-      <c r="G54" s="126" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="128"/>
+      <c r="G54" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="126"/>
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="65"/>
-      <c r="B55" s="115">
-        <v>51</v>
-      </c>
-      <c r="C55" s="121" t="s">
+      <c r="B55" s="116">
+        <v>52</v>
+      </c>
+      <c r="C55" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="122">
+      <c r="D55" s="121">
         <v>43430</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2724,7 +2720,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="65"/>
-      <c r="B56" s="117">
+      <c r="B56" s="116">
         <v>53</v>
       </c>
       <c r="C56" s="40" t="s">

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
   <si>
     <t>Task/Function</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Hủy task</t>
+  </si>
+  <si>
+    <t>Nhập Số lượng bài đăng hiển thị khi tải Feed, lưu vào Database và xử lý nghiệp vụ - Cài đặt FanPage</t>
+  </si>
+  <si>
+    <t>Nhập số lượng comment hiển thị của mỗi bài đăng trên trang Feed, lưu vào Database và xử lý nghiệp vụ - Cài đặt Fanpage</t>
   </si>
 </sst>
 </file>
@@ -176,12 +182,20 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -654,14 +668,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,22 +704,22 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -714,16 +728,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,52 +749,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,179 +803,179 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="8" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="8" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="12" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="12" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="12" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="12" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="12" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,40 +993,40 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,22 +1035,13 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="14" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1082,7 +1087,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1472,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,126 +2677,146 @@
       </c>
       <c r="H53" s="93"/>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="65"/>
-      <c r="B54" s="114">
-        <v>51</v>
+      <c r="B54" s="116">
+        <v>52</v>
       </c>
       <c r="C54" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="123">
+        <v>35</v>
+      </c>
+      <c r="D54" s="121">
         <v>43430</v>
       </c>
-      <c r="E54" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="125">
-        <v>0</v>
-      </c>
-      <c r="G54" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="126"/>
-    </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="65"/>
       <c r="B55" s="116">
-        <v>52</v>
-      </c>
-      <c r="C55" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="83">
+        <v>43430</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="57">
+        <v>1</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="97"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="65"/>
+      <c r="B56" s="118">
+        <v>54</v>
+      </c>
+      <c r="C56" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="99">
+        <v>43430</v>
+      </c>
+      <c r="E56" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="101">
+        <v>1</v>
+      </c>
+      <c r="G56" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="102"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="B57" s="117">
+        <v>55</v>
+      </c>
+      <c r="C57" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="121">
-        <v>43430</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="D57" s="16">
+        <v>43431</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="65"/>
+      <c r="B58" s="116">
+        <v>56</v>
+      </c>
+      <c r="C58" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="16">
+        <v>43431</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="28">
         <v>0.9</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="116">
-        <v>53</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="83">
-        <v>43430</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="57">
-        <v>1</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="97"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="118">
-        <v>54</v>
-      </c>
-      <c r="C57" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="99">
-        <v>43430</v>
-      </c>
-      <c r="E57" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="101">
-        <v>1</v>
-      </c>
-      <c r="G57" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="102"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="117">
-        <v>55</v>
-      </c>
-      <c r="C58" s="95"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="B59" s="116">
-        <v>56</v>
-      </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="16">
+        <v>43431</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="65"/>
       <c r="B60" s="116">
-        <v>57</v>
-      </c>
-      <c r="C60" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="123"/>
       <c r="D60" s="7"/>
       <c r="E60" s="4"/>
       <c r="F60" s="28"/>
@@ -2801,7 +2826,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="65"/>
       <c r="B61" s="116">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="60"/>
       <c r="D61" s="7"/>
@@ -2813,7 +2838,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="65"/>
       <c r="B62" s="116">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="60"/>
       <c r="D62" s="7"/>
@@ -2825,7 +2850,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="65"/>
       <c r="B63" s="116">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" s="60"/>
       <c r="D63" s="7"/>
@@ -2837,7 +2862,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="65"/>
       <c r="B64" s="116">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" s="60"/>
       <c r="D64" s="7"/>
@@ -2849,7 +2874,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="65"/>
       <c r="B65" s="116">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="60"/>
       <c r="D65" s="7"/>
@@ -2861,7 +2886,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="65"/>
       <c r="B66" s="116">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" s="60"/>
       <c r="D66" s="7"/>
@@ -2873,7 +2898,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
       <c r="B67" s="116">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" s="60"/>
       <c r="D67" s="7"/>
@@ -2885,7 +2910,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="65"/>
       <c r="B68" s="116">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" s="60"/>
       <c r="D68" s="7"/>
@@ -2897,7 +2922,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="65"/>
       <c r="B69" s="116">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" s="60"/>
       <c r="D69" s="7"/>
@@ -2909,7 +2934,7 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="65"/>
       <c r="B70" s="116">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="7"/>
@@ -2921,7 +2946,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="65"/>
       <c r="B71" s="116">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="7"/>
@@ -2933,7 +2958,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="65"/>
       <c r="B72" s="116">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C72" s="60"/>
       <c r="D72" s="7"/>
@@ -2945,7 +2970,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="65"/>
       <c r="B73" s="116">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="60"/>
       <c r="D73" s="7"/>
@@ -2957,7 +2982,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="65"/>
       <c r="B74" s="116">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" s="60"/>
       <c r="D74" s="7"/>
@@ -2969,7 +2994,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="65"/>
       <c r="B75" s="116">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="60"/>
       <c r="D75" s="7"/>
@@ -2981,7 +3006,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="65"/>
       <c r="B76" s="116">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C76" s="60"/>
       <c r="D76" s="7"/>
@@ -2993,7 +3018,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="65"/>
       <c r="B77" s="116">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" s="60"/>
       <c r="D77" s="7"/>
@@ -3005,7 +3030,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="65"/>
       <c r="B78" s="116">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="60"/>
       <c r="D78" s="7"/>
@@ -3017,7 +3042,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="65"/>
       <c r="B79" s="116">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" s="60"/>
       <c r="D79" s="7"/>
@@ -3029,7 +3054,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="65"/>
       <c r="B80" s="116">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="60"/>
       <c r="D80" s="7"/>
@@ -3041,7 +3066,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="65"/>
       <c r="B81" s="116">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="60"/>
       <c r="D81" s="7"/>
@@ -3053,7 +3078,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="65"/>
       <c r="B82" s="116">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="60"/>
       <c r="D82" s="7"/>
@@ -3065,7 +3090,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="65"/>
       <c r="B83" s="116">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" s="60"/>
       <c r="D83" s="7"/>
@@ -3077,7 +3102,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="65"/>
       <c r="B84" s="116">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="60"/>
       <c r="D84" s="7"/>
@@ -3089,7 +3114,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="65"/>
       <c r="B85" s="116">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="60"/>
       <c r="D85" s="7"/>
@@ -3101,7 +3126,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="65"/>
       <c r="B86" s="116">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="60"/>
       <c r="D86" s="7"/>
@@ -3113,7 +3138,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="65"/>
       <c r="B87" s="116">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="7"/>
@@ -3125,7 +3150,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="65"/>
       <c r="B88" s="116">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="60"/>
       <c r="D88" s="7"/>
@@ -3137,7 +3162,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="65"/>
       <c r="B89" s="116">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="60"/>
       <c r="D89" s="7"/>
@@ -3149,7 +3174,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="65"/>
       <c r="B90" s="116">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C90" s="60"/>
       <c r="D90" s="7"/>
@@ -3161,7 +3186,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="65"/>
       <c r="B91" s="116">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C91" s="60"/>
       <c r="D91" s="7"/>
@@ -3173,7 +3198,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="65"/>
       <c r="B92" s="116">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C92" s="60"/>
       <c r="D92" s="7"/>
@@ -3185,7 +3210,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="65"/>
       <c r="B93" s="116">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C93" s="60"/>
       <c r="D93" s="7"/>
@@ -3197,7 +3222,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="65"/>
       <c r="B94" s="116">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C94" s="60"/>
       <c r="D94" s="7"/>
@@ -3209,7 +3234,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="65"/>
       <c r="B95" s="116">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C95" s="60"/>
       <c r="D95" s="7"/>
@@ -3221,7 +3246,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="65"/>
       <c r="B96" s="116">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C96" s="60"/>
       <c r="D96" s="7"/>
@@ -3233,7 +3258,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="65"/>
       <c r="B97" s="116">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C97" s="60"/>
       <c r="D97" s="7"/>
@@ -3245,7 +3270,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="65"/>
       <c r="B98" s="116">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C98" s="60"/>
       <c r="D98" s="7"/>
@@ -3257,7 +3282,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="65"/>
       <c r="B99" s="116">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C99" s="60"/>
       <c r="D99" s="7"/>
@@ -3269,7 +3294,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="65"/>
       <c r="B100" s="116">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C100" s="60"/>
       <c r="D100" s="7"/>
@@ -3281,7 +3306,7 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="65"/>
       <c r="B101" s="116">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" s="60"/>
       <c r="D101" s="7"/>
@@ -3293,7 +3318,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="65"/>
       <c r="B102" s="116">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="60"/>
       <c r="D102" s="7"/>
@@ -3305,7 +3330,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="65"/>
       <c r="B103" s="116">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="60"/>
       <c r="D103" s="7"/>
@@ -3317,7 +3342,7 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="65"/>
       <c r="B104" s="116">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C104" s="60"/>
       <c r="D104" s="7"/>
@@ -3329,7 +3354,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="65"/>
       <c r="B105" s="116">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" s="60"/>
       <c r="D105" s="7"/>
@@ -3341,7 +3366,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="65"/>
       <c r="B106" s="116">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="60"/>
       <c r="D106" s="7"/>
@@ -3353,7 +3378,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="65"/>
       <c r="B107" s="116">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="60"/>
       <c r="D107" s="7"/>
@@ -3365,7 +3390,7 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="65"/>
       <c r="B108" s="116">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="60"/>
       <c r="D108" s="7"/>
@@ -3374,29 +3399,17 @@
       <c r="G108" s="4"/>
       <c r="H108" s="21"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="65"/>
       <c r="B109" s="116">
-        <v>106</v>
-      </c>
-      <c r="C109" s="60"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="21"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="65"/>
-      <c r="B110" s="116">
         <v>107</v>
       </c>
-      <c r="C110" s="61"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="26"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="60">
   <si>
     <t>Task/Function</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Cập nhật sửa đổi chức năng "Sửa" cho phần Thông tin Fanpage vào Tài liệu hướng dẫn</t>
+  </si>
+  <si>
+    <t>Cập nhật sửa đổi chức năng "Thêm trang Facebook" cho phần Thông tin Fanpage vào Tài liệu hướng dẫn</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,6 +1116,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1157,7 +1166,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1547,9 +1556,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -3144,22 +3153,22 @@
       <c r="B77" s="18">
         <v>67</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="137">
         <v>43433</v>
       </c>
-      <c r="E77" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="66">
+      <c r="E77" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="104">
         <v>0</v>
       </c>
-      <c r="G77" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="48"/>
+      <c r="G77" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="138"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
@@ -3261,76 +3270,136 @@
       <c r="G82" s="41"/>
       <c r="H82" s="43"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="18">
         <v>73</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="57">
+        <v>43434</v>
+      </c>
+      <c r="E83" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="92">
+        <v>1</v>
+      </c>
+      <c r="G83" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="60"/>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="18">
         <v>74</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C84" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="57">
+        <v>43434</v>
+      </c>
+      <c r="E84" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="92">
+        <v>1</v>
+      </c>
+      <c r="G84" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="60"/>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="18">
         <v>75</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C85" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="57">
+        <v>43434</v>
+      </c>
+      <c r="E85" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="92">
+        <v>1</v>
+      </c>
+      <c r="G85" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="60"/>
+    </row>
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="18">
         <v>76</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="48"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="57">
+        <v>43434</v>
+      </c>
+      <c r="E86" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="92">
+        <v>1</v>
+      </c>
+      <c r="G86" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="60"/>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="18">
         <v>77</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="48"/>
+      <c r="C87" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="137">
+        <v>43434</v>
+      </c>
+      <c r="E87" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="104">
+        <v>0</v>
+      </c>
+      <c r="G87" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="138"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="18">
         <v>78</v>
       </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="46"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="47"/>
+      <c r="C88" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="26">
+        <v>43434</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="66">
+        <v>0.9</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="H88" s="48"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,12 +3407,12 @@
       <c r="B89" s="18">
         <v>79</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="48"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="43"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
@@ -3705,25 +3774,37 @@
       <c r="G119" s="47"/>
       <c r="H119" s="48"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="22"/>
       <c r="B120" s="18">
         <v>110</v>
       </c>
-      <c r="C120" s="119"/>
-      <c r="D120" s="120"/>
-      <c r="E120" s="121"/>
-      <c r="F120" s="122"/>
-      <c r="G120" s="121"/>
-      <c r="H120" s="123"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C121" s="124"/>
-      <c r="D121" s="125"/>
-      <c r="E121" s="126"/>
-      <c r="F121" s="127"/>
-      <c r="G121" s="126"/>
-      <c r="H121" s="124"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="48"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
+      <c r="B121" s="18">
+        <v>111</v>
+      </c>
+      <c r="C121" s="119"/>
+      <c r="D121" s="120"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="122"/>
+      <c r="G121" s="121"/>
+      <c r="H121" s="123"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C122" s="124"/>
+      <c r="D122" s="125"/>
+      <c r="E122" s="126"/>
+      <c r="F122" s="127"/>
+      <c r="G122" s="126"/>
+      <c r="H122" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="62">
   <si>
     <t>Task/Function</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Cập nhật sửa đổi chức năng "Thêm trang Facebook" cho phần Thông tin Fanpage vào Tài liệu hướng dẫn</t>
+  </si>
+  <si>
+    <t>Viết thêm phần "Cài đặt" cho mục Facebook vào Tài liệu hướng dẫn</t>
+  </si>
+  <si>
+    <t>Cập nhật sửa đổi "Trang tin" cho phần Thông tin Fanpage vào Tài liệu hướng dẫn</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1172,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3419,60 +3425,100 @@
       <c r="B90" s="18">
         <v>80</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="48"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="57">
+        <v>43435</v>
+      </c>
+      <c r="E90" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="92">
+        <v>1</v>
+      </c>
+      <c r="G90" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="60"/>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="18">
         <v>81</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="48"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="57">
+        <v>43435</v>
+      </c>
+      <c r="E91" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="92">
+        <v>1</v>
+      </c>
+      <c r="G91" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="60"/>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="18">
         <v>82</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="48"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="57">
+        <v>43435</v>
+      </c>
+      <c r="E92" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="60"/>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="18">
         <v>83</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="48"/>
+      <c r="C93" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="57">
+        <v>43435</v>
+      </c>
+      <c r="E93" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="92">
+        <v>1</v>
+      </c>
+      <c r="G93" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="60"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="18">
         <v>84</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="48"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="43"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="67">
   <si>
     <t>Task/Function</t>
   </si>
@@ -205,6 +205,21 @@
   </si>
   <si>
     <t>Cập nhật sửa đổi "Trang tin" cho phần Thông tin Fanpage vào Tài liệu hướng dẫn</t>
+  </si>
+  <si>
+    <t>Publish (Xuất bản) dự án</t>
+  </si>
+  <si>
+    <t>Cài đặt và cấu hình IIS để chạy dự án</t>
+  </si>
+  <si>
+    <t>Viết tài liệu hướng dẫn cài IIS</t>
+  </si>
+  <si>
+    <t>Viết tài liệu hướng dẫn cài .Net Framework</t>
+  </si>
+  <si>
+    <t>Viết tài liệu hướng dẫn cài Webdevolopment</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1187,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1564,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,11 +3540,21 @@
       <c r="B95" s="18">
         <v>85</v>
       </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="47"/>
+      <c r="C95" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="46">
+        <v>43442</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G95" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="H95" s="48"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3537,11 +3562,21 @@
       <c r="B96" s="18">
         <v>86</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="47"/>
+      <c r="C96" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="46">
+        <v>43442</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="H96" s="48"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3549,59 +3584,89 @@
       <c r="B97" s="18">
         <v>87</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="48"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="43"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="18">
         <v>88</v>
       </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="48"/>
+      <c r="C98" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="91">
+        <v>43442</v>
+      </c>
+      <c r="E98" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="92">
+        <v>1</v>
+      </c>
+      <c r="G98" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="60"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="18">
         <v>89</v>
       </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="48"/>
+      <c r="C99" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="91">
+        <v>43442</v>
+      </c>
+      <c r="E99" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="92">
+        <v>1</v>
+      </c>
+      <c r="G99" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="60"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="18">
         <v>90</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="48"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="43"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="18">
         <v>91</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="47"/>
+      <c r="C101" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="46">
+        <v>43446</v>
+      </c>
+      <c r="E101" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G101" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="H101" s="48"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3609,11 +3674,21 @@
       <c r="B102" s="18">
         <v>92</v>
       </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="47"/>
+      <c r="C102" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D102" s="46">
+        <v>43446</v>
+      </c>
+      <c r="E102" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="66">
+        <v>1</v>
+      </c>
+      <c r="G102" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="H102" s="48"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3621,11 +3696,21 @@
       <c r="B103" s="18">
         <v>93</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="47"/>
+      <c r="C103" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="46">
+        <v>43446</v>
+      </c>
+      <c r="E103" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G103" s="47" t="s">
+        <v>8</v>
+      </c>
       <c r="H103" s="48"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3633,12 +3718,12 @@
       <c r="B104" s="18">
         <v>94</v>
       </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="48"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="70">
   <si>
     <t>Task/Function</t>
   </si>
@@ -219,7 +219,16 @@
     <t>Viết tài liệu hướng dẫn cài .Net Framework</t>
   </si>
   <si>
-    <t>Viết tài liệu hướng dẫn cài Webdevolopment</t>
+    <t>Viết tài liệu hướng dẫn cài Microsoft Web Platform Installer - URL Rewrite 2.1</t>
+  </si>
+  <si>
+    <t>Làm lại</t>
+  </si>
+  <si>
+    <t>Viết tài liệu hướng dẫn Deploy (Chạy dự án)</t>
+  </si>
+  <si>
+    <t>Viết tài liệu hướng dẫn Publish (Xuất bản dự án)</t>
   </si>
 </sst>
 </file>
@@ -381,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -502,49 +511,6 @@
         <color theme="8"/>
       </top>
       <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right style="medium">
-        <color theme="8"/>
-      </right>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
         <color theme="8"/>
       </bottom>
       <diagonal/>
@@ -730,7 +696,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,50 +725,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,7 +780,7 @@
     <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,19 +795,19 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,19 +903,19 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +954,7 @@
     <xf numFmtId="165" fontId="8" fillId="12" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,16 +984,16 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,10 +1011,10 @@
     <xf numFmtId="9" fontId="8" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,52 +1035,25 @@
     <xf numFmtId="9" fontId="8" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,19 +1062,19 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,7 +1126,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1577,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1720,7 @@
       <c r="B11" s="19">
         <v>7</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="119" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="49">
@@ -1842,7 +1781,7 @@
       </c>
       <c r="H13" s="48"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="134" t="s">
+      <c r="K13" s="125" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1868,7 +1807,7 @@
       </c>
       <c r="H14" s="54"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="126" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1894,7 +1833,7 @@
       </c>
       <c r="H15" s="54"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="135" t="s">
+      <c r="K15" s="126" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1920,7 +1859,7 @@
       </c>
       <c r="H16" s="54"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="136" t="s">
+      <c r="K16" s="127" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2051,7 +1990,7 @@
       <c r="B23" s="19">
         <v>18</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="119" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="63">
@@ -2139,7 +2078,7 @@
       <c r="B27" s="17">
         <v>22</v>
       </c>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="120" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="69">
@@ -2215,7 +2154,7 @@
       <c r="B31" s="19">
         <v>25</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="119" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="63">
@@ -2307,7 +2246,7 @@
       <c r="B35" s="17">
         <v>29</v>
       </c>
-      <c r="C35" s="130" t="s">
+      <c r="C35" s="121" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="81">
@@ -2334,7 +2273,7 @@
       <c r="B36" s="17">
         <v>30</v>
       </c>
-      <c r="C36" s="130" t="s">
+      <c r="C36" s="121" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="81">
@@ -2610,7 +2549,7 @@
       <c r="B49" s="17">
         <v>42</v>
       </c>
-      <c r="C49" s="131" t="s">
+      <c r="C49" s="122" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="93">
@@ -2632,7 +2571,7 @@
       <c r="B50" s="23">
         <v>43</v>
       </c>
-      <c r="C50" s="132" t="s">
+      <c r="C50" s="123" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="97">
@@ -2712,7 +2651,7 @@
       <c r="B54" s="18">
         <v>46</v>
       </c>
-      <c r="C54" s="133" t="s">
+      <c r="C54" s="124" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="93">
@@ -3174,10 +3113,10 @@
       <c r="B77" s="18">
         <v>67</v>
       </c>
-      <c r="C77" s="133" t="s">
+      <c r="C77" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="137">
+      <c r="D77" s="128">
         <v>43433</v>
       </c>
       <c r="E77" s="94" t="s">
@@ -3189,7 +3128,7 @@
       <c r="G77" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="138"/>
+      <c r="H77" s="129"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
@@ -3384,10 +3323,10 @@
       <c r="B87" s="18">
         <v>77</v>
       </c>
-      <c r="C87" s="133" t="s">
+      <c r="C87" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="137">
+      <c r="D87" s="128">
         <v>43434</v>
       </c>
       <c r="E87" s="94" t="s">
@@ -3399,7 +3338,7 @@
       <c r="G87" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="138"/>
+      <c r="H87" s="129"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
@@ -3674,24 +3613,24 @@
       <c r="B102" s="18">
         <v>92</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D102" s="46">
+      <c r="D102" s="91">
         <v>43446</v>
       </c>
-      <c r="E102" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="66">
+      <c r="E102" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="92">
         <v>1</v>
       </c>
-      <c r="G102" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="48"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="60"/>
+    </row>
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="18">
         <v>93</v>
@@ -3730,212 +3669,3769 @@
       <c r="B105" s="18">
         <v>95</v>
       </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="46"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="48"/>
+      <c r="C105" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="46">
+        <v>43449</v>
+      </c>
+      <c r="E105" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="66">
+        <v>1</v>
+      </c>
+      <c r="G105" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="18">
         <v>96</v>
       </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="48"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="91">
+        <v>43449</v>
+      </c>
+      <c r="E106" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="92">
+        <v>1</v>
+      </c>
+      <c r="G106" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="18">
         <v>97</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="46"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="48"/>
+      <c r="C107" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="46">
+        <v>43449</v>
+      </c>
+      <c r="E107" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="G107" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="18">
         <v>98</v>
       </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="48"/>
+      <c r="C108" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="46">
+        <v>43449</v>
+      </c>
+      <c r="E108" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="G108" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="18">
         <v>99</v>
       </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="46"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="48"/>
+      <c r="C109" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="46">
+        <v>43449</v>
+      </c>
+      <c r="E109" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="66">
+        <v>0</v>
+      </c>
+      <c r="G109" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="18">
         <v>100</v>
       </c>
-      <c r="C110" s="30"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="48"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="18">
         <v>101</v>
       </c>
-      <c r="C111" s="30"/>
-      <c r="D111" s="46"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="48"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="46">
+        <v>43451</v>
+      </c>
+      <c r="E111" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="66">
+        <v>0.8</v>
+      </c>
+      <c r="G111" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="18">
-        <v>102</v>
-      </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="48"/>
+        <v>103</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="46">
+        <v>43451</v>
+      </c>
+      <c r="E112" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="G112" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="18">
-        <v>103</v>
-      </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="48"/>
+        <v>104</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="46">
+        <v>43451</v>
+      </c>
+      <c r="E113" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G113" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="18">
-        <v>104</v>
-      </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="48"/>
+        <v>105</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="46">
+        <v>43451</v>
+      </c>
+      <c r="E114" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="66">
+        <v>0</v>
+      </c>
+      <c r="G114" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
       <c r="B115" s="18">
-        <v>105</v>
-      </c>
-      <c r="C115" s="30"/>
-      <c r="D115" s="46"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="48"/>
+        <v>106</v>
+      </c>
+      <c r="C115" s="39"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="43"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="22"/>
       <c r="B116" s="18">
-        <v>106</v>
-      </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="46"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="48"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C116" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="91">
+        <v>43452</v>
+      </c>
+      <c r="E116" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="92">
+        <v>1</v>
+      </c>
+      <c r="G116" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="22"/>
       <c r="B117" s="18">
-        <v>107</v>
-      </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="46"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="48"/>
+        <v>108</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="46">
+        <v>43452</v>
+      </c>
+      <c r="E117" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="66">
+        <v>0.7</v>
+      </c>
+      <c r="G117" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="18">
-        <v>108</v>
-      </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="46"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="48"/>
+        <v>109</v>
+      </c>
+      <c r="C118" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D118" s="91">
+        <v>43452</v>
+      </c>
+      <c r="E118" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="92">
+        <v>1</v>
+      </c>
+      <c r="G118" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="60" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="22"/>
       <c r="B119" s="18">
-        <v>109</v>
-      </c>
-      <c r="C119" s="30"/>
-      <c r="D119" s="46"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="48"/>
+        <v>110</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" s="46">
+        <v>43452</v>
+      </c>
+      <c r="E119" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="G119" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="22"/>
       <c r="B120" s="18">
-        <v>110</v>
-      </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="46"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="48"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="C120" s="39"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="43"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="18">
-        <v>111</v>
-      </c>
-      <c r="C121" s="119"/>
-      <c r="D121" s="120"/>
-      <c r="E121" s="121"/>
-      <c r="F121" s="122"/>
-      <c r="G121" s="121"/>
-      <c r="H121" s="123"/>
+        <v>112</v>
+      </c>
+      <c r="C121" s="30"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="48"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="124"/>
-      <c r="D122" s="125"/>
-      <c r="E122" s="126"/>
-      <c r="F122" s="127"/>
-      <c r="G122" s="126"/>
-      <c r="H122" s="124"/>
+      <c r="B122" s="18">
+        <v>113</v>
+      </c>
+      <c r="C122" s="30"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="66"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="48"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="18">
+        <v>114</v>
+      </c>
+      <c r="C123" s="30"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="48"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="18">
+        <v>115</v>
+      </c>
+      <c r="C124" s="30"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="48"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="18">
+        <v>116</v>
+      </c>
+      <c r="C125" s="30"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="48"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="18">
+        <v>117</v>
+      </c>
+      <c r="C126" s="30"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="48"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="18">
+        <v>118</v>
+      </c>
+      <c r="C127" s="30"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="48"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="18">
+        <v>119</v>
+      </c>
+      <c r="C128" s="30"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="48"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="18">
+        <v>120</v>
+      </c>
+      <c r="C129" s="30"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="48"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="18">
+        <v>121</v>
+      </c>
+      <c r="C130" s="30"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="48"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="18">
+        <v>122</v>
+      </c>
+      <c r="C131" s="30"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="66"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="48"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="18">
+        <v>123</v>
+      </c>
+      <c r="C132" s="30"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="66"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="48"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="18">
+        <v>124</v>
+      </c>
+      <c r="C133" s="30"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="66"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="48"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="18">
+        <v>125</v>
+      </c>
+      <c r="C134" s="30"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="66"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="48"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="18">
+        <v>126</v>
+      </c>
+      <c r="C135" s="30"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="66"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="48"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="18">
+        <v>127</v>
+      </c>
+      <c r="C136" s="30"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="48"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="18">
+        <v>128</v>
+      </c>
+      <c r="C137" s="30"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="48"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="18">
+        <v>129</v>
+      </c>
+      <c r="C138" s="30"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="66"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="48"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="18">
+        <v>130</v>
+      </c>
+      <c r="C139" s="30"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="48"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="18">
+        <v>131</v>
+      </c>
+      <c r="C140" s="30"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="66"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="48"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="18">
+        <v>132</v>
+      </c>
+      <c r="C141" s="30"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="48"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="18">
+        <v>133</v>
+      </c>
+      <c r="C142" s="30"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="66"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="48"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="18">
+        <v>134</v>
+      </c>
+      <c r="C143" s="30"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="48"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="18">
+        <v>135</v>
+      </c>
+      <c r="C144" s="30"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="66"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="48"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="18">
+        <v>136</v>
+      </c>
+      <c r="C145" s="30"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="48"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="18">
+        <v>137</v>
+      </c>
+      <c r="C146" s="30"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="66"/>
+      <c r="G146" s="47"/>
+      <c r="H146" s="48"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="18">
+        <v>138</v>
+      </c>
+      <c r="C147" s="30"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="66"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="48"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="18">
+        <v>139</v>
+      </c>
+      <c r="C148" s="30"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="66"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="48"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="18">
+        <v>140</v>
+      </c>
+      <c r="C149" s="30"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="66"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="48"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="18">
+        <v>141</v>
+      </c>
+      <c r="C150" s="30"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="48"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="18">
+        <v>142</v>
+      </c>
+      <c r="C151" s="30"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="66"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="48"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="18">
+        <v>143</v>
+      </c>
+      <c r="C152" s="30"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="66"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="48"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="18">
+        <v>144</v>
+      </c>
+      <c r="C153" s="30"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="48"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="18">
+        <v>145</v>
+      </c>
+      <c r="C154" s="30"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="47"/>
+      <c r="H154" s="48"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="18">
+        <v>146</v>
+      </c>
+      <c r="C155" s="30"/>
+      <c r="D155" s="46"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="47"/>
+      <c r="H155" s="48"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="18">
+        <v>147</v>
+      </c>
+      <c r="C156" s="30"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="48"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="18">
+        <v>148</v>
+      </c>
+      <c r="C157" s="30"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="47"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="47"/>
+      <c r="H157" s="48"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="18">
+        <v>149</v>
+      </c>
+      <c r="C158" s="30"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="47"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="47"/>
+      <c r="H158" s="48"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="18">
+        <v>150</v>
+      </c>
+      <c r="C159" s="30"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="66"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="48"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="18">
+        <v>151</v>
+      </c>
+      <c r="C160" s="30"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="48"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="18">
+        <v>152</v>
+      </c>
+      <c r="C161" s="30"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="66"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="48"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="18">
+        <v>153</v>
+      </c>
+      <c r="C162" s="30"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="48"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="18">
+        <v>154</v>
+      </c>
+      <c r="C163" s="30"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="47"/>
+      <c r="H163" s="48"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="18">
+        <v>155</v>
+      </c>
+      <c r="C164" s="30"/>
+      <c r="D164" s="46"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="66"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="48"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="18">
+        <v>156</v>
+      </c>
+      <c r="C165" s="30"/>
+      <c r="D165" s="46"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="66"/>
+      <c r="G165" s="47"/>
+      <c r="H165" s="48"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="18">
+        <v>157</v>
+      </c>
+      <c r="C166" s="30"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="66"/>
+      <c r="G166" s="47"/>
+      <c r="H166" s="48"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="18">
+        <v>158</v>
+      </c>
+      <c r="C167" s="30"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="66"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="48"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="18">
+        <v>159</v>
+      </c>
+      <c r="C168" s="30"/>
+      <c r="D168" s="46"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="66"/>
+      <c r="G168" s="47"/>
+      <c r="H168" s="48"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="18">
+        <v>160</v>
+      </c>
+      <c r="C169" s="30"/>
+      <c r="D169" s="46"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="66"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="48"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="18">
+        <v>161</v>
+      </c>
+      <c r="C170" s="30"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="47"/>
+      <c r="F170" s="66"/>
+      <c r="G170" s="47"/>
+      <c r="H170" s="48"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="18">
+        <v>162</v>
+      </c>
+      <c r="C171" s="30"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="66"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="48"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="18">
+        <v>163</v>
+      </c>
+      <c r="C172" s="30"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="66"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="48"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="18">
+        <v>164</v>
+      </c>
+      <c r="C173" s="30"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="66"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="48"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="18">
+        <v>165</v>
+      </c>
+      <c r="C174" s="30"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="66"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="48"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="18">
+        <v>166</v>
+      </c>
+      <c r="C175" s="30"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="48"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="18">
+        <v>167</v>
+      </c>
+      <c r="C176" s="30"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="66"/>
+      <c r="G176" s="47"/>
+      <c r="H176" s="48"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="18">
+        <v>168</v>
+      </c>
+      <c r="C177" s="30"/>
+      <c r="D177" s="46"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="47"/>
+      <c r="H177" s="48"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="18">
+        <v>169</v>
+      </c>
+      <c r="C178" s="30"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="66"/>
+      <c r="G178" s="47"/>
+      <c r="H178" s="48"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="18">
+        <v>170</v>
+      </c>
+      <c r="C179" s="30"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="66"/>
+      <c r="G179" s="47"/>
+      <c r="H179" s="48"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="18">
+        <v>171</v>
+      </c>
+      <c r="C180" s="30"/>
+      <c r="D180" s="46"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="66"/>
+      <c r="G180" s="47"/>
+      <c r="H180" s="48"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="18">
+        <v>172</v>
+      </c>
+      <c r="C181" s="30"/>
+      <c r="D181" s="46"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="66"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="48"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="18">
+        <v>173</v>
+      </c>
+      <c r="C182" s="30"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="47"/>
+      <c r="F182" s="66"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="48"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="18">
+        <v>174</v>
+      </c>
+      <c r="C183" s="30"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="66"/>
+      <c r="G183" s="47"/>
+      <c r="H183" s="48"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="18">
+        <v>175</v>
+      </c>
+      <c r="C184" s="30"/>
+      <c r="D184" s="46"/>
+      <c r="E184" s="47"/>
+      <c r="F184" s="66"/>
+      <c r="G184" s="47"/>
+      <c r="H184" s="48"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="18">
+        <v>176</v>
+      </c>
+      <c r="C185" s="30"/>
+      <c r="D185" s="46"/>
+      <c r="E185" s="47"/>
+      <c r="F185" s="66"/>
+      <c r="G185" s="47"/>
+      <c r="H185" s="48"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="18">
+        <v>177</v>
+      </c>
+      <c r="C186" s="30"/>
+      <c r="D186" s="46"/>
+      <c r="E186" s="47"/>
+      <c r="F186" s="66"/>
+      <c r="G186" s="47"/>
+      <c r="H186" s="48"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="18">
+        <v>178</v>
+      </c>
+      <c r="C187" s="30"/>
+      <c r="D187" s="46"/>
+      <c r="E187" s="47"/>
+      <c r="F187" s="66"/>
+      <c r="G187" s="47"/>
+      <c r="H187" s="48"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="18">
+        <v>179</v>
+      </c>
+      <c r="C188" s="30"/>
+      <c r="D188" s="46"/>
+      <c r="E188" s="47"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="47"/>
+      <c r="H188" s="48"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="18">
+        <v>180</v>
+      </c>
+      <c r="C189" s="30"/>
+      <c r="D189" s="46"/>
+      <c r="E189" s="47"/>
+      <c r="F189" s="66"/>
+      <c r="G189" s="47"/>
+      <c r="H189" s="48"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="18">
+        <v>181</v>
+      </c>
+      <c r="C190" s="30"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="66"/>
+      <c r="G190" s="47"/>
+      <c r="H190" s="48"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="18">
+        <v>182</v>
+      </c>
+      <c r="C191" s="30"/>
+      <c r="D191" s="46"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="66"/>
+      <c r="G191" s="47"/>
+      <c r="H191" s="48"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="18">
+        <v>183</v>
+      </c>
+      <c r="C192" s="30"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="47"/>
+      <c r="F192" s="66"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="48"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="18">
+        <v>184</v>
+      </c>
+      <c r="C193" s="30"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="47"/>
+      <c r="F193" s="66"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="48"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="18">
+        <v>185</v>
+      </c>
+      <c r="C194" s="30"/>
+      <c r="D194" s="46"/>
+      <c r="E194" s="47"/>
+      <c r="F194" s="66"/>
+      <c r="G194" s="47"/>
+      <c r="H194" s="48"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="18">
+        <v>186</v>
+      </c>
+      <c r="C195" s="30"/>
+      <c r="D195" s="46"/>
+      <c r="E195" s="47"/>
+      <c r="F195" s="66"/>
+      <c r="G195" s="47"/>
+      <c r="H195" s="48"/>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="18">
+        <v>187</v>
+      </c>
+      <c r="C196" s="30"/>
+      <c r="D196" s="46"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="66"/>
+      <c r="G196" s="47"/>
+      <c r="H196" s="48"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="18">
+        <v>188</v>
+      </c>
+      <c r="C197" s="30"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="47"/>
+      <c r="F197" s="66"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="48"/>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="18">
+        <v>189</v>
+      </c>
+      <c r="C198" s="30"/>
+      <c r="D198" s="46"/>
+      <c r="E198" s="47"/>
+      <c r="F198" s="66"/>
+      <c r="G198" s="47"/>
+      <c r="H198" s="48"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="18">
+        <v>190</v>
+      </c>
+      <c r="C199" s="30"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="47"/>
+      <c r="F199" s="66"/>
+      <c r="G199" s="47"/>
+      <c r="H199" s="48"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="18">
+        <v>191</v>
+      </c>
+      <c r="C200" s="30"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="47"/>
+      <c r="F200" s="66"/>
+      <c r="G200" s="47"/>
+      <c r="H200" s="48"/>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="18">
+        <v>192</v>
+      </c>
+      <c r="C201" s="30"/>
+      <c r="D201" s="46"/>
+      <c r="E201" s="47"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="47"/>
+      <c r="H201" s="48"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="18">
+        <v>193</v>
+      </c>
+      <c r="C202" s="30"/>
+      <c r="D202" s="46"/>
+      <c r="E202" s="47"/>
+      <c r="F202" s="66"/>
+      <c r="G202" s="47"/>
+      <c r="H202" s="48"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="18">
+        <v>194</v>
+      </c>
+      <c r="C203" s="30"/>
+      <c r="D203" s="46"/>
+      <c r="E203" s="47"/>
+      <c r="F203" s="66"/>
+      <c r="G203" s="47"/>
+      <c r="H203" s="48"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="18">
+        <v>195</v>
+      </c>
+      <c r="C204" s="30"/>
+      <c r="D204" s="46"/>
+      <c r="E204" s="47"/>
+      <c r="F204" s="66"/>
+      <c r="G204" s="47"/>
+      <c r="H204" s="48"/>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="18">
+        <v>196</v>
+      </c>
+      <c r="C205" s="30"/>
+      <c r="D205" s="46"/>
+      <c r="E205" s="47"/>
+      <c r="F205" s="66"/>
+      <c r="G205" s="47"/>
+      <c r="H205" s="48"/>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="18">
+        <v>197</v>
+      </c>
+      <c r="C206" s="30"/>
+      <c r="D206" s="46"/>
+      <c r="E206" s="47"/>
+      <c r="F206" s="66"/>
+      <c r="G206" s="47"/>
+      <c r="H206" s="48"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="18">
+        <v>198</v>
+      </c>
+      <c r="C207" s="30"/>
+      <c r="D207" s="46"/>
+      <c r="E207" s="47"/>
+      <c r="F207" s="66"/>
+      <c r="G207" s="47"/>
+      <c r="H207" s="48"/>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="18">
+        <v>199</v>
+      </c>
+      <c r="C208" s="30"/>
+      <c r="D208" s="46"/>
+      <c r="E208" s="47"/>
+      <c r="F208" s="66"/>
+      <c r="G208" s="47"/>
+      <c r="H208" s="48"/>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="18">
+        <v>200</v>
+      </c>
+      <c r="C209" s="30"/>
+      <c r="D209" s="46"/>
+      <c r="E209" s="47"/>
+      <c r="F209" s="66"/>
+      <c r="G209" s="47"/>
+      <c r="H209" s="48"/>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="18">
+        <v>201</v>
+      </c>
+      <c r="C210" s="30"/>
+      <c r="D210" s="46"/>
+      <c r="E210" s="47"/>
+      <c r="F210" s="66"/>
+      <c r="G210" s="47"/>
+      <c r="H210" s="48"/>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="18">
+        <v>202</v>
+      </c>
+      <c r="C211" s="30"/>
+      <c r="D211" s="46"/>
+      <c r="E211" s="47"/>
+      <c r="F211" s="66"/>
+      <c r="G211" s="47"/>
+      <c r="H211" s="48"/>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="18">
+        <v>203</v>
+      </c>
+      <c r="C212" s="30"/>
+      <c r="D212" s="46"/>
+      <c r="E212" s="47"/>
+      <c r="F212" s="66"/>
+      <c r="G212" s="47"/>
+      <c r="H212" s="48"/>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="18">
+        <v>204</v>
+      </c>
+      <c r="C213" s="30"/>
+      <c r="D213" s="46"/>
+      <c r="E213" s="47"/>
+      <c r="F213" s="66"/>
+      <c r="G213" s="47"/>
+      <c r="H213" s="48"/>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="18">
+        <v>205</v>
+      </c>
+      <c r="C214" s="30"/>
+      <c r="D214" s="46"/>
+      <c r="E214" s="47"/>
+      <c r="F214" s="66"/>
+      <c r="G214" s="47"/>
+      <c r="H214" s="48"/>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="18">
+        <v>206</v>
+      </c>
+      <c r="C215" s="30"/>
+      <c r="D215" s="46"/>
+      <c r="E215" s="47"/>
+      <c r="F215" s="66"/>
+      <c r="G215" s="47"/>
+      <c r="H215" s="48"/>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="18">
+        <v>207</v>
+      </c>
+      <c r="C216" s="30"/>
+      <c r="D216" s="46"/>
+      <c r="E216" s="47"/>
+      <c r="F216" s="66"/>
+      <c r="G216" s="47"/>
+      <c r="H216" s="48"/>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="18">
+        <v>208</v>
+      </c>
+      <c r="C217" s="30"/>
+      <c r="D217" s="46"/>
+      <c r="E217" s="47"/>
+      <c r="F217" s="66"/>
+      <c r="G217" s="47"/>
+      <c r="H217" s="48"/>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="18">
+        <v>209</v>
+      </c>
+      <c r="C218" s="30"/>
+      <c r="D218" s="46"/>
+      <c r="E218" s="47"/>
+      <c r="F218" s="66"/>
+      <c r="G218" s="47"/>
+      <c r="H218" s="48"/>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="18">
+        <v>210</v>
+      </c>
+      <c r="C219" s="30"/>
+      <c r="D219" s="46"/>
+      <c r="E219" s="47"/>
+      <c r="F219" s="66"/>
+      <c r="G219" s="47"/>
+      <c r="H219" s="48"/>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="18">
+        <v>211</v>
+      </c>
+      <c r="C220" s="30"/>
+      <c r="D220" s="46"/>
+      <c r="E220" s="47"/>
+      <c r="F220" s="66"/>
+      <c r="G220" s="47"/>
+      <c r="H220" s="48"/>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="18">
+        <v>212</v>
+      </c>
+      <c r="C221" s="30"/>
+      <c r="D221" s="46"/>
+      <c r="E221" s="47"/>
+      <c r="F221" s="66"/>
+      <c r="G221" s="47"/>
+      <c r="H221" s="48"/>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="18">
+        <v>213</v>
+      </c>
+      <c r="C222" s="30"/>
+      <c r="D222" s="46"/>
+      <c r="E222" s="47"/>
+      <c r="F222" s="66"/>
+      <c r="G222" s="47"/>
+      <c r="H222" s="48"/>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="18">
+        <v>214</v>
+      </c>
+      <c r="C223" s="30"/>
+      <c r="D223" s="46"/>
+      <c r="E223" s="47"/>
+      <c r="F223" s="66"/>
+      <c r="G223" s="47"/>
+      <c r="H223" s="48"/>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" s="18">
+        <v>215</v>
+      </c>
+      <c r="C224" s="30"/>
+      <c r="D224" s="46"/>
+      <c r="E224" s="47"/>
+      <c r="F224" s="66"/>
+      <c r="G224" s="47"/>
+      <c r="H224" s="48"/>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="18">
+        <v>216</v>
+      </c>
+      <c r="C225" s="30"/>
+      <c r="D225" s="46"/>
+      <c r="E225" s="47"/>
+      <c r="F225" s="66"/>
+      <c r="G225" s="47"/>
+      <c r="H225" s="48"/>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="18">
+        <v>217</v>
+      </c>
+      <c r="C226" s="30"/>
+      <c r="D226" s="46"/>
+      <c r="E226" s="47"/>
+      <c r="F226" s="66"/>
+      <c r="G226" s="47"/>
+      <c r="H226" s="48"/>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="18">
+        <v>218</v>
+      </c>
+      <c r="C227" s="30"/>
+      <c r="D227" s="46"/>
+      <c r="E227" s="47"/>
+      <c r="F227" s="66"/>
+      <c r="G227" s="47"/>
+      <c r="H227" s="48"/>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="18">
+        <v>219</v>
+      </c>
+      <c r="C228" s="30"/>
+      <c r="D228" s="46"/>
+      <c r="E228" s="47"/>
+      <c r="F228" s="66"/>
+      <c r="G228" s="47"/>
+      <c r="H228" s="48"/>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" s="18">
+        <v>220</v>
+      </c>
+      <c r="C229" s="30"/>
+      <c r="D229" s="46"/>
+      <c r="E229" s="47"/>
+      <c r="F229" s="66"/>
+      <c r="G229" s="47"/>
+      <c r="H229" s="48"/>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B230" s="18">
+        <v>221</v>
+      </c>
+      <c r="C230" s="30"/>
+      <c r="D230" s="46"/>
+      <c r="E230" s="47"/>
+      <c r="F230" s="66"/>
+      <c r="G230" s="47"/>
+      <c r="H230" s="48"/>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="18">
+        <v>222</v>
+      </c>
+      <c r="C231" s="30"/>
+      <c r="D231" s="46"/>
+      <c r="E231" s="47"/>
+      <c r="F231" s="66"/>
+      <c r="G231" s="47"/>
+      <c r="H231" s="48"/>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="18">
+        <v>223</v>
+      </c>
+      <c r="C232" s="30"/>
+      <c r="D232" s="46"/>
+      <c r="E232" s="47"/>
+      <c r="F232" s="66"/>
+      <c r="G232" s="47"/>
+      <c r="H232" s="48"/>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="18">
+        <v>224</v>
+      </c>
+      <c r="C233" s="30"/>
+      <c r="D233" s="46"/>
+      <c r="E233" s="47"/>
+      <c r="F233" s="66"/>
+      <c r="G233" s="47"/>
+      <c r="H233" s="48"/>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="18">
+        <v>225</v>
+      </c>
+      <c r="C234" s="30"/>
+      <c r="D234" s="46"/>
+      <c r="E234" s="47"/>
+      <c r="F234" s="66"/>
+      <c r="G234" s="47"/>
+      <c r="H234" s="48"/>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="18">
+        <v>226</v>
+      </c>
+      <c r="C235" s="30"/>
+      <c r="D235" s="46"/>
+      <c r="E235" s="47"/>
+      <c r="F235" s="66"/>
+      <c r="G235" s="47"/>
+      <c r="H235" s="48"/>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="18">
+        <v>227</v>
+      </c>
+      <c r="C236" s="30"/>
+      <c r="D236" s="46"/>
+      <c r="E236" s="47"/>
+      <c r="F236" s="66"/>
+      <c r="G236" s="47"/>
+      <c r="H236" s="48"/>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="18">
+        <v>228</v>
+      </c>
+      <c r="C237" s="30"/>
+      <c r="D237" s="46"/>
+      <c r="E237" s="47"/>
+      <c r="F237" s="66"/>
+      <c r="G237" s="47"/>
+      <c r="H237" s="48"/>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="18">
+        <v>229</v>
+      </c>
+      <c r="C238" s="30"/>
+      <c r="D238" s="46"/>
+      <c r="E238" s="47"/>
+      <c r="F238" s="66"/>
+      <c r="G238" s="47"/>
+      <c r="H238" s="48"/>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="18">
+        <v>230</v>
+      </c>
+      <c r="C239" s="30"/>
+      <c r="D239" s="46"/>
+      <c r="E239" s="47"/>
+      <c r="F239" s="66"/>
+      <c r="G239" s="47"/>
+      <c r="H239" s="48"/>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="18">
+        <v>231</v>
+      </c>
+      <c r="C240" s="30"/>
+      <c r="D240" s="46"/>
+      <c r="E240" s="47"/>
+      <c r="F240" s="66"/>
+      <c r="G240" s="47"/>
+      <c r="H240" s="48"/>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="18">
+        <v>232</v>
+      </c>
+      <c r="C241" s="30"/>
+      <c r="D241" s="46"/>
+      <c r="E241" s="47"/>
+      <c r="F241" s="66"/>
+      <c r="G241" s="47"/>
+      <c r="H241" s="48"/>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="18">
+        <v>233</v>
+      </c>
+      <c r="C242" s="30"/>
+      <c r="D242" s="46"/>
+      <c r="E242" s="47"/>
+      <c r="F242" s="66"/>
+      <c r="G242" s="47"/>
+      <c r="H242" s="48"/>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B243" s="18">
+        <v>234</v>
+      </c>
+      <c r="C243" s="30"/>
+      <c r="D243" s="46"/>
+      <c r="E243" s="47"/>
+      <c r="F243" s="66"/>
+      <c r="G243" s="47"/>
+      <c r="H243" s="48"/>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="18">
+        <v>235</v>
+      </c>
+      <c r="C244" s="30"/>
+      <c r="D244" s="46"/>
+      <c r="E244" s="47"/>
+      <c r="F244" s="66"/>
+      <c r="G244" s="47"/>
+      <c r="H244" s="48"/>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="18">
+        <v>236</v>
+      </c>
+      <c r="C245" s="30"/>
+      <c r="D245" s="46"/>
+      <c r="E245" s="47"/>
+      <c r="F245" s="66"/>
+      <c r="G245" s="47"/>
+      <c r="H245" s="48"/>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="18">
+        <v>237</v>
+      </c>
+      <c r="C246" s="30"/>
+      <c r="D246" s="46"/>
+      <c r="E246" s="47"/>
+      <c r="F246" s="66"/>
+      <c r="G246" s="47"/>
+      <c r="H246" s="48"/>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="18">
+        <v>238</v>
+      </c>
+      <c r="C247" s="30"/>
+      <c r="D247" s="46"/>
+      <c r="E247" s="47"/>
+      <c r="F247" s="66"/>
+      <c r="G247" s="47"/>
+      <c r="H247" s="48"/>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B248" s="18">
+        <v>239</v>
+      </c>
+      <c r="C248" s="30"/>
+      <c r="D248" s="46"/>
+      <c r="E248" s="47"/>
+      <c r="F248" s="66"/>
+      <c r="G248" s="47"/>
+      <c r="H248" s="48"/>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="18">
+        <v>240</v>
+      </c>
+      <c r="C249" s="30"/>
+      <c r="D249" s="46"/>
+      <c r="E249" s="47"/>
+      <c r="F249" s="66"/>
+      <c r="G249" s="47"/>
+      <c r="H249" s="48"/>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="18">
+        <v>241</v>
+      </c>
+      <c r="C250" s="30"/>
+      <c r="D250" s="46"/>
+      <c r="E250" s="47"/>
+      <c r="F250" s="66"/>
+      <c r="G250" s="47"/>
+      <c r="H250" s="48"/>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="18">
+        <v>242</v>
+      </c>
+      <c r="C251" s="30"/>
+      <c r="D251" s="46"/>
+      <c r="E251" s="47"/>
+      <c r="F251" s="66"/>
+      <c r="G251" s="47"/>
+      <c r="H251" s="48"/>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="18">
+        <v>243</v>
+      </c>
+      <c r="C252" s="30"/>
+      <c r="D252" s="46"/>
+      <c r="E252" s="47"/>
+      <c r="F252" s="66"/>
+      <c r="G252" s="47"/>
+      <c r="H252" s="48"/>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="18">
+        <v>244</v>
+      </c>
+      <c r="C253" s="30"/>
+      <c r="D253" s="46"/>
+      <c r="E253" s="47"/>
+      <c r="F253" s="66"/>
+      <c r="G253" s="47"/>
+      <c r="H253" s="48"/>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B254" s="18">
+        <v>245</v>
+      </c>
+      <c r="C254" s="30"/>
+      <c r="D254" s="46"/>
+      <c r="E254" s="47"/>
+      <c r="F254" s="66"/>
+      <c r="G254" s="47"/>
+      <c r="H254" s="48"/>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B255" s="18">
+        <v>246</v>
+      </c>
+      <c r="C255" s="30"/>
+      <c r="D255" s="46"/>
+      <c r="E255" s="47"/>
+      <c r="F255" s="66"/>
+      <c r="G255" s="47"/>
+      <c r="H255" s="48"/>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B256" s="18">
+        <v>247</v>
+      </c>
+      <c r="C256" s="30"/>
+      <c r="D256" s="46"/>
+      <c r="E256" s="47"/>
+      <c r="F256" s="66"/>
+      <c r="G256" s="47"/>
+      <c r="H256" s="48"/>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B257" s="18">
+        <v>248</v>
+      </c>
+      <c r="C257" s="30"/>
+      <c r="D257" s="46"/>
+      <c r="E257" s="47"/>
+      <c r="F257" s="66"/>
+      <c r="G257" s="47"/>
+      <c r="H257" s="48"/>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B258" s="18">
+        <v>249</v>
+      </c>
+      <c r="C258" s="30"/>
+      <c r="D258" s="46"/>
+      <c r="E258" s="47"/>
+      <c r="F258" s="66"/>
+      <c r="G258" s="47"/>
+      <c r="H258" s="48"/>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="18">
+        <v>250</v>
+      </c>
+      <c r="C259" s="30"/>
+      <c r="D259" s="46"/>
+      <c r="E259" s="47"/>
+      <c r="F259" s="66"/>
+      <c r="G259" s="47"/>
+      <c r="H259" s="48"/>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B260" s="18">
+        <v>251</v>
+      </c>
+      <c r="C260" s="30"/>
+      <c r="D260" s="46"/>
+      <c r="E260" s="47"/>
+      <c r="F260" s="66"/>
+      <c r="G260" s="47"/>
+      <c r="H260" s="48"/>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B261" s="18">
+        <v>252</v>
+      </c>
+      <c r="C261" s="30"/>
+      <c r="D261" s="46"/>
+      <c r="E261" s="47"/>
+      <c r="F261" s="66"/>
+      <c r="G261" s="47"/>
+      <c r="H261" s="48"/>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B262" s="18">
+        <v>253</v>
+      </c>
+      <c r="C262" s="30"/>
+      <c r="D262" s="46"/>
+      <c r="E262" s="47"/>
+      <c r="F262" s="66"/>
+      <c r="G262" s="47"/>
+      <c r="H262" s="48"/>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B263" s="18">
+        <v>254</v>
+      </c>
+      <c r="C263" s="30"/>
+      <c r="D263" s="46"/>
+      <c r="E263" s="47"/>
+      <c r="F263" s="66"/>
+      <c r="G263" s="47"/>
+      <c r="H263" s="48"/>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B264" s="18">
+        <v>255</v>
+      </c>
+      <c r="C264" s="30"/>
+      <c r="D264" s="46"/>
+      <c r="E264" s="47"/>
+      <c r="F264" s="66"/>
+      <c r="G264" s="47"/>
+      <c r="H264" s="48"/>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B265" s="18">
+        <v>256</v>
+      </c>
+      <c r="C265" s="30"/>
+      <c r="D265" s="46"/>
+      <c r="E265" s="47"/>
+      <c r="F265" s="66"/>
+      <c r="G265" s="47"/>
+      <c r="H265" s="48"/>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B266" s="18">
+        <v>257</v>
+      </c>
+      <c r="C266" s="30"/>
+      <c r="D266" s="46"/>
+      <c r="E266" s="47"/>
+      <c r="F266" s="66"/>
+      <c r="G266" s="47"/>
+      <c r="H266" s="48"/>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B267" s="18">
+        <v>258</v>
+      </c>
+      <c r="C267" s="30"/>
+      <c r="D267" s="46"/>
+      <c r="E267" s="47"/>
+      <c r="F267" s="66"/>
+      <c r="G267" s="47"/>
+      <c r="H267" s="48"/>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" s="18">
+        <v>259</v>
+      </c>
+      <c r="C268" s="30"/>
+      <c r="D268" s="46"/>
+      <c r="E268" s="47"/>
+      <c r="F268" s="66"/>
+      <c r="G268" s="47"/>
+      <c r="H268" s="48"/>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B269" s="18">
+        <v>260</v>
+      </c>
+      <c r="C269" s="30"/>
+      <c r="D269" s="46"/>
+      <c r="E269" s="47"/>
+      <c r="F269" s="66"/>
+      <c r="G269" s="47"/>
+      <c r="H269" s="48"/>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B270" s="18">
+        <v>261</v>
+      </c>
+      <c r="C270" s="30"/>
+      <c r="D270" s="46"/>
+      <c r="E270" s="47"/>
+      <c r="F270" s="66"/>
+      <c r="G270" s="47"/>
+      <c r="H270" s="48"/>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B271" s="18">
+        <v>262</v>
+      </c>
+      <c r="C271" s="30"/>
+      <c r="D271" s="46"/>
+      <c r="E271" s="47"/>
+      <c r="F271" s="66"/>
+      <c r="G271" s="47"/>
+      <c r="H271" s="48"/>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B272" s="18">
+        <v>263</v>
+      </c>
+      <c r="C272" s="30"/>
+      <c r="D272" s="46"/>
+      <c r="E272" s="47"/>
+      <c r="F272" s="66"/>
+      <c r="G272" s="47"/>
+      <c r="H272" s="48"/>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B273" s="18">
+        <v>264</v>
+      </c>
+      <c r="C273" s="30"/>
+      <c r="D273" s="46"/>
+      <c r="E273" s="47"/>
+      <c r="F273" s="66"/>
+      <c r="G273" s="47"/>
+      <c r="H273" s="48"/>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B274" s="18">
+        <v>265</v>
+      </c>
+      <c r="C274" s="30"/>
+      <c r="D274" s="46"/>
+      <c r="E274" s="47"/>
+      <c r="F274" s="66"/>
+      <c r="G274" s="47"/>
+      <c r="H274" s="48"/>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B275" s="18">
+        <v>266</v>
+      </c>
+      <c r="C275" s="30"/>
+      <c r="D275" s="46"/>
+      <c r="E275" s="47"/>
+      <c r="F275" s="66"/>
+      <c r="G275" s="47"/>
+      <c r="H275" s="48"/>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B276" s="18">
+        <v>267</v>
+      </c>
+      <c r="C276" s="30"/>
+      <c r="D276" s="46"/>
+      <c r="E276" s="47"/>
+      <c r="F276" s="66"/>
+      <c r="G276" s="47"/>
+      <c r="H276" s="48"/>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B277" s="18">
+        <v>268</v>
+      </c>
+      <c r="C277" s="30"/>
+      <c r="D277" s="46"/>
+      <c r="E277" s="47"/>
+      <c r="F277" s="66"/>
+      <c r="G277" s="47"/>
+      <c r="H277" s="48"/>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="18">
+        <v>269</v>
+      </c>
+      <c r="C278" s="30"/>
+      <c r="D278" s="46"/>
+      <c r="E278" s="47"/>
+      <c r="F278" s="66"/>
+      <c r="G278" s="47"/>
+      <c r="H278" s="48"/>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B279" s="18">
+        <v>270</v>
+      </c>
+      <c r="C279" s="30"/>
+      <c r="D279" s="46"/>
+      <c r="E279" s="47"/>
+      <c r="F279" s="66"/>
+      <c r="G279" s="47"/>
+      <c r="H279" s="48"/>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="18">
+        <v>271</v>
+      </c>
+      <c r="C280" s="30"/>
+      <c r="D280" s="46"/>
+      <c r="E280" s="47"/>
+      <c r="F280" s="66"/>
+      <c r="G280" s="47"/>
+      <c r="H280" s="48"/>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B281" s="18">
+        <v>272</v>
+      </c>
+      <c r="C281" s="30"/>
+      <c r="D281" s="46"/>
+      <c r="E281" s="47"/>
+      <c r="F281" s="66"/>
+      <c r="G281" s="47"/>
+      <c r="H281" s="48"/>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B282" s="18">
+        <v>273</v>
+      </c>
+      <c r="C282" s="30"/>
+      <c r="D282" s="46"/>
+      <c r="E282" s="47"/>
+      <c r="F282" s="66"/>
+      <c r="G282" s="47"/>
+      <c r="H282" s="48"/>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B283" s="18">
+        <v>274</v>
+      </c>
+      <c r="C283" s="30"/>
+      <c r="D283" s="46"/>
+      <c r="E283" s="47"/>
+      <c r="F283" s="66"/>
+      <c r="G283" s="47"/>
+      <c r="H283" s="48"/>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B284" s="18">
+        <v>275</v>
+      </c>
+      <c r="C284" s="30"/>
+      <c r="D284" s="46"/>
+      <c r="E284" s="47"/>
+      <c r="F284" s="66"/>
+      <c r="G284" s="47"/>
+      <c r="H284" s="48"/>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B285" s="18">
+        <v>276</v>
+      </c>
+      <c r="C285" s="30"/>
+      <c r="D285" s="46"/>
+      <c r="E285" s="47"/>
+      <c r="F285" s="66"/>
+      <c r="G285" s="47"/>
+      <c r="H285" s="48"/>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B286" s="18">
+        <v>277</v>
+      </c>
+      <c r="C286" s="30"/>
+      <c r="D286" s="46"/>
+      <c r="E286" s="47"/>
+      <c r="F286" s="66"/>
+      <c r="G286" s="47"/>
+      <c r="H286" s="48"/>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B287" s="18">
+        <v>278</v>
+      </c>
+      <c r="C287" s="30"/>
+      <c r="D287" s="46"/>
+      <c r="E287" s="47"/>
+      <c r="F287" s="66"/>
+      <c r="G287" s="47"/>
+      <c r="H287" s="48"/>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B288" s="18">
+        <v>279</v>
+      </c>
+      <c r="C288" s="30"/>
+      <c r="D288" s="46"/>
+      <c r="E288" s="47"/>
+      <c r="F288" s="66"/>
+      <c r="G288" s="47"/>
+      <c r="H288" s="48"/>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" s="18">
+        <v>280</v>
+      </c>
+      <c r="C289" s="30"/>
+      <c r="D289" s="46"/>
+      <c r="E289" s="47"/>
+      <c r="F289" s="66"/>
+      <c r="G289" s="47"/>
+      <c r="H289" s="48"/>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B290" s="18">
+        <v>281</v>
+      </c>
+      <c r="C290" s="30"/>
+      <c r="D290" s="46"/>
+      <c r="E290" s="47"/>
+      <c r="F290" s="66"/>
+      <c r="G290" s="47"/>
+      <c r="H290" s="48"/>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B291" s="18">
+        <v>282</v>
+      </c>
+      <c r="C291" s="30"/>
+      <c r="D291" s="46"/>
+      <c r="E291" s="47"/>
+      <c r="F291" s="66"/>
+      <c r="G291" s="47"/>
+      <c r="H291" s="48"/>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B292" s="18">
+        <v>283</v>
+      </c>
+      <c r="C292" s="30"/>
+      <c r="D292" s="46"/>
+      <c r="E292" s="47"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="47"/>
+      <c r="H292" s="48"/>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B293" s="18">
+        <v>284</v>
+      </c>
+      <c r="C293" s="30"/>
+      <c r="D293" s="46"/>
+      <c r="E293" s="47"/>
+      <c r="F293" s="66"/>
+      <c r="G293" s="47"/>
+      <c r="H293" s="48"/>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B294" s="18">
+        <v>285</v>
+      </c>
+      <c r="C294" s="30"/>
+      <c r="D294" s="46"/>
+      <c r="E294" s="47"/>
+      <c r="F294" s="66"/>
+      <c r="G294" s="47"/>
+      <c r="H294" s="48"/>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B295" s="18">
+        <v>286</v>
+      </c>
+      <c r="C295" s="30"/>
+      <c r="D295" s="46"/>
+      <c r="E295" s="47"/>
+      <c r="F295" s="66"/>
+      <c r="G295" s="47"/>
+      <c r="H295" s="48"/>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B296" s="18">
+        <v>287</v>
+      </c>
+      <c r="C296" s="30"/>
+      <c r="D296" s="46"/>
+      <c r="E296" s="47"/>
+      <c r="F296" s="66"/>
+      <c r="G296" s="47"/>
+      <c r="H296" s="48"/>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B297" s="18">
+        <v>288</v>
+      </c>
+      <c r="C297" s="30"/>
+      <c r="D297" s="46"/>
+      <c r="E297" s="47"/>
+      <c r="F297" s="66"/>
+      <c r="G297" s="47"/>
+      <c r="H297" s="48"/>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B298" s="18">
+        <v>289</v>
+      </c>
+      <c r="C298" s="30"/>
+      <c r="D298" s="46"/>
+      <c r="E298" s="47"/>
+      <c r="F298" s="66"/>
+      <c r="G298" s="47"/>
+      <c r="H298" s="48"/>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B299" s="18">
+        <v>290</v>
+      </c>
+      <c r="C299" s="30"/>
+      <c r="D299" s="46"/>
+      <c r="E299" s="47"/>
+      <c r="F299" s="66"/>
+      <c r="G299" s="47"/>
+      <c r="H299" s="48"/>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B300" s="18">
+        <v>291</v>
+      </c>
+      <c r="C300" s="30"/>
+      <c r="D300" s="46"/>
+      <c r="E300" s="47"/>
+      <c r="F300" s="66"/>
+      <c r="G300" s="47"/>
+      <c r="H300" s="48"/>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B301" s="18">
+        <v>292</v>
+      </c>
+      <c r="C301" s="30"/>
+      <c r="D301" s="46"/>
+      <c r="E301" s="47"/>
+      <c r="F301" s="66"/>
+      <c r="G301" s="47"/>
+      <c r="H301" s="48"/>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B302" s="18">
+        <v>293</v>
+      </c>
+      <c r="C302" s="30"/>
+      <c r="D302" s="46"/>
+      <c r="E302" s="47"/>
+      <c r="F302" s="66"/>
+      <c r="G302" s="47"/>
+      <c r="H302" s="48"/>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B303" s="18">
+        <v>294</v>
+      </c>
+      <c r="C303" s="30"/>
+      <c r="D303" s="46"/>
+      <c r="E303" s="47"/>
+      <c r="F303" s="66"/>
+      <c r="G303" s="47"/>
+      <c r="H303" s="48"/>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B304" s="18">
+        <v>295</v>
+      </c>
+      <c r="C304" s="30"/>
+      <c r="D304" s="46"/>
+      <c r="E304" s="47"/>
+      <c r="F304" s="66"/>
+      <c r="G304" s="47"/>
+      <c r="H304" s="48"/>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B305" s="18">
+        <v>296</v>
+      </c>
+      <c r="C305" s="30"/>
+      <c r="D305" s="46"/>
+      <c r="E305" s="47"/>
+      <c r="F305" s="66"/>
+      <c r="G305" s="47"/>
+      <c r="H305" s="48"/>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B306" s="18">
+        <v>297</v>
+      </c>
+      <c r="C306" s="30"/>
+      <c r="D306" s="46"/>
+      <c r="E306" s="47"/>
+      <c r="F306" s="66"/>
+      <c r="G306" s="47"/>
+      <c r="H306" s="48"/>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B307" s="18">
+        <v>298</v>
+      </c>
+      <c r="C307" s="30"/>
+      <c r="D307" s="46"/>
+      <c r="E307" s="47"/>
+      <c r="F307" s="66"/>
+      <c r="G307" s="47"/>
+      <c r="H307" s="48"/>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B308" s="18">
+        <v>299</v>
+      </c>
+      <c r="C308" s="30"/>
+      <c r="D308" s="46"/>
+      <c r="E308" s="47"/>
+      <c r="F308" s="66"/>
+      <c r="G308" s="47"/>
+      <c r="H308" s="48"/>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B309" s="18">
+        <v>300</v>
+      </c>
+      <c r="C309" s="30"/>
+      <c r="D309" s="46"/>
+      <c r="E309" s="47"/>
+      <c r="F309" s="66"/>
+      <c r="G309" s="47"/>
+      <c r="H309" s="48"/>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B310" s="18">
+        <v>301</v>
+      </c>
+      <c r="C310" s="30"/>
+      <c r="D310" s="46"/>
+      <c r="E310" s="47"/>
+      <c r="F310" s="66"/>
+      <c r="G310" s="47"/>
+      <c r="H310" s="48"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B311" s="18">
+        <v>302</v>
+      </c>
+      <c r="C311" s="30"/>
+      <c r="D311" s="46"/>
+      <c r="E311" s="47"/>
+      <c r="F311" s="66"/>
+      <c r="G311" s="47"/>
+      <c r="H311" s="48"/>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B312" s="18">
+        <v>303</v>
+      </c>
+      <c r="C312" s="30"/>
+      <c r="D312" s="46"/>
+      <c r="E312" s="47"/>
+      <c r="F312" s="66"/>
+      <c r="G312" s="47"/>
+      <c r="H312" s="48"/>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B313" s="18">
+        <v>304</v>
+      </c>
+      <c r="C313" s="30"/>
+      <c r="D313" s="46"/>
+      <c r="E313" s="47"/>
+      <c r="F313" s="66"/>
+      <c r="G313" s="47"/>
+      <c r="H313" s="48"/>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B314" s="18">
+        <v>305</v>
+      </c>
+      <c r="C314" s="30"/>
+      <c r="D314" s="46"/>
+      <c r="E314" s="47"/>
+      <c r="F314" s="66"/>
+      <c r="G314" s="47"/>
+      <c r="H314" s="48"/>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B315" s="18">
+        <v>306</v>
+      </c>
+      <c r="C315" s="30"/>
+      <c r="D315" s="46"/>
+      <c r="E315" s="47"/>
+      <c r="F315" s="66"/>
+      <c r="G315" s="47"/>
+      <c r="H315" s="48"/>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B316" s="18">
+        <v>307</v>
+      </c>
+      <c r="C316" s="30"/>
+      <c r="D316" s="46"/>
+      <c r="E316" s="47"/>
+      <c r="F316" s="66"/>
+      <c r="G316" s="47"/>
+      <c r="H316" s="48"/>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B317" s="18">
+        <v>308</v>
+      </c>
+      <c r="C317" s="30"/>
+      <c r="D317" s="46"/>
+      <c r="E317" s="47"/>
+      <c r="F317" s="66"/>
+      <c r="G317" s="47"/>
+      <c r="H317" s="48"/>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B318" s="18">
+        <v>309</v>
+      </c>
+      <c r="C318" s="30"/>
+      <c r="D318" s="46"/>
+      <c r="E318" s="47"/>
+      <c r="F318" s="66"/>
+      <c r="G318" s="47"/>
+      <c r="H318" s="48"/>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B319" s="18">
+        <v>310</v>
+      </c>
+      <c r="C319" s="30"/>
+      <c r="D319" s="46"/>
+      <c r="E319" s="47"/>
+      <c r="F319" s="66"/>
+      <c r="G319" s="47"/>
+      <c r="H319" s="48"/>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B320" s="18">
+        <v>311</v>
+      </c>
+      <c r="C320" s="30"/>
+      <c r="D320" s="46"/>
+      <c r="E320" s="47"/>
+      <c r="F320" s="66"/>
+      <c r="G320" s="47"/>
+      <c r="H320" s="48"/>
+    </row>
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B321" s="18">
+        <v>312</v>
+      </c>
+      <c r="C321" s="30"/>
+      <c r="D321" s="46"/>
+      <c r="E321" s="47"/>
+      <c r="F321" s="66"/>
+      <c r="G321" s="47"/>
+      <c r="H321" s="48"/>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B322" s="18">
+        <v>313</v>
+      </c>
+      <c r="C322" s="30"/>
+      <c r="D322" s="46"/>
+      <c r="E322" s="47"/>
+      <c r="F322" s="66"/>
+      <c r="G322" s="47"/>
+      <c r="H322" s="48"/>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B323" s="18">
+        <v>314</v>
+      </c>
+      <c r="C323" s="30"/>
+      <c r="D323" s="46"/>
+      <c r="E323" s="47"/>
+      <c r="F323" s="66"/>
+      <c r="G323" s="47"/>
+      <c r="H323" s="48"/>
+    </row>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B324" s="18">
+        <v>315</v>
+      </c>
+      <c r="C324" s="30"/>
+      <c r="D324" s="46"/>
+      <c r="E324" s="47"/>
+      <c r="F324" s="66"/>
+      <c r="G324" s="47"/>
+      <c r="H324" s="48"/>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B325" s="18">
+        <v>316</v>
+      </c>
+      <c r="C325" s="30"/>
+      <c r="D325" s="46"/>
+      <c r="E325" s="47"/>
+      <c r="F325" s="66"/>
+      <c r="G325" s="47"/>
+      <c r="H325" s="48"/>
+    </row>
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B326" s="18">
+        <v>317</v>
+      </c>
+      <c r="C326" s="30"/>
+      <c r="D326" s="46"/>
+      <c r="E326" s="47"/>
+      <c r="F326" s="66"/>
+      <c r="G326" s="47"/>
+      <c r="H326" s="48"/>
+    </row>
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B327" s="18">
+        <v>318</v>
+      </c>
+      <c r="C327" s="30"/>
+      <c r="D327" s="46"/>
+      <c r="E327" s="47"/>
+      <c r="F327" s="66"/>
+      <c r="G327" s="47"/>
+      <c r="H327" s="48"/>
+    </row>
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B328" s="18">
+        <v>319</v>
+      </c>
+      <c r="C328" s="30"/>
+      <c r="D328" s="46"/>
+      <c r="E328" s="47"/>
+      <c r="F328" s="66"/>
+      <c r="G328" s="47"/>
+      <c r="H328" s="48"/>
+    </row>
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B329" s="18">
+        <v>320</v>
+      </c>
+      <c r="C329" s="30"/>
+      <c r="D329" s="46"/>
+      <c r="E329" s="47"/>
+      <c r="F329" s="66"/>
+      <c r="G329" s="47"/>
+      <c r="H329" s="48"/>
+    </row>
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B330" s="18">
+        <v>321</v>
+      </c>
+      <c r="C330" s="30"/>
+      <c r="D330" s="46"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="66"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="48"/>
+    </row>
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B331" s="18">
+        <v>322</v>
+      </c>
+      <c r="C331" s="30"/>
+      <c r="D331" s="46"/>
+      <c r="E331" s="47"/>
+      <c r="F331" s="66"/>
+      <c r="G331" s="47"/>
+      <c r="H331" s="48"/>
+    </row>
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B332" s="18">
+        <v>323</v>
+      </c>
+      <c r="C332" s="30"/>
+      <c r="D332" s="46"/>
+      <c r="E332" s="47"/>
+      <c r="F332" s="66"/>
+      <c r="G332" s="47"/>
+      <c r="H332" s="48"/>
+    </row>
+    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B333" s="18">
+        <v>324</v>
+      </c>
+      <c r="C333" s="30"/>
+      <c r="D333" s="46"/>
+      <c r="E333" s="47"/>
+      <c r="F333" s="66"/>
+      <c r="G333" s="47"/>
+      <c r="H333" s="48"/>
+    </row>
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B334" s="18">
+        <v>325</v>
+      </c>
+      <c r="C334" s="30"/>
+      <c r="D334" s="46"/>
+      <c r="E334" s="47"/>
+      <c r="F334" s="66"/>
+      <c r="G334" s="47"/>
+      <c r="H334" s="48"/>
+    </row>
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B335" s="18">
+        <v>326</v>
+      </c>
+      <c r="C335" s="30"/>
+      <c r="D335" s="46"/>
+      <c r="E335" s="47"/>
+      <c r="F335" s="66"/>
+      <c r="G335" s="47"/>
+      <c r="H335" s="48"/>
+    </row>
+    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B336" s="18">
+        <v>327</v>
+      </c>
+      <c r="C336" s="30"/>
+      <c r="D336" s="46"/>
+      <c r="E336" s="47"/>
+      <c r="F336" s="66"/>
+      <c r="G336" s="47"/>
+      <c r="H336" s="48"/>
+    </row>
+    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B337" s="18">
+        <v>328</v>
+      </c>
+      <c r="C337" s="30"/>
+      <c r="D337" s="46"/>
+      <c r="E337" s="47"/>
+      <c r="F337" s="66"/>
+      <c r="G337" s="47"/>
+      <c r="H337" s="48"/>
+    </row>
+    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B338" s="18">
+        <v>329</v>
+      </c>
+      <c r="C338" s="30"/>
+      <c r="D338" s="46"/>
+      <c r="E338" s="47"/>
+      <c r="F338" s="66"/>
+      <c r="G338" s="47"/>
+      <c r="H338" s="48"/>
+    </row>
+    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B339" s="18">
+        <v>330</v>
+      </c>
+      <c r="C339" s="30"/>
+      <c r="D339" s="46"/>
+      <c r="E339" s="47"/>
+      <c r="F339" s="66"/>
+      <c r="G339" s="47"/>
+      <c r="H339" s="48"/>
+    </row>
+    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B340" s="18">
+        <v>331</v>
+      </c>
+      <c r="C340" s="30"/>
+      <c r="D340" s="46"/>
+      <c r="E340" s="47"/>
+      <c r="F340" s="66"/>
+      <c r="G340" s="47"/>
+      <c r="H340" s="48"/>
+    </row>
+    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B341" s="18">
+        <v>332</v>
+      </c>
+      <c r="C341" s="30"/>
+      <c r="D341" s="46"/>
+      <c r="E341" s="47"/>
+      <c r="F341" s="66"/>
+      <c r="G341" s="47"/>
+      <c r="H341" s="48"/>
+    </row>
+    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B342" s="18">
+        <v>333</v>
+      </c>
+      <c r="C342" s="30"/>
+      <c r="D342" s="46"/>
+      <c r="E342" s="47"/>
+      <c r="F342" s="66"/>
+      <c r="G342" s="47"/>
+      <c r="H342" s="48"/>
+    </row>
+    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B343" s="18">
+        <v>334</v>
+      </c>
+      <c r="C343" s="30"/>
+      <c r="D343" s="46"/>
+      <c r="E343" s="47"/>
+      <c r="F343" s="66"/>
+      <c r="G343" s="47"/>
+      <c r="H343" s="48"/>
+    </row>
+    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B344" s="18">
+        <v>335</v>
+      </c>
+      <c r="C344" s="30"/>
+      <c r="D344" s="46"/>
+      <c r="E344" s="47"/>
+      <c r="F344" s="66"/>
+      <c r="G344" s="47"/>
+      <c r="H344" s="48"/>
+    </row>
+    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B345" s="18">
+        <v>336</v>
+      </c>
+      <c r="C345" s="30"/>
+      <c r="D345" s="46"/>
+      <c r="E345" s="47"/>
+      <c r="F345" s="66"/>
+      <c r="G345" s="47"/>
+      <c r="H345" s="48"/>
+    </row>
+    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B346" s="18">
+        <v>337</v>
+      </c>
+      <c r="C346" s="30"/>
+      <c r="D346" s="46"/>
+      <c r="E346" s="47"/>
+      <c r="F346" s="66"/>
+      <c r="G346" s="47"/>
+      <c r="H346" s="48"/>
+    </row>
+    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B347" s="18">
+        <v>338</v>
+      </c>
+      <c r="C347" s="30"/>
+      <c r="D347" s="46"/>
+      <c r="E347" s="47"/>
+      <c r="F347" s="66"/>
+      <c r="G347" s="47"/>
+      <c r="H347" s="48"/>
+    </row>
+    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B348" s="18">
+        <v>339</v>
+      </c>
+      <c r="C348" s="30"/>
+      <c r="D348" s="46"/>
+      <c r="E348" s="47"/>
+      <c r="F348" s="66"/>
+      <c r="G348" s="47"/>
+      <c r="H348" s="48"/>
+    </row>
+    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B349" s="18">
+        <v>340</v>
+      </c>
+      <c r="C349" s="30"/>
+      <c r="D349" s="46"/>
+      <c r="E349" s="47"/>
+      <c r="F349" s="66"/>
+      <c r="G349" s="47"/>
+      <c r="H349" s="48"/>
+    </row>
+    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B350" s="18">
+        <v>341</v>
+      </c>
+      <c r="C350" s="30"/>
+      <c r="D350" s="46"/>
+      <c r="E350" s="47"/>
+      <c r="F350" s="66"/>
+      <c r="G350" s="47"/>
+      <c r="H350" s="48"/>
+    </row>
+    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B351" s="18">
+        <v>342</v>
+      </c>
+      <c r="C351" s="30"/>
+      <c r="D351" s="46"/>
+      <c r="E351" s="47"/>
+      <c r="F351" s="66"/>
+      <c r="G351" s="47"/>
+      <c r="H351" s="48"/>
+    </row>
+    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B352" s="18">
+        <v>343</v>
+      </c>
+      <c r="C352" s="30"/>
+      <c r="D352" s="46"/>
+      <c r="E352" s="47"/>
+      <c r="F352" s="66"/>
+      <c r="G352" s="47"/>
+      <c r="H352" s="48"/>
+    </row>
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B353" s="18">
+        <v>344</v>
+      </c>
+      <c r="C353" s="30"/>
+      <c r="D353" s="46"/>
+      <c r="E353" s="47"/>
+      <c r="F353" s="66"/>
+      <c r="G353" s="47"/>
+      <c r="H353" s="48"/>
+    </row>
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B354" s="18">
+        <v>345</v>
+      </c>
+      <c r="C354" s="30"/>
+      <c r="D354" s="46"/>
+      <c r="E354" s="47"/>
+      <c r="F354" s="66"/>
+      <c r="G354" s="47"/>
+      <c r="H354" s="48"/>
+    </row>
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B355" s="18">
+        <v>346</v>
+      </c>
+      <c r="C355" s="30"/>
+      <c r="D355" s="46"/>
+      <c r="E355" s="47"/>
+      <c r="F355" s="66"/>
+      <c r="G355" s="47"/>
+      <c r="H355" s="48"/>
+    </row>
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B356" s="18">
+        <v>347</v>
+      </c>
+      <c r="C356" s="30"/>
+      <c r="D356" s="46"/>
+      <c r="E356" s="47"/>
+      <c r="F356" s="66"/>
+      <c r="G356" s="47"/>
+      <c r="H356" s="48"/>
+    </row>
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B357" s="18">
+        <v>348</v>
+      </c>
+      <c r="C357" s="30"/>
+      <c r="D357" s="46"/>
+      <c r="E357" s="47"/>
+      <c r="F357" s="66"/>
+      <c r="G357" s="47"/>
+      <c r="H357" s="48"/>
+    </row>
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B358" s="18">
+        <v>349</v>
+      </c>
+      <c r="C358" s="30"/>
+      <c r="D358" s="46"/>
+      <c r="E358" s="47"/>
+      <c r="F358" s="66"/>
+      <c r="G358" s="47"/>
+      <c r="H358" s="48"/>
+    </row>
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B359" s="18">
+        <v>350</v>
+      </c>
+      <c r="C359" s="30"/>
+      <c r="D359" s="46"/>
+      <c r="E359" s="47"/>
+      <c r="F359" s="66"/>
+      <c r="G359" s="47"/>
+      <c r="H359" s="48"/>
+    </row>
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B360" s="18">
+        <v>351</v>
+      </c>
+      <c r="C360" s="30"/>
+      <c r="D360" s="46"/>
+      <c r="E360" s="47"/>
+      <c r="F360" s="66"/>
+      <c r="G360" s="47"/>
+      <c r="H360" s="48"/>
+    </row>
+    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B361" s="18">
+        <v>352</v>
+      </c>
+      <c r="C361" s="30"/>
+      <c r="D361" s="46"/>
+      <c r="E361" s="47"/>
+      <c r="F361" s="66"/>
+      <c r="G361" s="47"/>
+      <c r="H361" s="48"/>
+    </row>
+    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B362" s="18">
+        <v>353</v>
+      </c>
+      <c r="C362" s="30"/>
+      <c r="D362" s="46"/>
+      <c r="E362" s="47"/>
+      <c r="F362" s="66"/>
+      <c r="G362" s="47"/>
+      <c r="H362" s="48"/>
+    </row>
+    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B363" s="18">
+        <v>354</v>
+      </c>
+      <c r="C363" s="30"/>
+      <c r="D363" s="46"/>
+      <c r="E363" s="47"/>
+      <c r="F363" s="66"/>
+      <c r="G363" s="47"/>
+      <c r="H363" s="48"/>
+    </row>
+    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B364" s="18">
+        <v>355</v>
+      </c>
+      <c r="C364" s="30"/>
+      <c r="D364" s="46"/>
+      <c r="E364" s="47"/>
+      <c r="F364" s="66"/>
+      <c r="G364" s="47"/>
+      <c r="H364" s="48"/>
+    </row>
+    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B365" s="18">
+        <v>356</v>
+      </c>
+      <c r="C365" s="30"/>
+      <c r="D365" s="46"/>
+      <c r="E365" s="47"/>
+      <c r="F365" s="66"/>
+      <c r="G365" s="47"/>
+      <c r="H365" s="48"/>
+    </row>
+    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B366" s="18">
+        <v>357</v>
+      </c>
+      <c r="C366" s="30"/>
+      <c r="D366" s="46"/>
+      <c r="E366" s="47"/>
+      <c r="F366" s="66"/>
+      <c r="G366" s="47"/>
+      <c r="H366" s="48"/>
+    </row>
+    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B367" s="18">
+        <v>358</v>
+      </c>
+      <c r="C367" s="30"/>
+      <c r="D367" s="46"/>
+      <c r="E367" s="47"/>
+      <c r="F367" s="66"/>
+      <c r="G367" s="47"/>
+      <c r="H367" s="48"/>
+    </row>
+    <row r="368" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B368" s="18">
+        <v>359</v>
+      </c>
+      <c r="C368" s="30"/>
+      <c r="D368" s="46"/>
+      <c r="E368" s="47"/>
+      <c r="F368" s="66"/>
+      <c r="G368" s="47"/>
+      <c r="H368" s="48"/>
+    </row>
+    <row r="369" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B369" s="18">
+        <v>360</v>
+      </c>
+      <c r="C369" s="30"/>
+      <c r="D369" s="46"/>
+      <c r="E369" s="47"/>
+      <c r="F369" s="66"/>
+      <c r="G369" s="47"/>
+      <c r="H369" s="48"/>
+    </row>
+    <row r="370" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B370" s="18">
+        <v>361</v>
+      </c>
+      <c r="C370" s="30"/>
+      <c r="D370" s="46"/>
+      <c r="E370" s="47"/>
+      <c r="F370" s="66"/>
+      <c r="G370" s="47"/>
+      <c r="H370" s="48"/>
+    </row>
+    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B371" s="18">
+        <v>362</v>
+      </c>
+      <c r="C371" s="30"/>
+      <c r="D371" s="46"/>
+      <c r="E371" s="47"/>
+      <c r="F371" s="66"/>
+      <c r="G371" s="47"/>
+      <c r="H371" s="48"/>
+    </row>
+    <row r="372" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B372" s="18">
+        <v>363</v>
+      </c>
+      <c r="C372" s="30"/>
+      <c r="D372" s="46"/>
+      <c r="E372" s="47"/>
+      <c r="F372" s="66"/>
+      <c r="G372" s="47"/>
+      <c r="H372" s="48"/>
+    </row>
+    <row r="373" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B373" s="18">
+        <v>364</v>
+      </c>
+      <c r="C373" s="30"/>
+      <c r="D373" s="46"/>
+      <c r="E373" s="47"/>
+      <c r="F373" s="66"/>
+      <c r="G373" s="47"/>
+      <c r="H373" s="48"/>
+    </row>
+    <row r="374" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B374" s="18">
+        <v>365</v>
+      </c>
+      <c r="C374" s="30"/>
+      <c r="D374" s="46"/>
+      <c r="E374" s="47"/>
+      <c r="F374" s="66"/>
+      <c r="G374" s="47"/>
+      <c r="H374" s="48"/>
+    </row>
+    <row r="375" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B375" s="18">
+        <v>366</v>
+      </c>
+      <c r="C375" s="30"/>
+      <c r="D375" s="46"/>
+      <c r="E375" s="47"/>
+      <c r="F375" s="66"/>
+      <c r="G375" s="47"/>
+      <c r="H375" s="48"/>
+    </row>
+    <row r="376" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B376" s="18">
+        <v>367</v>
+      </c>
+      <c r="C376" s="30"/>
+      <c r="D376" s="46"/>
+      <c r="E376" s="47"/>
+      <c r="F376" s="66"/>
+      <c r="G376" s="47"/>
+      <c r="H376" s="48"/>
+    </row>
+    <row r="377" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B377" s="18">
+        <v>368</v>
+      </c>
+      <c r="C377" s="30"/>
+      <c r="D377" s="46"/>
+      <c r="E377" s="47"/>
+      <c r="F377" s="66"/>
+      <c r="G377" s="47"/>
+      <c r="H377" s="48"/>
+    </row>
+    <row r="378" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B378" s="18">
+        <v>369</v>
+      </c>
+      <c r="C378" s="30"/>
+      <c r="D378" s="46"/>
+      <c r="E378" s="47"/>
+      <c r="F378" s="66"/>
+      <c r="G378" s="47"/>
+      <c r="H378" s="48"/>
+    </row>
+    <row r="379" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B379" s="18">
+        <v>370</v>
+      </c>
+      <c r="C379" s="30"/>
+      <c r="D379" s="46"/>
+      <c r="E379" s="47"/>
+      <c r="F379" s="66"/>
+      <c r="G379" s="47"/>
+      <c r="H379" s="48"/>
+    </row>
+    <row r="380" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B380" s="18">
+        <v>371</v>
+      </c>
+      <c r="C380" s="30"/>
+      <c r="D380" s="46"/>
+      <c r="E380" s="47"/>
+      <c r="F380" s="66"/>
+      <c r="G380" s="47"/>
+      <c r="H380" s="48"/>
+    </row>
+    <row r="381" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B381" s="18">
+        <v>372</v>
+      </c>
+      <c r="C381" s="30"/>
+      <c r="D381" s="46"/>
+      <c r="E381" s="47"/>
+      <c r="F381" s="66"/>
+      <c r="G381" s="47"/>
+      <c r="H381" s="48"/>
+    </row>
+    <row r="382" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B382" s="18">
+        <v>373</v>
+      </c>
+      <c r="C382" s="30"/>
+      <c r="D382" s="46"/>
+      <c r="E382" s="47"/>
+      <c r="F382" s="66"/>
+      <c r="G382" s="47"/>
+      <c r="H382" s="48"/>
+    </row>
+    <row r="383" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B383" s="18">
+        <v>374</v>
+      </c>
+      <c r="C383" s="30"/>
+      <c r="D383" s="46"/>
+      <c r="E383" s="47"/>
+      <c r="F383" s="66"/>
+      <c r="G383" s="47"/>
+      <c r="H383" s="48"/>
+    </row>
+    <row r="384" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B384" s="18">
+        <v>375</v>
+      </c>
+      <c r="C384" s="30"/>
+      <c r="D384" s="46"/>
+      <c r="E384" s="47"/>
+      <c r="F384" s="66"/>
+      <c r="G384" s="47"/>
+      <c r="H384" s="48"/>
+    </row>
+    <row r="385" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B385" s="18">
+        <v>376</v>
+      </c>
+      <c r="C385" s="30"/>
+      <c r="D385" s="46"/>
+      <c r="E385" s="47"/>
+      <c r="F385" s="66"/>
+      <c r="G385" s="47"/>
+      <c r="H385" s="48"/>
+    </row>
+    <row r="386" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B386" s="18">
+        <v>377</v>
+      </c>
+      <c r="C386" s="30"/>
+      <c r="D386" s="46"/>
+      <c r="E386" s="47"/>
+      <c r="F386" s="66"/>
+      <c r="G386" s="47"/>
+      <c r="H386" s="48"/>
+    </row>
+    <row r="387" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B387" s="18">
+        <v>378</v>
+      </c>
+      <c r="C387" s="30"/>
+      <c r="D387" s="46"/>
+      <c r="E387" s="47"/>
+      <c r="F387" s="66"/>
+      <c r="G387" s="47"/>
+      <c r="H387" s="48"/>
+    </row>
+    <row r="388" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B388" s="18">
+        <v>379</v>
+      </c>
+      <c r="C388" s="30"/>
+      <c r="D388" s="46"/>
+      <c r="E388" s="47"/>
+      <c r="F388" s="66"/>
+      <c r="G388" s="47"/>
+      <c r="H388" s="48"/>
+    </row>
+    <row r="389" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B389" s="18">
+        <v>380</v>
+      </c>
+      <c r="C389" s="30"/>
+      <c r="D389" s="46"/>
+      <c r="E389" s="47"/>
+      <c r="F389" s="66"/>
+      <c r="G389" s="47"/>
+      <c r="H389" s="48"/>
+    </row>
+    <row r="390" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B390" s="18">
+        <v>381</v>
+      </c>
+      <c r="C390" s="30"/>
+      <c r="D390" s="46"/>
+      <c r="E390" s="47"/>
+      <c r="F390" s="66"/>
+      <c r="G390" s="47"/>
+      <c r="H390" s="48"/>
+    </row>
+    <row r="391" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B391" s="18">
+        <v>382</v>
+      </c>
+      <c r="C391" s="30"/>
+      <c r="D391" s="46"/>
+      <c r="E391" s="47"/>
+      <c r="F391" s="66"/>
+      <c r="G391" s="47"/>
+      <c r="H391" s="48"/>
+    </row>
+    <row r="392" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B392" s="18">
+        <v>383</v>
+      </c>
+      <c r="C392" s="30"/>
+      <c r="D392" s="46"/>
+      <c r="E392" s="47"/>
+      <c r="F392" s="66"/>
+      <c r="G392" s="47"/>
+      <c r="H392" s="48"/>
+    </row>
+    <row r="393" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B393" s="18">
+        <v>384</v>
+      </c>
+      <c r="C393" s="30"/>
+      <c r="D393" s="46"/>
+      <c r="E393" s="47"/>
+      <c r="F393" s="66"/>
+      <c r="G393" s="47"/>
+      <c r="H393" s="48"/>
+    </row>
+    <row r="394" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B394" s="18">
+        <v>385</v>
+      </c>
+      <c r="C394" s="30"/>
+      <c r="D394" s="46"/>
+      <c r="E394" s="47"/>
+      <c r="F394" s="66"/>
+      <c r="G394" s="47"/>
+      <c r="H394" s="48"/>
+    </row>
+    <row r="395" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B395" s="18">
+        <v>386</v>
+      </c>
+      <c r="C395" s="30"/>
+      <c r="D395" s="46"/>
+      <c r="E395" s="47"/>
+      <c r="F395" s="66"/>
+      <c r="G395" s="47"/>
+      <c r="H395" s="48"/>
+    </row>
+    <row r="396" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B396" s="18">
+        <v>387</v>
+      </c>
+      <c r="C396" s="30"/>
+      <c r="D396" s="46"/>
+      <c r="E396" s="47"/>
+      <c r="F396" s="66"/>
+      <c r="G396" s="47"/>
+      <c r="H396" s="48"/>
+    </row>
+    <row r="397" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B397" s="18">
+        <v>388</v>
+      </c>
+      <c r="C397" s="30"/>
+      <c r="D397" s="46"/>
+      <c r="E397" s="47"/>
+      <c r="F397" s="66"/>
+      <c r="G397" s="47"/>
+      <c r="H397" s="48"/>
+    </row>
+    <row r="398" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B398" s="18">
+        <v>389</v>
+      </c>
+      <c r="C398" s="30"/>
+      <c r="D398" s="46"/>
+      <c r="E398" s="47"/>
+      <c r="F398" s="66"/>
+      <c r="G398" s="47"/>
+      <c r="H398" s="48"/>
+    </row>
+    <row r="399" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B399" s="18">
+        <v>390</v>
+      </c>
+      <c r="C399" s="30"/>
+      <c r="D399" s="46"/>
+      <c r="E399" s="47"/>
+      <c r="F399" s="66"/>
+      <c r="G399" s="47"/>
+      <c r="H399" s="48"/>
+    </row>
+    <row r="400" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B400" s="18">
+        <v>391</v>
+      </c>
+      <c r="C400" s="30"/>
+      <c r="D400" s="46"/>
+      <c r="E400" s="47"/>
+      <c r="F400" s="66"/>
+      <c r="G400" s="47"/>
+      <c r="H400" s="48"/>
+    </row>
+    <row r="401" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B401" s="18">
+        <v>392</v>
+      </c>
+      <c r="C401" s="30"/>
+      <c r="D401" s="46"/>
+      <c r="E401" s="47"/>
+      <c r="F401" s="66"/>
+      <c r="G401" s="47"/>
+      <c r="H401" s="48"/>
+    </row>
+    <row r="402" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B402" s="18">
+        <v>393</v>
+      </c>
+      <c r="C402" s="30"/>
+      <c r="D402" s="46"/>
+      <c r="E402" s="47"/>
+      <c r="F402" s="66"/>
+      <c r="G402" s="47"/>
+      <c r="H402" s="48"/>
+    </row>
+    <row r="403" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B403" s="18">
+        <v>394</v>
+      </c>
+      <c r="C403" s="30"/>
+      <c r="D403" s="46"/>
+      <c r="E403" s="47"/>
+      <c r="F403" s="66"/>
+      <c r="G403" s="47"/>
+      <c r="H403" s="48"/>
+    </row>
+    <row r="404" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B404" s="18">
+        <v>395</v>
+      </c>
+      <c r="C404" s="30"/>
+      <c r="D404" s="46"/>
+      <c r="E404" s="47"/>
+      <c r="F404" s="66"/>
+      <c r="G404" s="47"/>
+      <c r="H404" s="48"/>
+    </row>
+    <row r="405" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B405" s="18">
+        <v>396</v>
+      </c>
+      <c r="C405" s="30"/>
+      <c r="D405" s="46"/>
+      <c r="E405" s="47"/>
+      <c r="F405" s="66"/>
+      <c r="G405" s="47"/>
+      <c r="H405" s="48"/>
+    </row>
+    <row r="406" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B406" s="18">
+        <v>397</v>
+      </c>
+      <c r="C406" s="30"/>
+      <c r="D406" s="46"/>
+      <c r="E406" s="47"/>
+      <c r="F406" s="66"/>
+      <c r="G406" s="47"/>
+      <c r="H406" s="48"/>
+    </row>
+    <row r="407" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B407" s="18">
+        <v>398</v>
+      </c>
+      <c r="C407" s="30"/>
+      <c r="D407" s="46"/>
+      <c r="E407" s="47"/>
+      <c r="F407" s="66"/>
+      <c r="G407" s="47"/>
+      <c r="H407" s="48"/>
+    </row>
+    <row r="408" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B408" s="18">
+        <v>399</v>
+      </c>
+      <c r="C408" s="30"/>
+      <c r="D408" s="46"/>
+      <c r="E408" s="47"/>
+      <c r="F408" s="66"/>
+      <c r="G408" s="47"/>
+      <c r="H408" s="48"/>
+    </row>
+    <row r="409" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B409" s="18">
+        <v>400</v>
+      </c>
+      <c r="C409" s="30"/>
+      <c r="D409" s="46"/>
+      <c r="E409" s="47"/>
+      <c r="F409" s="66"/>
+      <c r="G409" s="47"/>
+      <c r="H409" s="48"/>
+    </row>
+    <row r="410" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B410" s="18">
+        <v>401</v>
+      </c>
+      <c r="C410" s="30"/>
+      <c r="D410" s="46"/>
+      <c r="E410" s="47"/>
+      <c r="F410" s="66"/>
+      <c r="G410" s="47"/>
+      <c r="H410" s="48"/>
+    </row>
+    <row r="411" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B411" s="18">
+        <v>402</v>
+      </c>
+      <c r="C411" s="30"/>
+      <c r="D411" s="46"/>
+      <c r="E411" s="47"/>
+      <c r="F411" s="66"/>
+      <c r="G411" s="47"/>
+      <c r="H411" s="48"/>
+    </row>
+    <row r="412" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B412" s="18">
+        <v>403</v>
+      </c>
+      <c r="C412" s="30"/>
+      <c r="D412" s="46"/>
+      <c r="E412" s="47"/>
+      <c r="F412" s="66"/>
+      <c r="G412" s="47"/>
+      <c r="H412" s="48"/>
+    </row>
+    <row r="413" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B413" s="18">
+        <v>404</v>
+      </c>
+      <c r="C413" s="30"/>
+      <c r="D413" s="46"/>
+      <c r="E413" s="47"/>
+      <c r="F413" s="66"/>
+      <c r="G413" s="47"/>
+      <c r="H413" s="48"/>
+    </row>
+    <row r="414" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B414" s="18">
+        <v>405</v>
+      </c>
+      <c r="C414" s="30"/>
+      <c r="D414" s="46"/>
+      <c r="E414" s="47"/>
+      <c r="F414" s="66"/>
+      <c r="G414" s="47"/>
+      <c r="H414" s="48"/>
+    </row>
+    <row r="415" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B415" s="18">
+        <v>406</v>
+      </c>
+      <c r="C415" s="30"/>
+      <c r="D415" s="46"/>
+      <c r="E415" s="47"/>
+      <c r="F415" s="66"/>
+      <c r="G415" s="47"/>
+      <c r="H415" s="48"/>
+    </row>
+    <row r="416" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B416" s="18">
+        <v>407</v>
+      </c>
+      <c r="C416" s="30"/>
+      <c r="D416" s="46"/>
+      <c r="E416" s="47"/>
+      <c r="F416" s="66"/>
+      <c r="G416" s="47"/>
+      <c r="H416" s="48"/>
+    </row>
+    <row r="417" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B417" s="18">
+        <v>408</v>
+      </c>
+      <c r="C417" s="30"/>
+      <c r="D417" s="46"/>
+      <c r="E417" s="47"/>
+      <c r="F417" s="66"/>
+      <c r="G417" s="47"/>
+      <c r="H417" s="48"/>
+    </row>
+    <row r="418" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B418" s="18">
+        <v>409</v>
+      </c>
+      <c r="C418" s="30"/>
+      <c r="D418" s="46"/>
+      <c r="E418" s="47"/>
+      <c r="F418" s="66"/>
+      <c r="G418" s="47"/>
+      <c r="H418" s="48"/>
+    </row>
+    <row r="419" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B419" s="18">
+        <v>410</v>
+      </c>
+      <c r="C419" s="30"/>
+      <c r="D419" s="46"/>
+      <c r="E419" s="47"/>
+      <c r="F419" s="66"/>
+      <c r="G419" s="47"/>
+      <c r="H419" s="48"/>
+    </row>
+    <row r="420" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B420" s="18">
+        <v>411</v>
+      </c>
+      <c r="C420" s="30"/>
+      <c r="D420" s="46"/>
+      <c r="E420" s="47"/>
+      <c r="F420" s="66"/>
+      <c r="G420" s="47"/>
+      <c r="H420" s="48"/>
+    </row>
+    <row r="421" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B421" s="18">
+        <v>412</v>
+      </c>
+      <c r="C421" s="30"/>
+      <c r="D421" s="46"/>
+      <c r="E421" s="47"/>
+      <c r="F421" s="66"/>
+      <c r="G421" s="47"/>
+      <c r="H421" s="48"/>
+    </row>
+    <row r="422" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B422" s="18">
+        <v>413</v>
+      </c>
+      <c r="C422" s="30"/>
+      <c r="D422" s="46"/>
+      <c r="E422" s="47"/>
+      <c r="F422" s="66"/>
+      <c r="G422" s="47"/>
+      <c r="H422" s="48"/>
+    </row>
+    <row r="423" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B423" s="18">
+        <v>414</v>
+      </c>
+      <c r="C423" s="30"/>
+      <c r="D423" s="46"/>
+      <c r="E423" s="47"/>
+      <c r="F423" s="66"/>
+      <c r="G423" s="47"/>
+      <c r="H423" s="48"/>
+    </row>
+    <row r="424" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B424" s="18">
+        <v>415</v>
+      </c>
+      <c r="C424" s="30"/>
+      <c r="D424" s="46"/>
+      <c r="E424" s="47"/>
+      <c r="F424" s="66"/>
+      <c r="G424" s="47"/>
+      <c r="H424" s="48"/>
+    </row>
+    <row r="425" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B425" s="18">
+        <v>416</v>
+      </c>
+      <c r="C425" s="30"/>
+      <c r="D425" s="46"/>
+      <c r="E425" s="47"/>
+      <c r="F425" s="66"/>
+      <c r="G425" s="47"/>
+      <c r="H425" s="48"/>
+    </row>
+    <row r="426" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B426" s="18">
+        <v>417</v>
+      </c>
+      <c r="C426" s="30"/>
+      <c r="D426" s="46"/>
+      <c r="E426" s="47"/>
+      <c r="F426" s="66"/>
+      <c r="G426" s="47"/>
+      <c r="H426" s="48"/>
+    </row>
+    <row r="427" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B427" s="18">
+        <v>418</v>
+      </c>
+      <c r="C427" s="30"/>
+      <c r="D427" s="46"/>
+      <c r="E427" s="47"/>
+      <c r="F427" s="66"/>
+      <c r="G427" s="47"/>
+      <c r="H427" s="48"/>
+    </row>
+    <row r="428" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B428" s="18">
+        <v>419</v>
+      </c>
+      <c r="C428" s="30"/>
+      <c r="D428" s="46"/>
+      <c r="E428" s="47"/>
+      <c r="F428" s="66"/>
+      <c r="G428" s="47"/>
+      <c r="H428" s="48"/>
+    </row>
+    <row r="429" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B429" s="18">
+        <v>420</v>
+      </c>
+      <c r="C429" s="30"/>
+      <c r="D429" s="46"/>
+      <c r="E429" s="47"/>
+      <c r="F429" s="66"/>
+      <c r="G429" s="47"/>
+      <c r="H429" s="48"/>
+    </row>
+    <row r="430" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B430" s="18">
+        <v>421</v>
+      </c>
+      <c r="C430" s="30"/>
+      <c r="D430" s="46"/>
+      <c r="E430" s="47"/>
+      <c r="F430" s="66"/>
+      <c r="G430" s="47"/>
+      <c r="H430" s="48"/>
+    </row>
+    <row r="431" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B431" s="18">
+        <v>422</v>
+      </c>
+      <c r="C431" s="30"/>
+      <c r="D431" s="46"/>
+      <c r="E431" s="47"/>
+      <c r="F431" s="66"/>
+      <c r="G431" s="47"/>
+      <c r="H431" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="74">
   <si>
     <t>Task/Function</t>
   </si>
@@ -1081,7 +1081,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,27 +4033,51 @@
       <c r="G122" s="35"/>
       <c r="H122" s="37"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="16">
         <v>121</v>
       </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="60"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="42"/>
+      <c r="C123" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" s="85">
+        <v>43453</v>
+      </c>
+      <c r="E123" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="86">
+        <v>1</v>
+      </c>
+      <c r="G123" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="54" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="16">
         <v>122</v>
       </c>
-      <c r="C124" s="24"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="42"/>
+      <c r="C124" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" s="40">
+        <v>43453</v>
+      </c>
+      <c r="E124" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="60">
+        <v>0.85</v>
+      </c>
+      <c r="G124" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="42" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="16">

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="75">
   <si>
     <t>Task/Function</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Cập nhật tài liệu kỹ thuật PCA Sale (Sql Server)</t>
+  </si>
+  <si>
+    <t>Bổ sung 3</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,6 +1039,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1093,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1471,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L433"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,38 +4095,62 @@
       <c r="B125" s="16">
         <v>123</v>
       </c>
-      <c r="C125" s="24"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="60"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="42"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="37"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="16">
-        <v>124</v>
-      </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="42"/>
+        <v>125</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" s="85">
+        <v>43454</v>
+      </c>
+      <c r="E126" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="86">
+        <v>1</v>
+      </c>
+      <c r="G126" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="54" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" s="16">
-        <v>125</v>
-      </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="42"/>
+        <v>126</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D127" s="96">
+        <v>43454</v>
+      </c>
+      <c r="E127" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G127" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="126" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="16">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C128" s="24"/>
       <c r="D128" s="40"/>
@@ -4125,7 +4161,7 @@
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="16">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C129" s="24"/>
       <c r="D129" s="40"/>
@@ -4136,7 +4172,7 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="16">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C130" s="24"/>
       <c r="D130" s="40"/>
@@ -4147,7 +4183,7 @@
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="16">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C131" s="24"/>
       <c r="D131" s="40"/>
@@ -4158,7 +4194,7 @@
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="16">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132" s="24"/>
       <c r="D132" s="40"/>
@@ -4169,7 +4205,7 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="16">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C133" s="24"/>
       <c r="D133" s="40"/>
@@ -4180,7 +4216,7 @@
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="16">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C134" s="24"/>
       <c r="D134" s="40"/>
@@ -4191,7 +4227,7 @@
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="16">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C135" s="24"/>
       <c r="D135" s="40"/>
@@ -4202,7 +4238,7 @@
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="16">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136" s="24"/>
       <c r="D136" s="40"/>
@@ -4213,7 +4249,7 @@
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="16">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C137" s="24"/>
       <c r="D137" s="40"/>
@@ -4224,7 +4260,7 @@
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="16">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C138" s="24"/>
       <c r="D138" s="40"/>
@@ -4235,7 +4271,7 @@
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="16">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C139" s="24"/>
       <c r="D139" s="40"/>
@@ -4246,7 +4282,7 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="16">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="24"/>
       <c r="D140" s="40"/>
@@ -4257,7 +4293,7 @@
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="16">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141" s="24"/>
       <c r="D141" s="40"/>
@@ -4268,7 +4304,7 @@
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="16">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="24"/>
       <c r="D142" s="40"/>
@@ -4279,7 +4315,7 @@
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="16">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143" s="24"/>
       <c r="D143" s="40"/>
@@ -4290,7 +4326,7 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="16">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" s="24"/>
       <c r="D144" s="40"/>
@@ -4301,7 +4337,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="16">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="24"/>
       <c r="D145" s="40"/>
@@ -4312,7 +4348,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="16">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="24"/>
       <c r="D146" s="40"/>
@@ -4323,7 +4359,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="16">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" s="24"/>
       <c r="D147" s="40"/>
@@ -4334,7 +4370,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="16">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" s="24"/>
       <c r="D148" s="40"/>
@@ -4345,7 +4381,7 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="16">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" s="24"/>
       <c r="D149" s="40"/>
@@ -4356,7 +4392,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="16">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" s="24"/>
       <c r="D150" s="40"/>
@@ -4367,7 +4403,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="16">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151" s="24"/>
       <c r="D151" s="40"/>
@@ -4378,7 +4414,7 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="16">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" s="24"/>
       <c r="D152" s="40"/>
@@ -4389,7 +4425,7 @@
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="16">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="24"/>
       <c r="D153" s="40"/>
@@ -4400,7 +4436,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="16">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154" s="24"/>
       <c r="D154" s="40"/>
@@ -4411,7 +4447,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="24"/>
       <c r="D155" s="40"/>
@@ -4422,7 +4458,7 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="16">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156" s="24"/>
       <c r="D156" s="40"/>
@@ -4433,7 +4469,7 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157" s="24"/>
       <c r="D157" s="40"/>
@@ -4444,7 +4480,7 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158" s="24"/>
       <c r="D158" s="40"/>
@@ -4455,7 +4491,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" s="24"/>
       <c r="D159" s="40"/>
@@ -4466,7 +4502,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="16">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="24"/>
       <c r="D160" s="40"/>
@@ -4477,7 +4513,7 @@
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="16">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="24"/>
       <c r="D161" s="40"/>
@@ -4488,7 +4524,7 @@
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="16">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162" s="24"/>
       <c r="D162" s="40"/>
@@ -4499,7 +4535,7 @@
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="16">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163" s="24"/>
       <c r="D163" s="40"/>
@@ -4510,7 +4546,7 @@
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="16">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C164" s="24"/>
       <c r="D164" s="40"/>
@@ -4521,7 +4557,7 @@
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="16">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C165" s="24"/>
       <c r="D165" s="40"/>
@@ -4532,7 +4568,7 @@
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="16">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166" s="24"/>
       <c r="D166" s="40"/>
@@ -4543,7 +4579,7 @@
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167" s="24"/>
       <c r="D167" s="40"/>
@@ -4554,7 +4590,7 @@
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168" s="24"/>
       <c r="D168" s="40"/>
@@ -4565,7 +4601,7 @@
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" s="24"/>
       <c r="D169" s="40"/>
@@ -4576,7 +4612,7 @@
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="16">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170" s="24"/>
       <c r="D170" s="40"/>
@@ -4587,7 +4623,7 @@
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="16">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171" s="24"/>
       <c r="D171" s="40"/>
@@ -4598,7 +4634,7 @@
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="16">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172" s="24"/>
       <c r="D172" s="40"/>
@@ -4609,7 +4645,7 @@
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="16">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="40"/>
@@ -4620,7 +4656,7 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174" s="24"/>
       <c r="D174" s="40"/>
@@ -4631,7 +4667,7 @@
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="16">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C175" s="24"/>
       <c r="D175" s="40"/>
@@ -4642,7 +4678,7 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="16">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C176" s="24"/>
       <c r="D176" s="40"/>
@@ -4653,7 +4689,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="16">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="40"/>
@@ -4664,7 +4700,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="16">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C178" s="24"/>
       <c r="D178" s="40"/>
@@ -4675,7 +4711,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="16">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" s="24"/>
       <c r="D179" s="40"/>
@@ -4686,7 +4722,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="16">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C180" s="24"/>
       <c r="D180" s="40"/>
@@ -4697,7 +4733,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="16">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" s="24"/>
       <c r="D181" s="40"/>
@@ -4708,7 +4744,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="16">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="24"/>
       <c r="D182" s="40"/>
@@ -4719,7 +4755,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="16">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" s="24"/>
       <c r="D183" s="40"/>
@@ -4730,7 +4766,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="16">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C184" s="24"/>
       <c r="D184" s="40"/>
@@ -4741,7 +4777,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="16">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="40"/>
@@ -4752,7 +4788,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="16">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" s="24"/>
       <c r="D186" s="40"/>
@@ -4763,7 +4799,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="16">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C187" s="24"/>
       <c r="D187" s="40"/>
@@ -4774,7 +4810,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="16">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C188" s="24"/>
       <c r="D188" s="40"/>
@@ -4785,7 +4821,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="16">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C189" s="24"/>
       <c r="D189" s="40"/>
@@ -4796,7 +4832,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="16">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C190" s="24"/>
       <c r="D190" s="40"/>
@@ -4807,7 +4843,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="16">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="40"/>
@@ -4818,7 +4854,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="16">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="40"/>
@@ -4829,7 +4865,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="16">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="40"/>
@@ -4840,7 +4876,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="16">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="40"/>
@@ -4851,7 +4887,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="16">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C195" s="24"/>
       <c r="D195" s="40"/>
@@ -4862,7 +4898,7 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="16">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="40"/>
@@ -4873,7 +4909,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="16">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="40"/>
@@ -4884,7 +4920,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="16">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="40"/>
@@ -4895,7 +4931,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="16">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="40"/>
@@ -4906,7 +4942,7 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="16">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="40"/>
@@ -4917,7 +4953,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="16">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="40"/>
@@ -4928,7 +4964,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="16">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="40"/>
@@ -4939,7 +4975,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="16">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="40"/>
@@ -4950,7 +4986,7 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="16">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="40"/>
@@ -4961,7 +4997,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="16">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="40"/>
@@ -4972,7 +5008,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="16">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="40"/>
@@ -4983,7 +5019,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="16">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="40"/>
@@ -4994,7 +5030,7 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="16">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="40"/>
@@ -5005,7 +5041,7 @@
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="16">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" s="24"/>
       <c r="D209" s="40"/>
@@ -5016,7 +5052,7 @@
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="16">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" s="24"/>
       <c r="D210" s="40"/>
@@ -5027,7 +5063,7 @@
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="16">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" s="24"/>
       <c r="D211" s="40"/>
@@ -5038,7 +5074,7 @@
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="16">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="40"/>
@@ -5049,7 +5085,7 @@
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="16">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C213" s="24"/>
       <c r="D213" s="40"/>
@@ -5060,7 +5096,7 @@
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="16">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="40"/>
@@ -5071,7 +5107,7 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="16">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C215" s="24"/>
       <c r="D215" s="40"/>
@@ -5082,7 +5118,7 @@
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="16">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C216" s="24"/>
       <c r="D216" s="40"/>
@@ -5093,7 +5129,7 @@
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="16">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C217" s="24"/>
       <c r="D217" s="40"/>
@@ -5104,7 +5140,7 @@
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="16">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C218" s="24"/>
       <c r="D218" s="40"/>
@@ -5115,7 +5151,7 @@
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="16">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C219" s="24"/>
       <c r="D219" s="40"/>
@@ -5126,7 +5162,7 @@
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="16">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C220" s="24"/>
       <c r="D220" s="40"/>
@@ -5137,7 +5173,7 @@
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="16">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C221" s="24"/>
       <c r="D221" s="40"/>
@@ -5148,7 +5184,7 @@
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="16">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C222" s="24"/>
       <c r="D222" s="40"/>
@@ -5159,7 +5195,7 @@
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="16">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C223" s="24"/>
       <c r="D223" s="40"/>
@@ -5170,7 +5206,7 @@
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="16">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C224" s="24"/>
       <c r="D224" s="40"/>
@@ -5181,7 +5217,7 @@
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="16">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C225" s="24"/>
       <c r="D225" s="40"/>
@@ -5192,7 +5228,7 @@
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="16">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C226" s="24"/>
       <c r="D226" s="40"/>
@@ -5203,7 +5239,7 @@
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="16">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C227" s="24"/>
       <c r="D227" s="40"/>
@@ -5214,7 +5250,7 @@
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="16">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C228" s="24"/>
       <c r="D228" s="40"/>
@@ -5225,7 +5261,7 @@
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="16">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C229" s="24"/>
       <c r="D229" s="40"/>
@@ -5236,7 +5272,7 @@
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="16">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C230" s="24"/>
       <c r="D230" s="40"/>
@@ -5247,7 +5283,7 @@
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="16">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C231" s="24"/>
       <c r="D231" s="40"/>
@@ -5258,7 +5294,7 @@
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="16">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C232" s="24"/>
       <c r="D232" s="40"/>
@@ -5269,7 +5305,7 @@
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="16">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C233" s="24"/>
       <c r="D233" s="40"/>
@@ -5280,7 +5316,7 @@
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="16">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C234" s="24"/>
       <c r="D234" s="40"/>
@@ -5291,7 +5327,7 @@
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="16">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C235" s="24"/>
       <c r="D235" s="40"/>
@@ -5302,7 +5338,7 @@
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="16">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C236" s="24"/>
       <c r="D236" s="40"/>
@@ -5313,7 +5349,7 @@
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="16">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C237" s="24"/>
       <c r="D237" s="40"/>
@@ -5324,7 +5360,7 @@
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="16">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C238" s="24"/>
       <c r="D238" s="40"/>
@@ -5335,7 +5371,7 @@
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="16">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C239" s="24"/>
       <c r="D239" s="40"/>
@@ -5346,7 +5382,7 @@
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="16">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C240" s="24"/>
       <c r="D240" s="40"/>
@@ -5357,7 +5393,7 @@
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="16">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C241" s="24"/>
       <c r="D241" s="40"/>
@@ -5368,7 +5404,7 @@
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="16">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C242" s="24"/>
       <c r="D242" s="40"/>
@@ -5379,7 +5415,7 @@
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="16">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C243" s="24"/>
       <c r="D243" s="40"/>
@@ -5390,7 +5426,7 @@
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="16">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C244" s="24"/>
       <c r="D244" s="40"/>
@@ -5401,7 +5437,7 @@
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="16">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C245" s="24"/>
       <c r="D245" s="40"/>
@@ -5412,7 +5448,7 @@
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="16">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C246" s="24"/>
       <c r="D246" s="40"/>
@@ -5423,7 +5459,7 @@
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="16">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C247" s="24"/>
       <c r="D247" s="40"/>
@@ -5434,7 +5470,7 @@
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="16">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C248" s="24"/>
       <c r="D248" s="40"/>
@@ -5445,7 +5481,7 @@
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="16">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C249" s="24"/>
       <c r="D249" s="40"/>
@@ -5456,7 +5492,7 @@
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="16">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C250" s="24"/>
       <c r="D250" s="40"/>
@@ -5467,7 +5503,7 @@
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="16">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C251" s="24"/>
       <c r="D251" s="40"/>
@@ -5478,7 +5514,7 @@
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="16">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="40"/>
@@ -5489,7 +5525,7 @@
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="16">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C253" s="24"/>
       <c r="D253" s="40"/>
@@ -5500,7 +5536,7 @@
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="16">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C254" s="24"/>
       <c r="D254" s="40"/>
@@ -5511,7 +5547,7 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="16">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C255" s="24"/>
       <c r="D255" s="40"/>
@@ -5522,7 +5558,7 @@
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="16">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C256" s="24"/>
       <c r="D256" s="40"/>
@@ -5533,7 +5569,7 @@
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="16">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C257" s="24"/>
       <c r="D257" s="40"/>
@@ -5544,7 +5580,7 @@
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="16">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C258" s="24"/>
       <c r="D258" s="40"/>
@@ -5555,7 +5591,7 @@
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="16">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C259" s="24"/>
       <c r="D259" s="40"/>
@@ -5566,7 +5602,7 @@
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="16">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="40"/>
@@ -5577,7 +5613,7 @@
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="16">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C261" s="24"/>
       <c r="D261" s="40"/>
@@ -5588,7 +5624,7 @@
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="16">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C262" s="24"/>
       <c r="D262" s="40"/>
@@ -5599,7 +5635,7 @@
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="16">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C263" s="24"/>
       <c r="D263" s="40"/>
@@ -5610,7 +5646,7 @@
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="16">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C264" s="24"/>
       <c r="D264" s="40"/>
@@ -5621,7 +5657,7 @@
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="16">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C265" s="24"/>
       <c r="D265" s="40"/>
@@ -5632,7 +5668,7 @@
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="16">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C266" s="24"/>
       <c r="D266" s="40"/>
@@ -5643,7 +5679,7 @@
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="16">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C267" s="24"/>
       <c r="D267" s="40"/>
@@ -5654,7 +5690,7 @@
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="16">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C268" s="24"/>
       <c r="D268" s="40"/>
@@ -5665,7 +5701,7 @@
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="16">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C269" s="24"/>
       <c r="D269" s="40"/>
@@ -5676,7 +5712,7 @@
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="16">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C270" s="24"/>
       <c r="D270" s="40"/>
@@ -5687,7 +5723,7 @@
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="16">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C271" s="24"/>
       <c r="D271" s="40"/>
@@ -5698,7 +5734,7 @@
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="16">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C272" s="24"/>
       <c r="D272" s="40"/>
@@ -5709,7 +5745,7 @@
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="16">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C273" s="24"/>
       <c r="D273" s="40"/>
@@ -5720,7 +5756,7 @@
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="16">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C274" s="24"/>
       <c r="D274" s="40"/>
@@ -5731,7 +5767,7 @@
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="16">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C275" s="24"/>
       <c r="D275" s="40"/>
@@ -5742,7 +5778,7 @@
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="16">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C276" s="24"/>
       <c r="D276" s="40"/>
@@ -5753,7 +5789,7 @@
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="16">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" s="24"/>
       <c r="D277" s="40"/>
@@ -5764,7 +5800,7 @@
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="16">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C278" s="24"/>
       <c r="D278" s="40"/>
@@ -5775,7 +5811,7 @@
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="16">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C279" s="24"/>
       <c r="D279" s="40"/>
@@ -5786,7 +5822,7 @@
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="16">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C280" s="24"/>
       <c r="D280" s="40"/>
@@ -5797,7 +5833,7 @@
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="16">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C281" s="24"/>
       <c r="D281" s="40"/>
@@ -5808,7 +5844,7 @@
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="16">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C282" s="24"/>
       <c r="D282" s="40"/>
@@ -5819,7 +5855,7 @@
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="16">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C283" s="24"/>
       <c r="D283" s="40"/>
@@ -5830,7 +5866,7 @@
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="16">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C284" s="24"/>
       <c r="D284" s="40"/>
@@ -5841,7 +5877,7 @@
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="16">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C285" s="24"/>
       <c r="D285" s="40"/>
@@ -5852,7 +5888,7 @@
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="16">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C286" s="24"/>
       <c r="D286" s="40"/>
@@ -5863,7 +5899,7 @@
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="16">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C287" s="24"/>
       <c r="D287" s="40"/>
@@ -5874,7 +5910,7 @@
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="16">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C288" s="24"/>
       <c r="D288" s="40"/>
@@ -5885,7 +5921,7 @@
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="16">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C289" s="24"/>
       <c r="D289" s="40"/>
@@ -5896,7 +5932,7 @@
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="16">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C290" s="24"/>
       <c r="D290" s="40"/>
@@ -5907,7 +5943,7 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="16">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C291" s="24"/>
       <c r="D291" s="40"/>
@@ -5918,7 +5954,7 @@
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="16">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C292" s="24"/>
       <c r="D292" s="40"/>
@@ -5929,7 +5965,7 @@
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="16">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C293" s="24"/>
       <c r="D293" s="40"/>
@@ -5940,7 +5976,7 @@
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="16">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C294" s="24"/>
       <c r="D294" s="40"/>
@@ -5951,7 +5987,7 @@
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="16">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="40"/>
@@ -5962,7 +5998,7 @@
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="16">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C296" s="24"/>
       <c r="D296" s="40"/>
@@ -5973,7 +6009,7 @@
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="16">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C297" s="24"/>
       <c r="D297" s="40"/>
@@ -5984,7 +6020,7 @@
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="16">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C298" s="24"/>
       <c r="D298" s="40"/>
@@ -5995,7 +6031,7 @@
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="16">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C299" s="24"/>
       <c r="D299" s="40"/>
@@ -6006,7 +6042,7 @@
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="16">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C300" s="24"/>
       <c r="D300" s="40"/>
@@ -6017,7 +6053,7 @@
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="16">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C301" s="24"/>
       <c r="D301" s="40"/>
@@ -6028,7 +6064,7 @@
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="16">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C302" s="24"/>
       <c r="D302" s="40"/>
@@ -6039,7 +6075,7 @@
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="16">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C303" s="24"/>
       <c r="D303" s="40"/>
@@ -6050,7 +6086,7 @@
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="16">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C304" s="24"/>
       <c r="D304" s="40"/>
@@ -6061,7 +6097,7 @@
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="16">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C305" s="24"/>
       <c r="D305" s="40"/>
@@ -6072,7 +6108,7 @@
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="16">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C306" s="24"/>
       <c r="D306" s="40"/>
@@ -6083,7 +6119,7 @@
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="16">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C307" s="24"/>
       <c r="D307" s="40"/>
@@ -6094,7 +6130,7 @@
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="16">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C308" s="24"/>
       <c r="D308" s="40"/>
@@ -6105,7 +6141,7 @@
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="16">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C309" s="24"/>
       <c r="D309" s="40"/>
@@ -6116,7 +6152,7 @@
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="16">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C310" s="24"/>
       <c r="D310" s="40"/>
@@ -6127,7 +6163,7 @@
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="16">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C311" s="24"/>
       <c r="D311" s="40"/>
@@ -6138,7 +6174,7 @@
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="16">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C312" s="24"/>
       <c r="D312" s="40"/>
@@ -6149,7 +6185,7 @@
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="16">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C313" s="24"/>
       <c r="D313" s="40"/>
@@ -6160,7 +6196,7 @@
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="16">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C314" s="24"/>
       <c r="D314" s="40"/>
@@ -6171,7 +6207,7 @@
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="16">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C315" s="24"/>
       <c r="D315" s="40"/>
@@ -6182,7 +6218,7 @@
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="16">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C316" s="24"/>
       <c r="D316" s="40"/>
@@ -6193,7 +6229,7 @@
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="16">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C317" s="24"/>
       <c r="D317" s="40"/>
@@ -6204,7 +6240,7 @@
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="16">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C318" s="24"/>
       <c r="D318" s="40"/>
@@ -6215,7 +6251,7 @@
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="16">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C319" s="24"/>
       <c r="D319" s="40"/>
@@ -6226,7 +6262,7 @@
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="16">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C320" s="24"/>
       <c r="D320" s="40"/>
@@ -6237,7 +6273,7 @@
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="16">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C321" s="24"/>
       <c r="D321" s="40"/>
@@ -6248,7 +6284,7 @@
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="16">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C322" s="24"/>
       <c r="D322" s="40"/>
@@ -6259,7 +6295,7 @@
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="16">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C323" s="24"/>
       <c r="D323" s="40"/>
@@ -6270,7 +6306,7 @@
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="16">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C324" s="24"/>
       <c r="D324" s="40"/>
@@ -6281,7 +6317,7 @@
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="16">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C325" s="24"/>
       <c r="D325" s="40"/>
@@ -6292,7 +6328,7 @@
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="16">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C326" s="24"/>
       <c r="D326" s="40"/>
@@ -6303,7 +6339,7 @@
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="16">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C327" s="24"/>
       <c r="D327" s="40"/>
@@ -6314,7 +6350,7 @@
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="16">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="40"/>
@@ -6325,7 +6361,7 @@
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="16">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C329" s="24"/>
       <c r="D329" s="40"/>
@@ -6336,7 +6372,7 @@
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="16">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C330" s="24"/>
       <c r="D330" s="40"/>
@@ -6347,7 +6383,7 @@
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="16">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C331" s="24"/>
       <c r="D331" s="40"/>
@@ -6358,7 +6394,7 @@
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="16">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="40"/>
@@ -6369,7 +6405,7 @@
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="16">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C333" s="24"/>
       <c r="D333" s="40"/>
@@ -6380,7 +6416,7 @@
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="16">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C334" s="24"/>
       <c r="D334" s="40"/>
@@ -6391,7 +6427,7 @@
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="16">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C335" s="24"/>
       <c r="D335" s="40"/>
@@ -6402,7 +6438,7 @@
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="16">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C336" s="24"/>
       <c r="D336" s="40"/>
@@ -6413,7 +6449,7 @@
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="16">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C337" s="24"/>
       <c r="D337" s="40"/>
@@ -6424,7 +6460,7 @@
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="16">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C338" s="24"/>
       <c r="D338" s="40"/>
@@ -6435,7 +6471,7 @@
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="16">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C339" s="24"/>
       <c r="D339" s="40"/>
@@ -6446,7 +6482,7 @@
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="16">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C340" s="24"/>
       <c r="D340" s="40"/>
@@ -6457,7 +6493,7 @@
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="16">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C341" s="24"/>
       <c r="D341" s="40"/>
@@ -6468,7 +6504,7 @@
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="16">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C342" s="24"/>
       <c r="D342" s="40"/>
@@ -6479,7 +6515,7 @@
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="16">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C343" s="24"/>
       <c r="D343" s="40"/>
@@ -6490,7 +6526,7 @@
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="16">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C344" s="24"/>
       <c r="D344" s="40"/>
@@ -6501,7 +6537,7 @@
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="16">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C345" s="24"/>
       <c r="D345" s="40"/>
@@ -6512,7 +6548,7 @@
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="16">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C346" s="24"/>
       <c r="D346" s="40"/>
@@ -6523,7 +6559,7 @@
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="16">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C347" s="24"/>
       <c r="D347" s="40"/>
@@ -6534,7 +6570,7 @@
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="16">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C348" s="24"/>
       <c r="D348" s="40"/>
@@ -6545,7 +6581,7 @@
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="16">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C349" s="24"/>
       <c r="D349" s="40"/>
@@ -6556,7 +6592,7 @@
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="16">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C350" s="24"/>
       <c r="D350" s="40"/>
@@ -6567,7 +6603,7 @@
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="16">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C351" s="24"/>
       <c r="D351" s="40"/>
@@ -6578,7 +6614,7 @@
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="16">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C352" s="24"/>
       <c r="D352" s="40"/>
@@ -6589,7 +6625,7 @@
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" s="16">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C353" s="24"/>
       <c r="D353" s="40"/>
@@ -6600,7 +6636,7 @@
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" s="16">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C354" s="24"/>
       <c r="D354" s="40"/>
@@ -6611,7 +6647,7 @@
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" s="16">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C355" s="24"/>
       <c r="D355" s="40"/>
@@ -6622,7 +6658,7 @@
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" s="16">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C356" s="24"/>
       <c r="D356" s="40"/>
@@ -6633,7 +6669,7 @@
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" s="16">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C357" s="24"/>
       <c r="D357" s="40"/>
@@ -6644,7 +6680,7 @@
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" s="16">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C358" s="24"/>
       <c r="D358" s="40"/>
@@ -6655,7 +6691,7 @@
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" s="16">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C359" s="24"/>
       <c r="D359" s="40"/>
@@ -6666,7 +6702,7 @@
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" s="16">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C360" s="24"/>
       <c r="D360" s="40"/>
@@ -6677,7 +6713,7 @@
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" s="16">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C361" s="24"/>
       <c r="D361" s="40"/>
@@ -6688,7 +6724,7 @@
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" s="16">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C362" s="24"/>
       <c r="D362" s="40"/>
@@ -6699,7 +6735,7 @@
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" s="16">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C363" s="24"/>
       <c r="D363" s="40"/>
@@ -6710,7 +6746,7 @@
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" s="16">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C364" s="24"/>
       <c r="D364" s="40"/>
@@ -6721,7 +6757,7 @@
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" s="16">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C365" s="24"/>
       <c r="D365" s="40"/>
@@ -6732,7 +6768,7 @@
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" s="16">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C366" s="24"/>
       <c r="D366" s="40"/>
@@ -6743,7 +6779,7 @@
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" s="16">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C367" s="24"/>
       <c r="D367" s="40"/>
@@ -6754,7 +6790,7 @@
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" s="16">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C368" s="24"/>
       <c r="D368" s="40"/>
@@ -6765,7 +6801,7 @@
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B369" s="16">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C369" s="24"/>
       <c r="D369" s="40"/>
@@ -6776,7 +6812,7 @@
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B370" s="16">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C370" s="24"/>
       <c r="D370" s="40"/>
@@ -6787,7 +6823,7 @@
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B371" s="16">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C371" s="24"/>
       <c r="D371" s="40"/>
@@ -6798,7 +6834,7 @@
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B372" s="16">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C372" s="24"/>
       <c r="D372" s="40"/>
@@ -6809,7 +6845,7 @@
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" s="16">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C373" s="24"/>
       <c r="D373" s="40"/>
@@ -6820,7 +6856,7 @@
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" s="16">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C374" s="24"/>
       <c r="D374" s="40"/>
@@ -6831,7 +6867,7 @@
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B375" s="16">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C375" s="24"/>
       <c r="D375" s="40"/>
@@ -6842,7 +6878,7 @@
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" s="16">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C376" s="24"/>
       <c r="D376" s="40"/>
@@ -6853,7 +6889,7 @@
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B377" s="16">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C377" s="24"/>
       <c r="D377" s="40"/>
@@ -6864,7 +6900,7 @@
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B378" s="16">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C378" s="24"/>
       <c r="D378" s="40"/>
@@ -6875,7 +6911,7 @@
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B379" s="16">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C379" s="24"/>
       <c r="D379" s="40"/>
@@ -6886,7 +6922,7 @@
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B380" s="16">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C380" s="24"/>
       <c r="D380" s="40"/>
@@ -6897,7 +6933,7 @@
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B381" s="16">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C381" s="24"/>
       <c r="D381" s="40"/>
@@ -6908,7 +6944,7 @@
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B382" s="16">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C382" s="24"/>
       <c r="D382" s="40"/>
@@ -6919,7 +6955,7 @@
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B383" s="16">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C383" s="24"/>
       <c r="D383" s="40"/>
@@ -6930,7 +6966,7 @@
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B384" s="16">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C384" s="24"/>
       <c r="D384" s="40"/>
@@ -6941,7 +6977,7 @@
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" s="16">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C385" s="24"/>
       <c r="D385" s="40"/>
@@ -6952,7 +6988,7 @@
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" s="16">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C386" s="24"/>
       <c r="D386" s="40"/>
@@ -6963,7 +6999,7 @@
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B387" s="16">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C387" s="24"/>
       <c r="D387" s="40"/>
@@ -6974,7 +7010,7 @@
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" s="16">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C388" s="24"/>
       <c r="D388" s="40"/>
@@ -6985,7 +7021,7 @@
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" s="16">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C389" s="24"/>
       <c r="D389" s="40"/>
@@ -6996,7 +7032,7 @@
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" s="16">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C390" s="24"/>
       <c r="D390" s="40"/>
@@ -7007,7 +7043,7 @@
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" s="16">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C391" s="24"/>
       <c r="D391" s="40"/>
@@ -7018,7 +7054,7 @@
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B392" s="16">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C392" s="24"/>
       <c r="D392" s="40"/>
@@ -7029,7 +7065,7 @@
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B393" s="16">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C393" s="24"/>
       <c r="D393" s="40"/>
@@ -7040,7 +7076,7 @@
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B394" s="16">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C394" s="24"/>
       <c r="D394" s="40"/>
@@ -7051,7 +7087,7 @@
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" s="16">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C395" s="24"/>
       <c r="D395" s="40"/>
@@ -7062,7 +7098,7 @@
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" s="16">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C396" s="24"/>
       <c r="D396" s="40"/>
@@ -7073,7 +7109,7 @@
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B397" s="16">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C397" s="24"/>
       <c r="D397" s="40"/>
@@ -7084,7 +7120,7 @@
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B398" s="16">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C398" s="24"/>
       <c r="D398" s="40"/>
@@ -7095,7 +7131,7 @@
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B399" s="16">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C399" s="24"/>
       <c r="D399" s="40"/>
@@ -7106,7 +7142,7 @@
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" s="16">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C400" s="24"/>
       <c r="D400" s="40"/>
@@ -7117,7 +7153,7 @@
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" s="16">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C401" s="24"/>
       <c r="D401" s="40"/>
@@ -7128,7 +7164,7 @@
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" s="16">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C402" s="24"/>
       <c r="D402" s="40"/>
@@ -7139,7 +7175,7 @@
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" s="16">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C403" s="24"/>
       <c r="D403" s="40"/>
@@ -7150,7 +7186,7 @@
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" s="16">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C404" s="24"/>
       <c r="D404" s="40"/>
@@ -7161,7 +7197,7 @@
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" s="16">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C405" s="24"/>
       <c r="D405" s="40"/>
@@ -7172,7 +7208,7 @@
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" s="16">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C406" s="24"/>
       <c r="D406" s="40"/>
@@ -7183,7 +7219,7 @@
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" s="16">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C407" s="24"/>
       <c r="D407" s="40"/>
@@ -7194,7 +7230,7 @@
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" s="16">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="40"/>
@@ -7205,7 +7241,7 @@
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" s="16">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="40"/>
@@ -7216,7 +7252,7 @@
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" s="16">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="40"/>
@@ -7227,7 +7263,7 @@
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" s="16">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="40"/>
@@ -7238,7 +7274,7 @@
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" s="16">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="40"/>
@@ -7249,7 +7285,7 @@
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" s="16">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="40"/>
@@ -7260,7 +7296,7 @@
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" s="16">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="40"/>
@@ -7271,7 +7307,7 @@
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" s="16">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C415" s="24"/>
       <c r="D415" s="40"/>
@@ -7282,7 +7318,7 @@
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" s="16">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C416" s="24"/>
       <c r="D416" s="40"/>
@@ -7293,7 +7329,7 @@
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B417" s="16">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C417" s="24"/>
       <c r="D417" s="40"/>
@@ -7304,7 +7340,7 @@
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B418" s="16">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C418" s="24"/>
       <c r="D418" s="40"/>
@@ -7315,7 +7351,7 @@
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B419" s="16">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C419" s="24"/>
       <c r="D419" s="40"/>
@@ -7326,7 +7362,7 @@
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B420" s="16">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C420" s="24"/>
       <c r="D420" s="40"/>
@@ -7337,7 +7373,7 @@
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" s="16">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C421" s="24"/>
       <c r="D421" s="40"/>
@@ -7348,7 +7384,7 @@
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" s="16">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C422" s="24"/>
       <c r="D422" s="40"/>
@@ -7359,7 +7395,7 @@
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B423" s="16">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C423" s="24"/>
       <c r="D423" s="40"/>
@@ -7370,7 +7406,7 @@
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" s="16">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C424" s="24"/>
       <c r="D424" s="40"/>
@@ -7381,7 +7417,7 @@
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B425" s="16">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C425" s="24"/>
       <c r="D425" s="40"/>
@@ -7392,7 +7428,7 @@
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B426" s="16">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C426" s="24"/>
       <c r="D426" s="40"/>
@@ -7403,7 +7439,7 @@
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B427" s="16">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C427" s="24"/>
       <c r="D427" s="40"/>
@@ -7414,7 +7450,7 @@
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B428" s="16">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C428" s="24"/>
       <c r="D428" s="40"/>
@@ -7425,7 +7461,7 @@
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B429" s="16">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C429" s="24"/>
       <c r="D429" s="40"/>
@@ -7436,7 +7472,7 @@
     </row>
     <row r="430" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B430" s="16">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C430" s="24"/>
       <c r="D430" s="40"/>
@@ -7447,7 +7483,7 @@
     </row>
     <row r="431" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B431" s="16">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C431" s="24"/>
       <c r="D431" s="40"/>
@@ -7458,7 +7494,7 @@
     </row>
     <row r="432" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B432" s="16">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C432" s="24"/>
       <c r="D432" s="40"/>
@@ -7467,17 +7503,6 @@
       <c r="G432" s="41"/>
       <c r="H432" s="42"/>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B433" s="16">
-        <v>431</v>
-      </c>
-      <c r="C433" s="24"/>
-      <c r="D433" s="40"/>
-      <c r="E433" s="41"/>
-      <c r="F433" s="60"/>
-      <c r="G433" s="41"/>
-      <c r="H433" s="42"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="76">
   <si>
     <t>Task/Function</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Bổ sung 3</t>
+  </si>
+  <si>
+    <t>Test kiểm tra "care.pca.net.vn" và viết lỗi vào file Word</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1485,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,34 +4155,56 @@
       <c r="B128" s="16">
         <v>127</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="40"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="60"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="42"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="37"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="16">
         <v>128</v>
       </c>
-      <c r="C129" s="24"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="60"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="42"/>
+      <c r="C129" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D129" s="85">
+        <v>43455</v>
+      </c>
+      <c r="E129" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="86">
+        <v>1</v>
+      </c>
+      <c r="G129" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="54" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="16">
         <v>129</v>
       </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="42"/>
+      <c r="C130" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" s="96">
+        <v>43455</v>
+      </c>
+      <c r="E130" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="125">
+        <v>0.15</v>
+      </c>
+      <c r="G130" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="126"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="16">

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="76">
   <si>
     <t>Task/Function</t>
   </si>
@@ -1096,7 +1096,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,23 +4210,33 @@
       <c r="B131" s="16">
         <v>130</v>
       </c>
-      <c r="C131" s="24"/>
-      <c r="D131" s="40"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="42"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="37"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="16">
         <v>131</v>
       </c>
-      <c r="C132" s="24"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="42"/>
+      <c r="C132" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D132" s="96">
+        <v>43456</v>
+      </c>
+      <c r="E132" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="125">
+        <v>0.45</v>
+      </c>
+      <c r="G132" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="126"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="16">

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -1096,7 +1096,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4231,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="F132" s="125">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="G132" s="124" t="s">
         <v>8</v>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="78">
   <si>
     <t>Task/Function</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Test kiểm tra "care.pca.net.vn" và viết lỗi vào file Word</t>
+  </si>
+  <si>
+    <t>Tạo nút "Chi tiết" và  khi ấn vào nút này hiển thị modal popup bảng thông tin chi tiết "JobDetail" (Lấy dữ liệu từ Database - Bảng Sync_JobDetail) trong giao diện trang Công việc (Job) Project SyncData</t>
+  </si>
+  <si>
+    <t>Tạo lại giao diện và hiển thị một số thông tin tiêu biểu (Lấy dữ liệu từ Database - Bảng Sync_JobDetail) trong trang Công việc (Job) Project SyncData</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154:H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,243 +4248,373 @@
       <c r="B133" s="16">
         <v>132</v>
       </c>
-      <c r="C133" s="24"/>
-      <c r="D133" s="40"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="41"/>
-      <c r="H133" s="42"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="37"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="16">
         <v>133</v>
       </c>
-      <c r="C134" s="24"/>
-      <c r="D134" s="40"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="60"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="42"/>
+      <c r="C134" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" s="85">
+        <v>43458</v>
+      </c>
+      <c r="E134" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="86">
+        <v>1</v>
+      </c>
+      <c r="G134" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="54"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="16">
         <v>134</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="60"/>
-      <c r="G135" s="41"/>
-      <c r="H135" s="42"/>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C135" s="33"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="37"/>
+    </row>
+    <row r="136" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B136" s="16">
         <v>135</v>
       </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="41"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="41"/>
+      <c r="C136" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D136" s="40">
+        <v>43459</v>
+      </c>
+      <c r="E136" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G136" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H136" s="42"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B137" s="16">
         <v>136</v>
       </c>
-      <c r="C137" s="24"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="41"/>
-      <c r="F137" s="60"/>
-      <c r="G137" s="41"/>
+      <c r="C137" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" s="40">
+        <v>43459</v>
+      </c>
+      <c r="E137" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="G137" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H137" s="42"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="16">
         <v>137</v>
       </c>
-      <c r="C138" s="24"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="60"/>
-      <c r="G138" s="41"/>
-      <c r="H138" s="42"/>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C138" s="33"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="37"/>
+    </row>
+    <row r="139" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B139" s="16">
         <v>138</v>
       </c>
-      <c r="C139" s="24"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="41"/>
-      <c r="F139" s="60"/>
-      <c r="G139" s="41"/>
+      <c r="C139" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D139" s="40">
+        <v>43461</v>
+      </c>
+      <c r="E139" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="125">
+        <v>0.4</v>
+      </c>
+      <c r="G139" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H139" s="42"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" s="16">
         <v>139</v>
       </c>
-      <c r="C140" s="24"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="41"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="41"/>
+      <c r="C140" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="40">
+        <v>43461</v>
+      </c>
+      <c r="E140" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G140" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H140" s="42"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="16">
         <v>140</v>
       </c>
-      <c r="C141" s="24"/>
-      <c r="D141" s="40"/>
-      <c r="E141" s="41"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="41"/>
-      <c r="H141" s="42"/>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="37"/>
+    </row>
+    <row r="142" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B142" s="16">
         <v>141</v>
       </c>
-      <c r="C142" s="24"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="41"/>
+      <c r="C142" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D142" s="40">
+        <v>43463</v>
+      </c>
+      <c r="E142" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="125">
+        <v>0.6</v>
+      </c>
+      <c r="G142" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H142" s="42"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B143" s="16">
         <v>142</v>
       </c>
-      <c r="C143" s="24"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="41"/>
+      <c r="C143" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143" s="40">
+        <v>43463</v>
+      </c>
+      <c r="E143" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="125">
+        <v>0.4</v>
+      </c>
+      <c r="G143" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H143" s="42"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="16">
         <v>143</v>
       </c>
-      <c r="C144" s="24"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="41"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="41"/>
-      <c r="H144" s="42"/>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C144" s="33"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="37"/>
+    </row>
+    <row r="145" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B145" s="16">
         <v>144</v>
       </c>
-      <c r="C145" s="24"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="41"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="41"/>
+      <c r="C145" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D145" s="40">
+        <v>43102</v>
+      </c>
+      <c r="E145" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="125">
+        <v>0.8</v>
+      </c>
+      <c r="G145" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H145" s="42"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B146" s="16">
         <v>145</v>
       </c>
-      <c r="C146" s="24"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="41"/>
+      <c r="C146" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" s="40">
+        <v>43102</v>
+      </c>
+      <c r="E146" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="125">
+        <v>0.45</v>
+      </c>
+      <c r="G146" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H146" s="42"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="16">
         <v>146</v>
       </c>
-      <c r="C147" s="24"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="60"/>
-      <c r="G147" s="41"/>
-      <c r="H147" s="42"/>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C147" s="33"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="37"/>
+    </row>
+    <row r="148" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B148" s="16">
         <v>147</v>
       </c>
-      <c r="C148" s="24"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="41"/>
-      <c r="F148" s="60"/>
-      <c r="G148" s="41"/>
-      <c r="H148" s="42"/>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C148" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D148" s="85">
+        <v>43103</v>
+      </c>
+      <c r="E148" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="86">
+        <v>1</v>
+      </c>
+      <c r="G148" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="54"/>
+    </row>
+    <row r="149" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B149" s="16">
         <v>148</v>
       </c>
-      <c r="C149" s="24"/>
-      <c r="D149" s="40"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="41"/>
+      <c r="C149" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="40">
+        <v>43103</v>
+      </c>
+      <c r="E149" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="125">
+        <v>0.6</v>
+      </c>
+      <c r="G149" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H149" s="42"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="16">
         <v>149</v>
       </c>
-      <c r="C150" s="24"/>
-      <c r="D150" s="40"/>
-      <c r="E150" s="41"/>
-      <c r="F150" s="60"/>
-      <c r="G150" s="41"/>
-      <c r="H150" s="42"/>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C150" s="33"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="37"/>
+    </row>
+    <row r="151" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B151" s="16">
         <v>150</v>
       </c>
-      <c r="C151" s="24"/>
-      <c r="D151" s="40"/>
-      <c r="E151" s="41"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="41"/>
+      <c r="C151" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151" s="40">
+        <v>43104</v>
+      </c>
+      <c r="E151" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="125">
+        <v>0.85</v>
+      </c>
+      <c r="G151" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H151" s="42"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="16">
         <v>151</v>
       </c>
-      <c r="C152" s="24"/>
-      <c r="D152" s="40"/>
-      <c r="E152" s="41"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="41"/>
-      <c r="H152" s="42"/>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C152" s="33"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="37"/>
+    </row>
+    <row r="153" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B153" s="16">
         <v>152</v>
       </c>
-      <c r="C153" s="24"/>
-      <c r="D153" s="40"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="41"/>
-      <c r="H153" s="42"/>
+      <c r="C153" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" s="85">
+        <v>43105</v>
+      </c>
+      <c r="E153" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="86">
+        <v>1</v>
+      </c>
+      <c r="G153" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="54"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="16">
         <v>153</v>
       </c>
-      <c r="C154" s="24"/>
-      <c r="D154" s="40"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="60"/>
-      <c r="G154" s="41"/>
-      <c r="H154" s="42"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="35"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="37"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16">

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -1102,7 +1102,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1494,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C154" sqref="C154:H154"/>
     </sheetView>
   </sheetViews>
@@ -4454,7 +4454,7 @@
         <v>77</v>
       </c>
       <c r="D145" s="40">
-        <v>43102</v>
+        <v>43467</v>
       </c>
       <c r="E145" s="124" t="s">
         <v>9</v>
@@ -4475,7 +4475,7 @@
         <v>76</v>
       </c>
       <c r="D146" s="40">
-        <v>43102</v>
+        <v>43467</v>
       </c>
       <c r="E146" s="124" t="s">
         <v>9</v>
@@ -4507,7 +4507,7 @@
         <v>77</v>
       </c>
       <c r="D148" s="85">
-        <v>43103</v>
+        <v>43468</v>
       </c>
       <c r="E148" s="52" t="s">
         <v>9</v>
@@ -4528,7 +4528,7 @@
         <v>76</v>
       </c>
       <c r="D149" s="40">
-        <v>43103</v>
+        <v>43468</v>
       </c>
       <c r="E149" s="124" t="s">
         <v>9</v>
@@ -4560,7 +4560,7 @@
         <v>76</v>
       </c>
       <c r="D151" s="40">
-        <v>43104</v>
+        <v>43469</v>
       </c>
       <c r="E151" s="124" t="s">
         <v>9</v>
@@ -4592,7 +4592,7 @@
         <v>76</v>
       </c>
       <c r="D153" s="85">
-        <v>43105</v>
+        <v>43470</v>
       </c>
       <c r="E153" s="52" t="s">
         <v>9</v>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="83">
   <si>
     <t>Task/Function</t>
   </si>
@@ -253,6 +253,21 @@
   </si>
   <si>
     <t>Tạo lại giao diện và hiển thị một số thông tin tiêu biểu (Lấy dữ liệu từ Database - Bảng Sync_JobDetail) trong trang Công việc (Job) Project SyncData</t>
+  </si>
+  <si>
+    <t>Viết chức năng Thêm User trong mục User - project SyncData</t>
+  </si>
+  <si>
+    <t>Viết chức năng Sửa User trong mục User - project SyncData</t>
+  </si>
+  <si>
+    <t>Viết chức năng Xóa User trong mục User - project SyncData</t>
+  </si>
+  <si>
+    <t>Tạo và xử lý Đăng nhập - project SyncData</t>
+  </si>
+  <si>
+    <t>Tạo mục User và hiện tất cả User trong giao diện chính - project SyncData</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1117,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1492,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154:H154"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1523,7 @@
     <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="9" customWidth="1"/>
-    <col min="9" max="9" width="1" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4616,163 +4631,273 @@
       <c r="G154" s="35"/>
       <c r="H154" s="37"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="16">
         <v>154</v>
       </c>
-      <c r="C155" s="24"/>
-      <c r="D155" s="40"/>
-      <c r="E155" s="41"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="41"/>
+      <c r="C155" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D155" s="40">
+        <v>43472</v>
+      </c>
+      <c r="E155" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="125">
+        <v>0.5</v>
+      </c>
+      <c r="G155" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H155" s="42"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="16">
         <v>155</v>
       </c>
-      <c r="C156" s="24"/>
-      <c r="D156" s="40"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="60"/>
-      <c r="G156" s="41"/>
+      <c r="C156" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D156" s="40">
+        <v>43472</v>
+      </c>
+      <c r="E156" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="125">
+        <v>0.25</v>
+      </c>
+      <c r="G156" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H156" s="42"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16">
         <v>156</v>
       </c>
-      <c r="C157" s="24"/>
-      <c r="D157" s="40"/>
-      <c r="E157" s="41"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="41"/>
+      <c r="C157" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D157" s="40">
+        <v>43472</v>
+      </c>
+      <c r="E157" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="G157" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H157" s="42"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16">
         <v>157</v>
       </c>
-      <c r="C158" s="24"/>
-      <c r="D158" s="40"/>
-      <c r="E158" s="41"/>
-      <c r="F158" s="60"/>
-      <c r="G158" s="41"/>
+      <c r="C158" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D158" s="40">
+        <v>43472</v>
+      </c>
+      <c r="E158" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="125">
+        <v>0.25</v>
+      </c>
+      <c r="G158" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H158" s="42"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16">
         <v>158</v>
       </c>
-      <c r="C159" s="24"/>
-      <c r="D159" s="40"/>
-      <c r="E159" s="41"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="41"/>
+      <c r="C159" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D159" s="40">
+        <v>43472</v>
+      </c>
+      <c r="E159" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="125">
+        <v>0.05</v>
+      </c>
+      <c r="G159" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H159" s="42"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="16">
         <v>159</v>
       </c>
-      <c r="C160" s="24"/>
-      <c r="D160" s="40"/>
-      <c r="E160" s="41"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="41"/>
-      <c r="H160" s="42"/>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C160" s="33"/>
+      <c r="D160" s="34"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="37"/>
+    </row>
+    <row r="161" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="16">
         <v>160</v>
       </c>
-      <c r="C161" s="24"/>
-      <c r="D161" s="40"/>
-      <c r="E161" s="41"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="41"/>
-      <c r="H161" s="42"/>
+      <c r="C161" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D161" s="85">
+        <v>43473</v>
+      </c>
+      <c r="E161" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="86">
+        <v>1</v>
+      </c>
+      <c r="G161" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="54"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="16">
         <v>161</v>
       </c>
-      <c r="C162" s="24"/>
-      <c r="D162" s="40"/>
-      <c r="E162" s="41"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="41"/>
-      <c r="H162" s="42"/>
+      <c r="C162" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D162" s="85">
+        <v>43473</v>
+      </c>
+      <c r="E162" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="86">
+        <v>1</v>
+      </c>
+      <c r="G162" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="54"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="16">
         <v>162</v>
       </c>
-      <c r="C163" s="24"/>
-      <c r="D163" s="40"/>
-      <c r="E163" s="41"/>
-      <c r="F163" s="60"/>
-      <c r="G163" s="41"/>
-      <c r="H163" s="42"/>
+      <c r="C163" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D163" s="85">
+        <v>43473</v>
+      </c>
+      <c r="E163" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="86">
+        <v>1</v>
+      </c>
+      <c r="G163" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="54"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="16">
         <v>163</v>
       </c>
-      <c r="C164" s="24"/>
-      <c r="D164" s="40"/>
-      <c r="E164" s="41"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="41"/>
-      <c r="H164" s="42"/>
+      <c r="C164" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D164" s="85">
+        <v>43473</v>
+      </c>
+      <c r="E164" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="86">
+        <v>1</v>
+      </c>
+      <c r="G164" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="54"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="16">
         <v>164</v>
       </c>
-      <c r="C165" s="24"/>
-      <c r="D165" s="40"/>
-      <c r="E165" s="41"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="41"/>
+      <c r="C165" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D165" s="40">
+        <v>43473</v>
+      </c>
+      <c r="E165" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="125">
+        <v>0.25</v>
+      </c>
+      <c r="G165" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H165" s="42"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="16">
         <v>165</v>
       </c>
-      <c r="C166" s="24"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="41"/>
-      <c r="F166" s="60"/>
-      <c r="G166" s="41"/>
-      <c r="H166" s="42"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="37"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16">
-        <v>166</v>
-      </c>
-      <c r="C167" s="24"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="41"/>
-      <c r="F167" s="60"/>
-      <c r="G167" s="41"/>
+        <v>170</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="40">
+        <v>43474</v>
+      </c>
+      <c r="E167" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="125">
+        <v>0.5</v>
+      </c>
+      <c r="G167" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H167" s="42"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16">
-        <v>167</v>
-      </c>
-      <c r="C168" s="24"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="41"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="41"/>
-      <c r="H168" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="C168" s="33"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="37"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C169" s="24"/>
       <c r="D169" s="40"/>
@@ -4783,7 +4908,7 @@
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="16">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C170" s="24"/>
       <c r="D170" s="40"/>
@@ -4794,7 +4919,7 @@
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="16">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C171" s="24"/>
       <c r="D171" s="40"/>
@@ -4805,7 +4930,7 @@
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="16">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C172" s="24"/>
       <c r="D172" s="40"/>
@@ -4816,7 +4941,7 @@
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="16">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="40"/>
@@ -4827,7 +4952,7 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C174" s="24"/>
       <c r="D174" s="40"/>
@@ -4838,7 +4963,7 @@
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="16">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C175" s="24"/>
       <c r="D175" s="40"/>
@@ -4849,7 +4974,7 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="16">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C176" s="24"/>
       <c r="D176" s="40"/>
@@ -4860,7 +4985,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="16">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="40"/>
@@ -4871,7 +4996,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="16">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C178" s="24"/>
       <c r="D178" s="40"/>
@@ -4882,7 +5007,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="16">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C179" s="24"/>
       <c r="D179" s="40"/>
@@ -4893,7 +5018,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="16">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C180" s="24"/>
       <c r="D180" s="40"/>
@@ -4904,7 +5029,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="16">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C181" s="24"/>
       <c r="D181" s="40"/>
@@ -4915,7 +5040,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="16">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C182" s="24"/>
       <c r="D182" s="40"/>
@@ -4926,7 +5051,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="16">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C183" s="24"/>
       <c r="D183" s="40"/>
@@ -4937,7 +5062,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="16">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C184" s="24"/>
       <c r="D184" s="40"/>
@@ -4948,7 +5073,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="16">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="40"/>
@@ -4959,7 +5084,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="16">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C186" s="24"/>
       <c r="D186" s="40"/>
@@ -4970,7 +5095,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="16">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C187" s="24"/>
       <c r="D187" s="40"/>
@@ -4981,7 +5106,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="16">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C188" s="24"/>
       <c r="D188" s="40"/>
@@ -4992,7 +5117,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="16">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C189" s="24"/>
       <c r="D189" s="40"/>
@@ -5003,7 +5128,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="16">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C190" s="24"/>
       <c r="D190" s="40"/>
@@ -5014,7 +5139,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="16">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="40"/>
@@ -5025,7 +5150,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="16">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="40"/>
@@ -5036,7 +5161,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="16">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="40"/>
@@ -5047,7 +5172,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="16">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="40"/>
@@ -5058,7 +5183,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="16">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C195" s="24"/>
       <c r="D195" s="40"/>
@@ -5069,7 +5194,7 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="16">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="40"/>
@@ -5080,7 +5205,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="16">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="40"/>
@@ -5091,7 +5216,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="16">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="40"/>
@@ -5102,7 +5227,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="16">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="40"/>
@@ -5113,7 +5238,7 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="16">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="40"/>
@@ -5124,7 +5249,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="16">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="40"/>
@@ -5135,7 +5260,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="16">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="40"/>
@@ -5146,7 +5271,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="16">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="40"/>
@@ -5157,7 +5282,7 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="16">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="40"/>
@@ -5168,7 +5293,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="16">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="40"/>
@@ -5179,7 +5304,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="16">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="40"/>
@@ -5190,7 +5315,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="16">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="40"/>
@@ -5201,7 +5326,7 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="16">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="40"/>
@@ -5212,7 +5337,7 @@
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="16">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C209" s="24"/>
       <c r="D209" s="40"/>
@@ -5223,7 +5348,7 @@
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="16">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C210" s="24"/>
       <c r="D210" s="40"/>
@@ -5234,7 +5359,7 @@
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="16">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C211" s="24"/>
       <c r="D211" s="40"/>
@@ -5245,7 +5370,7 @@
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="16">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="40"/>
@@ -5256,7 +5381,7 @@
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="16">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C213" s="24"/>
       <c r="D213" s="40"/>
@@ -5267,7 +5392,7 @@
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="16">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="40"/>
@@ -5278,7 +5403,7 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="16">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C215" s="24"/>
       <c r="D215" s="40"/>
@@ -5289,7 +5414,7 @@
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="16">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C216" s="24"/>
       <c r="D216" s="40"/>
@@ -5300,7 +5425,7 @@
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="16">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C217" s="24"/>
       <c r="D217" s="40"/>
@@ -5311,7 +5436,7 @@
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="16">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C218" s="24"/>
       <c r="D218" s="40"/>
@@ -5322,7 +5447,7 @@
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="16">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C219" s="24"/>
       <c r="D219" s="40"/>
@@ -5333,7 +5458,7 @@
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="16">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C220" s="24"/>
       <c r="D220" s="40"/>
@@ -5344,7 +5469,7 @@
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="16">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C221" s="24"/>
       <c r="D221" s="40"/>
@@ -5355,7 +5480,7 @@
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="16">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C222" s="24"/>
       <c r="D222" s="40"/>
@@ -5366,7 +5491,7 @@
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="16">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C223" s="24"/>
       <c r="D223" s="40"/>
@@ -5377,7 +5502,7 @@
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="16">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C224" s="24"/>
       <c r="D224" s="40"/>
@@ -5388,7 +5513,7 @@
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="16">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C225" s="24"/>
       <c r="D225" s="40"/>
@@ -5399,7 +5524,7 @@
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="16">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C226" s="24"/>
       <c r="D226" s="40"/>
@@ -5410,7 +5535,7 @@
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="16">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C227" s="24"/>
       <c r="D227" s="40"/>
@@ -5421,7 +5546,7 @@
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="16">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C228" s="24"/>
       <c r="D228" s="40"/>
@@ -5432,7 +5557,7 @@
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="16">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C229" s="24"/>
       <c r="D229" s="40"/>
@@ -5443,7 +5568,7 @@
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="16">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C230" s="24"/>
       <c r="D230" s="40"/>
@@ -5454,7 +5579,7 @@
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="16">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C231" s="24"/>
       <c r="D231" s="40"/>
@@ -5465,7 +5590,7 @@
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="16">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C232" s="24"/>
       <c r="D232" s="40"/>
@@ -5476,7 +5601,7 @@
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="16">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C233" s="24"/>
       <c r="D233" s="40"/>
@@ -5487,7 +5612,7 @@
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="16">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C234" s="24"/>
       <c r="D234" s="40"/>
@@ -5498,7 +5623,7 @@
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="16">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C235" s="24"/>
       <c r="D235" s="40"/>
@@ -5509,7 +5634,7 @@
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="16">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C236" s="24"/>
       <c r="D236" s="40"/>
@@ -5520,7 +5645,7 @@
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="16">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C237" s="24"/>
       <c r="D237" s="40"/>
@@ -5531,7 +5656,7 @@
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="16">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C238" s="24"/>
       <c r="D238" s="40"/>
@@ -5542,7 +5667,7 @@
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="16">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C239" s="24"/>
       <c r="D239" s="40"/>
@@ -5553,7 +5678,7 @@
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="16">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C240" s="24"/>
       <c r="D240" s="40"/>
@@ -5564,7 +5689,7 @@
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="16">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C241" s="24"/>
       <c r="D241" s="40"/>
@@ -5575,7 +5700,7 @@
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="16">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C242" s="24"/>
       <c r="D242" s="40"/>
@@ -5586,7 +5711,7 @@
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="16">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C243" s="24"/>
       <c r="D243" s="40"/>
@@ -5597,7 +5722,7 @@
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="16">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C244" s="24"/>
       <c r="D244" s="40"/>
@@ -5608,7 +5733,7 @@
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="16">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C245" s="24"/>
       <c r="D245" s="40"/>
@@ -5619,7 +5744,7 @@
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="16">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C246" s="24"/>
       <c r="D246" s="40"/>
@@ -5630,7 +5755,7 @@
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="16">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C247" s="24"/>
       <c r="D247" s="40"/>
@@ -5641,7 +5766,7 @@
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="16">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C248" s="24"/>
       <c r="D248" s="40"/>
@@ -5652,7 +5777,7 @@
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="16">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C249" s="24"/>
       <c r="D249" s="40"/>
@@ -5663,7 +5788,7 @@
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="16">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C250" s="24"/>
       <c r="D250" s="40"/>
@@ -5674,7 +5799,7 @@
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="16">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C251" s="24"/>
       <c r="D251" s="40"/>
@@ -5685,7 +5810,7 @@
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="16">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="40"/>
@@ -5696,7 +5821,7 @@
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="16">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C253" s="24"/>
       <c r="D253" s="40"/>
@@ -5707,7 +5832,7 @@
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="16">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C254" s="24"/>
       <c r="D254" s="40"/>
@@ -5718,7 +5843,7 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="16">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C255" s="24"/>
       <c r="D255" s="40"/>
@@ -5729,7 +5854,7 @@
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="16">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C256" s="24"/>
       <c r="D256" s="40"/>
@@ -5740,7 +5865,7 @@
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="16">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C257" s="24"/>
       <c r="D257" s="40"/>
@@ -5751,7 +5876,7 @@
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="16">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C258" s="24"/>
       <c r="D258" s="40"/>
@@ -5762,7 +5887,7 @@
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="16">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C259" s="24"/>
       <c r="D259" s="40"/>
@@ -5773,7 +5898,7 @@
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="16">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="40"/>
@@ -5784,7 +5909,7 @@
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="16">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C261" s="24"/>
       <c r="D261" s="40"/>
@@ -5795,7 +5920,7 @@
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="16">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C262" s="24"/>
       <c r="D262" s="40"/>
@@ -5806,7 +5931,7 @@
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="16">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C263" s="24"/>
       <c r="D263" s="40"/>
@@ -5817,7 +5942,7 @@
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="16">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C264" s="24"/>
       <c r="D264" s="40"/>
@@ -5828,7 +5953,7 @@
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="16">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C265" s="24"/>
       <c r="D265" s="40"/>
@@ -5839,7 +5964,7 @@
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="16">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C266" s="24"/>
       <c r="D266" s="40"/>
@@ -5850,7 +5975,7 @@
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="16">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C267" s="24"/>
       <c r="D267" s="40"/>
@@ -5861,7 +5986,7 @@
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="16">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C268" s="24"/>
       <c r="D268" s="40"/>
@@ -5872,7 +5997,7 @@
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="16">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C269" s="24"/>
       <c r="D269" s="40"/>
@@ -5883,7 +6008,7 @@
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="16">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C270" s="24"/>
       <c r="D270" s="40"/>
@@ -5894,7 +6019,7 @@
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="16">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C271" s="24"/>
       <c r="D271" s="40"/>
@@ -5905,7 +6030,7 @@
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="16">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C272" s="24"/>
       <c r="D272" s="40"/>
@@ -5916,7 +6041,7 @@
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="16">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C273" s="24"/>
       <c r="D273" s="40"/>
@@ -5927,7 +6052,7 @@
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="16">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C274" s="24"/>
       <c r="D274" s="40"/>
@@ -5938,7 +6063,7 @@
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="16">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C275" s="24"/>
       <c r="D275" s="40"/>
@@ -5949,7 +6074,7 @@
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="16">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C276" s="24"/>
       <c r="D276" s="40"/>
@@ -5960,7 +6085,7 @@
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="16">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C277" s="24"/>
       <c r="D277" s="40"/>
@@ -5971,7 +6096,7 @@
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="16">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C278" s="24"/>
       <c r="D278" s="40"/>
@@ -5982,7 +6107,7 @@
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="16">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C279" s="24"/>
       <c r="D279" s="40"/>
@@ -5993,7 +6118,7 @@
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="16">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C280" s="24"/>
       <c r="D280" s="40"/>
@@ -6004,7 +6129,7 @@
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="16">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C281" s="24"/>
       <c r="D281" s="40"/>
@@ -6015,7 +6140,7 @@
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="16">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C282" s="24"/>
       <c r="D282" s="40"/>
@@ -6026,7 +6151,7 @@
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="16">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C283" s="24"/>
       <c r="D283" s="40"/>
@@ -6037,7 +6162,7 @@
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="16">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C284" s="24"/>
       <c r="D284" s="40"/>
@@ -6048,7 +6173,7 @@
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="16">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C285" s="24"/>
       <c r="D285" s="40"/>
@@ -6059,7 +6184,7 @@
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="16">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C286" s="24"/>
       <c r="D286" s="40"/>
@@ -6070,7 +6195,7 @@
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="16">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C287" s="24"/>
       <c r="D287" s="40"/>
@@ -6081,7 +6206,7 @@
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="16">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C288" s="24"/>
       <c r="D288" s="40"/>
@@ -6092,7 +6217,7 @@
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="16">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C289" s="24"/>
       <c r="D289" s="40"/>
@@ -6103,7 +6228,7 @@
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="16">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C290" s="24"/>
       <c r="D290" s="40"/>
@@ -6114,7 +6239,7 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="16">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C291" s="24"/>
       <c r="D291" s="40"/>
@@ -6125,7 +6250,7 @@
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="16">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C292" s="24"/>
       <c r="D292" s="40"/>
@@ -6136,7 +6261,7 @@
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="16">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C293" s="24"/>
       <c r="D293" s="40"/>
@@ -6147,7 +6272,7 @@
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="16">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C294" s="24"/>
       <c r="D294" s="40"/>
@@ -6158,7 +6283,7 @@
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="16">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="40"/>
@@ -6169,7 +6294,7 @@
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C296" s="24"/>
       <c r="D296" s="40"/>
@@ -6180,7 +6305,7 @@
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="16">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C297" s="24"/>
       <c r="D297" s="40"/>
@@ -6191,7 +6316,7 @@
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="16">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C298" s="24"/>
       <c r="D298" s="40"/>
@@ -6202,7 +6327,7 @@
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="16">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C299" s="24"/>
       <c r="D299" s="40"/>
@@ -6213,7 +6338,7 @@
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="16">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C300" s="24"/>
       <c r="D300" s="40"/>
@@ -6224,7 +6349,7 @@
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="16">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C301" s="24"/>
       <c r="D301" s="40"/>
@@ -6235,7 +6360,7 @@
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="16">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C302" s="24"/>
       <c r="D302" s="40"/>
@@ -6246,7 +6371,7 @@
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="16">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C303" s="24"/>
       <c r="D303" s="40"/>
@@ -6257,7 +6382,7 @@
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="16">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C304" s="24"/>
       <c r="D304" s="40"/>
@@ -6268,7 +6393,7 @@
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="16">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C305" s="24"/>
       <c r="D305" s="40"/>
@@ -6279,7 +6404,7 @@
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="16">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C306" s="24"/>
       <c r="D306" s="40"/>
@@ -6290,7 +6415,7 @@
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="16">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C307" s="24"/>
       <c r="D307" s="40"/>
@@ -6301,7 +6426,7 @@
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="16">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C308" s="24"/>
       <c r="D308" s="40"/>
@@ -6312,7 +6437,7 @@
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="16">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C309" s="24"/>
       <c r="D309" s="40"/>
@@ -6323,7 +6448,7 @@
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="16">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C310" s="24"/>
       <c r="D310" s="40"/>
@@ -6334,7 +6459,7 @@
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="16">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C311" s="24"/>
       <c r="D311" s="40"/>
@@ -6345,7 +6470,7 @@
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="16">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C312" s="24"/>
       <c r="D312" s="40"/>
@@ -6356,7 +6481,7 @@
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="16">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C313" s="24"/>
       <c r="D313" s="40"/>
@@ -6367,7 +6492,7 @@
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="16">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C314" s="24"/>
       <c r="D314" s="40"/>
@@ -6378,7 +6503,7 @@
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="16">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C315" s="24"/>
       <c r="D315" s="40"/>
@@ -6389,7 +6514,7 @@
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="16">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C316" s="24"/>
       <c r="D316" s="40"/>
@@ -6400,7 +6525,7 @@
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="16">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C317" s="24"/>
       <c r="D317" s="40"/>
@@ -6411,7 +6536,7 @@
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="16">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C318" s="24"/>
       <c r="D318" s="40"/>
@@ -6422,7 +6547,7 @@
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="16">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C319" s="24"/>
       <c r="D319" s="40"/>
@@ -6433,7 +6558,7 @@
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="16">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C320" s="24"/>
       <c r="D320" s="40"/>
@@ -6444,7 +6569,7 @@
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="16">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C321" s="24"/>
       <c r="D321" s="40"/>
@@ -6455,7 +6580,7 @@
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="16">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C322" s="24"/>
       <c r="D322" s="40"/>
@@ -6466,7 +6591,7 @@
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="16">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C323" s="24"/>
       <c r="D323" s="40"/>
@@ -6477,7 +6602,7 @@
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="16">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C324" s="24"/>
       <c r="D324" s="40"/>
@@ -6488,7 +6613,7 @@
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="16">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C325" s="24"/>
       <c r="D325" s="40"/>
@@ -6499,7 +6624,7 @@
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="16">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C326" s="24"/>
       <c r="D326" s="40"/>
@@ -6510,7 +6635,7 @@
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="16">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C327" s="24"/>
       <c r="D327" s="40"/>
@@ -6521,7 +6646,7 @@
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="16">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="40"/>
@@ -6532,7 +6657,7 @@
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="16">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C329" s="24"/>
       <c r="D329" s="40"/>
@@ -6543,7 +6668,7 @@
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="16">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C330" s="24"/>
       <c r="D330" s="40"/>
@@ -6554,7 +6679,7 @@
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="16">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C331" s="24"/>
       <c r="D331" s="40"/>
@@ -6565,7 +6690,7 @@
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="16">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="40"/>
@@ -6576,7 +6701,7 @@
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="16">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C333" s="24"/>
       <c r="D333" s="40"/>
@@ -6587,7 +6712,7 @@
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="16">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C334" s="24"/>
       <c r="D334" s="40"/>
@@ -6598,7 +6723,7 @@
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="16">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C335" s="24"/>
       <c r="D335" s="40"/>
@@ -6609,7 +6734,7 @@
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="16">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C336" s="24"/>
       <c r="D336" s="40"/>
@@ -6620,7 +6745,7 @@
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="16">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C337" s="24"/>
       <c r="D337" s="40"/>
@@ -6631,7 +6756,7 @@
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="16">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C338" s="24"/>
       <c r="D338" s="40"/>
@@ -6642,7 +6767,7 @@
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="16">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C339" s="24"/>
       <c r="D339" s="40"/>
@@ -6653,7 +6778,7 @@
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="16">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C340" s="24"/>
       <c r="D340" s="40"/>
@@ -6664,7 +6789,7 @@
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="16">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C341" s="24"/>
       <c r="D341" s="40"/>
@@ -6675,7 +6800,7 @@
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="16">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C342" s="24"/>
       <c r="D342" s="40"/>
@@ -6686,7 +6811,7 @@
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="16">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C343" s="24"/>
       <c r="D343" s="40"/>
@@ -6697,7 +6822,7 @@
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="16">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C344" s="24"/>
       <c r="D344" s="40"/>
@@ -6708,7 +6833,7 @@
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="16">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C345" s="24"/>
       <c r="D345" s="40"/>
@@ -6719,7 +6844,7 @@
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="16">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C346" s="24"/>
       <c r="D346" s="40"/>
@@ -6730,7 +6855,7 @@
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="16">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C347" s="24"/>
       <c r="D347" s="40"/>
@@ -6741,7 +6866,7 @@
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="16">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C348" s="24"/>
       <c r="D348" s="40"/>
@@ -6752,7 +6877,7 @@
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="16">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C349" s="24"/>
       <c r="D349" s="40"/>
@@ -6763,7 +6888,7 @@
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="16">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C350" s="24"/>
       <c r="D350" s="40"/>
@@ -6774,7 +6899,7 @@
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="16">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C351" s="24"/>
       <c r="D351" s="40"/>
@@ -6785,7 +6910,7 @@
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="16">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C352" s="24"/>
       <c r="D352" s="40"/>
@@ -6796,7 +6921,7 @@
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" s="16">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C353" s="24"/>
       <c r="D353" s="40"/>
@@ -6807,7 +6932,7 @@
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" s="16">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C354" s="24"/>
       <c r="D354" s="40"/>
@@ -6818,7 +6943,7 @@
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" s="16">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C355" s="24"/>
       <c r="D355" s="40"/>
@@ -6829,7 +6954,7 @@
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" s="16">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C356" s="24"/>
       <c r="D356" s="40"/>
@@ -6840,7 +6965,7 @@
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" s="16">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C357" s="24"/>
       <c r="D357" s="40"/>
@@ -6851,7 +6976,7 @@
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" s="16">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C358" s="24"/>
       <c r="D358" s="40"/>
@@ -6862,7 +6987,7 @@
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" s="16">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C359" s="24"/>
       <c r="D359" s="40"/>
@@ -6873,7 +6998,7 @@
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" s="16">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C360" s="24"/>
       <c r="D360" s="40"/>
@@ -6884,7 +7009,7 @@
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" s="16">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C361" s="24"/>
       <c r="D361" s="40"/>
@@ -6895,7 +7020,7 @@
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" s="16">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C362" s="24"/>
       <c r="D362" s="40"/>
@@ -6906,7 +7031,7 @@
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" s="16">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C363" s="24"/>
       <c r="D363" s="40"/>
@@ -6917,7 +7042,7 @@
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" s="16">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C364" s="24"/>
       <c r="D364" s="40"/>
@@ -6928,7 +7053,7 @@
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" s="16">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C365" s="24"/>
       <c r="D365" s="40"/>
@@ -6939,7 +7064,7 @@
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" s="16">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C366" s="24"/>
       <c r="D366" s="40"/>
@@ -6950,7 +7075,7 @@
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" s="16">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C367" s="24"/>
       <c r="D367" s="40"/>
@@ -6961,7 +7086,7 @@
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" s="16">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C368" s="24"/>
       <c r="D368" s="40"/>
@@ -6972,7 +7097,7 @@
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B369" s="16">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C369" s="24"/>
       <c r="D369" s="40"/>
@@ -6983,7 +7108,7 @@
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B370" s="16">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C370" s="24"/>
       <c r="D370" s="40"/>
@@ -6994,7 +7119,7 @@
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B371" s="16">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C371" s="24"/>
       <c r="D371" s="40"/>
@@ -7005,7 +7130,7 @@
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B372" s="16">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C372" s="24"/>
       <c r="D372" s="40"/>
@@ -7016,7 +7141,7 @@
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" s="16">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C373" s="24"/>
       <c r="D373" s="40"/>
@@ -7027,7 +7152,7 @@
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" s="16">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C374" s="24"/>
       <c r="D374" s="40"/>
@@ -7038,7 +7163,7 @@
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B375" s="16">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C375" s="24"/>
       <c r="D375" s="40"/>
@@ -7049,7 +7174,7 @@
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" s="16">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C376" s="24"/>
       <c r="D376" s="40"/>
@@ -7060,7 +7185,7 @@
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B377" s="16">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C377" s="24"/>
       <c r="D377" s="40"/>
@@ -7071,7 +7196,7 @@
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B378" s="16">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C378" s="24"/>
       <c r="D378" s="40"/>
@@ -7082,7 +7207,7 @@
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B379" s="16">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C379" s="24"/>
       <c r="D379" s="40"/>
@@ -7093,7 +7218,7 @@
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B380" s="16">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C380" s="24"/>
       <c r="D380" s="40"/>
@@ -7104,7 +7229,7 @@
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B381" s="16">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C381" s="24"/>
       <c r="D381" s="40"/>
@@ -7115,7 +7240,7 @@
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B382" s="16">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C382" s="24"/>
       <c r="D382" s="40"/>
@@ -7126,7 +7251,7 @@
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B383" s="16">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C383" s="24"/>
       <c r="D383" s="40"/>
@@ -7137,7 +7262,7 @@
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B384" s="16">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C384" s="24"/>
       <c r="D384" s="40"/>
@@ -7148,7 +7273,7 @@
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" s="16">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C385" s="24"/>
       <c r="D385" s="40"/>
@@ -7159,7 +7284,7 @@
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" s="16">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C386" s="24"/>
       <c r="D386" s="40"/>
@@ -7170,7 +7295,7 @@
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B387" s="16">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C387" s="24"/>
       <c r="D387" s="40"/>
@@ -7181,7 +7306,7 @@
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" s="16">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C388" s="24"/>
       <c r="D388" s="40"/>
@@ -7192,7 +7317,7 @@
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" s="16">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C389" s="24"/>
       <c r="D389" s="40"/>
@@ -7203,7 +7328,7 @@
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" s="16">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C390" s="24"/>
       <c r="D390" s="40"/>
@@ -7214,7 +7339,7 @@
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" s="16">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C391" s="24"/>
       <c r="D391" s="40"/>
@@ -7225,7 +7350,7 @@
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B392" s="16">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C392" s="24"/>
       <c r="D392" s="40"/>
@@ -7236,7 +7361,7 @@
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B393" s="16">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C393" s="24"/>
       <c r="D393" s="40"/>
@@ -7247,7 +7372,7 @@
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B394" s="16">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C394" s="24"/>
       <c r="D394" s="40"/>
@@ -7258,7 +7383,7 @@
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" s="16">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C395" s="24"/>
       <c r="D395" s="40"/>
@@ -7269,7 +7394,7 @@
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" s="16">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C396" s="24"/>
       <c r="D396" s="40"/>
@@ -7280,7 +7405,7 @@
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B397" s="16">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C397" s="24"/>
       <c r="D397" s="40"/>
@@ -7291,7 +7416,7 @@
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B398" s="16">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C398" s="24"/>
       <c r="D398" s="40"/>
@@ -7302,7 +7427,7 @@
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B399" s="16">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C399" s="24"/>
       <c r="D399" s="40"/>
@@ -7313,7 +7438,7 @@
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" s="16">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C400" s="24"/>
       <c r="D400" s="40"/>
@@ -7324,7 +7449,7 @@
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" s="16">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C401" s="24"/>
       <c r="D401" s="40"/>
@@ -7335,7 +7460,7 @@
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" s="16">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C402" s="24"/>
       <c r="D402" s="40"/>
@@ -7346,7 +7471,7 @@
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" s="16">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C403" s="24"/>
       <c r="D403" s="40"/>
@@ -7357,7 +7482,7 @@
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" s="16">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C404" s="24"/>
       <c r="D404" s="40"/>
@@ -7368,7 +7493,7 @@
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" s="16">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C405" s="24"/>
       <c r="D405" s="40"/>
@@ -7379,7 +7504,7 @@
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" s="16">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C406" s="24"/>
       <c r="D406" s="40"/>
@@ -7390,7 +7515,7 @@
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" s="16">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C407" s="24"/>
       <c r="D407" s="40"/>
@@ -7401,7 +7526,7 @@
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" s="16">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="40"/>
@@ -7412,7 +7537,7 @@
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" s="16">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="40"/>
@@ -7423,7 +7548,7 @@
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" s="16">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="40"/>
@@ -7434,7 +7559,7 @@
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" s="16">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="40"/>
@@ -7445,7 +7570,7 @@
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" s="16">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="40"/>
@@ -7456,7 +7581,7 @@
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" s="16">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="40"/>
@@ -7467,7 +7592,7 @@
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" s="16">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="40"/>
@@ -7478,7 +7603,7 @@
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" s="16">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C415" s="24"/>
       <c r="D415" s="40"/>
@@ -7489,7 +7614,7 @@
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" s="16">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C416" s="24"/>
       <c r="D416" s="40"/>
@@ -7500,7 +7625,7 @@
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B417" s="16">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C417" s="24"/>
       <c r="D417" s="40"/>
@@ -7511,7 +7636,7 @@
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B418" s="16">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C418" s="24"/>
       <c r="D418" s="40"/>
@@ -7522,7 +7647,7 @@
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B419" s="16">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C419" s="24"/>
       <c r="D419" s="40"/>
@@ -7533,7 +7658,7 @@
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B420" s="16">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C420" s="24"/>
       <c r="D420" s="40"/>
@@ -7544,7 +7669,7 @@
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" s="16">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C421" s="24"/>
       <c r="D421" s="40"/>
@@ -7555,7 +7680,7 @@
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" s="16">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C422" s="24"/>
       <c r="D422" s="40"/>
@@ -7566,7 +7691,7 @@
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B423" s="16">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C423" s="24"/>
       <c r="D423" s="40"/>
@@ -7577,7 +7702,7 @@
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" s="16">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C424" s="24"/>
       <c r="D424" s="40"/>
@@ -7588,7 +7713,7 @@
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B425" s="16">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C425" s="24"/>
       <c r="D425" s="40"/>
@@ -7599,7 +7724,7 @@
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B426" s="16">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C426" s="24"/>
       <c r="D426" s="40"/>
@@ -7610,7 +7735,7 @@
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B427" s="16">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C427" s="24"/>
       <c r="D427" s="40"/>
@@ -7621,7 +7746,7 @@
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B428" s="16">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C428" s="24"/>
       <c r="D428" s="40"/>
@@ -7630,50 +7755,6 @@
       <c r="G428" s="41"/>
       <c r="H428" s="42"/>
     </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B429" s="16">
-        <v>428</v>
-      </c>
-      <c r="C429" s="24"/>
-      <c r="D429" s="40"/>
-      <c r="E429" s="41"/>
-      <c r="F429" s="60"/>
-      <c r="G429" s="41"/>
-      <c r="H429" s="42"/>
-    </row>
-    <row r="430" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B430" s="16">
-        <v>429</v>
-      </c>
-      <c r="C430" s="24"/>
-      <c r="D430" s="40"/>
-      <c r="E430" s="41"/>
-      <c r="F430" s="60"/>
-      <c r="G430" s="41"/>
-      <c r="H430" s="42"/>
-    </row>
-    <row r="431" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B431" s="16">
-        <v>430</v>
-      </c>
-      <c r="C431" s="24"/>
-      <c r="D431" s="40"/>
-      <c r="E431" s="41"/>
-      <c r="F431" s="60"/>
-      <c r="G431" s="41"/>
-      <c r="H431" s="42"/>
-    </row>
-    <row r="432" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B432" s="16">
-        <v>431</v>
-      </c>
-      <c r="C432" s="24"/>
-      <c r="D432" s="40"/>
-      <c r="E432" s="41"/>
-      <c r="F432" s="60"/>
-      <c r="G432" s="41"/>
-      <c r="H432" s="42"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E81FE-D6B1-4D6C-A63F-4765C5B06852}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="84">
   <si>
     <t>Task/Function</t>
   </si>
@@ -268,12 +269,15 @@
   </si>
   <si>
     <t>Tạo mục User và hiện tất cả User trong giao diện chính - project SyncData</t>
+  </si>
+  <si>
+    <t>Tạo và xử lý Đăng nhập - project SyncData (Chưa xử lý được lỗi nhấn nút Back trên trình duyệt để trở về màn hình đăng nhập, vẫn lưu phiên làm việc cũ =&gt; nhập sai vẫn đăng nhập được vào hệ thống)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -282,21 +286,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +308,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -312,7 +316,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -320,7 +324,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,7 +332,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -337,7 +341,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -345,7 +349,7 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1117,7 +1121,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,36 +1503,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L428"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J168" sqref="J168"/>
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="15"/>
-    <col min="3" max="3" width="60.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="15"/>
+    <col min="3" max="3" width="60.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="9" customWidth="1"/>
-    <col min="9" max="9" width="1.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="1.375" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="17" t="s">
         <v>6</v>
@@ -1552,7 +1556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="18">
         <v>1</v>
@@ -1574,7 +1578,7 @@
       </c>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="16">
         <v>2</v>
@@ -1596,7 +1600,7 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="16">
         <v>3</v>
@@ -1618,7 +1622,7 @@
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="16">
         <v>4</v>
@@ -1630,7 +1634,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="16">
         <v>5</v>
@@ -1654,7 +1658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="16">
         <v>6</v>
@@ -1676,7 +1680,7 @@
       </c>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="16">
         <v>7</v>
@@ -1698,7 +1702,7 @@
       </c>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="16">
         <v>8</v>
@@ -1710,7 +1714,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="16">
         <v>9</v>
@@ -1732,7 +1736,7 @@
       </c>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="16">
         <v>10</v>
@@ -1754,7 +1758,7 @@
       </c>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="16">
         <v>11</v>
@@ -1780,7 +1784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="16">
         <v>12</v>
@@ -1806,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="16">
         <v>13</v>
@@ -1832,7 +1836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="16">
         <v>14</v>
@@ -1858,7 +1862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="16">
         <v>15</v>
@@ -1882,7 +1886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="16">
         <v>16</v>
@@ -1904,7 +1908,7 @@
       </c>
       <c r="H18" s="42"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="16">
         <v>17</v>
@@ -1926,7 +1930,7 @@
       </c>
       <c r="H19" s="54"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="16">
         <v>18</v>
@@ -1948,7 +1952,7 @@
       </c>
       <c r="H20" s="42"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="16">
         <v>19</v>
@@ -1970,7 +1974,7 @@
       </c>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="16">
         <v>20</v>
@@ -1982,7 +1986,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="16">
         <v>21</v>
@@ -2004,7 +2008,7 @@
       </c>
       <c r="H23" s="46"/>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="16">
         <v>22</v>
@@ -2026,7 +2030,7 @@
       </c>
       <c r="H24" s="42"/>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="16">
         <v>23</v>
@@ -2048,7 +2052,7 @@
       </c>
       <c r="H25" s="48"/>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="16">
         <v>24</v>
@@ -2070,7 +2074,7 @@
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="16">
         <v>25</v>
@@ -2092,7 +2096,7 @@
       </c>
       <c r="H27" s="46"/>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="16">
         <v>26</v>
@@ -2114,7 +2118,7 @@
       </c>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="16">
         <v>27</v>
@@ -2136,7 +2140,7 @@
       </c>
       <c r="H29" s="68"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="16">
         <v>28</v>
@@ -2148,7 +2152,7 @@
       <c r="G30" s="71"/>
       <c r="H30" s="73"/>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="16">
         <v>29</v>
@@ -2170,7 +2174,7 @@
       </c>
       <c r="H31" s="46"/>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="16">
         <v>30</v>
@@ -2194,7 +2198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="16">
         <v>31</v>
@@ -2216,7 +2220,7 @@
       </c>
       <c r="H33" s="48"/>
     </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="16">
         <v>32</v>
@@ -2240,7 +2244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="16">
         <v>33</v>
@@ -2267,7 +2271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="16">
         <v>34</v>
@@ -2291,7 +2295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="16">
         <v>35</v>
@@ -2313,7 +2317,7 @@
       </c>
       <c r="H37" s="42"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="16">
         <v>36</v>
@@ -2335,7 +2339,7 @@
       </c>
       <c r="H38" s="42"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="16">
         <v>37</v>
@@ -2357,7 +2361,7 @@
       </c>
       <c r="H39" s="42"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="16">
         <v>38</v>
@@ -2379,7 +2383,7 @@
       </c>
       <c r="H40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="16">
         <v>39</v>
@@ -2391,7 +2395,7 @@
       <c r="G41" s="35"/>
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="16">
         <v>40</v>
@@ -2413,7 +2417,7 @@
       </c>
       <c r="H42" s="84"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="16">
         <v>41</v>
@@ -2435,7 +2439,7 @@
       </c>
       <c r="H43" s="54"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="16">
         <v>42</v>
@@ -2457,7 +2461,7 @@
       </c>
       <c r="H44" s="54"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="16">
         <v>43</v>
@@ -2479,7 +2483,7 @@
       </c>
       <c r="H45" s="54"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="16">
         <v>44</v>
@@ -2501,7 +2505,7 @@
       </c>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="16">
         <v>45</v>
@@ -2523,7 +2527,7 @@
       </c>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="16">
         <v>46</v>
@@ -2545,7 +2549,7 @@
       </c>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="16">
         <v>47</v>
@@ -2567,7 +2571,7 @@
       </c>
       <c r="H49" s="90"/>
     </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="16">
         <v>48</v>
@@ -2591,7 +2595,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="16">
         <v>49</v>
@@ -2603,7 +2607,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="95"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="16">
         <v>50</v>
@@ -2625,7 +2629,7 @@
       </c>
       <c r="H52" s="84"/>
     </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="16">
         <v>51</v>
@@ -2649,7 +2653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="16">
         <v>52</v>
@@ -2671,7 +2675,7 @@
       </c>
       <c r="H54" s="90"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="16">
         <v>53</v>
@@ -2693,7 +2697,7 @@
       </c>
       <c r="H55" s="54"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="16">
         <v>54</v>
@@ -2715,7 +2719,7 @@
       </c>
       <c r="H56" s="54"/>
     </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="16">
         <v>55</v>
@@ -2737,7 +2741,7 @@
       </c>
       <c r="H57" s="54"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="16">
         <v>56</v>
@@ -2759,7 +2763,7 @@
       </c>
       <c r="H58" s="99"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="16">
         <v>57</v>
@@ -2781,7 +2785,7 @@
       </c>
       <c r="H59" s="101"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="16">
         <v>58</v>
@@ -2793,7 +2797,7 @@
       <c r="G60" s="35"/>
       <c r="H60" s="104"/>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="16">
         <v>59</v>
@@ -2817,7 +2821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="16">
         <v>60</v>
@@ -2839,7 +2843,7 @@
       </c>
       <c r="H62" s="107"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="16">
         <v>61</v>
@@ -2861,7 +2865,7 @@
       </c>
       <c r="H63" s="112"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="16">
         <v>62</v>
@@ -2873,7 +2877,7 @@
       <c r="G64" s="35"/>
       <c r="H64" s="104"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="16">
         <v>63</v>
@@ -2895,7 +2899,7 @@
       </c>
       <c r="H65" s="39"/>
     </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="16">
         <v>64</v>
@@ -2917,7 +2921,7 @@
       </c>
       <c r="H66" s="42"/>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="16">
         <v>65</v>
@@ -2939,7 +2943,7 @@
       </c>
       <c r="H67" s="42"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="16">
         <v>66</v>
@@ -2951,7 +2955,7 @@
       <c r="G68" s="35"/>
       <c r="H68" s="37"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="16">
         <v>67</v>
@@ -2973,7 +2977,7 @@
       </c>
       <c r="H69" s="42"/>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="16">
         <v>68</v>
@@ -2995,7 +2999,7 @@
       </c>
       <c r="H70" s="54"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="16">
         <v>69</v>
@@ -3017,7 +3021,7 @@
       </c>
       <c r="H71" s="54"/>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="16">
         <v>70</v>
@@ -3039,7 +3043,7 @@
       </c>
       <c r="H72" s="54"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="16">
         <v>71</v>
@@ -3051,7 +3055,7 @@
       <c r="G73" s="35"/>
       <c r="H73" s="37"/>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="16">
         <v>72</v>
@@ -3073,7 +3077,7 @@
       </c>
       <c r="H74" s="42"/>
     </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="16">
         <v>73</v>
@@ -3095,7 +3099,7 @@
       </c>
       <c r="H75" s="42"/>
     </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="16">
         <v>74</v>
@@ -3117,7 +3121,7 @@
       </c>
       <c r="H76" s="42"/>
     </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="16">
         <v>75</v>
@@ -3139,7 +3143,7 @@
       </c>
       <c r="H77" s="123"/>
     </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="16">
         <v>76</v>
@@ -3161,7 +3165,7 @@
       </c>
       <c r="H78" s="54"/>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="16">
         <v>77</v>
@@ -3183,7 +3187,7 @@
       </c>
       <c r="H79" s="54"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="16">
         <v>78</v>
@@ -3205,7 +3209,7 @@
       </c>
       <c r="H80" s="42"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="16">
         <v>79</v>
@@ -3227,7 +3231,7 @@
       </c>
       <c r="H81" s="54"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="16">
         <v>80</v>
@@ -3239,7 +3243,7 @@
       <c r="G82" s="35"/>
       <c r="H82" s="37"/>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="16">
         <v>81</v>
@@ -3261,7 +3265,7 @@
       </c>
       <c r="H83" s="54"/>
     </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="16">
         <v>82</v>
@@ -3283,7 +3287,7 @@
       </c>
       <c r="H84" s="54"/>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="16">
         <v>83</v>
@@ -3305,7 +3309,7 @@
       </c>
       <c r="H85" s="54"/>
     </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="16">
         <v>84</v>
@@ -3327,7 +3331,7 @@
       </c>
       <c r="H86" s="54"/>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="16">
         <v>85</v>
@@ -3349,7 +3353,7 @@
       </c>
       <c r="H87" s="123"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="16">
         <v>86</v>
@@ -3371,7 +3375,7 @@
       </c>
       <c r="H88" s="42"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="16">
         <v>87</v>
@@ -3383,7 +3387,7 @@
       <c r="G89" s="35"/>
       <c r="H89" s="37"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="16">
         <v>88</v>
@@ -3405,7 +3409,7 @@
       </c>
       <c r="H90" s="54"/>
     </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="16">
         <v>89</v>
@@ -3427,7 +3431,7 @@
       </c>
       <c r="H91" s="54"/>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="16">
         <v>90</v>
@@ -3449,7 +3453,7 @@
       </c>
       <c r="H92" s="54"/>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="16">
         <v>91</v>
@@ -3471,7 +3475,7 @@
       </c>
       <c r="H93" s="54"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="16">
         <v>92</v>
@@ -3483,7 +3487,7 @@
       <c r="G94" s="35"/>
       <c r="H94" s="37"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="16">
         <v>93</v>
@@ -3505,7 +3509,7 @@
       </c>
       <c r="H95" s="42"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="16">
         <v>94</v>
@@ -3527,7 +3531,7 @@
       </c>
       <c r="H96" s="42"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="16">
         <v>95</v>
@@ -3539,7 +3543,7 @@
       <c r="G97" s="35"/>
       <c r="H97" s="37"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="16">
         <v>96</v>
@@ -3561,7 +3565,7 @@
       </c>
       <c r="H98" s="54"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="16">
         <v>97</v>
@@ -3583,7 +3587,7 @@
       </c>
       <c r="H99" s="54"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="16">
         <v>98</v>
@@ -3595,7 +3599,7 @@
       <c r="G100" s="35"/>
       <c r="H100" s="37"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="16">
         <v>99</v>
@@ -3617,7 +3621,7 @@
       </c>
       <c r="H101" s="42"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="16">
         <v>100</v>
@@ -3639,7 +3643,7 @@
       </c>
       <c r="H102" s="54"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="16">
         <v>101</v>
@@ -3663,7 +3667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="16">
         <v>102</v>
@@ -3685,7 +3689,7 @@
       </c>
       <c r="H104" s="42"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="16">
         <v>103</v>
@@ -3697,7 +3701,7 @@
       <c r="G105" s="35"/>
       <c r="H105" s="37"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="16">
         <v>104</v>
@@ -3721,7 +3725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="16">
         <v>105</v>
@@ -3745,7 +3749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="16">
         <v>106</v>
@@ -3769,7 +3773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="16">
         <v>107</v>
@@ -3793,7 +3797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="16">
         <v>108</v>
@@ -3817,7 +3821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="16">
         <v>109</v>
@@ -3829,7 +3833,7 @@
       <c r="G111" s="35"/>
       <c r="H111" s="37"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="16">
         <v>110</v>
@@ -3853,7 +3857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="16">
         <v>111</v>
@@ -3877,7 +3881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="16">
         <v>112</v>
@@ -3901,7 +3905,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="16">
         <v>113</v>
@@ -3925,7 +3929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="16">
         <v>114</v>
@@ -3937,7 +3941,7 @@
       <c r="G116" s="35"/>
       <c r="H116" s="37"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="16">
         <v>115</v>
@@ -3961,7 +3965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="16">
         <v>116</v>
@@ -3985,7 +3989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="16">
         <v>117</v>
@@ -4009,7 +4013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="16">
         <v>118</v>
@@ -4033,7 +4037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="16">
         <v>119</v>
@@ -4057,7 +4061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="16">
         <v>120</v>
@@ -4069,7 +4073,7 @@
       <c r="G122" s="35"/>
       <c r="H122" s="37"/>
     </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B123" s="16">
         <v>121</v>
       </c>
@@ -4092,7 +4096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" s="16">
         <v>122</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="16">
         <v>123</v>
       </c>
@@ -4126,7 +4130,7 @@
       <c r="G125" s="35"/>
       <c r="H125" s="37"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="16">
         <v>125</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="16">
         <v>126</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
         <v>127</v>
       </c>
@@ -4183,7 +4187,7 @@
       <c r="G128" s="35"/>
       <c r="H128" s="37"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="16">
         <v>128</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="16">
         <v>129</v>
       </c>
@@ -4227,7 +4231,7 @@
       </c>
       <c r="H130" s="126"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="16">
         <v>130</v>
       </c>
@@ -4238,7 +4242,7 @@
       <c r="G131" s="35"/>
       <c r="H131" s="37"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="16">
         <v>131</v>
       </c>
@@ -4259,7 +4263,7 @@
       </c>
       <c r="H132" s="126"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" s="16">
         <v>132</v>
       </c>
@@ -4270,7 +4274,7 @@
       <c r="G133" s="35"/>
       <c r="H133" s="37"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" s="16">
         <v>133</v>
       </c>
@@ -4291,7 +4295,7 @@
       </c>
       <c r="H134" s="54"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
         <v>134</v>
       </c>
@@ -4302,7 +4306,7 @@
       <c r="G135" s="35"/>
       <c r="H135" s="37"/>
     </row>
-    <row r="136" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B136" s="16">
         <v>135</v>
       </c>
@@ -4323,7 +4327,7 @@
       </c>
       <c r="H136" s="42"/>
     </row>
-    <row r="137" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B137" s="16">
         <v>136</v>
       </c>
@@ -4344,7 +4348,7 @@
       </c>
       <c r="H137" s="42"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" s="16">
         <v>137</v>
       </c>
@@ -4355,7 +4359,7 @@
       <c r="G138" s="35"/>
       <c r="H138" s="37"/>
     </row>
-    <row r="139" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B139" s="16">
         <v>138</v>
       </c>
@@ -4376,7 +4380,7 @@
       </c>
       <c r="H139" s="42"/>
     </row>
-    <row r="140" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B140" s="16">
         <v>139</v>
       </c>
@@ -4397,7 +4401,7 @@
       </c>
       <c r="H140" s="42"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" s="16">
         <v>140</v>
       </c>
@@ -4408,7 +4412,7 @@
       <c r="G141" s="35"/>
       <c r="H141" s="37"/>
     </row>
-    <row r="142" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
         <v>141</v>
       </c>
@@ -4429,7 +4433,7 @@
       </c>
       <c r="H142" s="42"/>
     </row>
-    <row r="143" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B143" s="16">
         <v>142</v>
       </c>
@@ -4450,7 +4454,7 @@
       </c>
       <c r="H143" s="42"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" s="16">
         <v>143</v>
       </c>
@@ -4461,7 +4465,7 @@
       <c r="G144" s="35"/>
       <c r="H144" s="37"/>
     </row>
-    <row r="145" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B145" s="16">
         <v>144</v>
       </c>
@@ -4482,7 +4486,7 @@
       </c>
       <c r="H145" s="42"/>
     </row>
-    <row r="146" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B146" s="16">
         <v>145</v>
       </c>
@@ -4503,7 +4507,7 @@
       </c>
       <c r="H146" s="42"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="16">
         <v>146</v>
       </c>
@@ -4514,7 +4518,7 @@
       <c r="G147" s="35"/>
       <c r="H147" s="37"/>
     </row>
-    <row r="148" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B148" s="16">
         <v>147</v>
       </c>
@@ -4535,7 +4539,7 @@
       </c>
       <c r="H148" s="54"/>
     </row>
-    <row r="149" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
         <v>148</v>
       </c>
@@ -4556,7 +4560,7 @@
       </c>
       <c r="H149" s="42"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="16">
         <v>149</v>
       </c>
@@ -4567,7 +4571,7 @@
       <c r="G150" s="35"/>
       <c r="H150" s="37"/>
     </row>
-    <row r="151" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B151" s="16">
         <v>150</v>
       </c>
@@ -4588,7 +4592,7 @@
       </c>
       <c r="H151" s="42"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="16">
         <v>151</v>
       </c>
@@ -4599,7 +4603,7 @@
       <c r="G152" s="35"/>
       <c r="H152" s="37"/>
     </row>
-    <row r="153" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B153" s="16">
         <v>152</v>
       </c>
@@ -4620,7 +4624,7 @@
       </c>
       <c r="H153" s="54"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="16">
         <v>153</v>
       </c>
@@ -4631,7 +4635,7 @@
       <c r="G154" s="35"/>
       <c r="H154" s="37"/>
     </row>
-    <row r="155" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B155" s="16">
         <v>154</v>
       </c>
@@ -4652,7 +4656,7 @@
       </c>
       <c r="H155" s="42"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
         <v>155</v>
       </c>
@@ -4673,7 +4677,7 @@
       </c>
       <c r="H156" s="42"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="16">
         <v>156</v>
       </c>
@@ -4694,7 +4698,7 @@
       </c>
       <c r="H157" s="42"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" s="16">
         <v>157</v>
       </c>
@@ -4715,7 +4719,7 @@
       </c>
       <c r="H158" s="42"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" s="16">
         <v>158</v>
       </c>
@@ -4736,7 +4740,7 @@
       </c>
       <c r="H159" s="42"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="16">
         <v>159</v>
       </c>
@@ -4747,7 +4751,7 @@
       <c r="G160" s="35"/>
       <c r="H160" s="37"/>
     </row>
-    <row r="161" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B161" s="16">
         <v>160</v>
       </c>
@@ -4768,7 +4772,7 @@
       </c>
       <c r="H161" s="54"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B162" s="16">
         <v>161</v>
       </c>
@@ -4789,7 +4793,7 @@
       </c>
       <c r="H162" s="54"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
         <v>162</v>
       </c>
@@ -4810,7 +4814,7 @@
       </c>
       <c r="H163" s="54"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B164" s="16">
         <v>163</v>
       </c>
@@ -4831,7 +4835,7 @@
       </c>
       <c r="H164" s="54"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B165" s="16">
         <v>164</v>
       </c>
@@ -4852,7 +4856,7 @@
       </c>
       <c r="H165" s="42"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" s="16">
         <v>165</v>
       </c>
@@ -4863,7 +4867,7 @@
       <c r="G166" s="35"/>
       <c r="H166" s="37"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" s="16">
         <v>170</v>
       </c>
@@ -4884,7 +4888,7 @@
       </c>
       <c r="H167" s="42"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B168" s="16">
         <v>171</v>
       </c>
@@ -4895,51 +4899,71 @@
       <c r="G168" s="35"/>
       <c r="H168" s="37"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B169" s="16">
         <v>172</v>
       </c>
-      <c r="C169" s="24"/>
-      <c r="D169" s="40"/>
-      <c r="E169" s="41"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="41"/>
+      <c r="C169" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D169" s="40">
+        <v>43476</v>
+      </c>
+      <c r="E169" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="125">
+        <v>0.8</v>
+      </c>
+      <c r="G169" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H169" s="42"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
         <v>173</v>
       </c>
-      <c r="C170" s="24"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="60"/>
-      <c r="G170" s="41"/>
-      <c r="H170" s="42"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C170" s="33"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="35"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="37"/>
+    </row>
+    <row r="171" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B171" s="16">
         <v>174</v>
       </c>
-      <c r="C171" s="24"/>
-      <c r="D171" s="40"/>
-      <c r="E171" s="41"/>
-      <c r="F171" s="60"/>
-      <c r="G171" s="41"/>
+      <c r="C171" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D171" s="40">
+        <v>43477</v>
+      </c>
+      <c r="E171" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="125">
+        <v>0.9</v>
+      </c>
+      <c r="G171" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="H171" s="42"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B172" s="16">
         <v>175</v>
       </c>
-      <c r="C172" s="24"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="41"/>
-      <c r="F172" s="60"/>
-      <c r="G172" s="41"/>
-      <c r="H172" s="42"/>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C172" s="33"/>
+      <c r="D172" s="34"/>
+      <c r="E172" s="35"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="37"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B173" s="16">
         <v>176</v>
       </c>
@@ -4950,7 +4974,7 @@
       <c r="G173" s="41"/>
       <c r="H173" s="42"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B174" s="16">
         <v>177</v>
       </c>
@@ -4961,7 +4985,7 @@
       <c r="G174" s="41"/>
       <c r="H174" s="42"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B175" s="16">
         <v>178</v>
       </c>
@@ -4972,7 +4996,7 @@
       <c r="G175" s="41"/>
       <c r="H175" s="42"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
         <v>179</v>
       </c>
@@ -4983,7 +5007,7 @@
       <c r="G176" s="41"/>
       <c r="H176" s="42"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B177" s="16">
         <v>180</v>
       </c>
@@ -4994,7 +5018,7 @@
       <c r="G177" s="41"/>
       <c r="H177" s="42"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B178" s="16">
         <v>181</v>
       </c>
@@ -5005,7 +5029,7 @@
       <c r="G178" s="41"/>
       <c r="H178" s="42"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B179" s="16">
         <v>182</v>
       </c>
@@ -5016,7 +5040,7 @@
       <c r="G179" s="41"/>
       <c r="H179" s="42"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="16">
         <v>183</v>
       </c>
@@ -5027,7 +5051,7 @@
       <c r="G180" s="41"/>
       <c r="H180" s="42"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B181" s="16">
         <v>184</v>
       </c>
@@ -5038,7 +5062,7 @@
       <c r="G181" s="41"/>
       <c r="H181" s="42"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B182" s="16">
         <v>185</v>
       </c>
@@ -5049,7 +5073,7 @@
       <c r="G182" s="41"/>
       <c r="H182" s="42"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
         <v>186</v>
       </c>
@@ -5060,7 +5084,7 @@
       <c r="G183" s="41"/>
       <c r="H183" s="42"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="16">
         <v>187</v>
       </c>
@@ -5071,7 +5095,7 @@
       <c r="G184" s="41"/>
       <c r="H184" s="42"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B185" s="16">
         <v>188</v>
       </c>
@@ -5082,7 +5106,7 @@
       <c r="G185" s="41"/>
       <c r="H185" s="42"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B186" s="16">
         <v>189</v>
       </c>
@@ -5093,7 +5117,7 @@
       <c r="G186" s="41"/>
       <c r="H186" s="42"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B187" s="16">
         <v>190</v>
       </c>
@@ -5104,7 +5128,7 @@
       <c r="G187" s="41"/>
       <c r="H187" s="42"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="16">
         <v>191</v>
       </c>
@@ -5115,7 +5139,7 @@
       <c r="G188" s="41"/>
       <c r="H188" s="42"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B189" s="16">
         <v>192</v>
       </c>
@@ -5126,7 +5150,7 @@
       <c r="G189" s="41"/>
       <c r="H189" s="42"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
         <v>193</v>
       </c>
@@ -5137,7 +5161,7 @@
       <c r="G190" s="41"/>
       <c r="H190" s="42"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="16">
         <v>194</v>
       </c>
@@ -5148,7 +5172,7 @@
       <c r="G191" s="41"/>
       <c r="H191" s="42"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="16">
         <v>195</v>
       </c>
@@ -5159,7 +5183,7 @@
       <c r="G192" s="41"/>
       <c r="H192" s="42"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B193" s="16">
         <v>196</v>
       </c>
@@ -5170,7 +5194,7 @@
       <c r="G193" s="41"/>
       <c r="H193" s="42"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B194" s="16">
         <v>197</v>
       </c>
@@ -5181,7 +5205,7 @@
       <c r="G194" s="41"/>
       <c r="H194" s="42"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B195" s="16">
         <v>198</v>
       </c>
@@ -5192,7 +5216,7 @@
       <c r="G195" s="41"/>
       <c r="H195" s="42"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="16">
         <v>199</v>
       </c>
@@ -5203,7 +5227,7 @@
       <c r="G196" s="41"/>
       <c r="H196" s="42"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B197" s="16">
         <v>200</v>
       </c>
@@ -5214,7 +5238,7 @@
       <c r="G197" s="41"/>
       <c r="H197" s="42"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B198" s="16">
         <v>201</v>
       </c>
@@ -5225,7 +5249,7 @@
       <c r="G198" s="41"/>
       <c r="H198" s="42"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
         <v>202</v>
       </c>
@@ -5236,7 +5260,7 @@
       <c r="G199" s="41"/>
       <c r="H199" s="42"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="16">
         <v>203</v>
       </c>
@@ -5247,7 +5271,7 @@
       <c r="G200" s="41"/>
       <c r="H200" s="42"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B201" s="16">
         <v>204</v>
       </c>
@@ -5258,7 +5282,7 @@
       <c r="G201" s="41"/>
       <c r="H201" s="42"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B202" s="16">
         <v>205</v>
       </c>
@@ -5269,7 +5293,7 @@
       <c r="G202" s="41"/>
       <c r="H202" s="42"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B203" s="16">
         <v>206</v>
       </c>
@@ -5280,7 +5304,7 @@
       <c r="G203" s="41"/>
       <c r="H203" s="42"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="16">
         <v>207</v>
       </c>
@@ -5291,7 +5315,7 @@
       <c r="G204" s="41"/>
       <c r="H204" s="42"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B205" s="16">
         <v>208</v>
       </c>
@@ -5302,7 +5326,7 @@
       <c r="G205" s="41"/>
       <c r="H205" s="42"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
         <v>209</v>
       </c>
@@ -5313,7 +5337,7 @@
       <c r="G206" s="41"/>
       <c r="H206" s="42"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B207" s="16">
         <v>210</v>
       </c>
@@ -5324,7 +5348,7 @@
       <c r="G207" s="41"/>
       <c r="H207" s="42"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="16">
         <v>211</v>
       </c>
@@ -5335,7 +5359,7 @@
       <c r="G208" s="41"/>
       <c r="H208" s="42"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B209" s="16">
         <v>212</v>
       </c>
@@ -5346,7 +5370,7 @@
       <c r="G209" s="41"/>
       <c r="H209" s="42"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B210" s="16">
         <v>213</v>
       </c>
@@ -5357,7 +5381,7 @@
       <c r="G210" s="41"/>
       <c r="H210" s="42"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B211" s="16">
         <v>214</v>
       </c>
@@ -5368,7 +5392,7 @@
       <c r="G211" s="41"/>
       <c r="H211" s="42"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B212" s="16">
         <v>215</v>
       </c>
@@ -5379,7 +5403,7 @@
       <c r="G212" s="41"/>
       <c r="H212" s="42"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
         <v>216</v>
       </c>
@@ -5390,7 +5414,7 @@
       <c r="G213" s="41"/>
       <c r="H213" s="42"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B214" s="16">
         <v>217</v>
       </c>
@@ -5401,7 +5425,7 @@
       <c r="G214" s="41"/>
       <c r="H214" s="42"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B215" s="16">
         <v>218</v>
       </c>
@@ -5412,7 +5436,7 @@
       <c r="G215" s="41"/>
       <c r="H215" s="42"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B216" s="16">
         <v>219</v>
       </c>
@@ -5423,7 +5447,7 @@
       <c r="G216" s="41"/>
       <c r="H216" s="42"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B217" s="16">
         <v>220</v>
       </c>
@@ -5434,7 +5458,7 @@
       <c r="G217" s="41"/>
       <c r="H217" s="42"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B218" s="16">
         <v>221</v>
       </c>
@@ -5445,7 +5469,7 @@
       <c r="G218" s="41"/>
       <c r="H218" s="42"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B219" s="16">
         <v>222</v>
       </c>
@@ -5456,7 +5480,7 @@
       <c r="G219" s="41"/>
       <c r="H219" s="42"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
         <v>223</v>
       </c>
@@ -5467,7 +5491,7 @@
       <c r="G220" s="41"/>
       <c r="H220" s="42"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B221" s="16">
         <v>224</v>
       </c>
@@ -5478,7 +5502,7 @@
       <c r="G221" s="41"/>
       <c r="H221" s="42"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B222" s="16">
         <v>225</v>
       </c>
@@ -5489,7 +5513,7 @@
       <c r="G222" s="41"/>
       <c r="H222" s="42"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B223" s="16">
         <v>226</v>
       </c>
@@ -5500,7 +5524,7 @@
       <c r="G223" s="41"/>
       <c r="H223" s="42"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B224" s="16">
         <v>227</v>
       </c>
@@ -5511,7 +5535,7 @@
       <c r="G224" s="41"/>
       <c r="H224" s="42"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B225" s="16">
         <v>228</v>
       </c>
@@ -5522,7 +5546,7 @@
       <c r="G225" s="41"/>
       <c r="H225" s="42"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B226" s="16">
         <v>229</v>
       </c>
@@ -5533,7 +5557,7 @@
       <c r="G226" s="41"/>
       <c r="H226" s="42"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
         <v>230</v>
       </c>
@@ -5544,7 +5568,7 @@
       <c r="G227" s="41"/>
       <c r="H227" s="42"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B228" s="16">
         <v>231</v>
       </c>
@@ -5555,7 +5579,7 @@
       <c r="G228" s="41"/>
       <c r="H228" s="42"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B229" s="16">
         <v>232</v>
       </c>
@@ -5566,7 +5590,7 @@
       <c r="G229" s="41"/>
       <c r="H229" s="42"/>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B230" s="16">
         <v>233</v>
       </c>
@@ -5577,7 +5601,7 @@
       <c r="G230" s="41"/>
       <c r="H230" s="42"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B231" s="16">
         <v>234</v>
       </c>
@@ -5588,7 +5612,7 @@
       <c r="G231" s="41"/>
       <c r="H231" s="42"/>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B232" s="16">
         <v>235</v>
       </c>
@@ -5599,7 +5623,7 @@
       <c r="G232" s="41"/>
       <c r="H232" s="42"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B233" s="16">
         <v>236</v>
       </c>
@@ -5610,7 +5634,7 @@
       <c r="G233" s="41"/>
       <c r="H233" s="42"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
         <v>237</v>
       </c>
@@ -5621,7 +5645,7 @@
       <c r="G234" s="41"/>
       <c r="H234" s="42"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B235" s="16">
         <v>238</v>
       </c>
@@ -5632,7 +5656,7 @@
       <c r="G235" s="41"/>
       <c r="H235" s="42"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B236" s="16">
         <v>239</v>
       </c>
@@ -5643,7 +5667,7 @@
       <c r="G236" s="41"/>
       <c r="H236" s="42"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B237" s="16">
         <v>240</v>
       </c>
@@ -5654,7 +5678,7 @@
       <c r="G237" s="41"/>
       <c r="H237" s="42"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B238" s="16">
         <v>241</v>
       </c>
@@ -5665,7 +5689,7 @@
       <c r="G238" s="41"/>
       <c r="H238" s="42"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B239" s="16">
         <v>242</v>
       </c>
@@ -5676,7 +5700,7 @@
       <c r="G239" s="41"/>
       <c r="H239" s="42"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B240" s="16">
         <v>243</v>
       </c>
@@ -5687,7 +5711,7 @@
       <c r="G240" s="41"/>
       <c r="H240" s="42"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
         <v>244</v>
       </c>
@@ -5698,7 +5722,7 @@
       <c r="G241" s="41"/>
       <c r="H241" s="42"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B242" s="16">
         <v>245</v>
       </c>
@@ -5709,7 +5733,7 @@
       <c r="G242" s="41"/>
       <c r="H242" s="42"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B243" s="16">
         <v>246</v>
       </c>
@@ -5720,7 +5744,7 @@
       <c r="G243" s="41"/>
       <c r="H243" s="42"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B244" s="16">
         <v>247</v>
       </c>
@@ -5731,7 +5755,7 @@
       <c r="G244" s="41"/>
       <c r="H244" s="42"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B245" s="16">
         <v>248</v>
       </c>
@@ -5742,7 +5766,7 @@
       <c r="G245" s="41"/>
       <c r="H245" s="42"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B246" s="16">
         <v>249</v>
       </c>
@@ -5753,7 +5777,7 @@
       <c r="G246" s="41"/>
       <c r="H246" s="42"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B247" s="16">
         <v>250</v>
       </c>
@@ -5764,7 +5788,7 @@
       <c r="G247" s="41"/>
       <c r="H247" s="42"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
         <v>251</v>
       </c>
@@ -5775,7 +5799,7 @@
       <c r="G248" s="41"/>
       <c r="H248" s="42"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B249" s="16">
         <v>252</v>
       </c>
@@ -5786,7 +5810,7 @@
       <c r="G249" s="41"/>
       <c r="H249" s="42"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B250" s="16">
         <v>253</v>
       </c>
@@ -5797,7 +5821,7 @@
       <c r="G250" s="41"/>
       <c r="H250" s="42"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B251" s="16">
         <v>254</v>
       </c>
@@ -5808,7 +5832,7 @@
       <c r="G251" s="41"/>
       <c r="H251" s="42"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B252" s="16">
         <v>255</v>
       </c>
@@ -5819,7 +5843,7 @@
       <c r="G252" s="41"/>
       <c r="H252" s="42"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B253" s="16">
         <v>256</v>
       </c>
@@ -5830,7 +5854,7 @@
       <c r="G253" s="41"/>
       <c r="H253" s="42"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B254" s="16">
         <v>257</v>
       </c>
@@ -5841,7 +5865,7 @@
       <c r="G254" s="41"/>
       <c r="H254" s="42"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
         <v>258</v>
       </c>
@@ -5852,7 +5876,7 @@
       <c r="G255" s="41"/>
       <c r="H255" s="42"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B256" s="16">
         <v>259</v>
       </c>
@@ -5863,7 +5887,7 @@
       <c r="G256" s="41"/>
       <c r="H256" s="42"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B257" s="16">
         <v>260</v>
       </c>
@@ -5874,7 +5898,7 @@
       <c r="G257" s="41"/>
       <c r="H257" s="42"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B258" s="16">
         <v>261</v>
       </c>
@@ -5885,7 +5909,7 @@
       <c r="G258" s="41"/>
       <c r="H258" s="42"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B259" s="16">
         <v>262</v>
       </c>
@@ -5896,7 +5920,7 @@
       <c r="G259" s="41"/>
       <c r="H259" s="42"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B260" s="16">
         <v>263</v>
       </c>
@@ -5907,7 +5931,7 @@
       <c r="G260" s="41"/>
       <c r="H260" s="42"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B261" s="16">
         <v>264</v>
       </c>
@@ -5918,7 +5942,7 @@
       <c r="G261" s="41"/>
       <c r="H261" s="42"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
         <v>265</v>
       </c>
@@ -5929,7 +5953,7 @@
       <c r="G262" s="41"/>
       <c r="H262" s="42"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B263" s="16">
         <v>266</v>
       </c>
@@ -5940,7 +5964,7 @@
       <c r="G263" s="41"/>
       <c r="H263" s="42"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B264" s="16">
         <v>267</v>
       </c>
@@ -5951,7 +5975,7 @@
       <c r="G264" s="41"/>
       <c r="H264" s="42"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B265" s="16">
         <v>268</v>
       </c>
@@ -5962,7 +5986,7 @@
       <c r="G265" s="41"/>
       <c r="H265" s="42"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B266" s="16">
         <v>269</v>
       </c>
@@ -5973,7 +5997,7 @@
       <c r="G266" s="41"/>
       <c r="H266" s="42"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B267" s="16">
         <v>270</v>
       </c>
@@ -5984,7 +6008,7 @@
       <c r="G267" s="41"/>
       <c r="H267" s="42"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B268" s="16">
         <v>271</v>
       </c>
@@ -5995,7 +6019,7 @@
       <c r="G268" s="41"/>
       <c r="H268" s="42"/>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
         <v>272</v>
       </c>
@@ -6006,7 +6030,7 @@
       <c r="G269" s="41"/>
       <c r="H269" s="42"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B270" s="16">
         <v>273</v>
       </c>
@@ -6017,7 +6041,7 @@
       <c r="G270" s="41"/>
       <c r="H270" s="42"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B271" s="16">
         <v>274</v>
       </c>
@@ -6028,7 +6052,7 @@
       <c r="G271" s="41"/>
       <c r="H271" s="42"/>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B272" s="16">
         <v>275</v>
       </c>
@@ -6039,7 +6063,7 @@
       <c r="G272" s="41"/>
       <c r="H272" s="42"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B273" s="16">
         <v>276</v>
       </c>
@@ -6050,7 +6074,7 @@
       <c r="G273" s="41"/>
       <c r="H273" s="42"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B274" s="16">
         <v>277</v>
       </c>
@@ -6061,7 +6085,7 @@
       <c r="G274" s="41"/>
       <c r="H274" s="42"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B275" s="16">
         <v>278</v>
       </c>
@@ -6072,7 +6096,7 @@
       <c r="G275" s="41"/>
       <c r="H275" s="42"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
         <v>279</v>
       </c>
@@ -6083,7 +6107,7 @@
       <c r="G276" s="41"/>
       <c r="H276" s="42"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B277" s="16">
         <v>280</v>
       </c>
@@ -6094,7 +6118,7 @@
       <c r="G277" s="41"/>
       <c r="H277" s="42"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B278" s="16">
         <v>281</v>
       </c>
@@ -6105,7 +6129,7 @@
       <c r="G278" s="41"/>
       <c r="H278" s="42"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B279" s="16">
         <v>282</v>
       </c>
@@ -6116,7 +6140,7 @@
       <c r="G279" s="41"/>
       <c r="H279" s="42"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B280" s="16">
         <v>283</v>
       </c>
@@ -6127,7 +6151,7 @@
       <c r="G280" s="41"/>
       <c r="H280" s="42"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B281" s="16">
         <v>284</v>
       </c>
@@ -6138,7 +6162,7 @@
       <c r="G281" s="41"/>
       <c r="H281" s="42"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B282" s="16">
         <v>285</v>
       </c>
@@ -6149,7 +6173,7 @@
       <c r="G282" s="41"/>
       <c r="H282" s="42"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B283" s="16">
         <v>286</v>
       </c>
@@ -6160,7 +6184,7 @@
       <c r="G283" s="41"/>
       <c r="H283" s="42"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
         <v>287</v>
       </c>
@@ -6171,7 +6195,7 @@
       <c r="G284" s="41"/>
       <c r="H284" s="42"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B285" s="16">
         <v>288</v>
       </c>
@@ -6182,7 +6206,7 @@
       <c r="G285" s="41"/>
       <c r="H285" s="42"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B286" s="16">
         <v>289</v>
       </c>
@@ -6193,7 +6217,7 @@
       <c r="G286" s="41"/>
       <c r="H286" s="42"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B287" s="16">
         <v>290</v>
       </c>
@@ -6204,7 +6228,7 @@
       <c r="G287" s="41"/>
       <c r="H287" s="42"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B288" s="16">
         <v>291</v>
       </c>
@@ -6215,7 +6239,7 @@
       <c r="G288" s="41"/>
       <c r="H288" s="42"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
         <v>292</v>
       </c>
@@ -6226,7 +6250,7 @@
       <c r="G289" s="41"/>
       <c r="H289" s="42"/>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B290" s="16">
         <v>293</v>
       </c>
@@ -6237,7 +6261,7 @@
       <c r="G290" s="41"/>
       <c r="H290" s="42"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B291" s="16">
         <v>294</v>
       </c>
@@ -6248,7 +6272,7 @@
       <c r="G291" s="41"/>
       <c r="H291" s="42"/>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B292" s="16">
         <v>295</v>
       </c>
@@ -6259,7 +6283,7 @@
       <c r="G292" s="41"/>
       <c r="H292" s="42"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B293" s="16">
         <v>296</v>
       </c>
@@ -6270,7 +6294,7 @@
       <c r="G293" s="41"/>
       <c r="H293" s="42"/>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B294" s="16">
         <v>297</v>
       </c>
@@ -6281,7 +6305,7 @@
       <c r="G294" s="41"/>
       <c r="H294" s="42"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B295" s="16">
         <v>298</v>
       </c>
@@ -6292,7 +6316,7 @@
       <c r="G295" s="41"/>
       <c r="H295" s="42"/>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
         <v>299</v>
       </c>
@@ -6303,7 +6327,7 @@
       <c r="G296" s="41"/>
       <c r="H296" s="42"/>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B297" s="16">
         <v>300</v>
       </c>
@@ -6314,7 +6338,7 @@
       <c r="G297" s="41"/>
       <c r="H297" s="42"/>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B298" s="16">
         <v>301</v>
       </c>
@@ -6325,7 +6349,7 @@
       <c r="G298" s="41"/>
       <c r="H298" s="42"/>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B299" s="16">
         <v>302</v>
       </c>
@@ -6336,7 +6360,7 @@
       <c r="G299" s="41"/>
       <c r="H299" s="42"/>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B300" s="16">
         <v>303</v>
       </c>
@@ -6347,7 +6371,7 @@
       <c r="G300" s="41"/>
       <c r="H300" s="42"/>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B301" s="16">
         <v>304</v>
       </c>
@@ -6358,7 +6382,7 @@
       <c r="G301" s="41"/>
       <c r="H301" s="42"/>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B302" s="16">
         <v>305</v>
       </c>
@@ -6369,7 +6393,7 @@
       <c r="G302" s="41"/>
       <c r="H302" s="42"/>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
         <v>306</v>
       </c>
@@ -6380,7 +6404,7 @@
       <c r="G303" s="41"/>
       <c r="H303" s="42"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B304" s="16">
         <v>307</v>
       </c>
@@ -6391,7 +6415,7 @@
       <c r="G304" s="41"/>
       <c r="H304" s="42"/>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B305" s="16">
         <v>308</v>
       </c>
@@ -6402,7 +6426,7 @@
       <c r="G305" s="41"/>
       <c r="H305" s="42"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B306" s="16">
         <v>309</v>
       </c>
@@ -6413,7 +6437,7 @@
       <c r="G306" s="41"/>
       <c r="H306" s="42"/>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B307" s="16">
         <v>310</v>
       </c>
@@ -6424,7 +6448,7 @@
       <c r="G307" s="41"/>
       <c r="H307" s="42"/>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B308" s="16">
         <v>311</v>
       </c>
@@ -6435,7 +6459,7 @@
       <c r="G308" s="41"/>
       <c r="H308" s="42"/>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B309" s="16">
         <v>312</v>
       </c>
@@ -6446,7 +6470,7 @@
       <c r="G309" s="41"/>
       <c r="H309" s="42"/>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
         <v>313</v>
       </c>
@@ -6457,7 +6481,7 @@
       <c r="G310" s="41"/>
       <c r="H310" s="42"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B311" s="16">
         <v>314</v>
       </c>
@@ -6468,7 +6492,7 @@
       <c r="G311" s="41"/>
       <c r="H311" s="42"/>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B312" s="16">
         <v>315</v>
       </c>
@@ -6479,7 +6503,7 @@
       <c r="G312" s="41"/>
       <c r="H312" s="42"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B313" s="16">
         <v>316</v>
       </c>
@@ -6490,7 +6514,7 @@
       <c r="G313" s="41"/>
       <c r="H313" s="42"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B314" s="16">
         <v>317</v>
       </c>
@@ -6501,7 +6525,7 @@
       <c r="G314" s="41"/>
       <c r="H314" s="42"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B315" s="16">
         <v>318</v>
       </c>
@@ -6512,7 +6536,7 @@
       <c r="G315" s="41"/>
       <c r="H315" s="42"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B316" s="16">
         <v>319</v>
       </c>
@@ -6523,7 +6547,7 @@
       <c r="G316" s="41"/>
       <c r="H316" s="42"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
         <v>320</v>
       </c>
@@ -6534,7 +6558,7 @@
       <c r="G317" s="41"/>
       <c r="H317" s="42"/>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B318" s="16">
         <v>321</v>
       </c>
@@ -6545,7 +6569,7 @@
       <c r="G318" s="41"/>
       <c r="H318" s="42"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B319" s="16">
         <v>322</v>
       </c>
@@ -6556,7 +6580,7 @@
       <c r="G319" s="41"/>
       <c r="H319" s="42"/>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B320" s="16">
         <v>323</v>
       </c>
@@ -6567,7 +6591,7 @@
       <c r="G320" s="41"/>
       <c r="H320" s="42"/>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B321" s="16">
         <v>324</v>
       </c>
@@ -6578,7 +6602,7 @@
       <c r="G321" s="41"/>
       <c r="H321" s="42"/>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B322" s="16">
         <v>325</v>
       </c>
@@ -6589,7 +6613,7 @@
       <c r="G322" s="41"/>
       <c r="H322" s="42"/>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B323" s="16">
         <v>326</v>
       </c>
@@ -6600,7 +6624,7 @@
       <c r="G323" s="41"/>
       <c r="H323" s="42"/>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
         <v>327</v>
       </c>
@@ -6611,7 +6635,7 @@
       <c r="G324" s="41"/>
       <c r="H324" s="42"/>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B325" s="16">
         <v>328</v>
       </c>
@@ -6622,7 +6646,7 @@
       <c r="G325" s="41"/>
       <c r="H325" s="42"/>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B326" s="16">
         <v>329</v>
       </c>
@@ -6633,7 +6657,7 @@
       <c r="G326" s="41"/>
       <c r="H326" s="42"/>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B327" s="16">
         <v>330</v>
       </c>
@@ -6644,7 +6668,7 @@
       <c r="G327" s="41"/>
       <c r="H327" s="42"/>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B328" s="16">
         <v>331</v>
       </c>
@@ -6655,7 +6679,7 @@
       <c r="G328" s="41"/>
       <c r="H328" s="42"/>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B329" s="16">
         <v>332</v>
       </c>
@@ -6666,7 +6690,7 @@
       <c r="G329" s="41"/>
       <c r="H329" s="42"/>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B330" s="16">
         <v>333</v>
       </c>
@@ -6677,7 +6701,7 @@
       <c r="G330" s="41"/>
       <c r="H330" s="42"/>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
         <v>334</v>
       </c>
@@ -6688,7 +6712,7 @@
       <c r="G331" s="41"/>
       <c r="H331" s="42"/>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B332" s="16">
         <v>335</v>
       </c>
@@ -6699,7 +6723,7 @@
       <c r="G332" s="41"/>
       <c r="H332" s="42"/>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B333" s="16">
         <v>336</v>
       </c>
@@ -6710,7 +6734,7 @@
       <c r="G333" s="41"/>
       <c r="H333" s="42"/>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B334" s="16">
         <v>337</v>
       </c>
@@ -6721,7 +6745,7 @@
       <c r="G334" s="41"/>
       <c r="H334" s="42"/>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B335" s="16">
         <v>338</v>
       </c>
@@ -6732,7 +6756,7 @@
       <c r="G335" s="41"/>
       <c r="H335" s="42"/>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
         <v>339</v>
       </c>
@@ -6743,7 +6767,7 @@
       <c r="G336" s="41"/>
       <c r="H336" s="42"/>
     </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B337" s="16">
         <v>340</v>
       </c>
@@ -6754,7 +6778,7 @@
       <c r="G337" s="41"/>
       <c r="H337" s="42"/>
     </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B338" s="16">
         <v>341</v>
       </c>
@@ -6765,7 +6789,7 @@
       <c r="G338" s="41"/>
       <c r="H338" s="42"/>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B339" s="16">
         <v>342</v>
       </c>
@@ -6776,7 +6800,7 @@
       <c r="G339" s="41"/>
       <c r="H339" s="42"/>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B340" s="16">
         <v>343</v>
       </c>
@@ -6787,7 +6811,7 @@
       <c r="G340" s="41"/>
       <c r="H340" s="42"/>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B341" s="16">
         <v>344</v>
       </c>
@@ -6798,7 +6822,7 @@
       <c r="G341" s="41"/>
       <c r="H341" s="42"/>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B342" s="16">
         <v>345</v>
       </c>
@@ -6809,7 +6833,7 @@
       <c r="G342" s="41"/>
       <c r="H342" s="42"/>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B343" s="16">
         <v>346</v>
       </c>
@@ -6820,7 +6844,7 @@
       <c r="G343" s="41"/>
       <c r="H343" s="42"/>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
         <v>347</v>
       </c>
@@ -6831,7 +6855,7 @@
       <c r="G344" s="41"/>
       <c r="H344" s="42"/>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B345" s="16">
         <v>348</v>
       </c>
@@ -6842,7 +6866,7 @@
       <c r="G345" s="41"/>
       <c r="H345" s="42"/>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B346" s="16">
         <v>349</v>
       </c>
@@ -6853,7 +6877,7 @@
       <c r="G346" s="41"/>
       <c r="H346" s="42"/>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B347" s="16">
         <v>350</v>
       </c>
@@ -6864,7 +6888,7 @@
       <c r="G347" s="41"/>
       <c r="H347" s="42"/>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B348" s="16">
         <v>351</v>
       </c>
@@ -6875,7 +6899,7 @@
       <c r="G348" s="41"/>
       <c r="H348" s="42"/>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B349" s="16">
         <v>352</v>
       </c>
@@ -6886,7 +6910,7 @@
       <c r="G349" s="41"/>
       <c r="H349" s="42"/>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B350" s="16">
         <v>353</v>
       </c>
@@ -6897,7 +6921,7 @@
       <c r="G350" s="41"/>
       <c r="H350" s="42"/>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
         <v>354</v>
       </c>
@@ -6908,7 +6932,7 @@
       <c r="G351" s="41"/>
       <c r="H351" s="42"/>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B352" s="16">
         <v>355</v>
       </c>
@@ -6919,7 +6943,7 @@
       <c r="G352" s="41"/>
       <c r="H352" s="42"/>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B353" s="16">
         <v>356</v>
       </c>
@@ -6930,7 +6954,7 @@
       <c r="G353" s="41"/>
       <c r="H353" s="42"/>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B354" s="16">
         <v>357</v>
       </c>
@@ -6941,7 +6965,7 @@
       <c r="G354" s="41"/>
       <c r="H354" s="42"/>
     </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B355" s="16">
         <v>358</v>
       </c>
@@ -6952,7 +6976,7 @@
       <c r="G355" s="41"/>
       <c r="H355" s="42"/>
     </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B356" s="16">
         <v>359</v>
       </c>
@@ -6963,7 +6987,7 @@
       <c r="G356" s="41"/>
       <c r="H356" s="42"/>
     </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B357" s="16">
         <v>360</v>
       </c>
@@ -6974,7 +6998,7 @@
       <c r="G357" s="41"/>
       <c r="H357" s="42"/>
     </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
         <v>361</v>
       </c>
@@ -6985,7 +7009,7 @@
       <c r="G358" s="41"/>
       <c r="H358" s="42"/>
     </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B359" s="16">
         <v>362</v>
       </c>
@@ -6996,7 +7020,7 @@
       <c r="G359" s="41"/>
       <c r="H359" s="42"/>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B360" s="16">
         <v>363</v>
       </c>
@@ -7007,7 +7031,7 @@
       <c r="G360" s="41"/>
       <c r="H360" s="42"/>
     </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B361" s="16">
         <v>364</v>
       </c>
@@ -7018,7 +7042,7 @@
       <c r="G361" s="41"/>
       <c r="H361" s="42"/>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B362" s="16">
         <v>365</v>
       </c>
@@ -7029,7 +7053,7 @@
       <c r="G362" s="41"/>
       <c r="H362" s="42"/>
     </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B363" s="16">
         <v>366</v>
       </c>
@@ -7040,7 +7064,7 @@
       <c r="G363" s="41"/>
       <c r="H363" s="42"/>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B364" s="16">
         <v>367</v>
       </c>
@@ -7051,7 +7075,7 @@
       <c r="G364" s="41"/>
       <c r="H364" s="42"/>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
         <v>368</v>
       </c>
@@ -7062,7 +7086,7 @@
       <c r="G365" s="41"/>
       <c r="H365" s="42"/>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B366" s="16">
         <v>369</v>
       </c>
@@ -7073,7 +7097,7 @@
       <c r="G366" s="41"/>
       <c r="H366" s="42"/>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B367" s="16">
         <v>370</v>
       </c>
@@ -7084,7 +7108,7 @@
       <c r="G367" s="41"/>
       <c r="H367" s="42"/>
     </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B368" s="16">
         <v>371</v>
       </c>
@@ -7095,7 +7119,7 @@
       <c r="G368" s="41"/>
       <c r="H368" s="42"/>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B369" s="16">
         <v>372</v>
       </c>
@@ -7106,7 +7130,7 @@
       <c r="G369" s="41"/>
       <c r="H369" s="42"/>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B370" s="16">
         <v>373</v>
       </c>
@@ -7117,7 +7141,7 @@
       <c r="G370" s="41"/>
       <c r="H370" s="42"/>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B371" s="16">
         <v>374</v>
       </c>
@@ -7128,7 +7152,7 @@
       <c r="G371" s="41"/>
       <c r="H371" s="42"/>
     </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
         <v>375</v>
       </c>
@@ -7139,7 +7163,7 @@
       <c r="G372" s="41"/>
       <c r="H372" s="42"/>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B373" s="16">
         <v>376</v>
       </c>
@@ -7150,7 +7174,7 @@
       <c r="G373" s="41"/>
       <c r="H373" s="42"/>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B374" s="16">
         <v>377</v>
       </c>
@@ -7161,7 +7185,7 @@
       <c r="G374" s="41"/>
       <c r="H374" s="42"/>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B375" s="16">
         <v>378</v>
       </c>
@@ -7172,7 +7196,7 @@
       <c r="G375" s="41"/>
       <c r="H375" s="42"/>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B376" s="16">
         <v>379</v>
       </c>
@@ -7183,7 +7207,7 @@
       <c r="G376" s="41"/>
       <c r="H376" s="42"/>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B377" s="16">
         <v>380</v>
       </c>
@@ -7194,7 +7218,7 @@
       <c r="G377" s="41"/>
       <c r="H377" s="42"/>
     </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B378" s="16">
         <v>381</v>
       </c>
@@ -7205,7 +7229,7 @@
       <c r="G378" s="41"/>
       <c r="H378" s="42"/>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
         <v>382</v>
       </c>
@@ -7216,7 +7240,7 @@
       <c r="G379" s="41"/>
       <c r="H379" s="42"/>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B380" s="16">
         <v>383</v>
       </c>
@@ -7227,7 +7251,7 @@
       <c r="G380" s="41"/>
       <c r="H380" s="42"/>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B381" s="16">
         <v>384</v>
       </c>
@@ -7238,7 +7262,7 @@
       <c r="G381" s="41"/>
       <c r="H381" s="42"/>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B382" s="16">
         <v>385</v>
       </c>
@@ -7249,7 +7273,7 @@
       <c r="G382" s="41"/>
       <c r="H382" s="42"/>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B383" s="16">
         <v>386</v>
       </c>
@@ -7260,7 +7284,7 @@
       <c r="G383" s="41"/>
       <c r="H383" s="42"/>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B384" s="16">
         <v>387</v>
       </c>
@@ -7271,7 +7295,7 @@
       <c r="G384" s="41"/>
       <c r="H384" s="42"/>
     </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B385" s="16">
         <v>388</v>
       </c>
@@ -7282,7 +7306,7 @@
       <c r="G385" s="41"/>
       <c r="H385" s="42"/>
     </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
         <v>389</v>
       </c>
@@ -7293,7 +7317,7 @@
       <c r="G386" s="41"/>
       <c r="H386" s="42"/>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B387" s="16">
         <v>390</v>
       </c>
@@ -7304,7 +7328,7 @@
       <c r="G387" s="41"/>
       <c r="H387" s="42"/>
     </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B388" s="16">
         <v>391</v>
       </c>
@@ -7315,7 +7339,7 @@
       <c r="G388" s="41"/>
       <c r="H388" s="42"/>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B389" s="16">
         <v>392</v>
       </c>
@@ -7326,7 +7350,7 @@
       <c r="G389" s="41"/>
       <c r="H389" s="42"/>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B390" s="16">
         <v>393</v>
       </c>
@@ -7337,7 +7361,7 @@
       <c r="G390" s="41"/>
       <c r="H390" s="42"/>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B391" s="16">
         <v>394</v>
       </c>
@@ -7348,7 +7372,7 @@
       <c r="G391" s="41"/>
       <c r="H391" s="42"/>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B392" s="16">
         <v>395</v>
       </c>
@@ -7359,7 +7383,7 @@
       <c r="G392" s="41"/>
       <c r="H392" s="42"/>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
         <v>396</v>
       </c>
@@ -7370,7 +7394,7 @@
       <c r="G393" s="41"/>
       <c r="H393" s="42"/>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B394" s="16">
         <v>397</v>
       </c>
@@ -7381,7 +7405,7 @@
       <c r="G394" s="41"/>
       <c r="H394" s="42"/>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B395" s="16">
         <v>398</v>
       </c>
@@ -7392,7 +7416,7 @@
       <c r="G395" s="41"/>
       <c r="H395" s="42"/>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B396" s="16">
         <v>399</v>
       </c>
@@ -7403,7 +7427,7 @@
       <c r="G396" s="41"/>
       <c r="H396" s="42"/>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B397" s="16">
         <v>400</v>
       </c>
@@ -7414,7 +7438,7 @@
       <c r="G397" s="41"/>
       <c r="H397" s="42"/>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B398" s="16">
         <v>401</v>
       </c>
@@ -7425,7 +7449,7 @@
       <c r="G398" s="41"/>
       <c r="H398" s="42"/>
     </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B399" s="16">
         <v>402</v>
       </c>
@@ -7436,7 +7460,7 @@
       <c r="G399" s="41"/>
       <c r="H399" s="42"/>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
         <v>403</v>
       </c>
@@ -7447,7 +7471,7 @@
       <c r="G400" s="41"/>
       <c r="H400" s="42"/>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B401" s="16">
         <v>404</v>
       </c>
@@ -7458,7 +7482,7 @@
       <c r="G401" s="41"/>
       <c r="H401" s="42"/>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B402" s="16">
         <v>405</v>
       </c>
@@ -7469,7 +7493,7 @@
       <c r="G402" s="41"/>
       <c r="H402" s="42"/>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B403" s="16">
         <v>406</v>
       </c>
@@ -7480,7 +7504,7 @@
       <c r="G403" s="41"/>
       <c r="H403" s="42"/>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B404" s="16">
         <v>407</v>
       </c>
@@ -7491,7 +7515,7 @@
       <c r="G404" s="41"/>
       <c r="H404" s="42"/>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B405" s="16">
         <v>408</v>
       </c>
@@ -7502,7 +7526,7 @@
       <c r="G405" s="41"/>
       <c r="H405" s="42"/>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B406" s="16">
         <v>409</v>
       </c>
@@ -7513,7 +7537,7 @@
       <c r="G406" s="41"/>
       <c r="H406" s="42"/>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
         <v>410</v>
       </c>
@@ -7524,7 +7548,7 @@
       <c r="G407" s="41"/>
       <c r="H407" s="42"/>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B408" s="16">
         <v>411</v>
       </c>
@@ -7535,7 +7559,7 @@
       <c r="G408" s="41"/>
       <c r="H408" s="42"/>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B409" s="16">
         <v>412</v>
       </c>
@@ -7546,7 +7570,7 @@
       <c r="G409" s="41"/>
       <c r="H409" s="42"/>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B410" s="16">
         <v>413</v>
       </c>
@@ -7557,7 +7581,7 @@
       <c r="G410" s="41"/>
       <c r="H410" s="42"/>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B411" s="16">
         <v>414</v>
       </c>
@@ -7568,7 +7592,7 @@
       <c r="G411" s="41"/>
       <c r="H411" s="42"/>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B412" s="16">
         <v>415</v>
       </c>
@@ -7579,7 +7603,7 @@
       <c r="G412" s="41"/>
       <c r="H412" s="42"/>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B413" s="16">
         <v>416</v>
       </c>
@@ -7590,7 +7614,7 @@
       <c r="G413" s="41"/>
       <c r="H413" s="42"/>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
         <v>417</v>
       </c>
@@ -7601,7 +7625,7 @@
       <c r="G414" s="41"/>
       <c r="H414" s="42"/>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B415" s="16">
         <v>418</v>
       </c>
@@ -7612,7 +7636,7 @@
       <c r="G415" s="41"/>
       <c r="H415" s="42"/>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B416" s="16">
         <v>419</v>
       </c>
@@ -7623,7 +7647,7 @@
       <c r="G416" s="41"/>
       <c r="H416" s="42"/>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B417" s="16">
         <v>420</v>
       </c>
@@ -7634,7 +7658,7 @@
       <c r="G417" s="41"/>
       <c r="H417" s="42"/>
     </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B418" s="16">
         <v>421</v>
       </c>
@@ -7645,7 +7669,7 @@
       <c r="G418" s="41"/>
       <c r="H418" s="42"/>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B419" s="16">
         <v>422</v>
       </c>
@@ -7656,7 +7680,7 @@
       <c r="G419" s="41"/>
       <c r="H419" s="42"/>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B420" s="16">
         <v>423</v>
       </c>
@@ -7667,7 +7691,7 @@
       <c r="G420" s="41"/>
       <c r="H420" s="42"/>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
         <v>424</v>
       </c>
@@ -7678,7 +7702,7 @@
       <c r="G421" s="41"/>
       <c r="H421" s="42"/>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B422" s="16">
         <v>425</v>
       </c>
@@ -7689,7 +7713,7 @@
       <c r="G422" s="41"/>
       <c r="H422" s="42"/>
     </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B423" s="16">
         <v>426</v>
       </c>
@@ -7700,7 +7724,7 @@
       <c r="G423" s="41"/>
       <c r="H423" s="42"/>
     </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B424" s="16">
         <v>427</v>
       </c>
@@ -7711,7 +7735,7 @@
       <c r="G424" s="41"/>
       <c r="H424" s="42"/>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B425" s="16">
         <v>428</v>
       </c>
@@ -7722,7 +7746,7 @@
       <c r="G425" s="41"/>
       <c r="H425" s="42"/>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B426" s="16">
         <v>429</v>
       </c>
@@ -7733,7 +7757,7 @@
       <c r="G426" s="41"/>
       <c r="H426" s="42"/>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B427" s="16">
         <v>430</v>
       </c>
@@ -7744,7 +7768,7 @@
       <c r="G427" s="41"/>
       <c r="H427" s="42"/>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
         <v>431</v>
       </c>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E81FE-D6B1-4D6C-A63F-4765C5B06852}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A5EE7-48A4-452A-BDF9-7B5A73AC9275}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="98">
   <si>
     <t>Task/Function</t>
   </si>
@@ -272,6 +272,48 @@
   </si>
   <si>
     <t>Tạo và xử lý Đăng nhập - project SyncData (Chưa xử lý được lỗi nhấn nút Back trên trình duyệt để trở về màn hình đăng nhập, vẫn lưu phiên làm việc cũ =&gt; nhập sai vẫn đăng nhập được vào hệ thống)</t>
+  </si>
+  <si>
+    <t>Tạo và cấu hình Website trong Kooboo</t>
+  </si>
+  <si>
+    <t>Import và Export Website Kooboo</t>
+  </si>
+  <si>
+    <t>Xử lý để tạo trang đã import vào Kooboo bằng Chatbox</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>SyncData</t>
+  </si>
+  <si>
+    <t>Kooboo</t>
+  </si>
+  <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
+    <t>16/01/2019</t>
+  </si>
+  <si>
+    <t>17/01/2019</t>
+  </si>
+  <si>
+    <t>18/01/2019</t>
+  </si>
+  <si>
+    <t>19/01/2019</t>
+  </si>
+  <si>
+    <t>21/01/2019</t>
+  </si>
+  <si>
+    <t>22/01/2019</t>
+  </si>
+  <si>
+    <t>23/01/2019</t>
   </si>
 </sst>
 </file>
@@ -286,21 +328,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -308,7 +350,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -316,7 +358,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -324,7 +366,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -332,7 +374,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -341,7 +383,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -349,13 +391,13 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +748,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,6 +1125,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1513,26 +1567,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="15"/>
-    <col min="3" max="3" width="60.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="15"/>
+    <col min="3" max="3" width="60.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="9" customWidth="1"/>
-    <col min="9" max="9" width="1.375" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="17" t="s">
         <v>6</v>
@@ -1556,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="18">
         <v>1</v>
@@ -1578,7 +1632,7 @@
       </c>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="16">
         <v>2</v>
@@ -1600,7 +1654,7 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="16">
         <v>3</v>
@@ -1622,7 +1676,7 @@
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="16">
         <v>4</v>
@@ -1634,7 +1688,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="16">
         <v>5</v>
@@ -1658,7 +1712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="16">
         <v>6</v>
@@ -1680,7 +1734,7 @@
       </c>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="16">
         <v>7</v>
@@ -1702,7 +1756,7 @@
       </c>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="16">
         <v>8</v>
@@ -1714,7 +1768,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="16">
         <v>9</v>
@@ -1736,7 +1790,7 @@
       </c>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="16">
         <v>10</v>
@@ -1758,7 +1812,7 @@
       </c>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="16">
         <v>11</v>
@@ -1784,7 +1838,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="16">
         <v>12</v>
@@ -1810,7 +1864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="16">
         <v>13</v>
@@ -1836,7 +1890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="16">
         <v>14</v>
@@ -1862,7 +1916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="16">
         <v>15</v>
@@ -1886,7 +1940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="16">
         <v>16</v>
@@ -1908,7 +1962,7 @@
       </c>
       <c r="H18" s="42"/>
     </row>
-    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="16">
         <v>17</v>
@@ -1930,7 +1984,7 @@
       </c>
       <c r="H19" s="54"/>
     </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="16">
         <v>18</v>
@@ -1952,7 +2006,7 @@
       </c>
       <c r="H20" s="42"/>
     </row>
-    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="16">
         <v>19</v>
@@ -1974,7 +2028,7 @@
       </c>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="16">
         <v>20</v>
@@ -1986,7 +2040,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="16">
         <v>21</v>
@@ -2008,7 +2062,7 @@
       </c>
       <c r="H23" s="46"/>
     </row>
-    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="16">
         <v>22</v>
@@ -2030,7 +2084,7 @@
       </c>
       <c r="H24" s="42"/>
     </row>
-    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="16">
         <v>23</v>
@@ -2052,7 +2106,7 @@
       </c>
       <c r="H25" s="48"/>
     </row>
-    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="16">
         <v>24</v>
@@ -2074,7 +2128,7 @@
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="16">
         <v>25</v>
@@ -2096,7 +2150,7 @@
       </c>
       <c r="H27" s="46"/>
     </row>
-    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="16">
         <v>26</v>
@@ -2118,7 +2172,7 @@
       </c>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="16">
         <v>27</v>
@@ -2140,7 +2194,7 @@
       </c>
       <c r="H29" s="68"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="16">
         <v>28</v>
@@ -2152,7 +2206,7 @@
       <c r="G30" s="71"/>
       <c r="H30" s="73"/>
     </row>
-    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="16">
         <v>29</v>
@@ -2174,7 +2228,7 @@
       </c>
       <c r="H31" s="46"/>
     </row>
-    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="16">
         <v>30</v>
@@ -2198,7 +2252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="16">
         <v>31</v>
@@ -2220,7 +2274,7 @@
       </c>
       <c r="H33" s="48"/>
     </row>
-    <row r="34" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="16">
         <v>32</v>
@@ -2244,7 +2298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="16">
         <v>33</v>
@@ -2271,7 +2325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="16">
         <v>34</v>
@@ -2295,7 +2349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="16">
         <v>35</v>
@@ -2317,7 +2371,7 @@
       </c>
       <c r="H37" s="42"/>
     </row>
-    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="16">
         <v>36</v>
@@ -2339,7 +2393,7 @@
       </c>
       <c r="H38" s="42"/>
     </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="16">
         <v>37</v>
@@ -2361,7 +2415,7 @@
       </c>
       <c r="H39" s="42"/>
     </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="16">
         <v>38</v>
@@ -2383,7 +2437,7 @@
       </c>
       <c r="H40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="16">
         <v>39</v>
@@ -2395,7 +2449,7 @@
       <c r="G41" s="35"/>
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="16">
         <v>40</v>
@@ -2417,7 +2471,7 @@
       </c>
       <c r="H42" s="84"/>
     </row>
-    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="16">
         <v>41</v>
@@ -2439,7 +2493,7 @@
       </c>
       <c r="H43" s="54"/>
     </row>
-    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="16">
         <v>42</v>
@@ -2461,7 +2515,7 @@
       </c>
       <c r="H44" s="54"/>
     </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="16">
         <v>43</v>
@@ -2483,7 +2537,7 @@
       </c>
       <c r="H45" s="54"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="16">
         <v>44</v>
@@ -2505,7 +2559,7 @@
       </c>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="16">
         <v>45</v>
@@ -2527,7 +2581,7 @@
       </c>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="16">
         <v>46</v>
@@ -2549,7 +2603,7 @@
       </c>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="16">
         <v>47</v>
@@ -2571,7 +2625,7 @@
       </c>
       <c r="H49" s="90"/>
     </row>
-    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="16">
         <v>48</v>
@@ -2595,7 +2649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="16">
         <v>49</v>
@@ -2607,7 +2661,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="95"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="16">
         <v>50</v>
@@ -2629,7 +2683,7 @@
       </c>
       <c r="H52" s="84"/>
     </row>
-    <row r="53" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="16">
         <v>51</v>
@@ -2653,7 +2707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="16">
         <v>52</v>
@@ -2675,7 +2729,7 @@
       </c>
       <c r="H54" s="90"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="16">
         <v>53</v>
@@ -2697,7 +2751,7 @@
       </c>
       <c r="H55" s="54"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="16">
         <v>54</v>
@@ -2719,7 +2773,7 @@
       </c>
       <c r="H56" s="54"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="16">
         <v>55</v>
@@ -2741,7 +2795,7 @@
       </c>
       <c r="H57" s="54"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="16">
         <v>56</v>
@@ -2763,7 +2817,7 @@
       </c>
       <c r="H58" s="99"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="16">
         <v>57</v>
@@ -2785,7 +2839,7 @@
       </c>
       <c r="H59" s="101"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="16">
         <v>58</v>
@@ -2797,7 +2851,7 @@
       <c r="G60" s="35"/>
       <c r="H60" s="104"/>
     </row>
-    <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="16">
         <v>59</v>
@@ -2821,7 +2875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="16">
         <v>60</v>
@@ -2843,7 +2897,7 @@
       </c>
       <c r="H62" s="107"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="16">
         <v>61</v>
@@ -2865,7 +2919,7 @@
       </c>
       <c r="H63" s="112"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="16">
         <v>62</v>
@@ -2877,7 +2931,7 @@
       <c r="G64" s="35"/>
       <c r="H64" s="104"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="16">
         <v>63</v>
@@ -2899,7 +2953,7 @@
       </c>
       <c r="H65" s="39"/>
     </row>
-    <row r="66" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="16">
         <v>64</v>
@@ -2921,7 +2975,7 @@
       </c>
       <c r="H66" s="42"/>
     </row>
-    <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="16">
         <v>65</v>
@@ -2943,7 +2997,7 @@
       </c>
       <c r="H67" s="42"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="16">
         <v>66</v>
@@ -2955,7 +3009,7 @@
       <c r="G68" s="35"/>
       <c r="H68" s="37"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="16">
         <v>67</v>
@@ -2977,7 +3031,7 @@
       </c>
       <c r="H69" s="42"/>
     </row>
-    <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="16">
         <v>68</v>
@@ -2999,7 +3053,7 @@
       </c>
       <c r="H70" s="54"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="16">
         <v>69</v>
@@ -3021,7 +3075,7 @@
       </c>
       <c r="H71" s="54"/>
     </row>
-    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="16">
         <v>70</v>
@@ -3043,7 +3097,7 @@
       </c>
       <c r="H72" s="54"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="16">
         <v>71</v>
@@ -3055,7 +3109,7 @@
       <c r="G73" s="35"/>
       <c r="H73" s="37"/>
     </row>
-    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="16">
         <v>72</v>
@@ -3077,7 +3131,7 @@
       </c>
       <c r="H74" s="42"/>
     </row>
-    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="16">
         <v>73</v>
@@ -3099,7 +3153,7 @@
       </c>
       <c r="H75" s="42"/>
     </row>
-    <row r="76" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="16">
         <v>74</v>
@@ -3121,7 +3175,7 @@
       </c>
       <c r="H76" s="42"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="16">
         <v>75</v>
@@ -3143,7 +3197,7 @@
       </c>
       <c r="H77" s="123"/>
     </row>
-    <row r="78" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="16">
         <v>76</v>
@@ -3165,7 +3219,7 @@
       </c>
       <c r="H78" s="54"/>
     </row>
-    <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="16">
         <v>77</v>
@@ -3187,7 +3241,7 @@
       </c>
       <c r="H79" s="54"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="16">
         <v>78</v>
@@ -3209,7 +3263,7 @@
       </c>
       <c r="H80" s="42"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="16">
         <v>79</v>
@@ -3231,7 +3285,7 @@
       </c>
       <c r="H81" s="54"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="16">
         <v>80</v>
@@ -3243,7 +3297,7 @@
       <c r="G82" s="35"/>
       <c r="H82" s="37"/>
     </row>
-    <row r="83" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="16">
         <v>81</v>
@@ -3265,7 +3319,7 @@
       </c>
       <c r="H83" s="54"/>
     </row>
-    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="16">
         <v>82</v>
@@ -3287,7 +3341,7 @@
       </c>
       <c r="H84" s="54"/>
     </row>
-    <row r="85" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="16">
         <v>83</v>
@@ -3309,7 +3363,7 @@
       </c>
       <c r="H85" s="54"/>
     </row>
-    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="16">
         <v>84</v>
@@ -3331,7 +3385,7 @@
       </c>
       <c r="H86" s="54"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="16">
         <v>85</v>
@@ -3353,7 +3407,7 @@
       </c>
       <c r="H87" s="123"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="16">
         <v>86</v>
@@ -3375,7 +3429,7 @@
       </c>
       <c r="H88" s="42"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="16">
         <v>87</v>
@@ -3387,7 +3441,7 @@
       <c r="G89" s="35"/>
       <c r="H89" s="37"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="16">
         <v>88</v>
@@ -3409,7 +3463,7 @@
       </c>
       <c r="H90" s="54"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="16">
         <v>89</v>
@@ -3431,7 +3485,7 @@
       </c>
       <c r="H91" s="54"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="16">
         <v>90</v>
@@ -3453,7 +3507,7 @@
       </c>
       <c r="H92" s="54"/>
     </row>
-    <row r="93" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="16">
         <v>91</v>
@@ -3475,7 +3529,7 @@
       </c>
       <c r="H93" s="54"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="16">
         <v>92</v>
@@ -3487,7 +3541,7 @@
       <c r="G94" s="35"/>
       <c r="H94" s="37"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="16">
         <v>93</v>
@@ -3509,7 +3563,7 @@
       </c>
       <c r="H95" s="42"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="16">
         <v>94</v>
@@ -3531,7 +3585,7 @@
       </c>
       <c r="H96" s="42"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="16">
         <v>95</v>
@@ -3543,7 +3597,7 @@
       <c r="G97" s="35"/>
       <c r="H97" s="37"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="16">
         <v>96</v>
@@ -3565,7 +3619,7 @@
       </c>
       <c r="H98" s="54"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="16">
         <v>97</v>
@@ -3587,7 +3641,7 @@
       </c>
       <c r="H99" s="54"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="16">
         <v>98</v>
@@ -3599,7 +3653,7 @@
       <c r="G100" s="35"/>
       <c r="H100" s="37"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="16">
         <v>99</v>
@@ -3621,7 +3675,7 @@
       </c>
       <c r="H101" s="42"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="16">
         <v>100</v>
@@ -3643,7 +3697,7 @@
       </c>
       <c r="H102" s="54"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="16">
         <v>101</v>
@@ -3667,7 +3721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="16">
         <v>102</v>
@@ -3689,7 +3743,7 @@
       </c>
       <c r="H104" s="42"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="16">
         <v>103</v>
@@ -3701,7 +3755,7 @@
       <c r="G105" s="35"/>
       <c r="H105" s="37"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="16">
         <v>104</v>
@@ -3725,7 +3779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="16">
         <v>105</v>
@@ -3749,7 +3803,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="16">
         <v>106</v>
@@ -3773,7 +3827,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="16">
         <v>107</v>
@@ -3797,7 +3851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="16">
         <v>108</v>
@@ -3821,7 +3875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="16">
         <v>109</v>
@@ -3833,7 +3887,7 @@
       <c r="G111" s="35"/>
       <c r="H111" s="37"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="16">
         <v>110</v>
@@ -3857,7 +3911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="16">
         <v>111</v>
@@ -3881,7 +3935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="16">
         <v>112</v>
@@ -3905,7 +3959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="16">
         <v>113</v>
@@ -3929,7 +3983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="16">
         <v>114</v>
@@ -3941,7 +3995,7 @@
       <c r="G116" s="35"/>
       <c r="H116" s="37"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="16">
         <v>115</v>
@@ -3965,7 +4019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="16">
         <v>116</v>
@@ -3989,7 +4043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="16">
         <v>117</v>
@@ -4013,7 +4067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="16">
         <v>118</v>
@@ -4037,7 +4091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="16">
         <v>119</v>
@@ -4061,7 +4115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="16">
         <v>120</v>
@@ -4073,7 +4127,7 @@
       <c r="G122" s="35"/>
       <c r="H122" s="37"/>
     </row>
-    <row r="123" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="16">
         <v>121</v>
       </c>
@@ -4096,7 +4150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="16">
         <v>122</v>
       </c>
@@ -4119,7 +4173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="16">
         <v>123</v>
       </c>
@@ -4130,7 +4184,7 @@
       <c r="G125" s="35"/>
       <c r="H125" s="37"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="16">
         <v>125</v>
       </c>
@@ -4153,7 +4207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" s="16">
         <v>126</v>
       </c>
@@ -4176,7 +4230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="16">
         <v>127</v>
       </c>
@@ -4187,7 +4241,7 @@
       <c r="G128" s="35"/>
       <c r="H128" s="37"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="16">
         <v>128</v>
       </c>
@@ -4210,7 +4264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="16">
         <v>129</v>
       </c>
@@ -4231,7 +4285,7 @@
       </c>
       <c r="H130" s="126"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="16">
         <v>130</v>
       </c>
@@ -4242,7 +4296,7 @@
       <c r="G131" s="35"/>
       <c r="H131" s="37"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="16">
         <v>131</v>
       </c>
@@ -4263,7 +4317,7 @@
       </c>
       <c r="H132" s="126"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="16">
         <v>132</v>
       </c>
@@ -4274,7 +4328,7 @@
       <c r="G133" s="35"/>
       <c r="H133" s="37"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="16">
         <v>133</v>
       </c>
@@ -4295,7 +4349,7 @@
       </c>
       <c r="H134" s="54"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="16">
         <v>134</v>
       </c>
@@ -4306,7 +4360,7 @@
       <c r="G135" s="35"/>
       <c r="H135" s="37"/>
     </row>
-    <row r="136" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B136" s="16">
         <v>135</v>
       </c>
@@ -4323,11 +4377,11 @@
         <v>0.2</v>
       </c>
       <c r="G136" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H136" s="42"/>
     </row>
-    <row r="137" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B137" s="16">
         <v>136</v>
       </c>
@@ -4344,11 +4398,11 @@
         <v>0.1</v>
       </c>
       <c r="G137" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H137" s="42"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="16">
         <v>137</v>
       </c>
@@ -4359,7 +4413,7 @@
       <c r="G138" s="35"/>
       <c r="H138" s="37"/>
     </row>
-    <row r="139" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B139" s="16">
         <v>138</v>
       </c>
@@ -4376,11 +4430,11 @@
         <v>0.4</v>
       </c>
       <c r="G139" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H139" s="42"/>
     </row>
-    <row r="140" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" s="16">
         <v>139</v>
       </c>
@@ -4397,11 +4451,11 @@
         <v>0.2</v>
       </c>
       <c r="G140" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H140" s="42"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="16">
         <v>140</v>
       </c>
@@ -4412,7 +4466,7 @@
       <c r="G141" s="35"/>
       <c r="H141" s="37"/>
     </row>
-    <row r="142" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B142" s="16">
         <v>141</v>
       </c>
@@ -4429,11 +4483,11 @@
         <v>0.6</v>
       </c>
       <c r="G142" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H142" s="42"/>
     </row>
-    <row r="143" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B143" s="16">
         <v>142</v>
       </c>
@@ -4450,11 +4504,11 @@
         <v>0.4</v>
       </c>
       <c r="G143" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H143" s="42"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="16">
         <v>143</v>
       </c>
@@ -4465,7 +4519,7 @@
       <c r="G144" s="35"/>
       <c r="H144" s="37"/>
     </row>
-    <row r="145" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B145" s="16">
         <v>144</v>
       </c>
@@ -4482,11 +4536,11 @@
         <v>0.8</v>
       </c>
       <c r="G145" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H145" s="42"/>
     </row>
-    <row r="146" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B146" s="16">
         <v>145</v>
       </c>
@@ -4503,11 +4557,11 @@
         <v>0.45</v>
       </c>
       <c r="G146" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H146" s="42"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="16">
         <v>146</v>
       </c>
@@ -4518,7 +4572,7 @@
       <c r="G147" s="35"/>
       <c r="H147" s="37"/>
     </row>
-    <row r="148" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B148" s="16">
         <v>147</v>
       </c>
@@ -4535,11 +4589,11 @@
         <v>1</v>
       </c>
       <c r="G148" s="52" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H148" s="54"/>
     </row>
-    <row r="149" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B149" s="16">
         <v>148</v>
       </c>
@@ -4556,11 +4610,11 @@
         <v>0.6</v>
       </c>
       <c r="G149" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H149" s="42"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="16">
         <v>149</v>
       </c>
@@ -4571,7 +4625,7 @@
       <c r="G150" s="35"/>
       <c r="H150" s="37"/>
     </row>
-    <row r="151" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B151" s="16">
         <v>150</v>
       </c>
@@ -4588,11 +4642,11 @@
         <v>0.85</v>
       </c>
       <c r="G151" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H151" s="42"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="16">
         <v>151</v>
       </c>
@@ -4603,7 +4657,7 @@
       <c r="G152" s="35"/>
       <c r="H152" s="37"/>
     </row>
-    <row r="153" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B153" s="16">
         <v>152</v>
       </c>
@@ -4620,11 +4674,11 @@
         <v>1</v>
       </c>
       <c r="G153" s="52" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H153" s="54"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="16">
         <v>153</v>
       </c>
@@ -4635,7 +4689,7 @@
       <c r="G154" s="35"/>
       <c r="H154" s="37"/>
     </row>
-    <row r="155" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="16">
         <v>154</v>
       </c>
@@ -4652,11 +4706,11 @@
         <v>0.5</v>
       </c>
       <c r="G155" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H155" s="42"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="16">
         <v>155</v>
       </c>
@@ -4673,11 +4727,11 @@
         <v>0.25</v>
       </c>
       <c r="G156" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H156" s="42"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16">
         <v>156</v>
       </c>
@@ -4694,11 +4748,11 @@
         <v>0.1</v>
       </c>
       <c r="G157" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H157" s="42"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16">
         <v>157</v>
       </c>
@@ -4715,11 +4769,11 @@
         <v>0.25</v>
       </c>
       <c r="G158" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H158" s="42"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16">
         <v>158</v>
       </c>
@@ -4736,11 +4790,11 @@
         <v>0.05</v>
       </c>
       <c r="G159" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H159" s="42"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="16">
         <v>159</v>
       </c>
@@ -4751,7 +4805,7 @@
       <c r="G160" s="35"/>
       <c r="H160" s="37"/>
     </row>
-    <row r="161" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="16">
         <v>160</v>
       </c>
@@ -4768,11 +4822,11 @@
         <v>1</v>
       </c>
       <c r="G161" s="52" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H161" s="54"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="16">
         <v>161</v>
       </c>
@@ -4789,11 +4843,11 @@
         <v>1</v>
       </c>
       <c r="G162" s="52" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H162" s="54"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="16">
         <v>162</v>
       </c>
@@ -4810,11 +4864,11 @@
         <v>1</v>
       </c>
       <c r="G163" s="52" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H163" s="54"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="16">
         <v>163</v>
       </c>
@@ -4831,11 +4885,11 @@
         <v>1</v>
       </c>
       <c r="G164" s="52" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H164" s="54"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="16">
         <v>164</v>
       </c>
@@ -4852,11 +4906,11 @@
         <v>0.25</v>
       </c>
       <c r="G165" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H165" s="42"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="16">
         <v>165</v>
       </c>
@@ -4867,7 +4921,7 @@
       <c r="G166" s="35"/>
       <c r="H166" s="37"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16">
         <v>170</v>
       </c>
@@ -4884,11 +4938,11 @@
         <v>0.5</v>
       </c>
       <c r="G167" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H167" s="42"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16">
         <v>171</v>
       </c>
@@ -4899,7 +4953,7 @@
       <c r="G168" s="35"/>
       <c r="H168" s="37"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16">
         <v>172</v>
       </c>
@@ -4916,11 +4970,11 @@
         <v>0.8</v>
       </c>
       <c r="G169" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H169" s="42"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="16">
         <v>173</v>
       </c>
@@ -4931,7 +4985,7 @@
       <c r="G170" s="35"/>
       <c r="H170" s="37"/>
     </row>
-    <row r="171" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B171" s="16">
         <v>174</v>
       </c>
@@ -4948,11 +5002,11 @@
         <v>0.9</v>
       </c>
       <c r="G171" s="124" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H171" s="42"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="16">
         <v>175</v>
       </c>
@@ -4963,425 +5017,705 @@
       <c r="G172" s="35"/>
       <c r="H172" s="37"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B173" s="16">
         <v>176</v>
       </c>
-      <c r="C173" s="24"/>
-      <c r="D173" s="40"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="41"/>
-      <c r="H173" s="42"/>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C173" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D173" s="87">
+        <v>43477</v>
+      </c>
+      <c r="E173" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="98">
+        <v>0.9</v>
+      </c>
+      <c r="G173" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="H173" s="123"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16">
         <v>177</v>
       </c>
-      <c r="C174" s="24"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="41"/>
-      <c r="F174" s="60"/>
-      <c r="G174" s="41"/>
-      <c r="H174" s="42"/>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C174" s="33"/>
+      <c r="D174" s="34"/>
+      <c r="E174" s="35"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="35"/>
+      <c r="H174" s="37"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="16">
         <v>178</v>
       </c>
-      <c r="C175" s="24"/>
-      <c r="D175" s="40"/>
-      <c r="E175" s="41"/>
-      <c r="F175" s="60"/>
-      <c r="G175" s="41"/>
+      <c r="C175" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D175" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E175" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="128">
+        <v>0.25</v>
+      </c>
+      <c r="G175" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H175" s="42"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="16">
         <v>179</v>
       </c>
-      <c r="C176" s="24"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="41"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="41"/>
+      <c r="C176" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D176" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E176" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="G176" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H176" s="42"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="16">
         <v>180</v>
       </c>
-      <c r="C177" s="24"/>
-      <c r="D177" s="40"/>
-      <c r="E177" s="41"/>
-      <c r="F177" s="60"/>
-      <c r="G177" s="41"/>
+      <c r="C177" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D177" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E177" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="G177" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H177" s="42"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="16">
         <v>181</v>
       </c>
-      <c r="C178" s="24"/>
-      <c r="D178" s="40"/>
-      <c r="E178" s="41"/>
-      <c r="F178" s="60"/>
-      <c r="G178" s="41"/>
-      <c r="H178" s="42"/>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C178" s="33"/>
+      <c r="D178" s="34"/>
+      <c r="E178" s="35"/>
+      <c r="F178" s="36"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="37"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="16">
         <v>182</v>
       </c>
-      <c r="C179" s="24"/>
-      <c r="D179" s="40"/>
-      <c r="E179" s="41"/>
-      <c r="F179" s="60"/>
-      <c r="G179" s="41"/>
+      <c r="C179" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D179" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E179" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="128">
+        <v>0.25</v>
+      </c>
+      <c r="G179" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H179" s="42"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="16">
         <v>183</v>
       </c>
-      <c r="C180" s="24"/>
-      <c r="D180" s="40"/>
-      <c r="E180" s="41"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="41"/>
+      <c r="C180" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D180" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E180" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="G180" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H180" s="42"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="16">
         <v>184</v>
       </c>
-      <c r="C181" s="24"/>
-      <c r="D181" s="40"/>
-      <c r="E181" s="41"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="41"/>
+      <c r="C181" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D181" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E181" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="G181" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H181" s="42"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="16">
         <v>185</v>
       </c>
-      <c r="C182" s="24"/>
-      <c r="D182" s="40"/>
-      <c r="E182" s="41"/>
-      <c r="F182" s="60"/>
-      <c r="G182" s="41"/>
-      <c r="H182" s="42"/>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C182" s="33"/>
+      <c r="D182" s="34"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="37"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="16">
         <v>186</v>
       </c>
-      <c r="C183" s="24"/>
-      <c r="D183" s="40"/>
-      <c r="E183" s="41"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="41"/>
+      <c r="C183" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D183" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E183" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="128">
+        <v>0.35</v>
+      </c>
+      <c r="G183" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H183" s="42"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="16">
         <v>187</v>
       </c>
-      <c r="C184" s="24"/>
-      <c r="D184" s="40"/>
-      <c r="E184" s="41"/>
-      <c r="F184" s="60"/>
-      <c r="G184" s="41"/>
+      <c r="C184" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D184" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E184" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="60">
+        <v>0.45</v>
+      </c>
+      <c r="G184" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H184" s="42"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="16">
         <v>188</v>
       </c>
-      <c r="C185" s="24"/>
-      <c r="D185" s="40"/>
-      <c r="E185" s="41"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="41"/>
+      <c r="C185" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D185" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E185" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G185" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H185" s="42"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="16">
         <v>189</v>
       </c>
-      <c r="C186" s="24"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="41"/>
-      <c r="F186" s="60"/>
-      <c r="G186" s="41"/>
-      <c r="H186" s="42"/>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C186" s="33"/>
+      <c r="D186" s="34"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="35"/>
+      <c r="H186" s="37"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="16">
         <v>190</v>
       </c>
-      <c r="C187" s="24"/>
-      <c r="D187" s="40"/>
-      <c r="E187" s="41"/>
-      <c r="F187" s="60"/>
-      <c r="G187" s="41"/>
+      <c r="C187" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E187" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="128">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G187" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H187" s="42"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="16">
         <v>191</v>
       </c>
-      <c r="C188" s="24"/>
-      <c r="D188" s="40"/>
-      <c r="E188" s="41"/>
-      <c r="F188" s="60"/>
-      <c r="G188" s="41"/>
+      <c r="C188" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D188" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E188" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G188" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H188" s="42"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="16">
         <v>192</v>
       </c>
-      <c r="C189" s="24"/>
-      <c r="D189" s="40"/>
-      <c r="E189" s="41"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="41"/>
+      <c r="C189" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E189" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G189" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H189" s="42"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="16">
         <v>193</v>
       </c>
-      <c r="C190" s="24"/>
-      <c r="D190" s="40"/>
-      <c r="E190" s="41"/>
-      <c r="F190" s="60"/>
-      <c r="G190" s="41"/>
-      <c r="H190" s="42"/>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C190" s="33"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="35"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="35"/>
+      <c r="H190" s="37"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="16">
         <v>194</v>
       </c>
-      <c r="C191" s="24"/>
-      <c r="D191" s="40"/>
-      <c r="E191" s="41"/>
-      <c r="F191" s="60"/>
-      <c r="G191" s="41"/>
+      <c r="C191" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D191" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E191" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="128">
+        <v>0.65</v>
+      </c>
+      <c r="G191" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H191" s="42"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="16">
         <v>195</v>
       </c>
-      <c r="C192" s="24"/>
-      <c r="D192" s="40"/>
-      <c r="E192" s="41"/>
-      <c r="F192" s="60"/>
-      <c r="G192" s="41"/>
+      <c r="C192" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D192" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E192" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" s="60">
+        <v>0.65</v>
+      </c>
+      <c r="G192" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H192" s="42"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="16">
         <v>196</v>
       </c>
-      <c r="C193" s="24"/>
-      <c r="D193" s="40"/>
-      <c r="E193" s="41"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="41"/>
+      <c r="C193" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D193" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E193" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="60">
+        <v>0.65</v>
+      </c>
+      <c r="G193" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H193" s="42"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="16">
         <v>197</v>
       </c>
-      <c r="C194" s="24"/>
-      <c r="D194" s="40"/>
-      <c r="E194" s="41"/>
-      <c r="F194" s="60"/>
-      <c r="G194" s="41"/>
-      <c r="H194" s="42"/>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C194" s="33"/>
+      <c r="D194" s="34"/>
+      <c r="E194" s="35"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="35"/>
+      <c r="H194" s="37"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="16">
         <v>198</v>
       </c>
-      <c r="C195" s="24"/>
-      <c r="D195" s="40"/>
-      <c r="E195" s="41"/>
-      <c r="F195" s="60"/>
-      <c r="G195" s="41"/>
+      <c r="C195" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D195" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E195" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="128">
+        <v>0.75</v>
+      </c>
+      <c r="G195" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H195" s="42"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="16">
         <v>199</v>
       </c>
-      <c r="C196" s="24"/>
-      <c r="D196" s="40"/>
-      <c r="E196" s="41"/>
-      <c r="F196" s="60"/>
-      <c r="G196" s="41"/>
+      <c r="C196" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D196" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E196" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="G196" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H196" s="42"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="16">
         <v>200</v>
       </c>
-      <c r="C197" s="24"/>
-      <c r="D197" s="40"/>
-      <c r="E197" s="41"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="41"/>
+      <c r="C197" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D197" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E197" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="G197" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H197" s="42"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="16">
         <v>201</v>
       </c>
-      <c r="C198" s="24"/>
-      <c r="D198" s="40"/>
-      <c r="E198" s="41"/>
-      <c r="F198" s="60"/>
-      <c r="G198" s="41"/>
-      <c r="H198" s="42"/>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="35"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="35"/>
+      <c r="H198" s="37"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="16">
         <v>202</v>
       </c>
-      <c r="C199" s="24"/>
-      <c r="D199" s="40"/>
-      <c r="E199" s="41"/>
-      <c r="F199" s="60"/>
-      <c r="G199" s="41"/>
+      <c r="C199" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D199" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E199" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="128">
+        <v>0.8</v>
+      </c>
+      <c r="G199" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H199" s="42"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="16">
         <v>203</v>
       </c>
-      <c r="C200" s="24"/>
-      <c r="D200" s="40"/>
-      <c r="E200" s="41"/>
-      <c r="F200" s="60"/>
-      <c r="G200" s="41"/>
+      <c r="C200" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D200" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E200" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="G200" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H200" s="42"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="16">
         <v>204</v>
       </c>
-      <c r="C201" s="24"/>
-      <c r="D201" s="40"/>
-      <c r="E201" s="41"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="41"/>
+      <c r="C201" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D201" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E201" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="G201" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H201" s="42"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="16">
         <v>205</v>
       </c>
-      <c r="C202" s="24"/>
-      <c r="D202" s="40"/>
-      <c r="E202" s="41"/>
-      <c r="F202" s="60"/>
-      <c r="G202" s="41"/>
-      <c r="H202" s="42"/>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C202" s="33"/>
+      <c r="D202" s="34"/>
+      <c r="E202" s="35"/>
+      <c r="F202" s="36"/>
+      <c r="G202" s="35"/>
+      <c r="H202" s="37"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="16">
         <v>206</v>
       </c>
-      <c r="C203" s="24"/>
-      <c r="D203" s="40"/>
-      <c r="E203" s="41"/>
-      <c r="F203" s="60"/>
-      <c r="G203" s="41"/>
+      <c r="C203" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D203" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E203" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="128">
+        <v>0.85</v>
+      </c>
+      <c r="G203" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H203" s="42"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="16">
         <v>207</v>
       </c>
-      <c r="C204" s="24"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="41"/>
-      <c r="F204" s="60"/>
-      <c r="G204" s="41"/>
+      <c r="C204" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D204" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E204" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="60">
+        <v>0.85</v>
+      </c>
+      <c r="G204" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H204" s="42"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="16">
         <v>208</v>
       </c>
-      <c r="C205" s="24"/>
-      <c r="D205" s="40"/>
-      <c r="E205" s="41"/>
-      <c r="F205" s="60"/>
-      <c r="G205" s="41"/>
+      <c r="C205" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D205" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E205" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="60">
+        <v>0.85</v>
+      </c>
+      <c r="G205" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H205" s="42"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="16">
         <v>209</v>
       </c>
-      <c r="C206" s="24"/>
-      <c r="D206" s="40"/>
-      <c r="E206" s="41"/>
-      <c r="F206" s="60"/>
-      <c r="G206" s="41"/>
-      <c r="H206" s="42"/>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C206" s="33"/>
+      <c r="D206" s="34"/>
+      <c r="E206" s="35"/>
+      <c r="F206" s="36"/>
+      <c r="G206" s="35"/>
+      <c r="H206" s="37"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="16">
         <v>210</v>
       </c>
-      <c r="C207" s="24"/>
-      <c r="D207" s="40"/>
-      <c r="E207" s="41"/>
-      <c r="F207" s="60"/>
-      <c r="G207" s="41"/>
+      <c r="C207" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D207" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E207" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="128">
+        <v>0.9</v>
+      </c>
+      <c r="G207" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H207" s="42"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="16">
         <v>211</v>
       </c>
-      <c r="C208" s="24"/>
-      <c r="D208" s="40"/>
-      <c r="E208" s="41"/>
-      <c r="F208" s="60"/>
-      <c r="G208" s="41"/>
+      <c r="C208" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D208" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E208" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="60">
+        <v>1</v>
+      </c>
+      <c r="G208" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H208" s="42"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="16">
         <v>212</v>
       </c>
-      <c r="C209" s="24"/>
-      <c r="D209" s="40"/>
-      <c r="E209" s="41"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="41"/>
+      <c r="C209" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D209" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E209" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" s="60">
+        <v>1</v>
+      </c>
+      <c r="G209" s="127" t="s">
+        <v>89</v>
+      </c>
       <c r="H209" s="42"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="16">
         <v>213</v>
       </c>
-      <c r="C210" s="24"/>
-      <c r="D210" s="40"/>
-      <c r="E210" s="41"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="41"/>
-      <c r="H210" s="42"/>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C210" s="33"/>
+      <c r="D210" s="34"/>
+      <c r="E210" s="35"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="35"/>
+      <c r="H210" s="37"/>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="16">
         <v>214</v>
       </c>
@@ -5392,7 +5726,7 @@
       <c r="G211" s="41"/>
       <c r="H211" s="42"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="16">
         <v>215</v>
       </c>
@@ -5403,7 +5737,7 @@
       <c r="G212" s="41"/>
       <c r="H212" s="42"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="16">
         <v>216</v>
       </c>
@@ -5414,7 +5748,7 @@
       <c r="G213" s="41"/>
       <c r="H213" s="42"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="16">
         <v>217</v>
       </c>
@@ -5425,7 +5759,7 @@
       <c r="G214" s="41"/>
       <c r="H214" s="42"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="16">
         <v>218</v>
       </c>
@@ -5436,7 +5770,7 @@
       <c r="G215" s="41"/>
       <c r="H215" s="42"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="16">
         <v>219</v>
       </c>
@@ -5447,7 +5781,7 @@
       <c r="G216" s="41"/>
       <c r="H216" s="42"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="16">
         <v>220</v>
       </c>
@@ -5458,7 +5792,7 @@
       <c r="G217" s="41"/>
       <c r="H217" s="42"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="16">
         <v>221</v>
       </c>
@@ -5469,7 +5803,7 @@
       <c r="G218" s="41"/>
       <c r="H218" s="42"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="16">
         <v>222</v>
       </c>
@@ -5480,7 +5814,7 @@
       <c r="G219" s="41"/>
       <c r="H219" s="42"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="16">
         <v>223</v>
       </c>
@@ -5491,7 +5825,7 @@
       <c r="G220" s="41"/>
       <c r="H220" s="42"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="16">
         <v>224</v>
       </c>
@@ -5502,7 +5836,7 @@
       <c r="G221" s="41"/>
       <c r="H221" s="42"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="16">
         <v>225</v>
       </c>
@@ -5513,7 +5847,7 @@
       <c r="G222" s="41"/>
       <c r="H222" s="42"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="16">
         <v>226</v>
       </c>
@@ -5524,7 +5858,7 @@
       <c r="G223" s="41"/>
       <c r="H223" s="42"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="16">
         <v>227</v>
       </c>
@@ -5535,7 +5869,7 @@
       <c r="G224" s="41"/>
       <c r="H224" s="42"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="16">
         <v>228</v>
       </c>
@@ -5546,7 +5880,7 @@
       <c r="G225" s="41"/>
       <c r="H225" s="42"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="16">
         <v>229</v>
       </c>
@@ -5557,7 +5891,7 @@
       <c r="G226" s="41"/>
       <c r="H226" s="42"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="16">
         <v>230</v>
       </c>
@@ -5568,7 +5902,7 @@
       <c r="G227" s="41"/>
       <c r="H227" s="42"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="16">
         <v>231</v>
       </c>
@@ -5579,7 +5913,7 @@
       <c r="G228" s="41"/>
       <c r="H228" s="42"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="16">
         <v>232</v>
       </c>
@@ -5590,7 +5924,7 @@
       <c r="G229" s="41"/>
       <c r="H229" s="42"/>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="16">
         <v>233</v>
       </c>
@@ -5601,7 +5935,7 @@
       <c r="G230" s="41"/>
       <c r="H230" s="42"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="16">
         <v>234</v>
       </c>
@@ -5612,7 +5946,7 @@
       <c r="G231" s="41"/>
       <c r="H231" s="42"/>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="16">
         <v>235</v>
       </c>
@@ -5623,7 +5957,7 @@
       <c r="G232" s="41"/>
       <c r="H232" s="42"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="16">
         <v>236</v>
       </c>
@@ -5634,7 +5968,7 @@
       <c r="G233" s="41"/>
       <c r="H233" s="42"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="16">
         <v>237</v>
       </c>
@@ -5645,7 +5979,7 @@
       <c r="G234" s="41"/>
       <c r="H234" s="42"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="16">
         <v>238</v>
       </c>
@@ -5656,7 +5990,7 @@
       <c r="G235" s="41"/>
       <c r="H235" s="42"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="16">
         <v>239</v>
       </c>
@@ -5667,7 +6001,7 @@
       <c r="G236" s="41"/>
       <c r="H236" s="42"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="16">
         <v>240</v>
       </c>
@@ -5678,7 +6012,7 @@
       <c r="G237" s="41"/>
       <c r="H237" s="42"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="16">
         <v>241</v>
       </c>
@@ -5689,7 +6023,7 @@
       <c r="G238" s="41"/>
       <c r="H238" s="42"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="16">
         <v>242</v>
       </c>
@@ -5700,7 +6034,7 @@
       <c r="G239" s="41"/>
       <c r="H239" s="42"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="16">
         <v>243</v>
       </c>
@@ -5711,7 +6045,7 @@
       <c r="G240" s="41"/>
       <c r="H240" s="42"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="16">
         <v>244</v>
       </c>
@@ -5722,7 +6056,7 @@
       <c r="G241" s="41"/>
       <c r="H241" s="42"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="16">
         <v>245</v>
       </c>
@@ -5733,7 +6067,7 @@
       <c r="G242" s="41"/>
       <c r="H242" s="42"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="16">
         <v>246</v>
       </c>
@@ -5744,7 +6078,7 @@
       <c r="G243" s="41"/>
       <c r="H243" s="42"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="16">
         <v>247</v>
       </c>
@@ -5755,7 +6089,7 @@
       <c r="G244" s="41"/>
       <c r="H244" s="42"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="16">
         <v>248</v>
       </c>
@@ -5766,7 +6100,7 @@
       <c r="G245" s="41"/>
       <c r="H245" s="42"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="16">
         <v>249</v>
       </c>
@@ -5777,7 +6111,7 @@
       <c r="G246" s="41"/>
       <c r="H246" s="42"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="16">
         <v>250</v>
       </c>
@@ -5788,7 +6122,7 @@
       <c r="G247" s="41"/>
       <c r="H247" s="42"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="16">
         <v>251</v>
       </c>
@@ -5799,7 +6133,7 @@
       <c r="G248" s="41"/>
       <c r="H248" s="42"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="16">
         <v>252</v>
       </c>
@@ -5810,7 +6144,7 @@
       <c r="G249" s="41"/>
       <c r="H249" s="42"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="16">
         <v>253</v>
       </c>
@@ -5821,7 +6155,7 @@
       <c r="G250" s="41"/>
       <c r="H250" s="42"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="16">
         <v>254</v>
       </c>
@@ -5832,7 +6166,7 @@
       <c r="G251" s="41"/>
       <c r="H251" s="42"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="16">
         <v>255</v>
       </c>
@@ -5843,7 +6177,7 @@
       <c r="G252" s="41"/>
       <c r="H252" s="42"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="16">
         <v>256</v>
       </c>
@@ -5854,7 +6188,7 @@
       <c r="G253" s="41"/>
       <c r="H253" s="42"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="16">
         <v>257</v>
       </c>
@@ -5865,7 +6199,7 @@
       <c r="G254" s="41"/>
       <c r="H254" s="42"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="16">
         <v>258</v>
       </c>
@@ -5876,7 +6210,7 @@
       <c r="G255" s="41"/>
       <c r="H255" s="42"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="16">
         <v>259</v>
       </c>
@@ -5887,7 +6221,7 @@
       <c r="G256" s="41"/>
       <c r="H256" s="42"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="16">
         <v>260</v>
       </c>
@@ -5898,7 +6232,7 @@
       <c r="G257" s="41"/>
       <c r="H257" s="42"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="16">
         <v>261</v>
       </c>
@@ -5909,7 +6243,7 @@
       <c r="G258" s="41"/>
       <c r="H258" s="42"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="16">
         <v>262</v>
       </c>
@@ -5920,7 +6254,7 @@
       <c r="G259" s="41"/>
       <c r="H259" s="42"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="16">
         <v>263</v>
       </c>
@@ -5931,7 +6265,7 @@
       <c r="G260" s="41"/>
       <c r="H260" s="42"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="16">
         <v>264</v>
       </c>
@@ -5942,7 +6276,7 @@
       <c r="G261" s="41"/>
       <c r="H261" s="42"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="16">
         <v>265</v>
       </c>
@@ -5953,7 +6287,7 @@
       <c r="G262" s="41"/>
       <c r="H262" s="42"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="16">
         <v>266</v>
       </c>
@@ -5964,7 +6298,7 @@
       <c r="G263" s="41"/>
       <c r="H263" s="42"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="16">
         <v>267</v>
       </c>
@@ -5975,7 +6309,7 @@
       <c r="G264" s="41"/>
       <c r="H264" s="42"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="16">
         <v>268</v>
       </c>
@@ -5986,7 +6320,7 @@
       <c r="G265" s="41"/>
       <c r="H265" s="42"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="16">
         <v>269</v>
       </c>
@@ -5997,7 +6331,7 @@
       <c r="G266" s="41"/>
       <c r="H266" s="42"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="16">
         <v>270</v>
       </c>
@@ -6008,7 +6342,7 @@
       <c r="G267" s="41"/>
       <c r="H267" s="42"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="16">
         <v>271</v>
       </c>
@@ -6019,7 +6353,7 @@
       <c r="G268" s="41"/>
       <c r="H268" s="42"/>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="16">
         <v>272</v>
       </c>
@@ -6030,7 +6364,7 @@
       <c r="G269" s="41"/>
       <c r="H269" s="42"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="16">
         <v>273</v>
       </c>
@@ -6041,7 +6375,7 @@
       <c r="G270" s="41"/>
       <c r="H270" s="42"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="16">
         <v>274</v>
       </c>
@@ -6052,7 +6386,7 @@
       <c r="G271" s="41"/>
       <c r="H271" s="42"/>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="16">
         <v>275</v>
       </c>
@@ -6063,7 +6397,7 @@
       <c r="G272" s="41"/>
       <c r="H272" s="42"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="16">
         <v>276</v>
       </c>
@@ -6074,7 +6408,7 @@
       <c r="G273" s="41"/>
       <c r="H273" s="42"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="16">
         <v>277</v>
       </c>
@@ -6085,7 +6419,7 @@
       <c r="G274" s="41"/>
       <c r="H274" s="42"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="16">
         <v>278</v>
       </c>
@@ -6096,7 +6430,7 @@
       <c r="G275" s="41"/>
       <c r="H275" s="42"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="16">
         <v>279</v>
       </c>
@@ -6107,7 +6441,7 @@
       <c r="G276" s="41"/>
       <c r="H276" s="42"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="16">
         <v>280</v>
       </c>
@@ -6118,7 +6452,7 @@
       <c r="G277" s="41"/>
       <c r="H277" s="42"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="16">
         <v>281</v>
       </c>
@@ -6129,7 +6463,7 @@
       <c r="G278" s="41"/>
       <c r="H278" s="42"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="16">
         <v>282</v>
       </c>
@@ -6140,7 +6474,7 @@
       <c r="G279" s="41"/>
       <c r="H279" s="42"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="16">
         <v>283</v>
       </c>
@@ -6151,7 +6485,7 @@
       <c r="G280" s="41"/>
       <c r="H280" s="42"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="16">
         <v>284</v>
       </c>
@@ -6162,7 +6496,7 @@
       <c r="G281" s="41"/>
       <c r="H281" s="42"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="16">
         <v>285</v>
       </c>
@@ -6173,7 +6507,7 @@
       <c r="G282" s="41"/>
       <c r="H282" s="42"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="16">
         <v>286</v>
       </c>
@@ -6184,7 +6518,7 @@
       <c r="G283" s="41"/>
       <c r="H283" s="42"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="16">
         <v>287</v>
       </c>
@@ -6195,7 +6529,7 @@
       <c r="G284" s="41"/>
       <c r="H284" s="42"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="16">
         <v>288</v>
       </c>
@@ -6206,7 +6540,7 @@
       <c r="G285" s="41"/>
       <c r="H285" s="42"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="16">
         <v>289</v>
       </c>
@@ -6217,7 +6551,7 @@
       <c r="G286" s="41"/>
       <c r="H286" s="42"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="16">
         <v>290</v>
       </c>
@@ -6228,7 +6562,7 @@
       <c r="G287" s="41"/>
       <c r="H287" s="42"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="16">
         <v>291</v>
       </c>
@@ -6239,7 +6573,7 @@
       <c r="G288" s="41"/>
       <c r="H288" s="42"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="16">
         <v>292</v>
       </c>
@@ -6250,7 +6584,7 @@
       <c r="G289" s="41"/>
       <c r="H289" s="42"/>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="16">
         <v>293</v>
       </c>
@@ -6261,7 +6595,7 @@
       <c r="G290" s="41"/>
       <c r="H290" s="42"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="16">
         <v>294</v>
       </c>
@@ -6272,7 +6606,7 @@
       <c r="G291" s="41"/>
       <c r="H291" s="42"/>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="16">
         <v>295</v>
       </c>
@@ -6283,7 +6617,7 @@
       <c r="G292" s="41"/>
       <c r="H292" s="42"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="16">
         <v>296</v>
       </c>
@@ -6294,7 +6628,7 @@
       <c r="G293" s="41"/>
       <c r="H293" s="42"/>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="16">
         <v>297</v>
       </c>
@@ -6305,7 +6639,7 @@
       <c r="G294" s="41"/>
       <c r="H294" s="42"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="16">
         <v>298</v>
       </c>
@@ -6316,7 +6650,7 @@
       <c r="G295" s="41"/>
       <c r="H295" s="42"/>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="16">
         <v>299</v>
       </c>
@@ -6327,7 +6661,7 @@
       <c r="G296" s="41"/>
       <c r="H296" s="42"/>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="16">
         <v>300</v>
       </c>
@@ -6338,7 +6672,7 @@
       <c r="G297" s="41"/>
       <c r="H297" s="42"/>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="16">
         <v>301</v>
       </c>
@@ -6349,7 +6683,7 @@
       <c r="G298" s="41"/>
       <c r="H298" s="42"/>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="16">
         <v>302</v>
       </c>
@@ -6360,7 +6694,7 @@
       <c r="G299" s="41"/>
       <c r="H299" s="42"/>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="16">
         <v>303</v>
       </c>
@@ -6371,7 +6705,7 @@
       <c r="G300" s="41"/>
       <c r="H300" s="42"/>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="16">
         <v>304</v>
       </c>
@@ -6382,7 +6716,7 @@
       <c r="G301" s="41"/>
       <c r="H301" s="42"/>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="16">
         <v>305</v>
       </c>
@@ -6393,7 +6727,7 @@
       <c r="G302" s="41"/>
       <c r="H302" s="42"/>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="16">
         <v>306</v>
       </c>
@@ -6404,7 +6738,7 @@
       <c r="G303" s="41"/>
       <c r="H303" s="42"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="16">
         <v>307</v>
       </c>
@@ -6415,7 +6749,7 @@
       <c r="G304" s="41"/>
       <c r="H304" s="42"/>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="16">
         <v>308</v>
       </c>
@@ -6426,7 +6760,7 @@
       <c r="G305" s="41"/>
       <c r="H305" s="42"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="16">
         <v>309</v>
       </c>
@@ -6437,7 +6771,7 @@
       <c r="G306" s="41"/>
       <c r="H306" s="42"/>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="16">
         <v>310</v>
       </c>
@@ -6448,7 +6782,7 @@
       <c r="G307" s="41"/>
       <c r="H307" s="42"/>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="16">
         <v>311</v>
       </c>
@@ -6459,7 +6793,7 @@
       <c r="G308" s="41"/>
       <c r="H308" s="42"/>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="16">
         <v>312</v>
       </c>
@@ -6470,7 +6804,7 @@
       <c r="G309" s="41"/>
       <c r="H309" s="42"/>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="16">
         <v>313</v>
       </c>
@@ -6481,7 +6815,7 @@
       <c r="G310" s="41"/>
       <c r="H310" s="42"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="16">
         <v>314</v>
       </c>
@@ -6492,7 +6826,7 @@
       <c r="G311" s="41"/>
       <c r="H311" s="42"/>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="16">
         <v>315</v>
       </c>
@@ -6503,7 +6837,7 @@
       <c r="G312" s="41"/>
       <c r="H312" s="42"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="16">
         <v>316</v>
       </c>
@@ -6514,7 +6848,7 @@
       <c r="G313" s="41"/>
       <c r="H313" s="42"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="16">
         <v>317</v>
       </c>
@@ -6525,7 +6859,7 @@
       <c r="G314" s="41"/>
       <c r="H314" s="42"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="16">
         <v>318</v>
       </c>
@@ -6536,7 +6870,7 @@
       <c r="G315" s="41"/>
       <c r="H315" s="42"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="16">
         <v>319</v>
       </c>
@@ -6547,7 +6881,7 @@
       <c r="G316" s="41"/>
       <c r="H316" s="42"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="16">
         <v>320</v>
       </c>
@@ -6558,7 +6892,7 @@
       <c r="G317" s="41"/>
       <c r="H317" s="42"/>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="16">
         <v>321</v>
       </c>
@@ -6569,7 +6903,7 @@
       <c r="G318" s="41"/>
       <c r="H318" s="42"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="16">
         <v>322</v>
       </c>
@@ -6580,7 +6914,7 @@
       <c r="G319" s="41"/>
       <c r="H319" s="42"/>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="16">
         <v>323</v>
       </c>
@@ -6591,7 +6925,7 @@
       <c r="G320" s="41"/>
       <c r="H320" s="42"/>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="16">
         <v>324</v>
       </c>
@@ -6602,7 +6936,7 @@
       <c r="G321" s="41"/>
       <c r="H321" s="42"/>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="16">
         <v>325</v>
       </c>
@@ -6613,7 +6947,7 @@
       <c r="G322" s="41"/>
       <c r="H322" s="42"/>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="16">
         <v>326</v>
       </c>
@@ -6624,7 +6958,7 @@
       <c r="G323" s="41"/>
       <c r="H323" s="42"/>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="16">
         <v>327</v>
       </c>
@@ -6635,7 +6969,7 @@
       <c r="G324" s="41"/>
       <c r="H324" s="42"/>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="16">
         <v>328</v>
       </c>
@@ -6646,7 +6980,7 @@
       <c r="G325" s="41"/>
       <c r="H325" s="42"/>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="16">
         <v>329</v>
       </c>
@@ -6657,7 +6991,7 @@
       <c r="G326" s="41"/>
       <c r="H326" s="42"/>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="16">
         <v>330</v>
       </c>
@@ -6668,7 +7002,7 @@
       <c r="G327" s="41"/>
       <c r="H327" s="42"/>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="16">
         <v>331</v>
       </c>
@@ -6679,7 +7013,7 @@
       <c r="G328" s="41"/>
       <c r="H328" s="42"/>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="16">
         <v>332</v>
       </c>
@@ -6690,7 +7024,7 @@
       <c r="G329" s="41"/>
       <c r="H329" s="42"/>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="16">
         <v>333</v>
       </c>
@@ -6701,7 +7035,7 @@
       <c r="G330" s="41"/>
       <c r="H330" s="42"/>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="16">
         <v>334</v>
       </c>
@@ -6712,7 +7046,7 @@
       <c r="G331" s="41"/>
       <c r="H331" s="42"/>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="16">
         <v>335</v>
       </c>
@@ -6723,7 +7057,7 @@
       <c r="G332" s="41"/>
       <c r="H332" s="42"/>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="16">
         <v>336</v>
       </c>
@@ -6734,7 +7068,7 @@
       <c r="G333" s="41"/>
       <c r="H333" s="42"/>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="16">
         <v>337</v>
       </c>
@@ -6745,7 +7079,7 @@
       <c r="G334" s="41"/>
       <c r="H334" s="42"/>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="16">
         <v>338</v>
       </c>
@@ -6756,7 +7090,7 @@
       <c r="G335" s="41"/>
       <c r="H335" s="42"/>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="16">
         <v>339</v>
       </c>
@@ -6767,7 +7101,7 @@
       <c r="G336" s="41"/>
       <c r="H336" s="42"/>
     </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="16">
         <v>340</v>
       </c>
@@ -6778,7 +7112,7 @@
       <c r="G337" s="41"/>
       <c r="H337" s="42"/>
     </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="16">
         <v>341</v>
       </c>
@@ -6789,7 +7123,7 @@
       <c r="G338" s="41"/>
       <c r="H338" s="42"/>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="16">
         <v>342</v>
       </c>
@@ -6800,7 +7134,7 @@
       <c r="G339" s="41"/>
       <c r="H339" s="42"/>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="16">
         <v>343</v>
       </c>
@@ -6811,7 +7145,7 @@
       <c r="G340" s="41"/>
       <c r="H340" s="42"/>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="16">
         <v>344</v>
       </c>
@@ -6822,7 +7156,7 @@
       <c r="G341" s="41"/>
       <c r="H341" s="42"/>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="16">
         <v>345</v>
       </c>
@@ -6833,7 +7167,7 @@
       <c r="G342" s="41"/>
       <c r="H342" s="42"/>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="16">
         <v>346</v>
       </c>
@@ -6844,7 +7178,7 @@
       <c r="G343" s="41"/>
       <c r="H343" s="42"/>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="16">
         <v>347</v>
       </c>
@@ -6855,7 +7189,7 @@
       <c r="G344" s="41"/>
       <c r="H344" s="42"/>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="16">
         <v>348</v>
       </c>
@@ -6866,7 +7200,7 @@
       <c r="G345" s="41"/>
       <c r="H345" s="42"/>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="16">
         <v>349</v>
       </c>
@@ -6877,7 +7211,7 @@
       <c r="G346" s="41"/>
       <c r="H346" s="42"/>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="16">
         <v>350</v>
       </c>
@@ -6888,7 +7222,7 @@
       <c r="G347" s="41"/>
       <c r="H347" s="42"/>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="16">
         <v>351</v>
       </c>
@@ -6899,7 +7233,7 @@
       <c r="G348" s="41"/>
       <c r="H348" s="42"/>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="16">
         <v>352</v>
       </c>
@@ -6910,7 +7244,7 @@
       <c r="G349" s="41"/>
       <c r="H349" s="42"/>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="16">
         <v>353</v>
       </c>
@@ -6921,7 +7255,7 @@
       <c r="G350" s="41"/>
       <c r="H350" s="42"/>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="16">
         <v>354</v>
       </c>
@@ -6932,7 +7266,7 @@
       <c r="G351" s="41"/>
       <c r="H351" s="42"/>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="16">
         <v>355</v>
       </c>
@@ -6943,7 +7277,7 @@
       <c r="G352" s="41"/>
       <c r="H352" s="42"/>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" s="16">
         <v>356</v>
       </c>
@@ -6954,7 +7288,7 @@
       <c r="G353" s="41"/>
       <c r="H353" s="42"/>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" s="16">
         <v>357</v>
       </c>
@@ -6965,7 +7299,7 @@
       <c r="G354" s="41"/>
       <c r="H354" s="42"/>
     </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" s="16">
         <v>358</v>
       </c>
@@ -6976,7 +7310,7 @@
       <c r="G355" s="41"/>
       <c r="H355" s="42"/>
     </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" s="16">
         <v>359</v>
       </c>
@@ -6987,7 +7321,7 @@
       <c r="G356" s="41"/>
       <c r="H356" s="42"/>
     </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" s="16">
         <v>360</v>
       </c>
@@ -6998,7 +7332,7 @@
       <c r="G357" s="41"/>
       <c r="H357" s="42"/>
     </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" s="16">
         <v>361</v>
       </c>
@@ -7009,7 +7343,7 @@
       <c r="G358" s="41"/>
       <c r="H358" s="42"/>
     </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" s="16">
         <v>362</v>
       </c>
@@ -7020,7 +7354,7 @@
       <c r="G359" s="41"/>
       <c r="H359" s="42"/>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" s="16">
         <v>363</v>
       </c>
@@ -7031,7 +7365,7 @@
       <c r="G360" s="41"/>
       <c r="H360" s="42"/>
     </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" s="16">
         <v>364</v>
       </c>
@@ -7042,7 +7376,7 @@
       <c r="G361" s="41"/>
       <c r="H361" s="42"/>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" s="16">
         <v>365</v>
       </c>
@@ -7053,7 +7387,7 @@
       <c r="G362" s="41"/>
       <c r="H362" s="42"/>
     </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" s="16">
         <v>366</v>
       </c>
@@ -7064,7 +7398,7 @@
       <c r="G363" s="41"/>
       <c r="H363" s="42"/>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" s="16">
         <v>367</v>
       </c>
@@ -7075,7 +7409,7 @@
       <c r="G364" s="41"/>
       <c r="H364" s="42"/>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" s="16">
         <v>368</v>
       </c>
@@ -7086,7 +7420,7 @@
       <c r="G365" s="41"/>
       <c r="H365" s="42"/>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" s="16">
         <v>369</v>
       </c>
@@ -7097,7 +7431,7 @@
       <c r="G366" s="41"/>
       <c r="H366" s="42"/>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" s="16">
         <v>370</v>
       </c>
@@ -7108,7 +7442,7 @@
       <c r="G367" s="41"/>
       <c r="H367" s="42"/>
     </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" s="16">
         <v>371</v>
       </c>
@@ -7119,7 +7453,7 @@
       <c r="G368" s="41"/>
       <c r="H368" s="42"/>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B369" s="16">
         <v>372</v>
       </c>
@@ -7130,7 +7464,7 @@
       <c r="G369" s="41"/>
       <c r="H369" s="42"/>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B370" s="16">
         <v>373</v>
       </c>
@@ -7141,7 +7475,7 @@
       <c r="G370" s="41"/>
       <c r="H370" s="42"/>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B371" s="16">
         <v>374</v>
       </c>
@@ -7152,7 +7486,7 @@
       <c r="G371" s="41"/>
       <c r="H371" s="42"/>
     </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B372" s="16">
         <v>375</v>
       </c>
@@ -7163,7 +7497,7 @@
       <c r="G372" s="41"/>
       <c r="H372" s="42"/>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" s="16">
         <v>376</v>
       </c>
@@ -7174,7 +7508,7 @@
       <c r="G373" s="41"/>
       <c r="H373" s="42"/>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" s="16">
         <v>377</v>
       </c>
@@ -7185,7 +7519,7 @@
       <c r="G374" s="41"/>
       <c r="H374" s="42"/>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B375" s="16">
         <v>378</v>
       </c>
@@ -7196,7 +7530,7 @@
       <c r="G375" s="41"/>
       <c r="H375" s="42"/>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" s="16">
         <v>379</v>
       </c>
@@ -7207,7 +7541,7 @@
       <c r="G376" s="41"/>
       <c r="H376" s="42"/>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B377" s="16">
         <v>380</v>
       </c>
@@ -7218,7 +7552,7 @@
       <c r="G377" s="41"/>
       <c r="H377" s="42"/>
     </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B378" s="16">
         <v>381</v>
       </c>
@@ -7229,7 +7563,7 @@
       <c r="G378" s="41"/>
       <c r="H378" s="42"/>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B379" s="16">
         <v>382</v>
       </c>
@@ -7240,7 +7574,7 @@
       <c r="G379" s="41"/>
       <c r="H379" s="42"/>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B380" s="16">
         <v>383</v>
       </c>
@@ -7251,7 +7585,7 @@
       <c r="G380" s="41"/>
       <c r="H380" s="42"/>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B381" s="16">
         <v>384</v>
       </c>
@@ -7262,7 +7596,7 @@
       <c r="G381" s="41"/>
       <c r="H381" s="42"/>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B382" s="16">
         <v>385</v>
       </c>
@@ -7273,7 +7607,7 @@
       <c r="G382" s="41"/>
       <c r="H382" s="42"/>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B383" s="16">
         <v>386</v>
       </c>
@@ -7284,7 +7618,7 @@
       <c r="G383" s="41"/>
       <c r="H383" s="42"/>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B384" s="16">
         <v>387</v>
       </c>
@@ -7295,7 +7629,7 @@
       <c r="G384" s="41"/>
       <c r="H384" s="42"/>
     </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" s="16">
         <v>388</v>
       </c>
@@ -7306,7 +7640,7 @@
       <c r="G385" s="41"/>
       <c r="H385" s="42"/>
     </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" s="16">
         <v>389</v>
       </c>
@@ -7317,7 +7651,7 @@
       <c r="G386" s="41"/>
       <c r="H386" s="42"/>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B387" s="16">
         <v>390</v>
       </c>
@@ -7328,7 +7662,7 @@
       <c r="G387" s="41"/>
       <c r="H387" s="42"/>
     </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" s="16">
         <v>391</v>
       </c>
@@ -7339,7 +7673,7 @@
       <c r="G388" s="41"/>
       <c r="H388" s="42"/>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" s="16">
         <v>392</v>
       </c>
@@ -7350,7 +7684,7 @@
       <c r="G389" s="41"/>
       <c r="H389" s="42"/>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" s="16">
         <v>393</v>
       </c>
@@ -7361,7 +7695,7 @@
       <c r="G390" s="41"/>
       <c r="H390" s="42"/>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" s="16">
         <v>394</v>
       </c>
@@ -7372,7 +7706,7 @@
       <c r="G391" s="41"/>
       <c r="H391" s="42"/>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B392" s="16">
         <v>395</v>
       </c>
@@ -7383,7 +7717,7 @@
       <c r="G392" s="41"/>
       <c r="H392" s="42"/>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B393" s="16">
         <v>396</v>
       </c>
@@ -7394,7 +7728,7 @@
       <c r="G393" s="41"/>
       <c r="H393" s="42"/>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B394" s="16">
         <v>397</v>
       </c>
@@ -7405,7 +7739,7 @@
       <c r="G394" s="41"/>
       <c r="H394" s="42"/>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" s="16">
         <v>398</v>
       </c>
@@ -7416,7 +7750,7 @@
       <c r="G395" s="41"/>
       <c r="H395" s="42"/>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" s="16">
         <v>399</v>
       </c>
@@ -7427,7 +7761,7 @@
       <c r="G396" s="41"/>
       <c r="H396" s="42"/>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B397" s="16">
         <v>400</v>
       </c>
@@ -7438,7 +7772,7 @@
       <c r="G397" s="41"/>
       <c r="H397" s="42"/>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B398" s="16">
         <v>401</v>
       </c>
@@ -7449,7 +7783,7 @@
       <c r="G398" s="41"/>
       <c r="H398" s="42"/>
     </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B399" s="16">
         <v>402</v>
       </c>
@@ -7460,7 +7794,7 @@
       <c r="G399" s="41"/>
       <c r="H399" s="42"/>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" s="16">
         <v>403</v>
       </c>
@@ -7471,7 +7805,7 @@
       <c r="G400" s="41"/>
       <c r="H400" s="42"/>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" s="16">
         <v>404</v>
       </c>
@@ -7482,7 +7816,7 @@
       <c r="G401" s="41"/>
       <c r="H401" s="42"/>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" s="16">
         <v>405</v>
       </c>
@@ -7493,7 +7827,7 @@
       <c r="G402" s="41"/>
       <c r="H402" s="42"/>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" s="16">
         <v>406</v>
       </c>
@@ -7504,7 +7838,7 @@
       <c r="G403" s="41"/>
       <c r="H403" s="42"/>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" s="16">
         <v>407</v>
       </c>
@@ -7515,7 +7849,7 @@
       <c r="G404" s="41"/>
       <c r="H404" s="42"/>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" s="16">
         <v>408</v>
       </c>
@@ -7526,7 +7860,7 @@
       <c r="G405" s="41"/>
       <c r="H405" s="42"/>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" s="16">
         <v>409</v>
       </c>
@@ -7537,7 +7871,7 @@
       <c r="G406" s="41"/>
       <c r="H406" s="42"/>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" s="16">
         <v>410</v>
       </c>
@@ -7548,7 +7882,7 @@
       <c r="G407" s="41"/>
       <c r="H407" s="42"/>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" s="16">
         <v>411</v>
       </c>
@@ -7559,7 +7893,7 @@
       <c r="G408" s="41"/>
       <c r="H408" s="42"/>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" s="16">
         <v>412</v>
       </c>
@@ -7570,7 +7904,7 @@
       <c r="G409" s="41"/>
       <c r="H409" s="42"/>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" s="16">
         <v>413</v>
       </c>
@@ -7581,7 +7915,7 @@
       <c r="G410" s="41"/>
       <c r="H410" s="42"/>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" s="16">
         <v>414</v>
       </c>
@@ -7592,7 +7926,7 @@
       <c r="G411" s="41"/>
       <c r="H411" s="42"/>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" s="16">
         <v>415</v>
       </c>
@@ -7603,7 +7937,7 @@
       <c r="G412" s="41"/>
       <c r="H412" s="42"/>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" s="16">
         <v>416</v>
       </c>
@@ -7614,7 +7948,7 @@
       <c r="G413" s="41"/>
       <c r="H413" s="42"/>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" s="16">
         <v>417</v>
       </c>
@@ -7625,7 +7959,7 @@
       <c r="G414" s="41"/>
       <c r="H414" s="42"/>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" s="16">
         <v>418</v>
       </c>
@@ -7636,7 +7970,7 @@
       <c r="G415" s="41"/>
       <c r="H415" s="42"/>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" s="16">
         <v>419</v>
       </c>
@@ -7647,7 +7981,7 @@
       <c r="G416" s="41"/>
       <c r="H416" s="42"/>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B417" s="16">
         <v>420</v>
       </c>
@@ -7658,7 +7992,7 @@
       <c r="G417" s="41"/>
       <c r="H417" s="42"/>
     </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B418" s="16">
         <v>421</v>
       </c>
@@ -7669,7 +8003,7 @@
       <c r="G418" s="41"/>
       <c r="H418" s="42"/>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B419" s="16">
         <v>422</v>
       </c>
@@ -7680,7 +8014,7 @@
       <c r="G419" s="41"/>
       <c r="H419" s="42"/>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B420" s="16">
         <v>423</v>
       </c>
@@ -7691,7 +8025,7 @@
       <c r="G420" s="41"/>
       <c r="H420" s="42"/>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" s="16">
         <v>424</v>
       </c>
@@ -7702,7 +8036,7 @@
       <c r="G421" s="41"/>
       <c r="H421" s="42"/>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" s="16">
         <v>425</v>
       </c>
@@ -7713,7 +8047,7 @@
       <c r="G422" s="41"/>
       <c r="H422" s="42"/>
     </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B423" s="16">
         <v>426</v>
       </c>
@@ -7724,7 +8058,7 @@
       <c r="G423" s="41"/>
       <c r="H423" s="42"/>
     </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" s="16">
         <v>427</v>
       </c>
@@ -7735,7 +8069,7 @@
       <c r="G424" s="41"/>
       <c r="H424" s="42"/>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B425" s="16">
         <v>428</v>
       </c>
@@ -7746,7 +8080,7 @@
       <c r="G425" s="41"/>
       <c r="H425" s="42"/>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B426" s="16">
         <v>429</v>
       </c>
@@ -7757,7 +8091,7 @@
       <c r="G426" s="41"/>
       <c r="H426" s="42"/>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B427" s="16">
         <v>430</v>
       </c>
@@ -7768,7 +8102,7 @@
       <c r="G427" s="41"/>
       <c r="H427" s="42"/>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B428" s="16">
         <v>431</v>
       </c>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A5EE7-48A4-452A-BDF9-7B5A73AC9275}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0959EF1C-5B03-4B73-86C9-95B8EE26A168}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="107">
   <si>
     <t>Task/Function</t>
   </si>
@@ -314,6 +314,33 @@
   </si>
   <si>
     <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>24/01/2019</t>
+  </si>
+  <si>
+    <t>Cumargold</t>
+  </si>
+  <si>
+    <t>Thay đổi lại vị trí mục Bình luận trong project CumarGold</t>
+  </si>
+  <si>
+    <t>Thay đổi số lượng hiển thị mục Bình luận trong project CumarGold</t>
+  </si>
+  <si>
+    <t>Thêm nút "Xem thêm" trong mục Bình luận, mỗi lần chỉ hiển thị 10 bình luận trong project CumarGold</t>
+  </si>
+  <si>
+    <t>Sửa lại Placeholder bị chồng lên khi nhập vào ô nhập ở mục Đặt hàng trong project CumarGold</t>
+  </si>
+  <si>
+    <t>25/01/2019</t>
+  </si>
+  <si>
+    <t>26/01/2019</t>
+  </si>
+  <si>
+    <t>31/01/2019</t>
   </si>
 </sst>
 </file>
@@ -1567,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5645,64 +5672,64 @@
       <c r="B207" s="16">
         <v>210</v>
       </c>
-      <c r="C207" s="24" t="s">
+      <c r="C207" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="D207" s="40" t="s">
+      <c r="D207" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="E207" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F207" s="128">
+      <c r="E207" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="98">
         <v>0.9</v>
       </c>
-      <c r="G207" s="127" t="s">
+      <c r="G207" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="H207" s="42"/>
+      <c r="H207" s="123"/>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="16">
         <v>211</v>
       </c>
-      <c r="C208" s="24" t="s">
+      <c r="C208" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D208" s="40" t="s">
+      <c r="D208" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="E208" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F208" s="60">
+      <c r="E208" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="86">
         <v>1</v>
       </c>
-      <c r="G208" s="127" t="s">
+      <c r="G208" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H208" s="42"/>
+      <c r="H208" s="54"/>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="16">
         <v>212</v>
       </c>
-      <c r="C209" s="24" t="s">
+      <c r="C209" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D209" s="40" t="s">
+      <c r="D209" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="E209" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F209" s="60">
+      <c r="E209" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" s="86">
         <v>1</v>
       </c>
-      <c r="G209" s="127" t="s">
+      <c r="G209" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H209" s="42"/>
+      <c r="H209" s="54"/>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="16">
@@ -5719,221 +5746,381 @@
       <c r="B211" s="16">
         <v>214</v>
       </c>
-      <c r="C211" s="24"/>
-      <c r="D211" s="40"/>
-      <c r="E211" s="41"/>
-      <c r="F211" s="60"/>
-      <c r="G211" s="41"/>
+      <c r="C211" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D211" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E211" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G211" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H211" s="42"/>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="16">
         <v>215</v>
       </c>
-      <c r="C212" s="24"/>
-      <c r="D212" s="40"/>
-      <c r="E212" s="41"/>
-      <c r="F212" s="60"/>
-      <c r="G212" s="41"/>
+      <c r="C212" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D212" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E212" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G212" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H212" s="42"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="16">
         <v>216</v>
       </c>
-      <c r="C213" s="24"/>
-      <c r="D213" s="40"/>
-      <c r="E213" s="41"/>
-      <c r="F213" s="60"/>
-      <c r="G213" s="41"/>
+      <c r="C213" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D213" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E213" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G213" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H213" s="42"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B214" s="16">
         <v>217</v>
       </c>
-      <c r="C214" s="24"/>
-      <c r="D214" s="40"/>
-      <c r="E214" s="41"/>
-      <c r="F214" s="60"/>
-      <c r="G214" s="41"/>
+      <c r="C214" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D214" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E214" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G214" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H214" s="42"/>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="16">
         <v>218</v>
       </c>
-      <c r="C215" s="24"/>
-      <c r="D215" s="40"/>
-      <c r="E215" s="41"/>
-      <c r="F215" s="60"/>
-      <c r="G215" s="41"/>
-      <c r="H215" s="42"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="35"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="35"/>
+      <c r="H215" s="37"/>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="16">
         <v>219</v>
       </c>
-      <c r="C216" s="24"/>
-      <c r="D216" s="40"/>
-      <c r="E216" s="41"/>
-      <c r="F216" s="60"/>
-      <c r="G216" s="41"/>
+      <c r="C216" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D216" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E216" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="G216" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H216" s="42"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="16">
         <v>220</v>
       </c>
-      <c r="C217" s="24"/>
-      <c r="D217" s="40"/>
-      <c r="E217" s="41"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="41"/>
+      <c r="C217" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D217" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E217" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="G217" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H217" s="42"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B218" s="16">
         <v>221</v>
       </c>
-      <c r="C218" s="24"/>
-      <c r="D218" s="40"/>
-      <c r="E218" s="41"/>
-      <c r="F218" s="60"/>
-      <c r="G218" s="41"/>
+      <c r="C218" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D218" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E218" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="G218" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H218" s="42"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="16">
         <v>222</v>
       </c>
-      <c r="C219" s="24"/>
-      <c r="D219" s="40"/>
-      <c r="E219" s="41"/>
-      <c r="F219" s="60"/>
-      <c r="G219" s="41"/>
+      <c r="C219" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D219" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E219" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="G219" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H219" s="42"/>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="16">
         <v>223</v>
       </c>
-      <c r="C220" s="24"/>
-      <c r="D220" s="40"/>
-      <c r="E220" s="41"/>
-      <c r="F220" s="60"/>
-      <c r="G220" s="41"/>
-      <c r="H220" s="42"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="34"/>
+      <c r="E220" s="35"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="35"/>
+      <c r="H220" s="37"/>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="16">
         <v>224</v>
       </c>
-      <c r="C221" s="24"/>
-      <c r="D221" s="40"/>
-      <c r="E221" s="41"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="41"/>
+      <c r="C221" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D221" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E221" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G221" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H221" s="42"/>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="16">
         <v>225</v>
       </c>
-      <c r="C222" s="24"/>
-      <c r="D222" s="40"/>
-      <c r="E222" s="41"/>
-      <c r="F222" s="60"/>
-      <c r="G222" s="41"/>
+      <c r="C222" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D222" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E222" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G222" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H222" s="42"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B223" s="16">
         <v>226</v>
       </c>
-      <c r="C223" s="24"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="41"/>
-      <c r="F223" s="60"/>
-      <c r="G223" s="41"/>
+      <c r="C223" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D223" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E223" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G223" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H223" s="42"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B224" s="16">
         <v>227</v>
       </c>
-      <c r="C224" s="24"/>
-      <c r="D224" s="40"/>
-      <c r="E224" s="41"/>
-      <c r="F224" s="60"/>
-      <c r="G224" s="41"/>
+      <c r="C224" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D224" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E224" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G224" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H224" s="42"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="16">
         <v>228</v>
       </c>
-      <c r="C225" s="24"/>
-      <c r="D225" s="40"/>
-      <c r="E225" s="41"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="41"/>
-      <c r="H225" s="42"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="34"/>
+      <c r="E225" s="35"/>
+      <c r="F225" s="36"/>
+      <c r="G225" s="35"/>
+      <c r="H225" s="37"/>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="16">
         <v>229</v>
       </c>
-      <c r="C226" s="24"/>
-      <c r="D226" s="40"/>
-      <c r="E226" s="41"/>
-      <c r="F226" s="60"/>
-      <c r="G226" s="41"/>
-      <c r="H226" s="42"/>
+      <c r="C226" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D226" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E226" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="86">
+        <v>1</v>
+      </c>
+      <c r="G226" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H226" s="54"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="16">
         <v>230</v>
       </c>
-      <c r="C227" s="24"/>
-      <c r="D227" s="40"/>
-      <c r="E227" s="41"/>
-      <c r="F227" s="60"/>
-      <c r="G227" s="41"/>
-      <c r="H227" s="42"/>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C227" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D227" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E227" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" s="86">
+        <v>1</v>
+      </c>
+      <c r="G227" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H227" s="54"/>
+    </row>
+    <row r="228" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B228" s="16">
         <v>231</v>
       </c>
-      <c r="C228" s="24"/>
-      <c r="D228" s="40"/>
-      <c r="E228" s="41"/>
-      <c r="F228" s="60"/>
-      <c r="G228" s="41"/>
+      <c r="C228" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D228" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E228" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G228" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H228" s="42"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B229" s="16">
         <v>232</v>
       </c>
-      <c r="C229" s="24"/>
-      <c r="D229" s="40"/>
-      <c r="E229" s="41"/>
-      <c r="F229" s="60"/>
-      <c r="G229" s="41"/>
-      <c r="H229" s="42"/>
+      <c r="C229" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D229" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E229" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" s="86">
+        <v>1</v>
+      </c>
+      <c r="G229" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H229" s="54"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="16">
         <v>233</v>
       </c>
-      <c r="C230" s="24"/>
-      <c r="D230" s="40"/>
-      <c r="E230" s="41"/>
-      <c r="F230" s="60"/>
-      <c r="G230" s="41"/>
-      <c r="H230" s="42"/>
+      <c r="C230" s="33"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="35"/>
+      <c r="F230" s="36"/>
+      <c r="G230" s="35"/>
+      <c r="H230" s="37"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="16">

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0959EF1C-5B03-4B73-86C9-95B8EE26A168}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1790940B-A9C6-4B42-96D3-4C4E50335263}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="114">
   <si>
     <t>Task/Function</t>
   </si>
@@ -341,6 +341,27 @@
   </si>
   <si>
     <t>31/01/2019</t>
+  </si>
+  <si>
+    <t>Phần like, share cuối bài =&gt; thiết kế ngay dưới tiêu đề</t>
+  </si>
+  <si>
+    <t>Thêm phần tóm tắt mục lục bài viết, bắt theo thẻ Heading 2</t>
+  </si>
+  <si>
+    <t>Thêm mục cho phần bị thiếu</t>
+  </si>
+  <si>
+    <t>16/02/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bỏ phần Video, thay mục này = Chia sẻ người dùng </t>
+  </si>
+  <si>
+    <t>Cài đặt phần mềm cho Server</t>
+  </si>
+  <si>
+    <t>14/02/2019</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L428"/>
+  <dimension ref="A1:L429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H244" sqref="H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6123,162 +6144,276 @@
       <c r="H230" s="37"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B231" s="16">
+      <c r="B231" s="16"/>
+      <c r="C231" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D231" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E231" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="125">
+        <v>0.6</v>
+      </c>
+      <c r="G231" s="124"/>
+      <c r="H231" s="126"/>
+    </row>
+    <row r="232" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B232" s="16">
         <v>234</v>
       </c>
-      <c r="C231" s="24"/>
-      <c r="D231" s="40"/>
-      <c r="E231" s="41"/>
-      <c r="F231" s="60"/>
-      <c r="G231" s="41"/>
-      <c r="H231" s="42"/>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B232" s="16">
-        <v>235</v>
-      </c>
-      <c r="C232" s="24"/>
-      <c r="D232" s="40"/>
-      <c r="E232" s="41"/>
-      <c r="F232" s="60"/>
-      <c r="G232" s="41"/>
+      <c r="C232" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D232" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E232" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="60">
+        <v>0.65</v>
+      </c>
+      <c r="G232" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H232" s="42"/>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="16">
-        <v>236</v>
-      </c>
-      <c r="C233" s="24"/>
-      <c r="D233" s="40"/>
-      <c r="E233" s="41"/>
-      <c r="F233" s="60"/>
-      <c r="G233" s="41"/>
+        <v>235</v>
+      </c>
+      <c r="C233" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D233" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E233" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="60">
+        <v>0</v>
+      </c>
+      <c r="G233" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H233" s="42"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="16">
-        <v>237</v>
-      </c>
-      <c r="C234" s="24"/>
-      <c r="D234" s="40"/>
-      <c r="E234" s="41"/>
-      <c r="F234" s="60"/>
-      <c r="G234" s="41"/>
+        <v>236</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D234" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E234" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="60">
+        <v>0</v>
+      </c>
+      <c r="G234" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H234" s="42"/>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="16">
-        <v>238</v>
-      </c>
-      <c r="C235" s="24"/>
-      <c r="D235" s="40"/>
-      <c r="E235" s="41"/>
-      <c r="F235" s="60"/>
-      <c r="G235" s="41"/>
+        <v>237</v>
+      </c>
+      <c r="C235" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D235" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E235" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="60">
+        <v>0</v>
+      </c>
+      <c r="G235" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H235" s="42"/>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="16">
-        <v>239</v>
-      </c>
-      <c r="C236" s="24"/>
-      <c r="D236" s="40"/>
-      <c r="E236" s="41"/>
-      <c r="F236" s="60"/>
-      <c r="G236" s="41"/>
+        <v>238</v>
+      </c>
+      <c r="C236" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D236" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E236" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="60">
+        <v>0</v>
+      </c>
+      <c r="G236" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H236" s="42"/>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="16">
-        <v>240</v>
-      </c>
-      <c r="C237" s="24"/>
-      <c r="D237" s="40"/>
-      <c r="E237" s="41"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="41"/>
-      <c r="H237" s="42"/>
+        <v>239</v>
+      </c>
+      <c r="C237" s="33"/>
+      <c r="D237" s="34"/>
+      <c r="E237" s="35"/>
+      <c r="F237" s="36"/>
+      <c r="G237" s="35"/>
+      <c r="H237" s="37"/>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="16">
+        <v>240</v>
+      </c>
+      <c r="C238" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D238" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E238" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="125">
+        <v>0.7</v>
+      </c>
+      <c r="G238" s="124"/>
+      <c r="H238" s="126"/>
+    </row>
+    <row r="239" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B239" s="16">
         <v>241</v>
       </c>
-      <c r="C238" s="24"/>
-      <c r="D238" s="40"/>
-      <c r="E238" s="41"/>
-      <c r="F238" s="60"/>
-      <c r="G238" s="41"/>
-      <c r="H238" s="42"/>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="16">
-        <v>242</v>
-      </c>
-      <c r="C239" s="24"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="41"/>
-      <c r="F239" s="60"/>
-      <c r="G239" s="41"/>
+      <c r="C239" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D239" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E239" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="G239" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H239" s="42"/>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="16">
-        <v>243</v>
-      </c>
-      <c r="C240" s="24"/>
-      <c r="D240" s="40"/>
-      <c r="E240" s="41"/>
-      <c r="F240" s="60"/>
-      <c r="G240" s="41"/>
+        <v>242</v>
+      </c>
+      <c r="C240" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D240" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E240" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="60">
+        <v>0</v>
+      </c>
+      <c r="G240" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H240" s="42"/>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="16">
-        <v>244</v>
-      </c>
-      <c r="C241" s="24"/>
-      <c r="D241" s="40"/>
-      <c r="E241" s="41"/>
-      <c r="F241" s="60"/>
-      <c r="G241" s="41"/>
+        <v>243</v>
+      </c>
+      <c r="C241" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D241" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E241" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="60">
+        <v>0</v>
+      </c>
+      <c r="G241" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H241" s="42"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="16">
-        <v>245</v>
-      </c>
-      <c r="C242" s="24"/>
-      <c r="D242" s="40"/>
-      <c r="E242" s="41"/>
-      <c r="F242" s="60"/>
-      <c r="G242" s="41"/>
+        <v>244</v>
+      </c>
+      <c r="C242" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D242" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E242" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="60">
+        <v>0</v>
+      </c>
+      <c r="G242" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H242" s="42"/>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="16">
-        <v>246</v>
-      </c>
-      <c r="C243" s="24"/>
-      <c r="D243" s="40"/>
-      <c r="E243" s="41"/>
-      <c r="F243" s="60"/>
-      <c r="G243" s="41"/>
+        <v>245</v>
+      </c>
+      <c r="C243" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D243" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E243" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="60">
+        <v>0</v>
+      </c>
+      <c r="G243" s="41" t="s">
+        <v>99</v>
+      </c>
       <c r="H243" s="42"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="16">
-        <v>247</v>
-      </c>
-      <c r="C244" s="24"/>
-      <c r="D244" s="40"/>
-      <c r="E244" s="41"/>
-      <c r="F244" s="60"/>
-      <c r="G244" s="41"/>
-      <c r="H244" s="42"/>
+        <v>246</v>
+      </c>
+      <c r="C244" s="33"/>
+      <c r="D244" s="34"/>
+      <c r="E244" s="35"/>
+      <c r="F244" s="36"/>
+      <c r="G244" s="35"/>
+      <c r="H244" s="37"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="16">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C245" s="24"/>
       <c r="D245" s="40"/>
@@ -6289,7 +6424,7 @@
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="16">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C246" s="24"/>
       <c r="D246" s="40"/>
@@ -6300,7 +6435,7 @@
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="16">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C247" s="24"/>
       <c r="D247" s="40"/>
@@ -6311,7 +6446,7 @@
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="16">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C248" s="24"/>
       <c r="D248" s="40"/>
@@ -6322,7 +6457,7 @@
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="16">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C249" s="24"/>
       <c r="D249" s="40"/>
@@ -6333,7 +6468,7 @@
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="16">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C250" s="24"/>
       <c r="D250" s="40"/>
@@ -6344,7 +6479,7 @@
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="16">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C251" s="24"/>
       <c r="D251" s="40"/>
@@ -6355,7 +6490,7 @@
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="16">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="40"/>
@@ -6366,7 +6501,7 @@
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="16">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C253" s="24"/>
       <c r="D253" s="40"/>
@@ -6377,7 +6512,7 @@
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="16">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C254" s="24"/>
       <c r="D254" s="40"/>
@@ -6388,7 +6523,7 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="16">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C255" s="24"/>
       <c r="D255" s="40"/>
@@ -6399,7 +6534,7 @@
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="16">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C256" s="24"/>
       <c r="D256" s="40"/>
@@ -6410,7 +6545,7 @@
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="16">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C257" s="24"/>
       <c r="D257" s="40"/>
@@ -6421,7 +6556,7 @@
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="16">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C258" s="24"/>
       <c r="D258" s="40"/>
@@ -6432,7 +6567,7 @@
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="16">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C259" s="24"/>
       <c r="D259" s="40"/>
@@ -6443,7 +6578,7 @@
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="16">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="40"/>
@@ -6454,7 +6589,7 @@
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="16">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C261" s="24"/>
       <c r="D261" s="40"/>
@@ -6465,7 +6600,7 @@
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="16">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C262" s="24"/>
       <c r="D262" s="40"/>
@@ -6476,7 +6611,7 @@
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="16">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C263" s="24"/>
       <c r="D263" s="40"/>
@@ -6487,7 +6622,7 @@
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="16">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C264" s="24"/>
       <c r="D264" s="40"/>
@@ -6498,7 +6633,7 @@
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="16">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C265" s="24"/>
       <c r="D265" s="40"/>
@@ -6509,7 +6644,7 @@
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="16">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C266" s="24"/>
       <c r="D266" s="40"/>
@@ -6520,7 +6655,7 @@
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="16">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C267" s="24"/>
       <c r="D267" s="40"/>
@@ -6531,7 +6666,7 @@
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="16">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C268" s="24"/>
       <c r="D268" s="40"/>
@@ -6542,7 +6677,7 @@
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="16">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C269" s="24"/>
       <c r="D269" s="40"/>
@@ -6553,7 +6688,7 @@
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="16">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C270" s="24"/>
       <c r="D270" s="40"/>
@@ -6564,7 +6699,7 @@
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="16">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C271" s="24"/>
       <c r="D271" s="40"/>
@@ -6575,7 +6710,7 @@
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="16">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C272" s="24"/>
       <c r="D272" s="40"/>
@@ -6586,7 +6721,7 @@
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="16">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C273" s="24"/>
       <c r="D273" s="40"/>
@@ -6597,7 +6732,7 @@
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="16">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C274" s="24"/>
       <c r="D274" s="40"/>
@@ -6608,7 +6743,7 @@
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="16">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C275" s="24"/>
       <c r="D275" s="40"/>
@@ -6619,7 +6754,7 @@
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="16">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C276" s="24"/>
       <c r="D276" s="40"/>
@@ -6630,7 +6765,7 @@
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="16">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C277" s="24"/>
       <c r="D277" s="40"/>
@@ -6641,7 +6776,7 @@
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="16">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C278" s="24"/>
       <c r="D278" s="40"/>
@@ -6652,7 +6787,7 @@
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="16">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C279" s="24"/>
       <c r="D279" s="40"/>
@@ -6663,7 +6798,7 @@
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="16">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C280" s="24"/>
       <c r="D280" s="40"/>
@@ -6674,7 +6809,7 @@
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="16">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C281" s="24"/>
       <c r="D281" s="40"/>
@@ -6685,7 +6820,7 @@
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="16">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C282" s="24"/>
       <c r="D282" s="40"/>
@@ -6696,7 +6831,7 @@
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="16">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C283" s="24"/>
       <c r="D283" s="40"/>
@@ -6707,7 +6842,7 @@
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="16">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C284" s="24"/>
       <c r="D284" s="40"/>
@@ -6718,7 +6853,7 @@
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="16">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C285" s="24"/>
       <c r="D285" s="40"/>
@@ -6729,7 +6864,7 @@
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="16">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C286" s="24"/>
       <c r="D286" s="40"/>
@@ -6740,7 +6875,7 @@
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="16">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C287" s="24"/>
       <c r="D287" s="40"/>
@@ -6751,7 +6886,7 @@
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="16">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C288" s="24"/>
       <c r="D288" s="40"/>
@@ -6762,7 +6897,7 @@
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="16">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C289" s="24"/>
       <c r="D289" s="40"/>
@@ -6773,7 +6908,7 @@
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="16">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C290" s="24"/>
       <c r="D290" s="40"/>
@@ -6784,7 +6919,7 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="16">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C291" s="24"/>
       <c r="D291" s="40"/>
@@ -6795,7 +6930,7 @@
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="16">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C292" s="24"/>
       <c r="D292" s="40"/>
@@ -6806,7 +6941,7 @@
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="16">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C293" s="24"/>
       <c r="D293" s="40"/>
@@ -6817,7 +6952,7 @@
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="16">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C294" s="24"/>
       <c r="D294" s="40"/>
@@ -6828,7 +6963,7 @@
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="16">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="40"/>
@@ -6839,7 +6974,7 @@
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="16">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C296" s="24"/>
       <c r="D296" s="40"/>
@@ -6850,7 +6985,7 @@
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="16">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C297" s="24"/>
       <c r="D297" s="40"/>
@@ -6861,7 +6996,7 @@
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="16">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C298" s="24"/>
       <c r="D298" s="40"/>
@@ -6872,7 +7007,7 @@
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="16">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C299" s="24"/>
       <c r="D299" s="40"/>
@@ -6883,7 +7018,7 @@
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="16">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C300" s="24"/>
       <c r="D300" s="40"/>
@@ -6894,7 +7029,7 @@
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="16">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C301" s="24"/>
       <c r="D301" s="40"/>
@@ -6905,7 +7040,7 @@
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="16">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C302" s="24"/>
       <c r="D302" s="40"/>
@@ -6916,7 +7051,7 @@
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="16">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C303" s="24"/>
       <c r="D303" s="40"/>
@@ -6927,7 +7062,7 @@
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="16">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C304" s="24"/>
       <c r="D304" s="40"/>
@@ -6938,7 +7073,7 @@
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="16">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C305" s="24"/>
       <c r="D305" s="40"/>
@@ -6949,7 +7084,7 @@
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="16">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C306" s="24"/>
       <c r="D306" s="40"/>
@@ -6960,7 +7095,7 @@
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="16">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C307" s="24"/>
       <c r="D307" s="40"/>
@@ -6971,7 +7106,7 @@
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="16">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C308" s="24"/>
       <c r="D308" s="40"/>
@@ -6982,7 +7117,7 @@
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="16">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C309" s="24"/>
       <c r="D309" s="40"/>
@@ -6993,7 +7128,7 @@
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="16">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C310" s="24"/>
       <c r="D310" s="40"/>
@@ -7004,7 +7139,7 @@
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="16">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C311" s="24"/>
       <c r="D311" s="40"/>
@@ -7015,7 +7150,7 @@
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="16">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C312" s="24"/>
       <c r="D312" s="40"/>
@@ -7026,7 +7161,7 @@
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="16">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C313" s="24"/>
       <c r="D313" s="40"/>
@@ -7037,7 +7172,7 @@
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="16">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C314" s="24"/>
       <c r="D314" s="40"/>
@@ -7048,7 +7183,7 @@
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="16">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C315" s="24"/>
       <c r="D315" s="40"/>
@@ -7059,7 +7194,7 @@
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="16">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C316" s="24"/>
       <c r="D316" s="40"/>
@@ -7070,7 +7205,7 @@
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="16">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C317" s="24"/>
       <c r="D317" s="40"/>
@@ -7081,7 +7216,7 @@
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="16">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C318" s="24"/>
       <c r="D318" s="40"/>
@@ -7092,7 +7227,7 @@
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="16">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C319" s="24"/>
       <c r="D319" s="40"/>
@@ -7103,7 +7238,7 @@
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="16">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C320" s="24"/>
       <c r="D320" s="40"/>
@@ -7114,7 +7249,7 @@
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="16">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C321" s="24"/>
       <c r="D321" s="40"/>
@@ -7125,7 +7260,7 @@
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="16">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C322" s="24"/>
       <c r="D322" s="40"/>
@@ -7136,7 +7271,7 @@
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="16">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C323" s="24"/>
       <c r="D323" s="40"/>
@@ -7147,7 +7282,7 @@
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="16">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C324" s="24"/>
       <c r="D324" s="40"/>
@@ -7158,7 +7293,7 @@
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="16">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C325" s="24"/>
       <c r="D325" s="40"/>
@@ -7169,7 +7304,7 @@
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="16">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C326" s="24"/>
       <c r="D326" s="40"/>
@@ -7180,7 +7315,7 @@
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="16">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C327" s="24"/>
       <c r="D327" s="40"/>
@@ -7191,7 +7326,7 @@
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="16">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="40"/>
@@ -7202,7 +7337,7 @@
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="16">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C329" s="24"/>
       <c r="D329" s="40"/>
@@ -7213,7 +7348,7 @@
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="16">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C330" s="24"/>
       <c r="D330" s="40"/>
@@ -7224,7 +7359,7 @@
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="16">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C331" s="24"/>
       <c r="D331" s="40"/>
@@ -7235,7 +7370,7 @@
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="16">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="40"/>
@@ -7246,7 +7381,7 @@
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="16">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C333" s="24"/>
       <c r="D333" s="40"/>
@@ -7257,7 +7392,7 @@
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="16">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C334" s="24"/>
       <c r="D334" s="40"/>
@@ -7268,7 +7403,7 @@
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="16">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C335" s="24"/>
       <c r="D335" s="40"/>
@@ -7279,7 +7414,7 @@
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="16">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C336" s="24"/>
       <c r="D336" s="40"/>
@@ -7290,7 +7425,7 @@
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="16">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C337" s="24"/>
       <c r="D337" s="40"/>
@@ -7301,7 +7436,7 @@
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="16">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C338" s="24"/>
       <c r="D338" s="40"/>
@@ -7312,7 +7447,7 @@
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="16">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C339" s="24"/>
       <c r="D339" s="40"/>
@@ -7323,7 +7458,7 @@
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="16">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C340" s="24"/>
       <c r="D340" s="40"/>
@@ -7334,7 +7469,7 @@
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="16">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C341" s="24"/>
       <c r="D341" s="40"/>
@@ -7345,7 +7480,7 @@
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="16">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C342" s="24"/>
       <c r="D342" s="40"/>
@@ -7356,7 +7491,7 @@
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="16">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C343" s="24"/>
       <c r="D343" s="40"/>
@@ -7367,7 +7502,7 @@
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="16">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C344" s="24"/>
       <c r="D344" s="40"/>
@@ -7378,7 +7513,7 @@
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="16">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C345" s="24"/>
       <c r="D345" s="40"/>
@@ -7389,7 +7524,7 @@
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="16">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C346" s="24"/>
       <c r="D346" s="40"/>
@@ -7400,7 +7535,7 @@
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="16">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C347" s="24"/>
       <c r="D347" s="40"/>
@@ -7411,7 +7546,7 @@
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="16">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C348" s="24"/>
       <c r="D348" s="40"/>
@@ -7422,7 +7557,7 @@
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="16">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C349" s="24"/>
       <c r="D349" s="40"/>
@@ -7433,7 +7568,7 @@
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="16">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C350" s="24"/>
       <c r="D350" s="40"/>
@@ -7444,7 +7579,7 @@
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="16">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C351" s="24"/>
       <c r="D351" s="40"/>
@@ -7455,7 +7590,7 @@
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="16">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C352" s="24"/>
       <c r="D352" s="40"/>
@@ -7466,7 +7601,7 @@
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" s="16">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C353" s="24"/>
       <c r="D353" s="40"/>
@@ -7477,7 +7612,7 @@
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" s="16">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C354" s="24"/>
       <c r="D354" s="40"/>
@@ -7488,7 +7623,7 @@
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" s="16">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C355" s="24"/>
       <c r="D355" s="40"/>
@@ -7499,7 +7634,7 @@
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" s="16">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C356" s="24"/>
       <c r="D356" s="40"/>
@@ -7510,7 +7645,7 @@
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" s="16">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C357" s="24"/>
       <c r="D357" s="40"/>
@@ -7521,7 +7656,7 @@
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" s="16">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C358" s="24"/>
       <c r="D358" s="40"/>
@@ -7532,7 +7667,7 @@
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" s="16">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C359" s="24"/>
       <c r="D359" s="40"/>
@@ -7543,7 +7678,7 @@
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" s="16">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C360" s="24"/>
       <c r="D360" s="40"/>
@@ -7554,7 +7689,7 @@
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" s="16">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C361" s="24"/>
       <c r="D361" s="40"/>
@@ -7565,7 +7700,7 @@
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" s="16">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C362" s="24"/>
       <c r="D362" s="40"/>
@@ -7576,7 +7711,7 @@
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" s="16">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C363" s="24"/>
       <c r="D363" s="40"/>
@@ -7587,7 +7722,7 @@
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" s="16">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C364" s="24"/>
       <c r="D364" s="40"/>
@@ -7598,7 +7733,7 @@
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" s="16">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C365" s="24"/>
       <c r="D365" s="40"/>
@@ -7609,7 +7744,7 @@
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" s="16">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C366" s="24"/>
       <c r="D366" s="40"/>
@@ -7620,7 +7755,7 @@
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" s="16">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C367" s="24"/>
       <c r="D367" s="40"/>
@@ -7631,7 +7766,7 @@
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" s="16">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C368" s="24"/>
       <c r="D368" s="40"/>
@@ -7642,7 +7777,7 @@
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B369" s="16">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C369" s="24"/>
       <c r="D369" s="40"/>
@@ -7653,7 +7788,7 @@
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B370" s="16">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C370" s="24"/>
       <c r="D370" s="40"/>
@@ -7664,7 +7799,7 @@
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B371" s="16">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C371" s="24"/>
       <c r="D371" s="40"/>
@@ -7675,7 +7810,7 @@
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B372" s="16">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C372" s="24"/>
       <c r="D372" s="40"/>
@@ -7686,7 +7821,7 @@
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" s="16">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C373" s="24"/>
       <c r="D373" s="40"/>
@@ -7697,7 +7832,7 @@
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" s="16">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C374" s="24"/>
       <c r="D374" s="40"/>
@@ -7708,7 +7843,7 @@
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B375" s="16">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C375" s="24"/>
       <c r="D375" s="40"/>
@@ -7719,7 +7854,7 @@
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" s="16">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C376" s="24"/>
       <c r="D376" s="40"/>
@@ -7730,7 +7865,7 @@
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B377" s="16">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C377" s="24"/>
       <c r="D377" s="40"/>
@@ -7741,7 +7876,7 @@
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B378" s="16">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C378" s="24"/>
       <c r="D378" s="40"/>
@@ -7752,7 +7887,7 @@
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B379" s="16">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C379" s="24"/>
       <c r="D379" s="40"/>
@@ -7763,7 +7898,7 @@
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B380" s="16">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C380" s="24"/>
       <c r="D380" s="40"/>
@@ -7774,7 +7909,7 @@
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B381" s="16">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C381" s="24"/>
       <c r="D381" s="40"/>
@@ -7785,7 +7920,7 @@
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B382" s="16">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C382" s="24"/>
       <c r="D382" s="40"/>
@@ -7796,7 +7931,7 @@
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B383" s="16">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C383" s="24"/>
       <c r="D383" s="40"/>
@@ -7807,7 +7942,7 @@
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B384" s="16">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C384" s="24"/>
       <c r="D384" s="40"/>
@@ -7818,7 +7953,7 @@
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" s="16">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C385" s="24"/>
       <c r="D385" s="40"/>
@@ -7829,7 +7964,7 @@
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" s="16">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C386" s="24"/>
       <c r="D386" s="40"/>
@@ -7840,7 +7975,7 @@
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B387" s="16">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C387" s="24"/>
       <c r="D387" s="40"/>
@@ -7851,7 +7986,7 @@
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" s="16">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C388" s="24"/>
       <c r="D388" s="40"/>
@@ -7862,7 +7997,7 @@
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" s="16">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C389" s="24"/>
       <c r="D389" s="40"/>
@@ -7873,7 +8008,7 @@
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" s="16">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C390" s="24"/>
       <c r="D390" s="40"/>
@@ -7884,7 +8019,7 @@
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" s="16">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C391" s="24"/>
       <c r="D391" s="40"/>
@@ -7895,7 +8030,7 @@
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B392" s="16">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C392" s="24"/>
       <c r="D392" s="40"/>
@@ -7906,7 +8041,7 @@
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B393" s="16">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C393" s="24"/>
       <c r="D393" s="40"/>
@@ -7917,7 +8052,7 @@
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B394" s="16">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C394" s="24"/>
       <c r="D394" s="40"/>
@@ -7928,7 +8063,7 @@
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" s="16">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C395" s="24"/>
       <c r="D395" s="40"/>
@@ -7939,7 +8074,7 @@
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" s="16">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C396" s="24"/>
       <c r="D396" s="40"/>
@@ -7950,7 +8085,7 @@
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B397" s="16">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C397" s="24"/>
       <c r="D397" s="40"/>
@@ -7961,7 +8096,7 @@
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B398" s="16">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C398" s="24"/>
       <c r="D398" s="40"/>
@@ -7972,7 +8107,7 @@
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B399" s="16">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C399" s="24"/>
       <c r="D399" s="40"/>
@@ -7983,7 +8118,7 @@
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" s="16">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C400" s="24"/>
       <c r="D400" s="40"/>
@@ -7994,7 +8129,7 @@
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" s="16">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C401" s="24"/>
       <c r="D401" s="40"/>
@@ -8005,7 +8140,7 @@
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" s="16">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C402" s="24"/>
       <c r="D402" s="40"/>
@@ -8016,7 +8151,7 @@
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" s="16">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C403" s="24"/>
       <c r="D403" s="40"/>
@@ -8027,7 +8162,7 @@
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" s="16">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C404" s="24"/>
       <c r="D404" s="40"/>
@@ -8038,7 +8173,7 @@
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" s="16">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C405" s="24"/>
       <c r="D405" s="40"/>
@@ -8049,7 +8184,7 @@
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" s="16">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C406" s="24"/>
       <c r="D406" s="40"/>
@@ -8060,7 +8195,7 @@
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" s="16">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C407" s="24"/>
       <c r="D407" s="40"/>
@@ -8071,7 +8206,7 @@
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" s="16">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="40"/>
@@ -8082,7 +8217,7 @@
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" s="16">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="40"/>
@@ -8093,7 +8228,7 @@
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" s="16">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="40"/>
@@ -8104,7 +8239,7 @@
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" s="16">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="40"/>
@@ -8115,7 +8250,7 @@
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" s="16">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="40"/>
@@ -8126,7 +8261,7 @@
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" s="16">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="40"/>
@@ -8137,7 +8272,7 @@
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" s="16">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="40"/>
@@ -8148,7 +8283,7 @@
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" s="16">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C415" s="24"/>
       <c r="D415" s="40"/>
@@ -8159,7 +8294,7 @@
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" s="16">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C416" s="24"/>
       <c r="D416" s="40"/>
@@ -8170,7 +8305,7 @@
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B417" s="16">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C417" s="24"/>
       <c r="D417" s="40"/>
@@ -8181,7 +8316,7 @@
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B418" s="16">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C418" s="24"/>
       <c r="D418" s="40"/>
@@ -8192,7 +8327,7 @@
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B419" s="16">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C419" s="24"/>
       <c r="D419" s="40"/>
@@ -8203,7 +8338,7 @@
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B420" s="16">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C420" s="24"/>
       <c r="D420" s="40"/>
@@ -8214,7 +8349,7 @@
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" s="16">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C421" s="24"/>
       <c r="D421" s="40"/>
@@ -8225,7 +8360,7 @@
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" s="16">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C422" s="24"/>
       <c r="D422" s="40"/>
@@ -8236,7 +8371,7 @@
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B423" s="16">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C423" s="24"/>
       <c r="D423" s="40"/>
@@ -8247,7 +8382,7 @@
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" s="16">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C424" s="24"/>
       <c r="D424" s="40"/>
@@ -8258,7 +8393,7 @@
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B425" s="16">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C425" s="24"/>
       <c r="D425" s="40"/>
@@ -8269,7 +8404,7 @@
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B426" s="16">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C426" s="24"/>
       <c r="D426" s="40"/>
@@ -8280,7 +8415,7 @@
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B427" s="16">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C427" s="24"/>
       <c r="D427" s="40"/>
@@ -8291,7 +8426,7 @@
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B428" s="16">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C428" s="24"/>
       <c r="D428" s="40"/>
@@ -8300,6 +8435,17 @@
       <c r="G428" s="41"/>
       <c r="H428" s="42"/>
     </row>
+    <row r="429" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B429" s="16">
+        <v>431</v>
+      </c>
+      <c r="C429" s="24"/>
+      <c r="D429" s="40"/>
+      <c r="E429" s="41"/>
+      <c r="F429" s="60"/>
+      <c r="G429" s="41"/>
+      <c r="H429" s="42"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1790940B-A9C6-4B42-96D3-4C4E50335263}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F26506-42A5-4D0C-9373-DFE33670C190}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="123">
   <si>
     <t>Task/Function</t>
   </si>
@@ -362,6 +362,33 @@
   </si>
   <si>
     <t>14/02/2019</t>
+  </si>
+  <si>
+    <t>Chuyển nội dung Website của khách hàng sang mẫu 4</t>
+  </si>
+  <si>
+    <t>18/02/2019</t>
+  </si>
+  <si>
+    <t>mau4</t>
+  </si>
+  <si>
+    <t>Sửa nội dung web theo yêu cầu khách hàng cho mẫu 4</t>
+  </si>
+  <si>
+    <t>20/02/2019</t>
+  </si>
+  <si>
+    <t>22/02/2019</t>
+  </si>
+  <si>
+    <t>23/02/2019</t>
+  </si>
+  <si>
+    <t>Sửa nội dung web theo yêu cầu khách hàng cho mẫu 3</t>
+  </si>
+  <si>
+    <t>mau 3</t>
   </si>
 </sst>
 </file>
@@ -1613,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I252" sqref="I252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6415,104 +6442,154 @@
       <c r="B245" s="16">
         <v>247</v>
       </c>
-      <c r="C245" s="24"/>
-      <c r="D245" s="40"/>
-      <c r="E245" s="41"/>
-      <c r="F245" s="60"/>
-      <c r="G245" s="41"/>
+      <c r="C245" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D245" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E245" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="G245" s="41" t="s">
+        <v>116</v>
+      </c>
       <c r="H245" s="42"/>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="16">
         <v>248</v>
       </c>
-      <c r="C246" s="24"/>
-      <c r="D246" s="40"/>
-      <c r="E246" s="41"/>
-      <c r="F246" s="60"/>
-      <c r="G246" s="41"/>
-      <c r="H246" s="42"/>
+      <c r="C246" s="33"/>
+      <c r="D246" s="34"/>
+      <c r="E246" s="35"/>
+      <c r="F246" s="36"/>
+      <c r="G246" s="35"/>
+      <c r="H246" s="37"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="16">
         <v>249</v>
       </c>
-      <c r="C247" s="24"/>
-      <c r="D247" s="40"/>
-      <c r="E247" s="41"/>
-      <c r="F247" s="60"/>
-      <c r="G247" s="41"/>
-      <c r="H247" s="42"/>
+      <c r="C247" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D247" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="E247" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="86">
+        <v>1</v>
+      </c>
+      <c r="G247" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H247" s="54"/>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="16">
-        <v>250</v>
-      </c>
-      <c r="C248" s="24"/>
-      <c r="D248" s="40"/>
-      <c r="E248" s="41"/>
-      <c r="F248" s="60"/>
-      <c r="G248" s="41"/>
-      <c r="H248" s="42"/>
+        <v>251</v>
+      </c>
+      <c r="C248" s="33"/>
+      <c r="D248" s="34"/>
+      <c r="E248" s="35"/>
+      <c r="F248" s="36"/>
+      <c r="G248" s="35"/>
+      <c r="H248" s="37"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="16">
-        <v>251</v>
-      </c>
-      <c r="C249" s="24"/>
-      <c r="D249" s="40"/>
-      <c r="E249" s="41"/>
-      <c r="F249" s="60"/>
-      <c r="G249" s="41"/>
+        <v>253</v>
+      </c>
+      <c r="C249" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D249" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E249" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="G249" s="41" t="s">
+        <v>116</v>
+      </c>
       <c r="H249" s="42"/>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="16">
-        <v>252</v>
-      </c>
-      <c r="C250" s="24"/>
-      <c r="D250" s="40"/>
-      <c r="E250" s="41"/>
-      <c r="F250" s="60"/>
-      <c r="G250" s="41"/>
-      <c r="H250" s="42"/>
+        <v>254</v>
+      </c>
+      <c r="C250" s="33"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="35"/>
+      <c r="F250" s="36"/>
+      <c r="G250" s="35"/>
+      <c r="H250" s="37"/>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="16">
-        <v>253</v>
-      </c>
-      <c r="C251" s="24"/>
-      <c r="D251" s="40"/>
-      <c r="E251" s="41"/>
-      <c r="F251" s="60"/>
-      <c r="G251" s="41"/>
+        <v>255</v>
+      </c>
+      <c r="C251" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D251" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E251" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="G251" s="41" t="s">
+        <v>116</v>
+      </c>
       <c r="H251" s="42"/>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="16">
-        <v>254</v>
-      </c>
-      <c r="C252" s="24"/>
-      <c r="D252" s="40"/>
-      <c r="E252" s="41"/>
-      <c r="F252" s="60"/>
-      <c r="G252" s="41"/>
+        <v>256</v>
+      </c>
+      <c r="C252" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D252" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E252" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G252" s="41" t="s">
+        <v>122</v>
+      </c>
       <c r="H252" s="42"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="16">
-        <v>255</v>
-      </c>
-      <c r="C253" s="24"/>
-      <c r="D253" s="40"/>
-      <c r="E253" s="41"/>
-      <c r="F253" s="60"/>
-      <c r="G253" s="41"/>
-      <c r="H253" s="42"/>
+        <v>257</v>
+      </c>
+      <c r="C253" s="33"/>
+      <c r="D253" s="34"/>
+      <c r="E253" s="35"/>
+      <c r="F253" s="36"/>
+      <c r="G253" s="35"/>
+      <c r="H253" s="37"/>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="16">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C254" s="24"/>
       <c r="D254" s="40"/>
@@ -6523,7 +6600,7 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="16">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C255" s="24"/>
       <c r="D255" s="40"/>
@@ -6534,7 +6611,7 @@
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="16">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C256" s="24"/>
       <c r="D256" s="40"/>
@@ -6545,7 +6622,7 @@
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="16">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C257" s="24"/>
       <c r="D257" s="40"/>
@@ -6556,7 +6633,7 @@
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="16">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C258" s="24"/>
       <c r="D258" s="40"/>
@@ -6567,7 +6644,7 @@
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="16">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C259" s="24"/>
       <c r="D259" s="40"/>
@@ -6578,7 +6655,7 @@
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="16">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="40"/>
@@ -6589,7 +6666,7 @@
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="16">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C261" s="24"/>
       <c r="D261" s="40"/>
@@ -6600,7 +6677,7 @@
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="16">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C262" s="24"/>
       <c r="D262" s="40"/>
@@ -6611,7 +6688,7 @@
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="16">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C263" s="24"/>
       <c r="D263" s="40"/>
@@ -6622,7 +6699,7 @@
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="16">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C264" s="24"/>
       <c r="D264" s="40"/>
@@ -6633,7 +6710,7 @@
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="16">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C265" s="24"/>
       <c r="D265" s="40"/>
@@ -6644,7 +6721,7 @@
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="16">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C266" s="24"/>
       <c r="D266" s="40"/>
@@ -6655,7 +6732,7 @@
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="16">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C267" s="24"/>
       <c r="D267" s="40"/>
@@ -6666,7 +6743,7 @@
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="16">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C268" s="24"/>
       <c r="D268" s="40"/>
@@ -6677,7 +6754,7 @@
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="16">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C269" s="24"/>
       <c r="D269" s="40"/>
@@ -6688,7 +6765,7 @@
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="16">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C270" s="24"/>
       <c r="D270" s="40"/>
@@ -6699,7 +6776,7 @@
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="16">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C271" s="24"/>
       <c r="D271" s="40"/>
@@ -6710,7 +6787,7 @@
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="16">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C272" s="24"/>
       <c r="D272" s="40"/>
@@ -6721,7 +6798,7 @@
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="16">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C273" s="24"/>
       <c r="D273" s="40"/>
@@ -6732,7 +6809,7 @@
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="16">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C274" s="24"/>
       <c r="D274" s="40"/>
@@ -6743,7 +6820,7 @@
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="16">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C275" s="24"/>
       <c r="D275" s="40"/>
@@ -6754,7 +6831,7 @@
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="16">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C276" s="24"/>
       <c r="D276" s="40"/>
@@ -6765,7 +6842,7 @@
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="16">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C277" s="24"/>
       <c r="D277" s="40"/>
@@ -6776,7 +6853,7 @@
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="16">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C278" s="24"/>
       <c r="D278" s="40"/>
@@ -6787,7 +6864,7 @@
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="16">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C279" s="24"/>
       <c r="D279" s="40"/>
@@ -6798,7 +6875,7 @@
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="16">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C280" s="24"/>
       <c r="D280" s="40"/>
@@ -6809,7 +6886,7 @@
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="16">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C281" s="24"/>
       <c r="D281" s="40"/>
@@ -6820,7 +6897,7 @@
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="16">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C282" s="24"/>
       <c r="D282" s="40"/>
@@ -6831,7 +6908,7 @@
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="16">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C283" s="24"/>
       <c r="D283" s="40"/>
@@ -6842,7 +6919,7 @@
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="16">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C284" s="24"/>
       <c r="D284" s="40"/>
@@ -6853,7 +6930,7 @@
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="16">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C285" s="24"/>
       <c r="D285" s="40"/>
@@ -6864,7 +6941,7 @@
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="16">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C286" s="24"/>
       <c r="D286" s="40"/>
@@ -6875,7 +6952,7 @@
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="16">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C287" s="24"/>
       <c r="D287" s="40"/>
@@ -6886,7 +6963,7 @@
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="16">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C288" s="24"/>
       <c r="D288" s="40"/>
@@ -6897,7 +6974,7 @@
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="16">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C289" s="24"/>
       <c r="D289" s="40"/>
@@ -6908,7 +6985,7 @@
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="16">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C290" s="24"/>
       <c r="D290" s="40"/>
@@ -6919,7 +6996,7 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="16">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C291" s="24"/>
       <c r="D291" s="40"/>
@@ -6930,7 +7007,7 @@
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="16">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C292" s="24"/>
       <c r="D292" s="40"/>
@@ -6941,7 +7018,7 @@
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="16">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C293" s="24"/>
       <c r="D293" s="40"/>
@@ -6952,7 +7029,7 @@
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="16">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C294" s="24"/>
       <c r="D294" s="40"/>
@@ -6963,7 +7040,7 @@
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="16">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="40"/>
@@ -6974,7 +7051,7 @@
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="16">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C296" s="24"/>
       <c r="D296" s="40"/>
@@ -6985,7 +7062,7 @@
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="16">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C297" s="24"/>
       <c r="D297" s="40"/>
@@ -6996,7 +7073,7 @@
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="16">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C298" s="24"/>
       <c r="D298" s="40"/>
@@ -7007,7 +7084,7 @@
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="16">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C299" s="24"/>
       <c r="D299" s="40"/>
@@ -7018,7 +7095,7 @@
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="16">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C300" s="24"/>
       <c r="D300" s="40"/>
@@ -7029,7 +7106,7 @@
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="16">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C301" s="24"/>
       <c r="D301" s="40"/>
@@ -7040,7 +7117,7 @@
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="16">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C302" s="24"/>
       <c r="D302" s="40"/>
@@ -7051,7 +7128,7 @@
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="16">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C303" s="24"/>
       <c r="D303" s="40"/>
@@ -7062,7 +7139,7 @@
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="16">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C304" s="24"/>
       <c r="D304" s="40"/>
@@ -7073,7 +7150,7 @@
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="16">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C305" s="24"/>
       <c r="D305" s="40"/>
@@ -7084,7 +7161,7 @@
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="16">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C306" s="24"/>
       <c r="D306" s="40"/>
@@ -7095,7 +7172,7 @@
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="16">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C307" s="24"/>
       <c r="D307" s="40"/>
@@ -7106,7 +7183,7 @@
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="16">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C308" s="24"/>
       <c r="D308" s="40"/>
@@ -7117,7 +7194,7 @@
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="16">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C309" s="24"/>
       <c r="D309" s="40"/>
@@ -7128,7 +7205,7 @@
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="16">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C310" s="24"/>
       <c r="D310" s="40"/>
@@ -7139,7 +7216,7 @@
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="16">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C311" s="24"/>
       <c r="D311" s="40"/>
@@ -7150,7 +7227,7 @@
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="16">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C312" s="24"/>
       <c r="D312" s="40"/>
@@ -7161,7 +7238,7 @@
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="16">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C313" s="24"/>
       <c r="D313" s="40"/>
@@ -7172,7 +7249,7 @@
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="16">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C314" s="24"/>
       <c r="D314" s="40"/>
@@ -7183,7 +7260,7 @@
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="16">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C315" s="24"/>
       <c r="D315" s="40"/>
@@ -7194,7 +7271,7 @@
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="16">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C316" s="24"/>
       <c r="D316" s="40"/>
@@ -7205,7 +7282,7 @@
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="16">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C317" s="24"/>
       <c r="D317" s="40"/>
@@ -7216,7 +7293,7 @@
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="16">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C318" s="24"/>
       <c r="D318" s="40"/>
@@ -7227,7 +7304,7 @@
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="16">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C319" s="24"/>
       <c r="D319" s="40"/>
@@ -7238,7 +7315,7 @@
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="16">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C320" s="24"/>
       <c r="D320" s="40"/>
@@ -7249,7 +7326,7 @@
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="16">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C321" s="24"/>
       <c r="D321" s="40"/>
@@ -7260,7 +7337,7 @@
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="16">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C322" s="24"/>
       <c r="D322" s="40"/>
@@ -7271,7 +7348,7 @@
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="16">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C323" s="24"/>
       <c r="D323" s="40"/>
@@ -7282,7 +7359,7 @@
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="16">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C324" s="24"/>
       <c r="D324" s="40"/>
@@ -7293,7 +7370,7 @@
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="16">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C325" s="24"/>
       <c r="D325" s="40"/>
@@ -7304,7 +7381,7 @@
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="16">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C326" s="24"/>
       <c r="D326" s="40"/>
@@ -7315,7 +7392,7 @@
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="16">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C327" s="24"/>
       <c r="D327" s="40"/>
@@ -7326,7 +7403,7 @@
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="16">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="40"/>
@@ -7337,7 +7414,7 @@
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="16">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C329" s="24"/>
       <c r="D329" s="40"/>
@@ -7348,7 +7425,7 @@
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="16">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C330" s="24"/>
       <c r="D330" s="40"/>
@@ -7359,7 +7436,7 @@
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="16">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C331" s="24"/>
       <c r="D331" s="40"/>
@@ -7370,7 +7447,7 @@
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="16">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="40"/>
@@ -7381,7 +7458,7 @@
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="16">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C333" s="24"/>
       <c r="D333" s="40"/>
@@ -7392,7 +7469,7 @@
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="16">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C334" s="24"/>
       <c r="D334" s="40"/>
@@ -7403,7 +7480,7 @@
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="16">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C335" s="24"/>
       <c r="D335" s="40"/>
@@ -7414,7 +7491,7 @@
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="16">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C336" s="24"/>
       <c r="D336" s="40"/>
@@ -7425,7 +7502,7 @@
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="16">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C337" s="24"/>
       <c r="D337" s="40"/>
@@ -7436,7 +7513,7 @@
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="16">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C338" s="24"/>
       <c r="D338" s="40"/>
@@ -7447,7 +7524,7 @@
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="16">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C339" s="24"/>
       <c r="D339" s="40"/>
@@ -7458,7 +7535,7 @@
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="16">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C340" s="24"/>
       <c r="D340" s="40"/>
@@ -7469,7 +7546,7 @@
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="16">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C341" s="24"/>
       <c r="D341" s="40"/>
@@ -7480,7 +7557,7 @@
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="16">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C342" s="24"/>
       <c r="D342" s="40"/>
@@ -7491,7 +7568,7 @@
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="16">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C343" s="24"/>
       <c r="D343" s="40"/>
@@ -7502,7 +7579,7 @@
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="16">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C344" s="24"/>
       <c r="D344" s="40"/>
@@ -7513,7 +7590,7 @@
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="16">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C345" s="24"/>
       <c r="D345" s="40"/>
@@ -7524,7 +7601,7 @@
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="16">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C346" s="24"/>
       <c r="D346" s="40"/>
@@ -7535,7 +7612,7 @@
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="16">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C347" s="24"/>
       <c r="D347" s="40"/>
@@ -7546,7 +7623,7 @@
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="16">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C348" s="24"/>
       <c r="D348" s="40"/>
@@ -7557,7 +7634,7 @@
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="16">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C349" s="24"/>
       <c r="D349" s="40"/>
@@ -7568,7 +7645,7 @@
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="16">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C350" s="24"/>
       <c r="D350" s="40"/>
@@ -7579,7 +7656,7 @@
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="16">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C351" s="24"/>
       <c r="D351" s="40"/>
@@ -7590,7 +7667,7 @@
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="16">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C352" s="24"/>
       <c r="D352" s="40"/>
@@ -7601,7 +7678,7 @@
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" s="16">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C353" s="24"/>
       <c r="D353" s="40"/>
@@ -7612,7 +7689,7 @@
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" s="16">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C354" s="24"/>
       <c r="D354" s="40"/>
@@ -7623,7 +7700,7 @@
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" s="16">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C355" s="24"/>
       <c r="D355" s="40"/>
@@ -7634,7 +7711,7 @@
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" s="16">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C356" s="24"/>
       <c r="D356" s="40"/>
@@ -7645,7 +7722,7 @@
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" s="16">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C357" s="24"/>
       <c r="D357" s="40"/>
@@ -7656,7 +7733,7 @@
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" s="16">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C358" s="24"/>
       <c r="D358" s="40"/>
@@ -7667,7 +7744,7 @@
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" s="16">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C359" s="24"/>
       <c r="D359" s="40"/>
@@ -7678,7 +7755,7 @@
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" s="16">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C360" s="24"/>
       <c r="D360" s="40"/>
@@ -7689,7 +7766,7 @@
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" s="16">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C361" s="24"/>
       <c r="D361" s="40"/>
@@ -7700,7 +7777,7 @@
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" s="16">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C362" s="24"/>
       <c r="D362" s="40"/>
@@ -7711,7 +7788,7 @@
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" s="16">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C363" s="24"/>
       <c r="D363" s="40"/>
@@ -7722,7 +7799,7 @@
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" s="16">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C364" s="24"/>
       <c r="D364" s="40"/>
@@ -7733,7 +7810,7 @@
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" s="16">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C365" s="24"/>
       <c r="D365" s="40"/>
@@ -7744,7 +7821,7 @@
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" s="16">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C366" s="24"/>
       <c r="D366" s="40"/>
@@ -7755,7 +7832,7 @@
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" s="16">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C367" s="24"/>
       <c r="D367" s="40"/>
@@ -7766,7 +7843,7 @@
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" s="16">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C368" s="24"/>
       <c r="D368" s="40"/>
@@ -7777,7 +7854,7 @@
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B369" s="16">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C369" s="24"/>
       <c r="D369" s="40"/>
@@ -7788,7 +7865,7 @@
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B370" s="16">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C370" s="24"/>
       <c r="D370" s="40"/>
@@ -7799,7 +7876,7 @@
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B371" s="16">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C371" s="24"/>
       <c r="D371" s="40"/>
@@ -7810,7 +7887,7 @@
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B372" s="16">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C372" s="24"/>
       <c r="D372" s="40"/>
@@ -7821,7 +7898,7 @@
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" s="16">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C373" s="24"/>
       <c r="D373" s="40"/>
@@ -7832,7 +7909,7 @@
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" s="16">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C374" s="24"/>
       <c r="D374" s="40"/>
@@ -7843,7 +7920,7 @@
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B375" s="16">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C375" s="24"/>
       <c r="D375" s="40"/>
@@ -7854,7 +7931,7 @@
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" s="16">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C376" s="24"/>
       <c r="D376" s="40"/>
@@ -7865,7 +7942,7 @@
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B377" s="16">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C377" s="24"/>
       <c r="D377" s="40"/>
@@ -7876,7 +7953,7 @@
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B378" s="16">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C378" s="24"/>
       <c r="D378" s="40"/>
@@ -7887,7 +7964,7 @@
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B379" s="16">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C379" s="24"/>
       <c r="D379" s="40"/>
@@ -7898,7 +7975,7 @@
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B380" s="16">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C380" s="24"/>
       <c r="D380" s="40"/>
@@ -7909,7 +7986,7 @@
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B381" s="16">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C381" s="24"/>
       <c r="D381" s="40"/>
@@ -7920,7 +7997,7 @@
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B382" s="16">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C382" s="24"/>
       <c r="D382" s="40"/>
@@ -7931,7 +8008,7 @@
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B383" s="16">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C383" s="24"/>
       <c r="D383" s="40"/>
@@ -7942,7 +8019,7 @@
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B384" s="16">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C384" s="24"/>
       <c r="D384" s="40"/>
@@ -7953,7 +8030,7 @@
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" s="16">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C385" s="24"/>
       <c r="D385" s="40"/>
@@ -7964,7 +8041,7 @@
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" s="16">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C386" s="24"/>
       <c r="D386" s="40"/>
@@ -7975,7 +8052,7 @@
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B387" s="16">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C387" s="24"/>
       <c r="D387" s="40"/>
@@ -7986,7 +8063,7 @@
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" s="16">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C388" s="24"/>
       <c r="D388" s="40"/>
@@ -7997,7 +8074,7 @@
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" s="16">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C389" s="24"/>
       <c r="D389" s="40"/>
@@ -8008,7 +8085,7 @@
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" s="16">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C390" s="24"/>
       <c r="D390" s="40"/>
@@ -8019,7 +8096,7 @@
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" s="16">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C391" s="24"/>
       <c r="D391" s="40"/>
@@ -8030,7 +8107,7 @@
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B392" s="16">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C392" s="24"/>
       <c r="D392" s="40"/>
@@ -8041,7 +8118,7 @@
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B393" s="16">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C393" s="24"/>
       <c r="D393" s="40"/>
@@ -8052,7 +8129,7 @@
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B394" s="16">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C394" s="24"/>
       <c r="D394" s="40"/>
@@ -8063,7 +8140,7 @@
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" s="16">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C395" s="24"/>
       <c r="D395" s="40"/>
@@ -8074,7 +8151,7 @@
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" s="16">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C396" s="24"/>
       <c r="D396" s="40"/>
@@ -8085,7 +8162,7 @@
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B397" s="16">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C397" s="24"/>
       <c r="D397" s="40"/>
@@ -8096,7 +8173,7 @@
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B398" s="16">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C398" s="24"/>
       <c r="D398" s="40"/>
@@ -8107,7 +8184,7 @@
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B399" s="16">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C399" s="24"/>
       <c r="D399" s="40"/>
@@ -8118,7 +8195,7 @@
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" s="16">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C400" s="24"/>
       <c r="D400" s="40"/>
@@ -8129,7 +8206,7 @@
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" s="16">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C401" s="24"/>
       <c r="D401" s="40"/>
@@ -8140,7 +8217,7 @@
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" s="16">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C402" s="24"/>
       <c r="D402" s="40"/>
@@ -8151,7 +8228,7 @@
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" s="16">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C403" s="24"/>
       <c r="D403" s="40"/>
@@ -8162,7 +8239,7 @@
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" s="16">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C404" s="24"/>
       <c r="D404" s="40"/>
@@ -8173,7 +8250,7 @@
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" s="16">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C405" s="24"/>
       <c r="D405" s="40"/>
@@ -8184,7 +8261,7 @@
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" s="16">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C406" s="24"/>
       <c r="D406" s="40"/>
@@ -8195,7 +8272,7 @@
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" s="16">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C407" s="24"/>
       <c r="D407" s="40"/>
@@ -8206,7 +8283,7 @@
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" s="16">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="40"/>
@@ -8217,7 +8294,7 @@
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" s="16">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="40"/>
@@ -8228,7 +8305,7 @@
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" s="16">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="40"/>
@@ -8239,7 +8316,7 @@
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" s="16">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="40"/>
@@ -8250,7 +8327,7 @@
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" s="16">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="40"/>
@@ -8261,7 +8338,7 @@
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" s="16">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="40"/>
@@ -8272,7 +8349,7 @@
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" s="16">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="40"/>
@@ -8283,7 +8360,7 @@
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" s="16">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C415" s="24"/>
       <c r="D415" s="40"/>
@@ -8294,7 +8371,7 @@
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" s="16">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C416" s="24"/>
       <c r="D416" s="40"/>
@@ -8305,7 +8382,7 @@
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B417" s="16">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C417" s="24"/>
       <c r="D417" s="40"/>
@@ -8316,7 +8393,7 @@
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B418" s="16">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C418" s="24"/>
       <c r="D418" s="40"/>
@@ -8327,7 +8404,7 @@
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B419" s="16">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C419" s="24"/>
       <c r="D419" s="40"/>
@@ -8338,7 +8415,7 @@
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B420" s="16">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C420" s="24"/>
       <c r="D420" s="40"/>
@@ -8349,7 +8426,7 @@
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" s="16">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C421" s="24"/>
       <c r="D421" s="40"/>
@@ -8360,7 +8437,7 @@
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" s="16">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C422" s="24"/>
       <c r="D422" s="40"/>
@@ -8371,7 +8448,7 @@
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B423" s="16">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C423" s="24"/>
       <c r="D423" s="40"/>
@@ -8382,7 +8459,7 @@
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" s="16">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C424" s="24"/>
       <c r="D424" s="40"/>
@@ -8393,7 +8470,7 @@
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B425" s="16">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C425" s="24"/>
       <c r="D425" s="40"/>
@@ -8404,7 +8481,7 @@
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B426" s="16">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C426" s="24"/>
       <c r="D426" s="40"/>
@@ -8415,7 +8492,7 @@
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B427" s="16">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C427" s="24"/>
       <c r="D427" s="40"/>
@@ -8424,28 +8501,6 @@
       <c r="G427" s="41"/>
       <c r="H427" s="42"/>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B428" s="16">
-        <v>430</v>
-      </c>
-      <c r="C428" s="24"/>
-      <c r="D428" s="40"/>
-      <c r="E428" s="41"/>
-      <c r="F428" s="60"/>
-      <c r="G428" s="41"/>
-      <c r="H428" s="42"/>
-    </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B429" s="16">
-        <v>431</v>
-      </c>
-      <c r="C429" s="24"/>
-      <c r="D429" s="40"/>
-      <c r="E429" s="41"/>
-      <c r="F429" s="60"/>
-      <c r="G429" s="41"/>
-      <c r="H429" s="42"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/DailyReport/DailyReport_CuongNH.xlsx
+++ b/DailyReport/DailyReport_CuongNH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F26506-42A5-4D0C-9373-DFE33670C190}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0ECCC-FBF5-43EB-B5D4-4F3433748D8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="133">
   <si>
     <t>Task/Function</t>
   </si>
@@ -370,9 +370,6 @@
     <t>18/02/2019</t>
   </si>
   <si>
-    <t>mau4</t>
-  </si>
-  <si>
     <t>Sửa nội dung web theo yêu cầu khách hàng cho mẫu 4</t>
   </si>
   <si>
@@ -388,7 +385,40 @@
     <t>Sửa nội dung web theo yêu cầu khách hàng cho mẫu 3</t>
   </si>
   <si>
-    <t>mau 3</t>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 3_1</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 4_1</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 3_2</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 3_3</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 3_4</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 4_2</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 4_3</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 4_4</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 4_5</t>
+  </si>
+  <si>
+    <t>Sửa giao diện và bố cục theo yêu cầu khách hàng cho Mẫu 4_6</t>
+  </si>
+  <si>
+    <t>Mẫu 4</t>
+  </si>
+  <si>
+    <t>Mẫu 3</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I252" sqref="I252"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I264" sqref="I264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,7 +6485,7 @@
         <v>0.5</v>
       </c>
       <c r="G245" s="41" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H245" s="42"/>
     </row>
@@ -6478,7 +6508,7 @@
         <v>114</v>
       </c>
       <c r="D247" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E247" s="52" t="s">
         <v>9</v>
@@ -6486,8 +6516,8 @@
       <c r="F247" s="86">
         <v>1</v>
       </c>
-      <c r="G247" s="52" t="s">
-        <v>116</v>
+      <c r="G247" s="41" t="s">
+        <v>131</v>
       </c>
       <c r="H247" s="54"/>
     </row>
@@ -6507,10 +6537,10 @@
         <v>253</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D249" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E249" s="127" t="s">
         <v>9</v>
@@ -6519,7 +6549,7 @@
         <v>0.8</v>
       </c>
       <c r="G249" s="41" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H249" s="42"/>
     </row>
@@ -6539,10 +6569,10 @@
         <v>255</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E251" s="127" t="s">
         <v>9</v>
@@ -6551,7 +6581,7 @@
         <v>0.8</v>
       </c>
       <c r="G251" s="41" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H251" s="42"/>
     </row>
@@ -6560,10 +6590,10 @@
         <v>256</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E252" s="127" t="s">
         <v>9</v>
@@ -6572,7 +6602,7 @@
         <v>0.2</v>
       </c>
       <c r="G252" s="41" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H252" s="42"/>
     </row>
@@ -6591,122 +6621,212 @@
       <c r="B254" s="16">
         <v>258</v>
       </c>
-      <c r="C254" s="24"/>
-      <c r="D254" s="40"/>
-      <c r="E254" s="41"/>
-      <c r="F254" s="60"/>
-      <c r="G254" s="41"/>
-      <c r="H254" s="42"/>
+      <c r="C254" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D254" s="85">
+        <v>43499</v>
+      </c>
+      <c r="E254" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" s="86">
+        <v>1</v>
+      </c>
+      <c r="G254" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H254" s="54"/>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="16">
         <v>259</v>
       </c>
-      <c r="C255" s="24"/>
-      <c r="D255" s="40"/>
-      <c r="E255" s="41"/>
-      <c r="F255" s="60"/>
-      <c r="G255" s="41"/>
-      <c r="H255" s="42"/>
+      <c r="C255" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D255" s="85">
+        <v>43499</v>
+      </c>
+      <c r="E255" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" s="86">
+        <v>1</v>
+      </c>
+      <c r="G255" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H255" s="54"/>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="16">
         <v>260</v>
       </c>
-      <c r="C256" s="24"/>
-      <c r="D256" s="40"/>
-      <c r="E256" s="41"/>
-      <c r="F256" s="60"/>
-      <c r="G256" s="41"/>
-      <c r="H256" s="42"/>
+      <c r="C256" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D256" s="85">
+        <v>43499</v>
+      </c>
+      <c r="E256" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" s="86">
+        <v>1</v>
+      </c>
+      <c r="G256" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H256" s="54"/>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="16">
         <v>261</v>
       </c>
-      <c r="C257" s="24"/>
-      <c r="D257" s="40"/>
-      <c r="E257" s="41"/>
-      <c r="F257" s="60"/>
-      <c r="G257" s="41"/>
-      <c r="H257" s="42"/>
+      <c r="C257" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D257" s="85">
+        <v>43499</v>
+      </c>
+      <c r="E257" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" s="86">
+        <v>1</v>
+      </c>
+      <c r="G257" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H257" s="54"/>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="16">
         <v>262</v>
       </c>
-      <c r="C258" s="24"/>
-      <c r="D258" s="40"/>
-      <c r="E258" s="41"/>
-      <c r="F258" s="60"/>
-      <c r="G258" s="41"/>
-      <c r="H258" s="42"/>
+      <c r="C258" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D258" s="85">
+        <v>43499</v>
+      </c>
+      <c r="E258" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="86">
+        <v>1</v>
+      </c>
+      <c r="G258" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H258" s="54"/>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="16">
         <v>263</v>
       </c>
-      <c r="C259" s="24"/>
-      <c r="D259" s="40"/>
-      <c r="E259" s="41"/>
+      <c r="C259" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D259" s="40">
+        <v>43499</v>
+      </c>
+      <c r="E259" s="127" t="s">
+        <v>9</v>
+      </c>
       <c r="F259" s="60"/>
-      <c r="G259" s="41"/>
+      <c r="G259" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H259" s="42"/>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="16">
         <v>264</v>
       </c>
-      <c r="C260" s="24"/>
-      <c r="D260" s="40"/>
-      <c r="E260" s="41"/>
+      <c r="C260" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D260" s="40">
+        <v>43499</v>
+      </c>
+      <c r="E260" s="127" t="s">
+        <v>9</v>
+      </c>
       <c r="F260" s="60"/>
-      <c r="G260" s="41"/>
+      <c r="G260" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H260" s="42"/>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="16">
         <v>265</v>
       </c>
-      <c r="C261" s="24"/>
-      <c r="D261" s="40"/>
-      <c r="E261" s="41"/>
+      <c r="C261" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D261" s="40">
+        <v>43499</v>
+      </c>
+      <c r="E261" s="127" t="s">
+        <v>9</v>
+      </c>
       <c r="F261" s="60"/>
-      <c r="G261" s="41"/>
+      <c r="G261" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H261" s="42"/>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="16">
         <v>266</v>
       </c>
-      <c r="C262" s="24"/>
-      <c r="D262" s="40"/>
-      <c r="E262" s="41"/>
+      <c r="C262" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D262" s="40">
+        <v>43499</v>
+      </c>
+      <c r="E262" s="127" t="s">
+        <v>9</v>
+      </c>
       <c r="F262" s="60"/>
-      <c r="G262" s="41"/>
+      <c r="G262" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H262" s="42"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="16">
         <v>267</v>
       </c>
-      <c r="C263" s="24"/>
-      <c r="D263" s="40"/>
-      <c r="E263" s="41"/>
+      <c r="C263" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D263" s="40">
+        <v>43499</v>
+      </c>
+      <c r="E263" s="127" t="s">
+        <v>9</v>
+      </c>
       <c r="F263" s="60"/>
-      <c r="G263" s="41"/>
+      <c r="G263" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="H263" s="42"/>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="16">
         <v>268</v>
       </c>
-      <c r="C264" s="24"/>
-      <c r="D264" s="40"/>
-      <c r="E264" s="41"/>
-      <c r="F264" s="60"/>
-      <c r="G264" s="41"/>
-      <c r="H264" s="42"/>
+      <c r="C264" s="33"/>
+      <c r="D264" s="34"/>
+      <c r="E264" s="35"/>
+      <c r="F264" s="36"/>
+      <c r="G264" s="35"/>
+      <c r="H264" s="37"/>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="16">
